--- a/tests/artifact/script/Mobile-CashMemo.xlsx
+++ b/tests/artifact/script/Mobile-CashMemo.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="878">
   <si>
     <t>target</t>
   </si>
@@ -2578,6 +2578,117 @@
   </si>
   <si>
     <t>click on Ok button to confirm the cash memo creation</t>
+  </si>
+  <si>
+    <t>verify the cash memo create success message</t>
+  </si>
+  <si>
+    <t>${cashmemo.create.success.message}</t>
+  </si>
+  <si>
+    <t>Create Cash Memo Successfull!</t>
+  </si>
+  <si>
+    <t>verify title of created cash memo</t>
+  </si>
+  <si>
+    <t>${cashmemo.created.title}</t>
+  </si>
+  <si>
+    <t>Cash Memo</t>
+  </si>
+  <si>
+    <t>fetch the cashmemo no</t>
+  </si>
+  <si>
+    <t>created.cashmemono</t>
+  </si>
+  <si>
+    <t>${created.cashmemo.no}</t>
+  </si>
+  <si>
+    <t>verify created cashmemo no</t>
+  </si>
+  <si>
+    <t>${created.cashmemono}</t>
+  </si>
+  <si>
+    <t>click on cash memo close button</t>
+  </si>
+  <si>
+    <t>${close.button}</t>
+  </si>
+  <si>
+    <t>click on back button to navigate cashmemo list</t>
+  </si>
+  <si>
+    <t>${back.button}</t>
+  </si>
+  <si>
+    <t>fetch the count of cashmemo list</t>
+  </si>
+  <si>
+    <t>listnum</t>
+  </si>
+  <si>
+    <t>${cashmemo.list}</t>
+  </si>
+  <si>
+    <t>fetch the values fron the list</t>
+  </si>
+  <si>
+    <t>cashmemono</t>
+  </si>
+  <si>
+    <t>initialize the counter variable with zero value</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>repeatuntil to verify the cashmemo</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>compare the counter and list number</t>
+  </si>
+  <si>
+    <t>${counter}</t>
+  </si>
+  <si>
+    <t>${listnum}</t>
+  </si>
+  <si>
+    <t>increment the counter value to iterate the loop</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>fetch the cashmemo no from the list</t>
+  </si>
+  <si>
+    <t>cashmemono.list</t>
+  </si>
+  <si>
+    <t>${cashmemono.xpath.part1}[${counter}]${cashmemono.xpath.part2}</t>
+  </si>
+  <si>
+    <t>verify the created cashmemo is displayed in the list</t>
+  </si>
+  <si>
+    <t>${cashmemono.list}</t>
+  </si>
+  <si>
+    <t>ProceedIf(${cashmemono.list}=${created.cashmemono})</t>
   </si>
   <si>
     <t>Create Purchase Cash Memo from Cash Memo page and fill the fields</t>
@@ -3317,7 +3428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3432,12 +3543,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3508,8 +3622,8 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3521,10 +3635,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6582,7 +6692,7 @@
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
@@ -6732,7 +6842,7 @@
       <c r="E5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="62" t="s">
         <v>749</v>
       </c>
       <c r="G5" s="30"/>
@@ -6747,7 +6857,7 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="15.6" spans="1:15">
       <c r="A6" s="22"/>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="63" t="s">
         <v>750</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -6759,7 +6869,7 @@
       <c r="E6" s="30" t="s">
         <v>751</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="64" t="s">
         <v>752</v>
       </c>
       <c r="G6" s="30"/>
@@ -6774,7 +6884,7 @@
     </row>
     <row r="7" s="4" customFormat="1" ht="42" customHeight="1" spans="1:15">
       <c r="A7" s="22"/>
-      <c r="B7" s="66"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="28"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -7046,7 +7156,7 @@
     </row>
     <row r="23" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="31"/>
-      <c r="B23" s="38"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="33"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -7064,7 +7174,7 @@
     <row r="24" s="1" customFormat="1" ht="24" customHeight="1" spans="2:15">
       <c r="B24" s="23"/>
       <c r="C24" s="33"/>
-      <c r="D24" s="62"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="30"/>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
@@ -7080,7 +7190,7 @@
     <row r="25" s="1" customFormat="1" ht="28" customHeight="1" spans="2:15">
       <c r="B25" s="23"/>
       <c r="C25" s="33"/>
-      <c r="D25" s="62"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="30"/>
       <c r="F25" s="35"/>
       <c r="G25" s="30"/>
@@ -7114,7 +7224,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="33"/>
       <c r="D27" s="30"/>
-      <c r="E27" s="36"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="32"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
@@ -7131,7 +7241,7 @@
       <c r="B28" s="23"/>
       <c r="C28" s="33"/>
       <c r="D28" s="30"/>
-      <c r="E28" s="36"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="35"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
@@ -7148,7 +7258,7 @@
       <c r="B29" s="23"/>
       <c r="C29" s="33"/>
       <c r="D29" s="30"/>
-      <c r="E29" s="36"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="32"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
@@ -7165,7 +7275,7 @@
       <c r="B30" s="23"/>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="36"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="32"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -7180,12 +7290,12 @@
     <row r="31" ht="19" customHeight="1" spans="3:6">
       <c r="C31" s="28"/>
       <c r="D31" s="29"/>
-      <c r="F31" s="67"/>
+      <c r="F31" s="66"/>
     </row>
     <row r="32" ht="19" customHeight="1" spans="3:6">
       <c r="C32" s="28"/>
       <c r="D32" s="29"/>
-      <c r="F32" s="67"/>
+      <c r="F32" s="66"/>
     </row>
     <row r="33" ht="19" customHeight="1" spans="3:6">
       <c r="C33" s="28"/>
@@ -7200,7 +7310,7 @@
     <row r="35" ht="19" customHeight="1" spans="3:6">
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
-      <c r="F35" s="67"/>
+      <c r="F35" s="66"/>
     </row>
     <row r="36" ht="21" customHeight="1" spans="3:4">
       <c r="C36" s="28"/>
@@ -10217,7 +10327,7 @@
     </row>
     <row r="207" ht="23" customHeight="1" spans="1:15">
       <c r="A207" s="31"/>
-      <c r="B207" s="38"/>
+      <c r="B207" s="37"/>
       <c r="C207" s="28"/>
       <c r="D207" s="29"/>
       <c r="E207" s="29"/>
@@ -10234,7 +10344,7 @@
     </row>
     <row r="208" ht="23" customHeight="1" spans="1:15">
       <c r="A208" s="31"/>
-      <c r="B208" s="38"/>
+      <c r="B208" s="37"/>
       <c r="C208" s="28"/>
       <c r="D208" s="29"/>
       <c r="E208" s="29"/>
@@ -10251,7 +10361,7 @@
     </row>
     <row r="209" ht="23" customHeight="1" spans="1:15">
       <c r="A209" s="31"/>
-      <c r="B209" s="38"/>
+      <c r="B209" s="37"/>
       <c r="C209" s="28"/>
       <c r="D209" s="29"/>
       <c r="E209" s="29"/>
@@ -10268,7 +10378,7 @@
     </row>
     <row r="210" ht="23" customHeight="1" spans="1:15">
       <c r="A210" s="31"/>
-      <c r="B210" s="38"/>
+      <c r="B210" s="37"/>
       <c r="C210" s="28"/>
       <c r="D210" s="29"/>
       <c r="E210" s="29"/>
@@ -10285,7 +10395,7 @@
     </row>
     <row r="211" ht="23" customHeight="1" spans="1:15">
       <c r="A211" s="31"/>
-      <c r="B211" s="38"/>
+      <c r="B211" s="37"/>
       <c r="C211" s="28"/>
       <c r="D211" s="29"/>
       <c r="E211" s="29"/>
@@ -10302,7 +10412,7 @@
     </row>
     <row r="212" ht="23" customHeight="1" spans="1:15">
       <c r="A212" s="31"/>
-      <c r="B212" s="38"/>
+      <c r="B212" s="37"/>
       <c r="C212" s="28"/>
       <c r="D212" s="29"/>
       <c r="E212" s="29"/>
@@ -10319,7 +10429,7 @@
     </row>
     <row r="213" ht="23" customHeight="1" spans="1:15">
       <c r="A213" s="31"/>
-      <c r="B213" s="38"/>
+      <c r="B213" s="37"/>
       <c r="C213" s="28"/>
       <c r="D213" s="29"/>
       <c r="E213" s="29"/>
@@ -10336,7 +10446,7 @@
     </row>
     <row r="214" ht="23" customHeight="1" spans="1:15">
       <c r="A214" s="31"/>
-      <c r="B214" s="38"/>
+      <c r="B214" s="37"/>
       <c r="C214" s="28"/>
       <c r="D214" s="29"/>
       <c r="E214" s="29"/>
@@ -10353,7 +10463,7 @@
     </row>
     <row r="215" ht="23" customHeight="1" spans="1:15">
       <c r="A215" s="31"/>
-      <c r="B215" s="38"/>
+      <c r="B215" s="37"/>
       <c r="C215" s="28"/>
       <c r="D215" s="29"/>
       <c r="E215" s="29"/>
@@ -10370,7 +10480,7 @@
     </row>
     <row r="216" ht="23" customHeight="1" spans="1:15">
       <c r="A216" s="31"/>
-      <c r="B216" s="38"/>
+      <c r="B216" s="37"/>
       <c r="C216" s="28"/>
       <c r="D216" s="29"/>
       <c r="E216" s="29"/>
@@ -10387,7 +10497,7 @@
     </row>
     <row r="217" ht="23" customHeight="1" spans="1:15">
       <c r="A217" s="31"/>
-      <c r="B217" s="38"/>
+      <c r="B217" s="37"/>
       <c r="C217" s="28"/>
       <c r="D217" s="29"/>
       <c r="E217" s="29"/>
@@ -10404,7 +10514,7 @@
     </row>
     <row r="218" ht="23" customHeight="1" spans="1:15">
       <c r="A218" s="31"/>
-      <c r="B218" s="38"/>
+      <c r="B218" s="37"/>
       <c r="C218" s="28"/>
       <c r="D218" s="29"/>
       <c r="E218" s="29"/>
@@ -10421,7 +10531,7 @@
     </row>
     <row r="219" ht="23" customHeight="1" spans="1:15">
       <c r="A219" s="31"/>
-      <c r="B219" s="38"/>
+      <c r="B219" s="37"/>
       <c r="C219" s="28"/>
       <c r="D219" s="29"/>
       <c r="E219" s="29"/>
@@ -10438,7 +10548,7 @@
     </row>
     <row r="220" ht="23" customHeight="1" spans="1:15">
       <c r="A220" s="31"/>
-      <c r="B220" s="38"/>
+      <c r="B220" s="37"/>
       <c r="C220" s="28"/>
       <c r="D220" s="29"/>
       <c r="E220" s="29"/>
@@ -10455,7 +10565,7 @@
     </row>
     <row r="221" ht="23" customHeight="1" spans="1:15">
       <c r="A221" s="31"/>
-      <c r="B221" s="38"/>
+      <c r="B221" s="37"/>
       <c r="C221" s="28"/>
       <c r="D221" s="29"/>
       <c r="E221" s="29"/>
@@ -10472,7 +10582,7 @@
     </row>
     <row r="222" ht="23" customHeight="1" spans="1:15">
       <c r="A222" s="31"/>
-      <c r="B222" s="38"/>
+      <c r="B222" s="37"/>
       <c r="C222" s="28"/>
       <c r="D222" s="29"/>
       <c r="E222" s="29"/>
@@ -10489,7 +10599,7 @@
     </row>
     <row r="223" ht="23" customHeight="1" spans="1:15">
       <c r="A223" s="31"/>
-      <c r="B223" s="38"/>
+      <c r="B223" s="37"/>
       <c r="C223" s="28"/>
       <c r="D223" s="29"/>
       <c r="E223" s="29"/>
@@ -10506,7 +10616,7 @@
     </row>
     <row r="224" ht="23" customHeight="1" spans="1:15">
       <c r="A224" s="31"/>
-      <c r="B224" s="38"/>
+      <c r="B224" s="37"/>
       <c r="C224" s="28"/>
       <c r="D224" s="29"/>
       <c r="E224" s="29"/>
@@ -10523,7 +10633,7 @@
     </row>
     <row r="225" ht="23" customHeight="1" spans="1:15">
       <c r="A225" s="31"/>
-      <c r="B225" s="38"/>
+      <c r="B225" s="37"/>
       <c r="C225" s="28"/>
       <c r="D225" s="29"/>
       <c r="E225" s="29"/>
@@ -10650,12 +10760,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P308"/>
+  <dimension ref="A1:P306"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
@@ -10668,7 +10778,7 @@
     <col min="6" max="6" width="42.5333333333333" style="9" customWidth="1"/>
     <col min="7" max="7" width="16.125" style="9" customWidth="1"/>
     <col min="8" max="9" width="9.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="28.6666666666667" style="10" customWidth="1"/>
+    <col min="10" max="10" width="51.2" style="10" customWidth="1"/>
     <col min="11" max="11" width="1.66666666666667" style="11" customWidth="1"/>
     <col min="12" max="12" width="12" style="12" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="13" customWidth="1"/>
@@ -11729,11 +11839,21 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="32"/>
+      <c r="B40" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>839</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>840</v>
+      </c>
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
@@ -11746,11 +11866,21 @@
     </row>
     <row r="41" s="3" customFormat="1" ht="35" customHeight="1" spans="1:15">
       <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="58"/>
+      <c r="B41" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>843</v>
+      </c>
       <c r="G41" s="29"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -11761,47 +11891,77 @@
       <c r="N41" s="4"/>
       <c r="O41" s="25"/>
     </row>
-    <row r="42" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="42" s="3" customFormat="1" ht="35" customHeight="1" spans="1:15">
       <c r="A42" s="22"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="32"/>
+      <c r="B42" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>846</v>
+      </c>
       <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="26"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
       <c r="O42" s="25"/>
     </row>
     <row r="43" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A43" s="31"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="23" t="s">
+        <v>847</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>848</v>
+      </c>
       <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="49"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="26"/>
       <c r="O43" s="25"/>
     </row>
     <row r="44" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="31"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="B44" s="23" t="s">
+        <v>849</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>850</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>752</v>
+      </c>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
@@ -11814,11 +11974,21 @@
     </row>
     <row r="45" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="31"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+      <c r="B45" s="23" t="s">
+        <v>851</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>852</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>752</v>
+      </c>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
@@ -11831,11 +12001,21 @@
     </row>
     <row r="46" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="22"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
+      <c r="B46" s="23" t="s">
+        <v>853</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>854</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>855</v>
+      </c>
       <c r="G46" s="29"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
@@ -11848,11 +12028,21 @@
     </row>
     <row r="47" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
+      <c r="B47" s="23" t="s">
+        <v>856</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>857</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>855</v>
+      </c>
       <c r="G47" s="29"/>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
@@ -11865,11 +12055,21 @@
     </row>
     <row r="48" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
+      <c r="B48" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>859</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>860</v>
+      </c>
       <c r="G48" s="29"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
@@ -11881,46 +12081,76 @@
       <c r="O48" s="25"/>
     </row>
     <row r="49" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="23" t="s">
+        <v>861</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>862</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>863</v>
+      </c>
       <c r="G49" s="29"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="26"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="49"/>
       <c r="O49" s="25"/>
     </row>
     <row r="50" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="37" t="s">
+        <v>864</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>865</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>866</v>
+      </c>
       <c r="G50" s="29"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="26"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="49"/>
       <c r="O50" s="25"/>
     </row>
     <row r="51" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="31"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
+      <c r="B51" s="37" t="s">
+        <v>867</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>868</v>
+      </c>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
@@ -11933,11 +12163,21 @@
     </row>
     <row r="52" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="31"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
+      <c r="B52" s="37" t="s">
+        <v>869</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>870</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>871</v>
+      </c>
       <c r="G52" s="29"/>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
@@ -11950,15 +12190,27 @@
     </row>
     <row r="53" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="31"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
+      <c r="B53" s="37" t="s">
+        <v>872</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>873</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>848</v>
+      </c>
       <c r="G53" s="29"/>
       <c r="H53" s="29"/>
       <c r="I53" s="29"/>
-      <c r="J53" s="48"/>
+      <c r="J53" s="48" t="s">
+        <v>874</v>
+      </c>
       <c r="K53" s="40"/>
       <c r="L53" s="49"/>
       <c r="M53" s="50"/>
@@ -11967,11 +12219,11 @@
     </row>
     <row r="54" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="31"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
+      <c r="F54" s="30"/>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -11984,7 +12236,7 @@
     </row>
     <row r="55" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="31"/>
-      <c r="B55" s="38"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="28"/>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
@@ -12001,7 +12253,7 @@
     </row>
     <row r="56" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="31"/>
-      <c r="B56" s="38"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="33"/>
       <c r="D56" s="30"/>
       <c r="E56" s="30"/>
@@ -12018,7 +12270,7 @@
     </row>
     <row r="57" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="31"/>
-      <c r="B57" s="38"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="28"/>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
@@ -12035,7 +12287,7 @@
     </row>
     <row r="58" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="31"/>
-      <c r="B58" s="38"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="33"/>
       <c r="D58" s="30"/>
       <c r="E58" s="30"/>
@@ -12052,7 +12304,7 @@
     </row>
     <row r="59" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="31"/>
-      <c r="B59" s="38"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="28"/>
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
@@ -12069,7 +12321,7 @@
     </row>
     <row r="60" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A60" s="31"/>
-      <c r="B60" s="38"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="33"/>
       <c r="D60" s="30"/>
       <c r="E60" s="30"/>
@@ -12086,11 +12338,11 @@
     </row>
     <row r="61" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="31"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
+      <c r="F61" s="30"/>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
       <c r="I61" s="29"/>
@@ -12103,11 +12355,11 @@
     </row>
     <row r="62" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="31"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
@@ -12120,11 +12372,11 @@
     </row>
     <row r="63" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="31"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="30"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="29"/>
       <c r="E63" s="29"/>
-      <c r="F63" s="30"/>
+      <c r="F63" s="29"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
       <c r="I63" s="29"/>
@@ -12137,7 +12389,7 @@
     </row>
     <row r="64" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="31"/>
-      <c r="B64" s="38"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="28"/>
       <c r="D64" s="29"/>
       <c r="E64" s="29"/>
@@ -12154,11 +12406,11 @@
     </row>
     <row r="65" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="31"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
       <c r="G65" s="29"/>
       <c r="H65" s="29"/>
       <c r="I65" s="29"/>
@@ -12171,11 +12423,11 @@
     </row>
     <row r="66" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="31"/>
-      <c r="B66" s="38"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="28"/>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
+      <c r="F66" s="14"/>
       <c r="G66" s="29"/>
       <c r="H66" s="29"/>
       <c r="I66" s="29"/>
@@ -12188,11 +12440,11 @@
     </row>
     <row r="67" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="31"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
       <c r="I67" s="29"/>
@@ -12205,7 +12457,7 @@
     </row>
     <row r="68" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="31"/>
-      <c r="B68" s="38"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="28"/>
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
@@ -12222,11 +12474,11 @@
     </row>
     <row r="69" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="31"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
       <c r="I69" s="29"/>
@@ -12239,11 +12491,11 @@
     </row>
     <row r="70" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="31"/>
-      <c r="B70" s="38"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="28"/>
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
-      <c r="F70" s="14"/>
+      <c r="F70" s="30"/>
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
       <c r="I70" s="29"/>
@@ -12256,10 +12508,10 @@
     </row>
     <row r="71" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="31"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
       <c r="F71" s="30"/>
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
@@ -12273,7 +12525,7 @@
     </row>
     <row r="72" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="31"/>
-      <c r="B72" s="38"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="28"/>
       <c r="D72" s="29"/>
       <c r="E72" s="29"/>
@@ -12290,11 +12542,11 @@
     </row>
     <row r="73" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="31"/>
-      <c r="B73" s="38"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="28"/>
       <c r="D73" s="29"/>
       <c r="E73" s="29"/>
-      <c r="F73" s="30"/>
+      <c r="F73" s="29"/>
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
       <c r="I73" s="29"/>
@@ -12307,10 +12559,10 @@
     </row>
     <row r="74" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="31"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
       <c r="F74" s="30"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
@@ -12324,7 +12576,7 @@
     </row>
     <row r="75" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A75" s="31"/>
-      <c r="B75" s="38"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="28"/>
       <c r="D75" s="29"/>
       <c r="E75" s="29"/>
@@ -12341,7 +12593,7 @@
     </row>
     <row r="76" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A76" s="31"/>
-      <c r="B76" s="38"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="33"/>
       <c r="D76" s="30"/>
       <c r="E76" s="30"/>
@@ -12358,7 +12610,7 @@
     </row>
     <row r="77" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="31"/>
-      <c r="B77" s="38"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="28"/>
       <c r="D77" s="29"/>
       <c r="E77" s="29"/>
@@ -12375,7 +12627,7 @@
     </row>
     <row r="78" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A78" s="31"/>
-      <c r="B78" s="38"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="33"/>
       <c r="D78" s="30"/>
       <c r="E78" s="30"/>
@@ -12392,11 +12644,11 @@
     </row>
     <row r="79" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A79" s="31"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="29"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="30"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
+      <c r="F79" s="30"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
       <c r="I79" s="29"/>
@@ -12409,11 +12661,11 @@
     </row>
     <row r="80" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A80" s="31"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
       <c r="I80" s="29"/>
@@ -12426,11 +12678,11 @@
     </row>
     <row r="81" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A81" s="31"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="30"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="29"/>
       <c r="E81" s="29"/>
-      <c r="F81" s="30"/>
+      <c r="F81" s="29"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
@@ -12443,7 +12695,7 @@
     </row>
     <row r="82" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A82" s="31"/>
-      <c r="B82" s="38"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="28"/>
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
@@ -12460,7 +12712,7 @@
     </row>
     <row r="83" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A83" s="31"/>
-      <c r="B83" s="38"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="28"/>
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
@@ -12477,7 +12729,7 @@
     </row>
     <row r="84" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A84" s="31"/>
-      <c r="B84" s="38"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="28"/>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
@@ -12494,7 +12746,7 @@
     </row>
     <row r="85" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A85" s="31"/>
-      <c r="B85" s="38"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="28"/>
       <c r="D85" s="29"/>
       <c r="E85" s="29"/>
@@ -12511,7 +12763,7 @@
     </row>
     <row r="86" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A86" s="31"/>
-      <c r="B86" s="38"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="28"/>
       <c r="D86" s="29"/>
       <c r="E86" s="29"/>
@@ -12528,7 +12780,7 @@
     </row>
     <row r="87" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A87" s="31"/>
-      <c r="B87" s="38"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="28"/>
       <c r="D87" s="29"/>
       <c r="E87" s="29"/>
@@ -12545,7 +12797,7 @@
     </row>
     <row r="88" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A88" s="31"/>
-      <c r="B88" s="38"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="28"/>
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
@@ -12562,7 +12814,7 @@
     </row>
     <row r="89" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A89" s="31"/>
-      <c r="B89" s="38"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="28"/>
       <c r="D89" s="29"/>
       <c r="E89" s="29"/>
@@ -12579,12 +12831,11 @@
     </row>
     <row r="90" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A90" s="31"/>
-      <c r="B90" s="38"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="28"/>
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
       <c r="H90" s="29"/>
       <c r="I90" s="29"/>
       <c r="J90" s="48"/>
@@ -12596,12 +12847,11 @@
     </row>
     <row r="91" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A91" s="31"/>
-      <c r="B91" s="38"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="28"/>
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
       <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
       <c r="H91" s="29"/>
       <c r="I91" s="29"/>
       <c r="J91" s="48"/>
@@ -12613,11 +12863,12 @@
     </row>
     <row r="92" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A92" s="31"/>
-      <c r="B92" s="38"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="28"/>
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
       <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
       <c r="H92" s="29"/>
       <c r="I92" s="29"/>
       <c r="J92" s="48"/>
@@ -12629,11 +12880,12 @@
     </row>
     <row r="93" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A93" s="31"/>
-      <c r="B93" s="38"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="28"/>
       <c r="D93" s="29"/>
       <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="29"/>
       <c r="H93" s="29"/>
       <c r="I93" s="29"/>
       <c r="J93" s="48"/>
@@ -12645,11 +12897,11 @@
     </row>
     <row r="94" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A94" s="31"/>
-      <c r="B94" s="38"/>
+      <c r="B94" s="37"/>
       <c r="C94" s="28"/>
       <c r="D94" s="29"/>
       <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
+      <c r="F94" s="30"/>
       <c r="G94" s="29"/>
       <c r="H94" s="29"/>
       <c r="I94" s="29"/>
@@ -12662,7 +12914,7 @@
     </row>
     <row r="95" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A95" s="31"/>
-      <c r="B95" s="38"/>
+      <c r="B95" s="37"/>
       <c r="C95" s="28"/>
       <c r="D95" s="29"/>
       <c r="E95" s="29"/>
@@ -12679,11 +12931,11 @@
     </row>
     <row r="96" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A96" s="31"/>
-      <c r="B96" s="38"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="28"/>
       <c r="D96" s="29"/>
       <c r="E96" s="29"/>
-      <c r="F96" s="30"/>
+      <c r="F96" s="29"/>
       <c r="G96" s="29"/>
       <c r="H96" s="29"/>
       <c r="I96" s="29"/>
@@ -12696,10 +12948,10 @@
     </row>
     <row r="97" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A97" s="31"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
       <c r="F97" s="30"/>
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>
@@ -12713,11 +12965,11 @@
     </row>
     <row r="98" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A98" s="31"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="29"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="30"/>
       <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
+      <c r="F98" s="30"/>
       <c r="G98" s="29"/>
       <c r="H98" s="29"/>
       <c r="I98" s="29"/>
@@ -12730,11 +12982,11 @@
     </row>
     <row r="99" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A99" s="31"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
       <c r="G99" s="29"/>
       <c r="H99" s="29"/>
       <c r="I99" s="29"/>
@@ -12747,11 +12999,11 @@
     </row>
     <row r="100" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A100" s="31"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="30"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="29"/>
       <c r="E100" s="29"/>
-      <c r="F100" s="30"/>
+      <c r="F100" s="29"/>
       <c r="G100" s="29"/>
       <c r="H100" s="29"/>
       <c r="I100" s="29"/>
@@ -12764,7 +13016,7 @@
     </row>
     <row r="101" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A101" s="31"/>
-      <c r="B101" s="38"/>
+      <c r="B101" s="37"/>
       <c r="C101" s="28"/>
       <c r="D101" s="29"/>
       <c r="E101" s="29"/>
@@ -12781,7 +13033,7 @@
     </row>
     <row r="102" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A102" s="31"/>
-      <c r="B102" s="38"/>
+      <c r="B102" s="37"/>
       <c r="C102" s="28"/>
       <c r="D102" s="29"/>
       <c r="E102" s="29"/>
@@ -12798,7 +13050,7 @@
     </row>
     <row r="103" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A103" s="31"/>
-      <c r="B103" s="38"/>
+      <c r="B103" s="37"/>
       <c r="C103" s="28"/>
       <c r="D103" s="29"/>
       <c r="E103" s="29"/>
@@ -12815,7 +13067,7 @@
     </row>
     <row r="104" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A104" s="31"/>
-      <c r="B104" s="38"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="28"/>
       <c r="D104" s="29"/>
       <c r="E104" s="29"/>
@@ -12832,11 +13084,11 @@
     </row>
     <row r="105" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A105" s="31"/>
-      <c r="B105" s="38"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="28"/>
       <c r="D105" s="29"/>
       <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
+      <c r="F105" s="30"/>
       <c r="G105" s="29"/>
       <c r="H105" s="29"/>
       <c r="I105" s="29"/>
@@ -12849,11 +13101,11 @@
     </row>
     <row r="106" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A106" s="31"/>
-      <c r="B106" s="38"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="28"/>
       <c r="D106" s="29"/>
       <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
+      <c r="F106" s="30"/>
       <c r="G106" s="29"/>
       <c r="H106" s="29"/>
       <c r="I106" s="29"/>
@@ -12866,7 +13118,7 @@
     </row>
     <row r="107" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A107" s="31"/>
-      <c r="B107" s="38"/>
+      <c r="B107" s="37"/>
       <c r="C107" s="28"/>
       <c r="D107" s="29"/>
       <c r="E107" s="29"/>
@@ -12883,11 +13135,11 @@
     </row>
     <row r="108" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A108" s="31"/>
-      <c r="B108" s="38"/>
+      <c r="B108" s="37"/>
       <c r="C108" s="28"/>
       <c r="D108" s="29"/>
       <c r="E108" s="29"/>
-      <c r="F108" s="30"/>
+      <c r="F108" s="29"/>
       <c r="G108" s="29"/>
       <c r="H108" s="29"/>
       <c r="I108" s="29"/>
@@ -12900,10 +13152,10 @@
     </row>
     <row r="109" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A109" s="31"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
       <c r="F109" s="30"/>
       <c r="G109" s="29"/>
       <c r="H109" s="29"/>
@@ -12916,72 +13168,52 @@
       <c r="O109" s="25"/>
     </row>
     <row r="110" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A110" s="31"/>
-      <c r="B110" s="38"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="28"/>
       <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
+      <c r="E110" s="58"/>
       <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
-      <c r="H110" s="29"/>
-      <c r="I110" s="29"/>
-      <c r="J110" s="48"/>
-      <c r="K110" s="40"/>
-      <c r="L110" s="49"/>
-      <c r="M110" s="50"/>
-      <c r="N110" s="49"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="35"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="24"/>
+      <c r="N110" s="26"/>
       <c r="O110" s="25"/>
     </row>
     <row r="111" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A111" s="31"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="29"/>
-      <c r="J111" s="48"/>
-      <c r="K111" s="40"/>
-      <c r="L111" s="49"/>
-      <c r="M111" s="50"/>
-      <c r="N111" s="49"/>
+      <c r="A111" s="22"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="58"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="35"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="26"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="26"/>
       <c r="O111" s="25"/>
     </row>
-    <row r="112" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A112" s="22"/>
+    <row r="112" ht="19" customHeight="1" spans="2:6">
       <c r="B112" s="23"/>
       <c r="C112" s="28"/>
       <c r="D112" s="29"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="30"/>
-      <c r="I112" s="30"/>
-      <c r="J112" s="35"/>
-      <c r="K112" s="25"/>
-      <c r="L112" s="26"/>
-      <c r="M112" s="24"/>
-      <c r="N112" s="26"/>
-      <c r="O112" s="25"/>
-    </row>
-    <row r="113" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A113" s="22"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="32"/>
+    </row>
+    <row r="113" ht="19" customHeight="1" spans="2:6">
       <c r="B113" s="23"/>
       <c r="C113" s="28"/>
       <c r="D113" s="29"/>
-      <c r="E113" s="36"/>
+      <c r="E113" s="29"/>
       <c r="F113" s="32"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="35"/>
-      <c r="K113" s="25"/>
-      <c r="L113" s="26"/>
-      <c r="M113" s="24"/>
-      <c r="N113" s="26"/>
-      <c r="O113" s="25"/>
     </row>
     <row r="114" ht="19" customHeight="1" spans="2:6">
       <c r="B114" s="23"/>
@@ -12990,27 +13222,27 @@
       <c r="E114" s="29"/>
       <c r="F114" s="32"/>
     </row>
-    <row r="115" ht="19" customHeight="1" spans="2:6">
+    <row r="115" ht="43" customHeight="1" spans="1:6">
+      <c r="A115" s="22"/>
       <c r="B115" s="23"/>
       <c r="C115" s="28"/>
       <c r="D115" s="29"/>
       <c r="E115" s="29"/>
       <c r="F115" s="32"/>
     </row>
-    <row r="116" ht="19" customHeight="1" spans="2:6">
+    <row r="116" ht="21" customHeight="1" spans="2:6">
       <c r="B116" s="23"/>
       <c r="C116" s="28"/>
       <c r="D116" s="29"/>
       <c r="E116" s="29"/>
       <c r="F116" s="32"/>
     </row>
-    <row r="117" ht="43" customHeight="1" spans="1:6">
-      <c r="A117" s="22"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="32"/>
+    <row r="117" ht="21" customHeight="1" spans="2:6">
+      <c r="B117" s="59"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="35"/>
     </row>
     <row r="118" ht="21" customHeight="1" spans="2:6">
       <c r="B118" s="23"/>
@@ -13020,51 +13252,71 @@
       <c r="F118" s="32"/>
     </row>
     <row r="119" ht="21" customHeight="1" spans="2:6">
-      <c r="B119" s="59"/>
+      <c r="B119" s="23"/>
       <c r="C119" s="33"/>
       <c r="D119" s="30"/>
       <c r="E119" s="30"/>
-      <c r="F119" s="35"/>
-    </row>
-    <row r="120" ht="21" customHeight="1" spans="2:6">
+      <c r="F119" s="30"/>
+    </row>
+    <row r="120" ht="22" customHeight="1" spans="2:6">
       <c r="B120" s="23"/>
       <c r="C120" s="28"/>
       <c r="D120" s="29"/>
       <c r="E120" s="29"/>
       <c r="F120" s="32"/>
     </row>
-    <row r="121" ht="21" customHeight="1" spans="2:6">
+    <row r="121" customFormat="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A121" s="6"/>
       <c r="B121" s="23"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
-    </row>
-    <row r="122" ht="22" customHeight="1" spans="2:6">
+      <c r="C121" s="28"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="13"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="11"/>
+    </row>
+    <row r="122" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="A122" s="31"/>
       <c r="B122" s="23"/>
       <c r="C122" s="28"/>
       <c r="D122" s="29"/>
       <c r="E122" s="29"/>
       <c r="F122" s="32"/>
-    </row>
-    <row r="123" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A123" s="6"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="40"/>
+      <c r="L122" s="49"/>
+      <c r="M122" s="50"/>
+      <c r="N122" s="49"/>
+      <c r="O122" s="40"/>
+    </row>
+    <row r="123" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="A123" s="31"/>
       <c r="B123" s="23"/>
       <c r="C123" s="28"/>
       <c r="D123" s="29"/>
       <c r="E123" s="29"/>
       <c r="F123" s="32"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="10"/>
-      <c r="K123" s="11"/>
-      <c r="L123" s="12"/>
-      <c r="M123" s="13"/>
-      <c r="N123" s="12"/>
-      <c r="O123" s="11"/>
-    </row>
-    <row r="124" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
+      <c r="J123" s="48"/>
+      <c r="K123" s="40"/>
+      <c r="L123" s="49"/>
+      <c r="M123" s="50"/>
+      <c r="N123" s="49"/>
+      <c r="O123" s="40"/>
+    </row>
+    <row r="124" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A124" s="31"/>
       <c r="B124" s="23"/>
       <c r="C124" s="28"/>
@@ -13081,7 +13333,7 @@
       <c r="N124" s="49"/>
       <c r="O124" s="40"/>
     </row>
-    <row r="125" customFormat="1" ht="19" customHeight="1" spans="1:15">
+    <row r="125" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A125" s="31"/>
       <c r="B125" s="23"/>
       <c r="C125" s="28"/>
@@ -13098,73 +13350,75 @@
       <c r="N125" s="49"/>
       <c r="O125" s="40"/>
     </row>
-    <row r="126" customFormat="1" ht="29" customHeight="1" spans="1:15">
-      <c r="A126" s="31"/>
+    <row r="126" s="5" customFormat="1" ht="38" customHeight="1" spans="1:15">
+      <c r="A126" s="22"/>
       <c r="B126" s="23"/>
       <c r="C126" s="28"/>
       <c r="D126" s="29"/>
       <c r="E126" s="29"/>
       <c r="F126" s="32"/>
-      <c r="G126" s="29"/>
-      <c r="H126" s="29"/>
-      <c r="I126" s="29"/>
-      <c r="J126" s="48"/>
-      <c r="K126" s="40"/>
-      <c r="L126" s="49"/>
-      <c r="M126" s="50"/>
-      <c r="N126" s="49"/>
-      <c r="O126" s="40"/>
-    </row>
-    <row r="127" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A127" s="31"/>
+      <c r="G126" s="60"/>
+      <c r="H126" s="60"/>
+      <c r="I126" s="60"/>
+      <c r="J126" s="61"/>
+      <c r="K126" s="53"/>
+      <c r="L126" s="51"/>
+      <c r="M126" s="52"/>
+      <c r="N126" s="51"/>
+      <c r="O126" s="53"/>
+    </row>
+    <row r="127" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A127" s="22"/>
       <c r="B127" s="23"/>
       <c r="C127" s="28"/>
       <c r="D127" s="29"/>
       <c r="E127" s="29"/>
       <c r="F127" s="32"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="29"/>
-      <c r="I127" s="29"/>
-      <c r="J127" s="48"/>
-      <c r="K127" s="40"/>
-      <c r="L127" s="49"/>
-      <c r="M127" s="50"/>
-      <c r="N127" s="49"/>
-      <c r="O127" s="40"/>
-    </row>
-    <row r="128" s="5" customFormat="1" ht="38" customHeight="1" spans="1:15">
-      <c r="A128" s="22"/>
+      <c r="G127" s="60"/>
+      <c r="H127" s="60"/>
+      <c r="I127" s="60"/>
+      <c r="J127" s="61"/>
+      <c r="K127" s="53"/>
+      <c r="L127" s="51"/>
+      <c r="M127" s="52"/>
+      <c r="N127" s="51"/>
+      <c r="O127" s="53"/>
+    </row>
+    <row r="128" s="1" customFormat="1" ht="23" customHeight="1" spans="1:16">
+      <c r="A128" s="31"/>
       <c r="B128" s="23"/>
       <c r="C128" s="28"/>
       <c r="D128" s="29"/>
       <c r="E128" s="29"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="60"/>
-      <c r="H128" s="60"/>
-      <c r="I128" s="60"/>
-      <c r="J128" s="61"/>
-      <c r="K128" s="53"/>
-      <c r="L128" s="51"/>
-      <c r="M128" s="52"/>
-      <c r="N128" s="51"/>
-      <c r="O128" s="53"/>
-    </row>
-    <row r="129" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A129" s="22"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="48"/>
+      <c r="K128" s="31"/>
+      <c r="L128" s="23"/>
+      <c r="M128" s="28"/>
+      <c r="N128" s="29"/>
+      <c r="O128" s="29"/>
+      <c r="P128" s="29"/>
+    </row>
+    <row r="129" s="1" customFormat="1" ht="23" customHeight="1" spans="1:16">
+      <c r="A129" s="31"/>
       <c r="B129" s="23"/>
       <c r="C129" s="28"/>
       <c r="D129" s="29"/>
       <c r="E129" s="29"/>
-      <c r="F129" s="32"/>
-      <c r="G129" s="60"/>
-      <c r="H129" s="60"/>
-      <c r="I129" s="60"/>
-      <c r="J129" s="61"/>
-      <c r="K129" s="53"/>
-      <c r="L129" s="51"/>
-      <c r="M129" s="52"/>
-      <c r="N129" s="51"/>
-      <c r="O129" s="53"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="48"/>
+      <c r="K129" s="31"/>
+      <c r="L129" s="23"/>
+      <c r="M129" s="28"/>
+      <c r="N129" s="29"/>
+      <c r="O129" s="29"/>
+      <c r="P129" s="29"/>
     </row>
     <row r="130" s="1" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A130" s="31"/>
@@ -13184,7 +13438,7 @@
       <c r="O130" s="29"/>
       <c r="P130" s="29"/>
     </row>
-    <row r="131" s="1" customFormat="1" ht="23" customHeight="1" spans="1:16">
+    <row r="131" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A131" s="31"/>
       <c r="B131" s="23"/>
       <c r="C131" s="28"/>
@@ -13202,13 +13456,13 @@
       <c r="O131" s="29"/>
       <c r="P131" s="29"/>
     </row>
-    <row r="132" s="1" customFormat="1" ht="23" customHeight="1" spans="1:16">
+    <row r="132" ht="23" customHeight="1" spans="1:16">
       <c r="A132" s="31"/>
       <c r="B132" s="23"/>
       <c r="C132" s="28"/>
       <c r="D132" s="29"/>
       <c r="E132" s="29"/>
-      <c r="F132" s="29"/>
+      <c r="F132" s="32"/>
       <c r="G132" s="29"/>
       <c r="H132" s="29"/>
       <c r="I132" s="29"/>
@@ -13220,13 +13474,13 @@
       <c r="O132" s="29"/>
       <c r="P132" s="29"/>
     </row>
-    <row r="133" customFormat="1" ht="23" customHeight="1" spans="1:16">
+    <row r="133" ht="23" customHeight="1" spans="1:16">
       <c r="A133" s="31"/>
       <c r="B133" s="23"/>
       <c r="C133" s="28"/>
       <c r="D133" s="29"/>
       <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
+      <c r="F133" s="32"/>
       <c r="G133" s="29"/>
       <c r="H133" s="29"/>
       <c r="I133" s="29"/>
@@ -13258,11 +13512,11 @@
     </row>
     <row r="135" ht="23" customHeight="1" spans="1:16">
       <c r="A135" s="31"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="32"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="35"/>
       <c r="G135" s="29"/>
       <c r="H135" s="29"/>
       <c r="I135" s="29"/>
@@ -13274,13 +13528,13 @@
       <c r="O135" s="29"/>
       <c r="P135" s="29"/>
     </row>
-    <row r="136" ht="23" customHeight="1" spans="1:16">
+    <row r="136" ht="32" customHeight="1" spans="1:16">
       <c r="A136" s="31"/>
       <c r="B136" s="23"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="32"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="38"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="29"/>
       <c r="G136" s="29"/>
       <c r="H136" s="29"/>
       <c r="I136" s="29"/>
@@ -13292,11 +13546,11 @@
       <c r="O136" s="29"/>
       <c r="P136" s="29"/>
     </row>
-    <row r="137" ht="23" customHeight="1" spans="1:16">
+    <row r="137" ht="34" customHeight="1" spans="1:16">
       <c r="A137" s="31"/>
-      <c r="B137" s="38"/>
+      <c r="B137" s="23"/>
       <c r="C137" s="33"/>
-      <c r="D137" s="30"/>
+      <c r="D137" s="38"/>
       <c r="E137" s="30"/>
       <c r="F137" s="35"/>
       <c r="G137" s="29"/>
@@ -13310,13 +13564,13 @@
       <c r="O137" s="29"/>
       <c r="P137" s="29"/>
     </row>
-    <row r="138" ht="32" customHeight="1" spans="1:16">
+    <row r="138" ht="34" customHeight="1" spans="1:16">
       <c r="A138" s="31"/>
       <c r="B138" s="23"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="62"/>
-      <c r="E138" s="30"/>
-      <c r="F138" s="29"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="32"/>
       <c r="G138" s="29"/>
       <c r="H138" s="29"/>
       <c r="I138" s="29"/>
@@ -13332,9 +13586,9 @@
       <c r="A139" s="31"/>
       <c r="B139" s="23"/>
       <c r="C139" s="33"/>
-      <c r="D139" s="62"/>
-      <c r="E139" s="30"/>
-      <c r="F139" s="35"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="58"/>
+      <c r="F139" s="32"/>
       <c r="G139" s="29"/>
       <c r="H139" s="29"/>
       <c r="I139" s="29"/>
@@ -13349,10 +13603,10 @@
     <row r="140" ht="34" customHeight="1" spans="1:16">
       <c r="A140" s="31"/>
       <c r="B140" s="23"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="32"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="58"/>
+      <c r="F140" s="35"/>
       <c r="G140" s="29"/>
       <c r="H140" s="29"/>
       <c r="I140" s="29"/>
@@ -13369,7 +13623,7 @@
       <c r="B141" s="23"/>
       <c r="C141" s="33"/>
       <c r="D141" s="30"/>
-      <c r="E141" s="36"/>
+      <c r="E141" s="58"/>
       <c r="F141" s="32"/>
       <c r="G141" s="29"/>
       <c r="H141" s="29"/>
@@ -13385,10 +13639,10 @@
     <row r="142" ht="34" customHeight="1" spans="1:16">
       <c r="A142" s="31"/>
       <c r="B142" s="23"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="30"/>
-      <c r="E142" s="36"/>
-      <c r="F142" s="35"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="58"/>
+      <c r="F142" s="32"/>
       <c r="G142" s="29"/>
       <c r="H142" s="29"/>
       <c r="I142" s="29"/>
@@ -13400,13 +13654,13 @@
       <c r="O142" s="29"/>
       <c r="P142" s="29"/>
     </row>
-    <row r="143" ht="34" customHeight="1" spans="1:16">
+    <row r="143" ht="23" customHeight="1" spans="1:16">
       <c r="A143" s="31"/>
       <c r="B143" s="23"/>
-      <c r="C143" s="33"/>
-      <c r="D143" s="30"/>
-      <c r="E143" s="36"/>
-      <c r="F143" s="32"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="58"/>
+      <c r="F143" s="29"/>
       <c r="G143" s="29"/>
       <c r="H143" s="29"/>
       <c r="I143" s="29"/>
@@ -13418,12 +13672,12 @@
       <c r="O143" s="29"/>
       <c r="P143" s="29"/>
     </row>
-    <row r="144" ht="34" customHeight="1" spans="1:16">
+    <row r="144" s="1" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A144" s="31"/>
       <c r="B144" s="23"/>
       <c r="C144" s="28"/>
       <c r="D144" s="29"/>
-      <c r="E144" s="36"/>
+      <c r="E144" s="58"/>
       <c r="F144" s="32"/>
       <c r="G144" s="29"/>
       <c r="H144" s="29"/>
@@ -13436,13 +13690,13 @@
       <c r="O144" s="29"/>
       <c r="P144" s="29"/>
     </row>
-    <row r="145" ht="23" customHeight="1" spans="1:16">
+    <row r="145" s="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A145" s="31"/>
       <c r="B145" s="23"/>
       <c r="C145" s="28"/>
       <c r="D145" s="29"/>
-      <c r="E145" s="36"/>
-      <c r="F145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="32"/>
       <c r="G145" s="29"/>
       <c r="H145" s="29"/>
       <c r="I145" s="29"/>
@@ -13454,12 +13708,12 @@
       <c r="O145" s="29"/>
       <c r="P145" s="29"/>
     </row>
-    <row r="146" s="1" customFormat="1" ht="23" customHeight="1" spans="1:16">
+    <row r="146" s="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A146" s="31"/>
       <c r="B146" s="23"/>
       <c r="C146" s="28"/>
       <c r="D146" s="29"/>
-      <c r="E146" s="36"/>
+      <c r="E146" s="29"/>
       <c r="F146" s="32"/>
       <c r="G146" s="29"/>
       <c r="H146" s="29"/>
@@ -13472,7 +13726,7 @@
       <c r="O146" s="29"/>
       <c r="P146" s="29"/>
     </row>
-    <row r="147" s="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
+    <row r="147" ht="23" customHeight="1" spans="1:16">
       <c r="A147" s="31"/>
       <c r="B147" s="23"/>
       <c r="C147" s="28"/>
@@ -13490,13 +13744,13 @@
       <c r="O147" s="29"/>
       <c r="P147" s="29"/>
     </row>
-    <row r="148" s="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
+    <row r="148" ht="23" customHeight="1" spans="1:16">
       <c r="A148" s="31"/>
       <c r="B148" s="23"/>
       <c r="C148" s="28"/>
       <c r="D148" s="29"/>
       <c r="E148" s="29"/>
-      <c r="F148" s="32"/>
+      <c r="F148" s="29"/>
       <c r="G148" s="29"/>
       <c r="H148" s="29"/>
       <c r="I148" s="29"/>
@@ -13514,7 +13768,7 @@
       <c r="C149" s="28"/>
       <c r="D149" s="29"/>
       <c r="E149" s="29"/>
-      <c r="F149" s="32"/>
+      <c r="F149" s="29"/>
       <c r="G149" s="29"/>
       <c r="H149" s="29"/>
       <c r="I149" s="29"/>
@@ -16010,9 +16264,9 @@
       <c r="O287" s="29"/>
       <c r="P287" s="29"/>
     </row>
-    <row r="288" ht="23" customHeight="1" spans="1:16">
+    <row r="288" ht="23" customHeight="1" spans="1:15">
       <c r="A288" s="31"/>
-      <c r="B288" s="23"/>
+      <c r="B288" s="37"/>
       <c r="C288" s="28"/>
       <c r="D288" s="29"/>
       <c r="E288" s="29"/>
@@ -16021,16 +16275,15 @@
       <c r="H288" s="29"/>
       <c r="I288" s="29"/>
       <c r="J288" s="48"/>
-      <c r="K288" s="31"/>
-      <c r="L288" s="23"/>
-      <c r="M288" s="28"/>
-      <c r="N288" s="29"/>
-      <c r="O288" s="29"/>
-      <c r="P288" s="29"/>
-    </row>
-    <row r="289" ht="23" customHeight="1" spans="1:16">
+      <c r="K288" s="40"/>
+      <c r="L288" s="49"/>
+      <c r="M288" s="50"/>
+      <c r="N288" s="49"/>
+      <c r="O288" s="40"/>
+    </row>
+    <row r="289" ht="23" customHeight="1" spans="1:15">
       <c r="A289" s="31"/>
-      <c r="B289" s="23"/>
+      <c r="B289" s="37"/>
       <c r="C289" s="28"/>
       <c r="D289" s="29"/>
       <c r="E289" s="29"/>
@@ -16039,16 +16292,15 @@
       <c r="H289" s="29"/>
       <c r="I289" s="29"/>
       <c r="J289" s="48"/>
-      <c r="K289" s="31"/>
-      <c r="L289" s="23"/>
-      <c r="M289" s="28"/>
-      <c r="N289" s="29"/>
-      <c r="O289" s="29"/>
-      <c r="P289" s="29"/>
+      <c r="K289" s="40"/>
+      <c r="L289" s="49"/>
+      <c r="M289" s="50"/>
+      <c r="N289" s="49"/>
+      <c r="O289" s="40"/>
     </row>
     <row r="290" ht="23" customHeight="1" spans="1:15">
       <c r="A290" s="31"/>
-      <c r="B290" s="38"/>
+      <c r="B290" s="37"/>
       <c r="C290" s="28"/>
       <c r="D290" s="29"/>
       <c r="E290" s="29"/>
@@ -16065,7 +16317,7 @@
     </row>
     <row r="291" ht="23" customHeight="1" spans="1:15">
       <c r="A291" s="31"/>
-      <c r="B291" s="38"/>
+      <c r="B291" s="37"/>
       <c r="C291" s="28"/>
       <c r="D291" s="29"/>
       <c r="E291" s="29"/>
@@ -16082,7 +16334,7 @@
     </row>
     <row r="292" ht="23" customHeight="1" spans="1:15">
       <c r="A292" s="31"/>
-      <c r="B292" s="38"/>
+      <c r="B292" s="37"/>
       <c r="C292" s="28"/>
       <c r="D292" s="29"/>
       <c r="E292" s="29"/>
@@ -16099,7 +16351,7 @@
     </row>
     <row r="293" ht="23" customHeight="1" spans="1:15">
       <c r="A293" s="31"/>
-      <c r="B293" s="38"/>
+      <c r="B293" s="37"/>
       <c r="C293" s="28"/>
       <c r="D293" s="29"/>
       <c r="E293" s="29"/>
@@ -16116,7 +16368,7 @@
     </row>
     <row r="294" ht="23" customHeight="1" spans="1:15">
       <c r="A294" s="31"/>
-      <c r="B294" s="38"/>
+      <c r="B294" s="37"/>
       <c r="C294" s="28"/>
       <c r="D294" s="29"/>
       <c r="E294" s="29"/>
@@ -16133,7 +16385,7 @@
     </row>
     <row r="295" ht="23" customHeight="1" spans="1:15">
       <c r="A295" s="31"/>
-      <c r="B295" s="38"/>
+      <c r="B295" s="37"/>
       <c r="C295" s="28"/>
       <c r="D295" s="29"/>
       <c r="E295" s="29"/>
@@ -16150,7 +16402,7 @@
     </row>
     <row r="296" ht="23" customHeight="1" spans="1:15">
       <c r="A296" s="31"/>
-      <c r="B296" s="38"/>
+      <c r="B296" s="37"/>
       <c r="C296" s="28"/>
       <c r="D296" s="29"/>
       <c r="E296" s="29"/>
@@ -16167,7 +16419,7 @@
     </row>
     <row r="297" ht="23" customHeight="1" spans="1:15">
       <c r="A297" s="31"/>
-      <c r="B297" s="38"/>
+      <c r="B297" s="37"/>
       <c r="C297" s="28"/>
       <c r="D297" s="29"/>
       <c r="E297" s="29"/>
@@ -16184,7 +16436,7 @@
     </row>
     <row r="298" ht="23" customHeight="1" spans="1:15">
       <c r="A298" s="31"/>
-      <c r="B298" s="38"/>
+      <c r="B298" s="37"/>
       <c r="C298" s="28"/>
       <c r="D298" s="29"/>
       <c r="E298" s="29"/>
@@ -16201,7 +16453,7 @@
     </row>
     <row r="299" ht="23" customHeight="1" spans="1:15">
       <c r="A299" s="31"/>
-      <c r="B299" s="38"/>
+      <c r="B299" s="37"/>
       <c r="C299" s="28"/>
       <c r="D299" s="29"/>
       <c r="E299" s="29"/>
@@ -16218,7 +16470,7 @@
     </row>
     <row r="300" ht="23" customHeight="1" spans="1:15">
       <c r="A300" s="31"/>
-      <c r="B300" s="38"/>
+      <c r="B300" s="37"/>
       <c r="C300" s="28"/>
       <c r="D300" s="29"/>
       <c r="E300" s="29"/>
@@ -16235,7 +16487,7 @@
     </row>
     <row r="301" ht="23" customHeight="1" spans="1:15">
       <c r="A301" s="31"/>
-      <c r="B301" s="38"/>
+      <c r="B301" s="37"/>
       <c r="C301" s="28"/>
       <c r="D301" s="29"/>
       <c r="E301" s="29"/>
@@ -16252,7 +16504,7 @@
     </row>
     <row r="302" ht="23" customHeight="1" spans="1:15">
       <c r="A302" s="31"/>
-      <c r="B302" s="38"/>
+      <c r="B302" s="37"/>
       <c r="C302" s="28"/>
       <c r="D302" s="29"/>
       <c r="E302" s="29"/>
@@ -16269,7 +16521,7 @@
     </row>
     <row r="303" ht="23" customHeight="1" spans="1:15">
       <c r="A303" s="31"/>
-      <c r="B303" s="38"/>
+      <c r="B303" s="37"/>
       <c r="C303" s="28"/>
       <c r="D303" s="29"/>
       <c r="E303" s="29"/>
@@ -16286,7 +16538,7 @@
     </row>
     <row r="304" ht="23" customHeight="1" spans="1:15">
       <c r="A304" s="31"/>
-      <c r="B304" s="38"/>
+      <c r="B304" s="37"/>
       <c r="C304" s="28"/>
       <c r="D304" s="29"/>
       <c r="E304" s="29"/>
@@ -16303,7 +16555,7 @@
     </row>
     <row r="305" ht="23" customHeight="1" spans="1:15">
       <c r="A305" s="31"/>
-      <c r="B305" s="38"/>
+      <c r="B305" s="37"/>
       <c r="C305" s="28"/>
       <c r="D305" s="29"/>
       <c r="E305" s="29"/>
@@ -16320,7 +16572,7 @@
     </row>
     <row r="306" ht="23" customHeight="1" spans="1:15">
       <c r="A306" s="31"/>
-      <c r="B306" s="38"/>
+      <c r="B306" s="37"/>
       <c r="C306" s="28"/>
       <c r="D306" s="29"/>
       <c r="E306" s="29"/>
@@ -16334,40 +16586,6 @@
       <c r="M306" s="50"/>
       <c r="N306" s="49"/>
       <c r="O306" s="40"/>
-    </row>
-    <row r="307" ht="23" customHeight="1" spans="1:15">
-      <c r="A307" s="31"/>
-      <c r="B307" s="38"/>
-      <c r="C307" s="28"/>
-      <c r="D307" s="29"/>
-      <c r="E307" s="29"/>
-      <c r="F307" s="29"/>
-      <c r="G307" s="29"/>
-      <c r="H307" s="29"/>
-      <c r="I307" s="29"/>
-      <c r="J307" s="48"/>
-      <c r="K307" s="40"/>
-      <c r="L307" s="49"/>
-      <c r="M307" s="50"/>
-      <c r="N307" s="49"/>
-      <c r="O307" s="40"/>
-    </row>
-    <row r="308" ht="23" customHeight="1" spans="1:15">
-      <c r="A308" s="31"/>
-      <c r="B308" s="38"/>
-      <c r="C308" s="28"/>
-      <c r="D308" s="29"/>
-      <c r="E308" s="29"/>
-      <c r="F308" s="29"/>
-      <c r="G308" s="29"/>
-      <c r="H308" s="29"/>
-      <c r="I308" s="29"/>
-      <c r="J308" s="48"/>
-      <c r="K308" s="40"/>
-      <c r="L308" s="49"/>
-      <c r="M308" s="50"/>
-      <c r="N308" s="49"/>
-      <c r="O308" s="40"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -16399,15 +16617,15 @@
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N42">
+  <conditionalFormatting sqref="N43">
     <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N42,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N43,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N42,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N43,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N42,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N43,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N4">
@@ -16432,18 +16650,18 @@
       <formula>LEFT(N6,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N43:N45">
+  <conditionalFormatting sqref="N44:N45">
     <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N43,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N44,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N43,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N44,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N43,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N44,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N46:N50">
+  <conditionalFormatting sqref="N46:N48">
     <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N46,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -16454,73 +16672,73 @@
       <formula>LEFT(N46,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N51:N52">
+  <conditionalFormatting sqref="N49:N50">
     <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N51,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N49,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N51,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N49,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N51,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N49,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N57:N58">
+    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N57,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N57,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N57,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N59:N60">
-    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N59,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N59,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N59,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N61:N62">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N61,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N123:N125">
+    <cfRule type="beginsWith" dxfId="2" priority="34" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N123,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N61,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N123,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N61,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="36" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N123,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N125:N127">
-    <cfRule type="beginsWith" dxfId="2" priority="34" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N125,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N126:N127">
+    <cfRule type="beginsWith" dxfId="2" priority="31" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N126,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N125,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N126,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="36" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N125,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="33" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N126,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N128:N129">
-    <cfRule type="beginsWith" dxfId="2" priority="31" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N128,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N288:N306">
+    <cfRule type="beginsWith" dxfId="2" priority="58" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N288,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N128,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N288,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="33" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N128,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="60" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N288,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N290:N308">
-    <cfRule type="beginsWith" dxfId="2" priority="58" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N290,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N290,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="60" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N290,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N35:N40 N112:N113">
+  <conditionalFormatting sqref="N35:N40 N110:N111">
     <cfRule type="beginsWith" dxfId="2" priority="46" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N35,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -16531,22 +16749,22 @@
       <formula>LEFT(N35,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N53:N58 N63:N111">
+  <conditionalFormatting sqref="N51:N56 N61:N109">
     <cfRule type="beginsWith" dxfId="2" priority="16" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N53,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N51,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N53,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N51,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="18" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N53,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N51,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C26 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C90 C93 C94 C95 C98 C99 C100 C101 C104 C105 C106 C107 C110 C111 C112 C113 C119 C120 C121 C124 C125 C136 C139 C140 C141 C142 C143 C144 C145 C146 C22:C25 C27:C28 C53:C54 C73:C74 C88:C89 C91:C92 C96:C97 C102:C103 C108:C109 C114:C116 C117:C118 C122:C123 C126:C127 C128:C129 C130:C133 C134:C135 C137:C138 C147:C149 C150:C203 C204:C245 C246:C308">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C26 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C88 C91 C92 C93 C96 C97 C98 C99 C102 C103 C104 C105 C108 C109 C110 C111 C117 C118 C119 C122 C123 C134 C137 C138 C139 C140 C141 C142 C143 C144 C22:C25 C27:C28 C49:C50 C71:C72 C86:C87 C89:C90 C94:C95 C100:C101 C106:C107 C112:C114 C115:C116 C120:C121 C124:C125 C126:C127 C128:C131 C132:C133 C135:C136 C145:C147 C148:C201 C202:C243 C244:C306">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D26 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D90 D91 D92 D93 D94 D95 D98 D99 D100 D101 D104 D105 D106 D107 D110 D111 D112 D113 D119 D120 D121 D124 D125 D136 D139 D140 D141 D142 D143 D144 D145 D146 D6:D7 D22:D25 D27:D28 D53:D54 D73:D74 D88:D89 D96:D97 D102:D103 D108:D109 D114:D116 D117:D118 D122:D123 D126:D127 D128:D129 D130:D133 D134:D135 D137:D138 D147:D149 D150:D192 D193:D308">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D26 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D88 D89 D90 D91 D92 D93 D96 D97 D98 D99 D102 D103 D104 D105 D108 D109 D110 D111 D117 D118 D119 D122 D123 D134 D137 D138 D139 D140 D141 D142 D143 D144 D6:D7 D22:D25 D27:D28 D49:D50 D71:D72 D86:D87 D94:D95 D100:D101 D106:D107 D112:D114 D115:D116 D120:D121 D124:D125 D126:D127 D128:D131 D132:D133 D135:D136 D145:D147 D148:D190 D191:D306">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -16560,10 +16778,10 @@
   <sheetPr/>
   <dimension ref="A1:P275"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
@@ -16751,7 +16969,7 @@
     </row>
     <row r="7" s="4" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A7" s="31" t="s">
-        <v>838</v>
+        <v>875</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>760</v>
@@ -17048,7 +17266,7 @@
         <v>576</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>839</v>
+        <v>876</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>752</v>
@@ -17580,7 +17798,7 @@
     </row>
     <row r="38" ht="34" customHeight="1" spans="1:16">
       <c r="A38" s="22" t="s">
-        <v>840</v>
+        <v>877</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>835</v>
@@ -17638,15 +17856,25 @@
     </row>
     <row r="40" ht="34" customHeight="1" spans="1:16">
       <c r="A40" s="31"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="48"/>
+      <c r="B40" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>839</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>840</v>
+      </c>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="35"/>
       <c r="K40" s="31"/>
       <c r="L40" s="23"/>
       <c r="M40" s="28"/>
@@ -17656,11 +17884,21 @@
     </row>
     <row r="41" ht="34" customHeight="1" spans="1:16">
       <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="37"/>
+      <c r="B41" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>843</v>
+      </c>
       <c r="G41" s="29"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -17674,11 +17912,21 @@
     </row>
     <row r="42" ht="34" customHeight="1" spans="1:16">
       <c r="A42" s="22"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="32"/>
+      <c r="B42" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>846</v>
+      </c>
       <c r="G42" s="29"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -17692,15 +17940,25 @@
     </row>
     <row r="43" ht="34" customHeight="1" spans="1:16">
       <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="B43" s="23" t="s">
+        <v>847</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>848</v>
+      </c>
       <c r="G43" s="29"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="35"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -17710,11 +17968,21 @@
     </row>
     <row r="44" ht="34" customHeight="1" spans="1:16">
       <c r="A44" s="31"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="B44" s="23" t="s">
+        <v>849</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>850</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>752</v>
+      </c>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
@@ -17728,11 +17996,21 @@
     </row>
     <row r="45" ht="34" customHeight="1" spans="1:16">
       <c r="A45" s="31"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+      <c r="B45" s="23" t="s">
+        <v>851</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>852</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>752</v>
+      </c>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
@@ -17746,11 +18024,21 @@
     </row>
     <row r="46" ht="34" customHeight="1" spans="1:16">
       <c r="A46" s="22"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
+      <c r="B46" s="23" t="s">
+        <v>853</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>854</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>855</v>
+      </c>
       <c r="G46" s="29"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
@@ -17764,11 +18052,21 @@
     </row>
     <row r="47" ht="34" customHeight="1" spans="1:16">
       <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
+      <c r="B47" s="23" t="s">
+        <v>856</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>857</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>855</v>
+      </c>
       <c r="G47" s="29"/>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
@@ -17782,11 +18080,21 @@
     </row>
     <row r="48" ht="34" customHeight="1" spans="1:16">
       <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
+      <c r="B48" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>859</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>860</v>
+      </c>
       <c r="G48" s="29"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
@@ -17800,15 +18108,25 @@
     </row>
     <row r="49" ht="34" customHeight="1" spans="1:16">
       <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="B49" s="23" t="s">
+        <v>861</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>862</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>863</v>
+      </c>
       <c r="G49" s="29"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="35"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="48"/>
       <c r="K49" s="25"/>
       <c r="L49" s="26"/>
       <c r="M49" s="24"/>
@@ -17818,15 +18136,25 @@
     </row>
     <row r="50" ht="34" customHeight="1" spans="1:16">
       <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
+      <c r="B50" s="37" t="s">
+        <v>864</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>865</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>866</v>
+      </c>
       <c r="G50" s="29"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="35"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="48"/>
       <c r="K50" s="25"/>
       <c r="L50" s="26"/>
       <c r="M50" s="24"/>
@@ -17836,11 +18164,21 @@
     </row>
     <row r="51" ht="34" customHeight="1" spans="1:16">
       <c r="A51" s="31"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
+      <c r="B51" s="37" t="s">
+        <v>867</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>868</v>
+      </c>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
@@ -17854,11 +18192,21 @@
     </row>
     <row r="52" ht="34" customHeight="1" spans="1:16">
       <c r="A52" s="31"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
+      <c r="B52" s="37" t="s">
+        <v>869</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>870</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>871</v>
+      </c>
       <c r="G52" s="29"/>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
@@ -17872,15 +18220,27 @@
     </row>
     <row r="53" ht="34" customHeight="1" spans="1:16">
       <c r="A53" s="31"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
+      <c r="B53" s="37" t="s">
+        <v>872</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>873</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>848</v>
+      </c>
       <c r="G53" s="29"/>
       <c r="H53" s="29"/>
       <c r="I53" s="29"/>
-      <c r="J53" s="48"/>
+      <c r="J53" s="48" t="s">
+        <v>874</v>
+      </c>
       <c r="K53" s="40"/>
       <c r="L53" s="49"/>
       <c r="M53" s="50"/>
@@ -17890,7 +18250,7 @@
     </row>
     <row r="54" ht="34" customHeight="1" spans="1:16">
       <c r="A54" s="31"/>
-      <c r="B54" s="38"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="28"/>
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
@@ -17908,7 +18268,7 @@
     </row>
     <row r="55" ht="34" customHeight="1" spans="1:16">
       <c r="A55" s="31"/>
-      <c r="B55" s="38"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="28"/>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
@@ -17926,7 +18286,7 @@
     </row>
     <row r="56" ht="34" customHeight="1" spans="1:16">
       <c r="A56" s="31"/>
-      <c r="B56" s="38"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="33"/>
       <c r="D56" s="30"/>
       <c r="E56" s="30"/>
@@ -17944,7 +18304,7 @@
     </row>
     <row r="57" ht="34" customHeight="1" spans="1:16">
       <c r="A57" s="31"/>
-      <c r="B57" s="38"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="28"/>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
@@ -17962,7 +18322,7 @@
     </row>
     <row r="58" ht="34" customHeight="1" spans="1:16">
       <c r="A58" s="31"/>
-      <c r="B58" s="38"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="33"/>
       <c r="D58" s="30"/>
       <c r="E58" s="30"/>
@@ -17980,7 +18340,7 @@
     </row>
     <row r="59" ht="34" customHeight="1" spans="1:16">
       <c r="A59" s="31"/>
-      <c r="B59" s="38"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="28"/>
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
@@ -17998,7 +18358,7 @@
     </row>
     <row r="60" ht="34" customHeight="1" spans="1:16">
       <c r="A60" s="31"/>
-      <c r="B60" s="38"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="33"/>
       <c r="D60" s="30"/>
       <c r="E60" s="30"/>
@@ -18016,7 +18376,7 @@
     </row>
     <row r="61" ht="34" customHeight="1" spans="1:16">
       <c r="A61" s="31"/>
-      <c r="B61" s="38"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="28"/>
       <c r="D61" s="29"/>
       <c r="E61" s="29"/>
@@ -18034,7 +18394,7 @@
     </row>
     <row r="62" ht="34" customHeight="1" spans="1:16">
       <c r="A62" s="31"/>
-      <c r="B62" s="38"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="33"/>
       <c r="D62" s="30"/>
       <c r="E62" s="30"/>
@@ -18052,7 +18412,7 @@
     </row>
     <row r="63" ht="34" customHeight="1" spans="1:16">
       <c r="A63" s="31"/>
-      <c r="B63" s="38"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="33"/>
       <c r="D63" s="30"/>
       <c r="E63" s="29"/>
@@ -18070,7 +18430,7 @@
     </row>
     <row r="64" ht="34" customHeight="1" spans="1:16">
       <c r="A64" s="31"/>
-      <c r="B64" s="38"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="28"/>
       <c r="D64" s="29"/>
       <c r="E64" s="29"/>
@@ -18088,7 +18448,7 @@
     </row>
     <row r="65" ht="34" customHeight="1" spans="1:16">
       <c r="A65" s="31"/>
-      <c r="B65" s="38"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="28"/>
       <c r="D65" s="29"/>
       <c r="E65" s="29"/>
@@ -18106,7 +18466,7 @@
     </row>
     <row r="66" ht="34" customHeight="1" spans="1:16">
       <c r="A66" s="31"/>
-      <c r="B66" s="38"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="28"/>
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
@@ -18124,7 +18484,7 @@
     </row>
     <row r="67" ht="34" customHeight="1" spans="1:16">
       <c r="A67" s="31"/>
-      <c r="B67" s="38"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="33"/>
       <c r="D67" s="30"/>
       <c r="E67" s="30"/>
@@ -18142,7 +18502,7 @@
     </row>
     <row r="68" ht="34" customHeight="1" spans="1:16">
       <c r="A68" s="31"/>
-      <c r="B68" s="38"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="28"/>
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
@@ -18160,7 +18520,7 @@
     </row>
     <row r="69" ht="34" customHeight="1" spans="1:16">
       <c r="A69" s="31"/>
-      <c r="B69" s="38"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="28"/>
       <c r="D69" s="29"/>
       <c r="E69" s="29"/>
@@ -18178,7 +18538,7 @@
     </row>
     <row r="70" ht="34" customHeight="1" spans="1:16">
       <c r="A70" s="31"/>
-      <c r="B70" s="38"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="28"/>
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
@@ -18196,7 +18556,7 @@
     </row>
     <row r="71" ht="34" customHeight="1" spans="1:16">
       <c r="A71" s="31"/>
-      <c r="B71" s="38"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="33"/>
       <c r="D71" s="30"/>
       <c r="E71" s="30"/>
@@ -18214,7 +18574,7 @@
     </row>
     <row r="72" ht="34" customHeight="1" spans="1:16">
       <c r="A72" s="31"/>
-      <c r="B72" s="38"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="28"/>
       <c r="D72" s="29"/>
       <c r="E72" s="29"/>
@@ -18232,7 +18592,7 @@
     </row>
     <row r="73" ht="34" customHeight="1" spans="1:16">
       <c r="A73" s="31"/>
-      <c r="B73" s="38"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="28"/>
       <c r="D73" s="29"/>
       <c r="E73" s="29"/>
@@ -18250,7 +18610,7 @@
     </row>
     <row r="74" ht="34" customHeight="1" spans="1:16">
       <c r="A74" s="31"/>
-      <c r="B74" s="38"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="28"/>
       <c r="D74" s="29"/>
       <c r="E74" s="29"/>
@@ -18268,7 +18628,7 @@
     </row>
     <row r="75" ht="34" customHeight="1" spans="1:16">
       <c r="A75" s="31"/>
-      <c r="B75" s="38"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="28"/>
       <c r="D75" s="29"/>
       <c r="E75" s="29"/>
@@ -18286,7 +18646,7 @@
     </row>
     <row r="76" ht="34" customHeight="1" spans="1:16">
       <c r="A76" s="31"/>
-      <c r="B76" s="38"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="33"/>
       <c r="D76" s="30"/>
       <c r="E76" s="30"/>
@@ -18304,7 +18664,7 @@
     </row>
     <row r="77" ht="34" customHeight="1" spans="1:16">
       <c r="A77" s="31"/>
-      <c r="B77" s="38"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="28"/>
       <c r="D77" s="29"/>
       <c r="E77" s="29"/>
@@ -18322,7 +18682,7 @@
     </row>
     <row r="78" ht="34" customHeight="1" spans="1:16">
       <c r="A78" s="31"/>
-      <c r="B78" s="38"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="33"/>
       <c r="D78" s="30"/>
       <c r="E78" s="30"/>
@@ -18340,7 +18700,7 @@
     </row>
     <row r="79" ht="34" customHeight="1" spans="1:16">
       <c r="A79" s="31"/>
-      <c r="B79" s="38"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="28"/>
       <c r="D79" s="29"/>
       <c r="E79" s="29"/>
@@ -18358,7 +18718,7 @@
     </row>
     <row r="80" ht="34" customHeight="1" spans="1:16">
       <c r="A80" s="31"/>
-      <c r="B80" s="38"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="33"/>
       <c r="D80" s="30"/>
       <c r="E80" s="30"/>
@@ -18376,7 +18736,7 @@
     </row>
     <row r="81" ht="34" customHeight="1" spans="1:16">
       <c r="A81" s="31"/>
-      <c r="B81" s="38"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="33"/>
       <c r="D81" s="30"/>
       <c r="E81" s="29"/>
@@ -18394,7 +18754,7 @@
     </row>
     <row r="82" ht="34" customHeight="1" spans="1:16">
       <c r="A82" s="31"/>
-      <c r="B82" s="38"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="28"/>
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
@@ -18412,7 +18772,7 @@
     </row>
     <row r="83" ht="34" customHeight="1" spans="1:16">
       <c r="A83" s="31"/>
-      <c r="B83" s="38"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="28"/>
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
@@ -18430,7 +18790,7 @@
     </row>
     <row r="84" ht="34" customHeight="1" spans="1:16">
       <c r="A84" s="31"/>
-      <c r="B84" s="38"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="28"/>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
@@ -18448,7 +18808,7 @@
     </row>
     <row r="85" ht="34" customHeight="1" spans="1:16">
       <c r="A85" s="31"/>
-      <c r="B85" s="38"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="28"/>
       <c r="D85" s="29"/>
       <c r="E85" s="29"/>
@@ -18466,7 +18826,7 @@
     </row>
     <row r="86" ht="34" customHeight="1" spans="1:16">
       <c r="A86" s="31"/>
-      <c r="B86" s="38"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="28"/>
       <c r="D86" s="29"/>
       <c r="E86" s="29"/>
@@ -18484,7 +18844,7 @@
     </row>
     <row r="87" ht="34" customHeight="1" spans="1:16">
       <c r="A87" s="31"/>
-      <c r="B87" s="38"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="28"/>
       <c r="D87" s="29"/>
       <c r="E87" s="29"/>
@@ -18502,7 +18862,7 @@
     </row>
     <row r="88" ht="34" customHeight="1" spans="1:16">
       <c r="A88" s="31"/>
-      <c r="B88" s="38"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="28"/>
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
@@ -18520,7 +18880,7 @@
     </row>
     <row r="89" ht="34" customHeight="1" spans="1:16">
       <c r="A89" s="31"/>
-      <c r="B89" s="38"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="28"/>
       <c r="D89" s="29"/>
       <c r="E89" s="29"/>
@@ -18538,7 +18898,7 @@
     </row>
     <row r="90" ht="34" customHeight="1" spans="1:16">
       <c r="A90" s="31"/>
-      <c r="B90" s="38"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="28"/>
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
@@ -18556,7 +18916,7 @@
     </row>
     <row r="91" ht="34" customHeight="1" spans="1:16">
       <c r="A91" s="31"/>
-      <c r="B91" s="38"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="28"/>
       <c r="D91" s="29"/>
       <c r="E91" s="29"/>
@@ -18574,7 +18934,7 @@
     </row>
     <row r="92" ht="34" customHeight="1" spans="1:16">
       <c r="A92" s="31"/>
-      <c r="B92" s="38"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="28"/>
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
@@ -18592,7 +18952,7 @@
     </row>
     <row r="93" ht="34" customHeight="1" spans="1:16">
       <c r="A93" s="31"/>
-      <c r="B93" s="38"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="28"/>
       <c r="D93" s="29"/>
       <c r="E93" s="29"/>
@@ -18610,7 +18970,7 @@
     </row>
     <row r="94" ht="34" customHeight="1" spans="1:16">
       <c r="A94" s="31"/>
-      <c r="B94" s="38"/>
+      <c r="B94" s="37"/>
       <c r="C94" s="28"/>
       <c r="D94" s="29"/>
       <c r="E94" s="29"/>
@@ -18628,7 +18988,7 @@
     </row>
     <row r="95" ht="34" customHeight="1" spans="1:16">
       <c r="A95" s="31"/>
-      <c r="B95" s="38"/>
+      <c r="B95" s="37"/>
       <c r="C95" s="28"/>
       <c r="D95" s="29"/>
       <c r="E95" s="29"/>
@@ -18646,7 +19006,7 @@
     </row>
     <row r="96" ht="34" customHeight="1" spans="1:16">
       <c r="A96" s="31"/>
-      <c r="B96" s="38"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="28"/>
       <c r="D96" s="29"/>
       <c r="E96" s="29"/>
@@ -18664,7 +19024,7 @@
     </row>
     <row r="97" ht="34" customHeight="1" spans="1:16">
       <c r="A97" s="31"/>
-      <c r="B97" s="38"/>
+      <c r="B97" s="37"/>
       <c r="C97" s="28"/>
       <c r="D97" s="29"/>
       <c r="E97" s="29"/>
@@ -18682,7 +19042,7 @@
     </row>
     <row r="98" ht="34" customHeight="1" spans="1:16">
       <c r="A98" s="31"/>
-      <c r="B98" s="38"/>
+      <c r="B98" s="37"/>
       <c r="C98" s="28"/>
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
@@ -18700,7 +19060,7 @@
     </row>
     <row r="99" ht="34" customHeight="1" spans="1:16">
       <c r="A99" s="31"/>
-      <c r="B99" s="38"/>
+      <c r="B99" s="37"/>
       <c r="C99" s="33"/>
       <c r="D99" s="30"/>
       <c r="E99" s="30"/>
@@ -18718,7 +19078,7 @@
     </row>
     <row r="100" ht="34" customHeight="1" spans="1:16">
       <c r="A100" s="31"/>
-      <c r="B100" s="38"/>
+      <c r="B100" s="37"/>
       <c r="C100" s="33"/>
       <c r="D100" s="30"/>
       <c r="E100" s="29"/>
@@ -18736,7 +19096,7 @@
     </row>
     <row r="101" ht="34" customHeight="1" spans="1:16">
       <c r="A101" s="31"/>
-      <c r="B101" s="38"/>
+      <c r="B101" s="37"/>
       <c r="C101" s="28"/>
       <c r="D101" s="29"/>
       <c r="E101" s="29"/>
@@ -18754,7 +19114,7 @@
     </row>
     <row r="102" ht="34" customHeight="1" spans="1:15">
       <c r="A102" s="31"/>
-      <c r="B102" s="38"/>
+      <c r="B102" s="37"/>
       <c r="C102" s="28"/>
       <c r="D102" s="29"/>
       <c r="E102" s="29"/>
@@ -18771,7 +19131,7 @@
     </row>
     <row r="103" ht="34" customHeight="1" spans="1:15">
       <c r="A103" s="31"/>
-      <c r="B103" s="38"/>
+      <c r="B103" s="37"/>
       <c r="C103" s="28"/>
       <c r="D103" s="29"/>
       <c r="E103" s="29"/>
@@ -18788,7 +19148,7 @@
     </row>
     <row r="104" ht="34" customHeight="1" spans="1:15">
       <c r="A104" s="31"/>
-      <c r="B104" s="38"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="28"/>
       <c r="D104" s="29"/>
       <c r="E104" s="29"/>
@@ -18805,7 +19165,7 @@
     </row>
     <row r="105" ht="34" customHeight="1" spans="1:15">
       <c r="A105" s="31"/>
-      <c r="B105" s="38"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="28"/>
       <c r="D105" s="29"/>
       <c r="E105" s="29"/>
@@ -18822,7 +19182,7 @@
     </row>
     <row r="106" ht="34" customHeight="1" spans="1:15">
       <c r="A106" s="31"/>
-      <c r="B106" s="38"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="28"/>
       <c r="D106" s="29"/>
       <c r="E106" s="29"/>
@@ -18839,7 +19199,7 @@
     </row>
     <row r="107" ht="34" customHeight="1" spans="1:15">
       <c r="A107" s="31"/>
-      <c r="B107" s="38"/>
+      <c r="B107" s="37"/>
       <c r="C107" s="28"/>
       <c r="D107" s="29"/>
       <c r="E107" s="29"/>
@@ -18856,7 +19216,7 @@
     </row>
     <row r="108" ht="34" customHeight="1" spans="1:15">
       <c r="A108" s="31"/>
-      <c r="B108" s="38"/>
+      <c r="B108" s="37"/>
       <c r="C108" s="28"/>
       <c r="D108" s="29"/>
       <c r="E108" s="29"/>
@@ -18873,7 +19233,7 @@
     </row>
     <row r="109" ht="34" customHeight="1" spans="1:15">
       <c r="A109" s="31"/>
-      <c r="B109" s="38"/>
+      <c r="B109" s="37"/>
       <c r="C109" s="28"/>
       <c r="D109" s="29"/>
       <c r="E109" s="29"/>
@@ -18890,7 +19250,7 @@
     </row>
     <row r="110" ht="34" customHeight="1" spans="1:15">
       <c r="A110" s="31"/>
-      <c r="B110" s="38"/>
+      <c r="B110" s="37"/>
       <c r="C110" s="28"/>
       <c r="D110" s="29"/>
       <c r="E110" s="29"/>
@@ -18907,7 +19267,7 @@
     </row>
     <row r="111" ht="34" customHeight="1" spans="1:15">
       <c r="A111" s="31"/>
-      <c r="B111" s="38"/>
+      <c r="B111" s="37"/>
       <c r="C111" s="33"/>
       <c r="D111" s="30"/>
       <c r="E111" s="30"/>
@@ -18927,7 +19287,7 @@
       <c r="B112" s="23"/>
       <c r="C112" s="28"/>
       <c r="D112" s="29"/>
-      <c r="E112" s="36"/>
+      <c r="E112" s="58"/>
       <c r="F112" s="29"/>
       <c r="G112" s="29"/>
       <c r="H112" s="29"/>
@@ -18945,7 +19305,7 @@
       <c r="B113" s="23"/>
       <c r="C113" s="28"/>
       <c r="D113" s="29"/>
-      <c r="E113" s="36"/>
+      <c r="E113" s="58"/>
       <c r="F113" s="32"/>
       <c r="G113" s="29"/>
       <c r="H113" s="29"/>
@@ -21534,7 +21894,7 @@
     </row>
     <row r="257" ht="23" customHeight="1" spans="1:15">
       <c r="A257" s="31"/>
-      <c r="B257" s="38"/>
+      <c r="B257" s="37"/>
       <c r="C257" s="28"/>
       <c r="D257" s="29"/>
       <c r="E257" s="29"/>
@@ -21551,7 +21911,7 @@
     </row>
     <row r="258" ht="23" customHeight="1" spans="1:15">
       <c r="A258" s="31"/>
-      <c r="B258" s="38"/>
+      <c r="B258" s="37"/>
       <c r="C258" s="28"/>
       <c r="D258" s="29"/>
       <c r="E258" s="29"/>
@@ -21568,7 +21928,7 @@
     </row>
     <row r="259" ht="23" customHeight="1" spans="1:15">
       <c r="A259" s="31"/>
-      <c r="B259" s="38"/>
+      <c r="B259" s="37"/>
       <c r="C259" s="28"/>
       <c r="D259" s="29"/>
       <c r="E259" s="29"/>
@@ -21585,7 +21945,7 @@
     </row>
     <row r="260" ht="23" customHeight="1" spans="1:15">
       <c r="A260" s="31"/>
-      <c r="B260" s="38"/>
+      <c r="B260" s="37"/>
       <c r="C260" s="28"/>
       <c r="D260" s="29"/>
       <c r="E260" s="29"/>
@@ -21602,7 +21962,7 @@
     </row>
     <row r="261" ht="23" customHeight="1" spans="1:15">
       <c r="A261" s="31"/>
-      <c r="B261" s="38"/>
+      <c r="B261" s="37"/>
       <c r="C261" s="28"/>
       <c r="D261" s="29"/>
       <c r="E261" s="29"/>
@@ -21619,7 +21979,7 @@
     </row>
     <row r="262" ht="23" customHeight="1" spans="1:15">
       <c r="A262" s="31"/>
-      <c r="B262" s="38"/>
+      <c r="B262" s="37"/>
       <c r="C262" s="28"/>
       <c r="D262" s="29"/>
       <c r="E262" s="29"/>
@@ -21636,7 +21996,7 @@
     </row>
     <row r="263" ht="23" customHeight="1" spans="1:15">
       <c r="A263" s="31"/>
-      <c r="B263" s="38"/>
+      <c r="B263" s="37"/>
       <c r="C263" s="28"/>
       <c r="D263" s="29"/>
       <c r="E263" s="29"/>
@@ -21653,7 +22013,7 @@
     </row>
     <row r="264" ht="23" customHeight="1" spans="1:15">
       <c r="A264" s="31"/>
-      <c r="B264" s="38"/>
+      <c r="B264" s="37"/>
       <c r="C264" s="28"/>
       <c r="D264" s="29"/>
       <c r="E264" s="29"/>
@@ -21670,7 +22030,7 @@
     </row>
     <row r="265" ht="23" customHeight="1" spans="1:15">
       <c r="A265" s="31"/>
-      <c r="B265" s="38"/>
+      <c r="B265" s="37"/>
       <c r="C265" s="28"/>
       <c r="D265" s="29"/>
       <c r="E265" s="29"/>
@@ -21687,7 +22047,7 @@
     </row>
     <row r="266" ht="23" customHeight="1" spans="1:15">
       <c r="A266" s="31"/>
-      <c r="B266" s="38"/>
+      <c r="B266" s="37"/>
       <c r="C266" s="28"/>
       <c r="D266" s="29"/>
       <c r="E266" s="29"/>
@@ -21704,7 +22064,7 @@
     </row>
     <row r="267" ht="23" customHeight="1" spans="1:15">
       <c r="A267" s="31"/>
-      <c r="B267" s="38"/>
+      <c r="B267" s="37"/>
       <c r="C267" s="28"/>
       <c r="D267" s="29"/>
       <c r="E267" s="29"/>
@@ -21721,7 +22081,7 @@
     </row>
     <row r="268" ht="23" customHeight="1" spans="1:15">
       <c r="A268" s="31"/>
-      <c r="B268" s="38"/>
+      <c r="B268" s="37"/>
       <c r="C268" s="28"/>
       <c r="D268" s="29"/>
       <c r="E268" s="29"/>
@@ -21738,7 +22098,7 @@
     </row>
     <row r="269" ht="23" customHeight="1" spans="1:15">
       <c r="A269" s="31"/>
-      <c r="B269" s="38"/>
+      <c r="B269" s="37"/>
       <c r="C269" s="28"/>
       <c r="D269" s="29"/>
       <c r="E269" s="29"/>
@@ -21755,7 +22115,7 @@
     </row>
     <row r="270" ht="23" customHeight="1" spans="1:15">
       <c r="A270" s="31"/>
-      <c r="B270" s="38"/>
+      <c r="B270" s="37"/>
       <c r="C270" s="28"/>
       <c r="D270" s="29"/>
       <c r="E270" s="29"/>
@@ -21772,7 +22132,7 @@
     </row>
     <row r="271" ht="23" customHeight="1" spans="1:15">
       <c r="A271" s="31"/>
-      <c r="B271" s="38"/>
+      <c r="B271" s="37"/>
       <c r="C271" s="28"/>
       <c r="D271" s="29"/>
       <c r="E271" s="29"/>
@@ -21789,7 +22149,7 @@
     </row>
     <row r="272" ht="23" customHeight="1" spans="1:15">
       <c r="A272" s="31"/>
-      <c r="B272" s="38"/>
+      <c r="B272" s="37"/>
       <c r="C272" s="28"/>
       <c r="D272" s="29"/>
       <c r="E272" s="29"/>
@@ -21806,7 +22166,7 @@
     </row>
     <row r="273" ht="23" customHeight="1" spans="1:15">
       <c r="A273" s="31"/>
-      <c r="B273" s="38"/>
+      <c r="B273" s="37"/>
       <c r="C273" s="28"/>
       <c r="D273" s="29"/>
       <c r="E273" s="29"/>
@@ -21823,7 +22183,7 @@
     </row>
     <row r="274" ht="23" customHeight="1" spans="1:15">
       <c r="A274" s="31"/>
-      <c r="B274" s="38"/>
+      <c r="B274" s="37"/>
       <c r="C274" s="28"/>
       <c r="D274" s="29"/>
       <c r="E274" s="29"/>
@@ -21840,7 +22200,7 @@
     </row>
     <row r="275" ht="23" customHeight="1" spans="1:15">
       <c r="A275" s="31"/>
-      <c r="B275" s="38"/>
+      <c r="B275" s="37"/>
       <c r="C275" s="28"/>
       <c r="D275" s="29"/>
       <c r="E275" s="29"/>
@@ -22007,10 +22367,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C26 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C90 C93 C94 C95 C98 C99 C100 C101 C104 C105 C106 C107 C110 C111 C112 C113 C22:C25 C27:C28 C53:C54 C73:C74 C88:C89 C91:C92 C96:C97 C102:C103 C108:C109 C114:C116 C117:C170 C171:C212 C213:C275">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C26 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C90 C93 C94 C95 C98 C99 C100 C101 C104 C105 C106 C107 C110 C111 C112 C113 C22:C25 C27:C28 C49:C50 C73:C74 C88:C89 C91:C92 C96:C97 C102:C103 C108:C109 C114:C116 C117:C170 C171:C212 C213:C275">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D26 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D90 D91 D92 D93 D94 D95 D98 D99 D100 D101 D104 D105 D106 D107 D110 D111 D112 D113 D6:D7 D22:D25 D27:D28 D53:D54 D73:D74 D88:D89 D96:D97 D102:D103 D108:D109 D114:D116 D117:D159 D160:D275">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D26 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D90 D91 D92 D93 D94 D95 D98 D99 D100 D101 D104 D105 D106 D107 D110 D111 D112 D113 D6:D7 D22:D25 D27:D28 D49:D50 D73:D74 D88:D89 D96:D97 D102:D103 D108:D109 D114:D116 D117:D159 D160:D275">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/Mobile-CashMemo.xlsx
+++ b/tests/artifact/script/Mobile-CashMemo.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9287" tabRatio="550" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9287" tabRatio="550" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="MobileLogin" sheetId="12" r:id="rId2"/>
     <sheet name="Mobile-CashMemoSale" sheetId="8" r:id="rId3"/>
-    <sheet name="Mobile-CashMemoPurchase" sheetId="14" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="875">
   <si>
     <t>target</t>
   </si>
@@ -2689,15 +2688,6 @@
   </si>
   <si>
     <t>ProceedIf(${cashmemono.list}=${created.cashmemono})</t>
-  </si>
-  <si>
-    <t>Create Purchase Cash Memo from Cash Memo page and fill the fields</t>
-  </si>
-  <si>
-    <t>${purchase.tab}</t>
-  </si>
-  <si>
-    <t>Create Cash Memo from Cash Memo Page</t>
   </si>
 </sst>
 </file>
@@ -2710,7 +2700,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2777,22 +2767,14 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Consolas"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3300,11 +3282,14 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3313,122 +3298,119 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3600,28 +3582,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3629,12 +3589,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6689,7 +6661,7 @@
   <sheetPr/>
   <dimension ref="A1:P225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
@@ -6842,7 +6814,7 @@
       <c r="E5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="58" t="s">
         <v>749</v>
       </c>
       <c r="G5" s="30"/>
@@ -6857,7 +6829,7 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="15.6" spans="1:15">
       <c r="A6" s="22"/>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="59" t="s">
         <v>750</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -6869,7 +6841,7 @@
       <c r="E6" s="30" t="s">
         <v>751</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="60" t="s">
         <v>752</v>
       </c>
       <c r="G6" s="30"/>
@@ -6884,7 +6856,7 @@
     </row>
     <row r="7" s="4" customFormat="1" ht="42" customHeight="1" spans="1:15">
       <c r="A7" s="22"/>
-      <c r="B7" s="65"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="28"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -7224,7 +7196,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="33"/>
       <c r="D27" s="30"/>
-      <c r="E27" s="58"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="32"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
@@ -7241,7 +7213,7 @@
       <c r="B28" s="23"/>
       <c r="C28" s="33"/>
       <c r="D28" s="30"/>
-      <c r="E28" s="58"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="35"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
@@ -7258,7 +7230,7 @@
       <c r="B29" s="23"/>
       <c r="C29" s="33"/>
       <c r="D29" s="30"/>
-      <c r="E29" s="58"/>
+      <c r="E29" s="51"/>
       <c r="F29" s="32"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
@@ -7275,7 +7247,7 @@
       <c r="B30" s="23"/>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="58"/>
+      <c r="E30" s="51"/>
       <c r="F30" s="32"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -7290,12 +7262,12 @@
     <row r="31" ht="19" customHeight="1" spans="3:6">
       <c r="C31" s="28"/>
       <c r="D31" s="29"/>
-      <c r="F31" s="66"/>
+      <c r="F31" s="62"/>
     </row>
     <row r="32" ht="19" customHeight="1" spans="3:6">
       <c r="C32" s="28"/>
       <c r="D32" s="29"/>
-      <c r="F32" s="66"/>
+      <c r="F32" s="62"/>
     </row>
     <row r="33" ht="19" customHeight="1" spans="3:6">
       <c r="C33" s="28"/>
@@ -7310,7 +7282,7 @@
     <row r="35" ht="19" customHeight="1" spans="3:6">
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
-      <c r="F35" s="66"/>
+      <c r="F35" s="62"/>
     </row>
     <row r="36" ht="21" customHeight="1" spans="3:4">
       <c r="C36" s="28"/>
@@ -7420,15 +7392,15 @@
       <c r="D45" s="29"/>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="55"/>
     </row>
     <row r="46" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
       <c r="A46" s="22"/>
@@ -7437,15 +7409,15 @@
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="55"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A47" s="31"/>
@@ -10762,7 +10734,7 @@
   <sheetPr/>
   <dimension ref="A1:P306"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
@@ -13172,7 +13144,7 @@
       <c r="B110" s="23"/>
       <c r="C110" s="28"/>
       <c r="D110" s="29"/>
-      <c r="E110" s="58"/>
+      <c r="E110" s="51"/>
       <c r="F110" s="29"/>
       <c r="G110" s="30"/>
       <c r="H110" s="30"/>
@@ -13189,7 +13161,7 @@
       <c r="B111" s="23"/>
       <c r="C111" s="28"/>
       <c r="D111" s="29"/>
-      <c r="E111" s="58"/>
+      <c r="E111" s="51"/>
       <c r="F111" s="32"/>
       <c r="G111" s="30"/>
       <c r="H111" s="30"/>
@@ -13238,7 +13210,7 @@
       <c r="F116" s="32"/>
     </row>
     <row r="117" ht="21" customHeight="1" spans="2:6">
-      <c r="B117" s="59"/>
+      <c r="B117" s="52"/>
       <c r="C117" s="33"/>
       <c r="D117" s="30"/>
       <c r="E117" s="30"/>
@@ -13357,15 +13329,15 @@
       <c r="D126" s="29"/>
       <c r="E126" s="29"/>
       <c r="F126" s="32"/>
-      <c r="G126" s="60"/>
-      <c r="H126" s="60"/>
-      <c r="I126" s="60"/>
-      <c r="J126" s="61"/>
-      <c r="K126" s="53"/>
-      <c r="L126" s="51"/>
-      <c r="M126" s="52"/>
-      <c r="N126" s="51"/>
-      <c r="O126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="55"/>
+      <c r="L126" s="56"/>
+      <c r="M126" s="57"/>
+      <c r="N126" s="56"/>
+      <c r="O126" s="55"/>
     </row>
     <row r="127" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
       <c r="A127" s="22"/>
@@ -13374,15 +13346,15 @@
       <c r="D127" s="29"/>
       <c r="E127" s="29"/>
       <c r="F127" s="32"/>
-      <c r="G127" s="60"/>
-      <c r="H127" s="60"/>
-      <c r="I127" s="60"/>
-      <c r="J127" s="61"/>
-      <c r="K127" s="53"/>
-      <c r="L127" s="51"/>
-      <c r="M127" s="52"/>
-      <c r="N127" s="51"/>
-      <c r="O127" s="53"/>
+      <c r="G127" s="53"/>
+      <c r="H127" s="53"/>
+      <c r="I127" s="53"/>
+      <c r="J127" s="54"/>
+      <c r="K127" s="55"/>
+      <c r="L127" s="56"/>
+      <c r="M127" s="57"/>
+      <c r="N127" s="56"/>
+      <c r="O127" s="55"/>
     </row>
     <row r="128" s="1" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A128" s="31"/>
@@ -13587,7 +13559,7 @@
       <c r="B139" s="23"/>
       <c r="C139" s="33"/>
       <c r="D139" s="30"/>
-      <c r="E139" s="58"/>
+      <c r="E139" s="51"/>
       <c r="F139" s="32"/>
       <c r="G139" s="29"/>
       <c r="H139" s="29"/>
@@ -13605,7 +13577,7 @@
       <c r="B140" s="23"/>
       <c r="C140" s="33"/>
       <c r="D140" s="30"/>
-      <c r="E140" s="58"/>
+      <c r="E140" s="51"/>
       <c r="F140" s="35"/>
       <c r="G140" s="29"/>
       <c r="H140" s="29"/>
@@ -13623,7 +13595,7 @@
       <c r="B141" s="23"/>
       <c r="C141" s="33"/>
       <c r="D141" s="30"/>
-      <c r="E141" s="58"/>
+      <c r="E141" s="51"/>
       <c r="F141" s="32"/>
       <c r="G141" s="29"/>
       <c r="H141" s="29"/>
@@ -13641,7 +13613,7 @@
       <c r="B142" s="23"/>
       <c r="C142" s="28"/>
       <c r="D142" s="29"/>
-      <c r="E142" s="58"/>
+      <c r="E142" s="51"/>
       <c r="F142" s="32"/>
       <c r="G142" s="29"/>
       <c r="H142" s="29"/>
@@ -13659,7 +13631,7 @@
       <c r="B143" s="23"/>
       <c r="C143" s="28"/>
       <c r="D143" s="29"/>
-      <c r="E143" s="58"/>
+      <c r="E143" s="51"/>
       <c r="F143" s="29"/>
       <c r="G143" s="29"/>
       <c r="H143" s="29"/>
@@ -13677,7 +13649,7 @@
       <c r="B144" s="23"/>
       <c r="C144" s="28"/>
       <c r="D144" s="29"/>
-      <c r="E144" s="58"/>
+      <c r="E144" s="51"/>
       <c r="F144" s="32"/>
       <c r="G144" s="29"/>
       <c r="H144" s="29"/>
@@ -16771,5610 +16743,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P275"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="44.5333333333333" style="6" customWidth="1"/>
-    <col min="2" max="2" width="42.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10" style="8" customWidth="1"/>
-    <col min="4" max="4" width="32.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="48.4" style="9" customWidth="1"/>
-    <col min="6" max="6" width="42.5333333333333" style="9" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="9" customWidth="1"/>
-    <col min="8" max="9" width="9.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="28.6666666666667" style="10" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="11" customWidth="1"/>
-    <col min="12" max="12" width="12" style="12" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="13" customWidth="1"/>
-    <col min="14" max="14" width="19" style="12" customWidth="1"/>
-    <col min="15" max="15" width="49.8333333333333" style="11" customWidth="1"/>
-    <col min="16" max="16384" width="10.8333333333333" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.15" spans="1:15">
-      <c r="A1" s="15" t="s">
-        <v>725</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
-        <v>726</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>727</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>730</v>
-      </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="17" t="s">
-        <v>731</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="41"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.15" spans="1:15">
-      <c r="A2" s="18" t="s">
-        <v>753</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="25"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
-      <c r="A4" s="27" t="s">
-        <v>733</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>725</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>735</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>736</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>737</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>738</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>739</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>740</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>741</v>
-      </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="27" t="s">
-        <v>742</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>743</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>744</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="33" customHeight="1" spans="1:15">
-      <c r="A5" s="22" t="s">
-        <v>754</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>755</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>756</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="25"/>
-    </row>
-    <row r="6" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="31"/>
-      <c r="B6" s="23" t="s">
-        <v>757</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>758</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="40"/>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="29" customHeight="1" spans="1:15">
-      <c r="A7" s="31" t="s">
-        <v>875</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>761</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>752</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="40"/>
-    </row>
-    <row r="8" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A8" s="31"/>
-      <c r="B8" s="23" t="s">
-        <v>762</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>714</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>763</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="40"/>
-    </row>
-    <row r="9" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A9" s="31"/>
-      <c r="B9" s="23" t="s">
-        <v>764</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>765</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>752</v>
-      </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="48" t="s">
-        <v>766</v>
-      </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="40"/>
-    </row>
-    <row r="10" s="4" customFormat="1" ht="29" customHeight="1" spans="1:15">
-      <c r="A10" s="31"/>
-      <c r="B10" s="23" t="s">
-        <v>767</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>768</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>752</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="48" t="s">
-        <v>769</v>
-      </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="40"/>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A11" s="31"/>
-      <c r="B11" s="23" t="s">
-        <v>770</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>771</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>752</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="48" t="s">
-        <v>772</v>
-      </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="40"/>
-    </row>
-    <row r="12" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A12" s="31"/>
-      <c r="B12" s="23" t="s">
-        <v>770</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>773</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>752</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="48" t="s">
-        <v>774</v>
-      </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="40"/>
-    </row>
-    <row r="13" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A13" s="31"/>
-      <c r="B13" s="23" t="s">
-        <v>775</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>776</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>752</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="40"/>
-    </row>
-    <row r="14" ht="21" customHeight="1" spans="1:11">
-      <c r="A14" s="31"/>
-      <c r="B14" s="23" t="s">
-        <v>777</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>530</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>778</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="40"/>
-    </row>
-    <row r="15" ht="21" customHeight="1" spans="1:11">
-      <c r="A15" s="31"/>
-      <c r="B15" s="23" t="s">
-        <v>780</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>781</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>752</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="40"/>
-    </row>
-    <row r="16" ht="21" customHeight="1" spans="1:11">
-      <c r="A16" s="31"/>
-      <c r="B16" s="23" t="s">
-        <v>782</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>714</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>783</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="40"/>
-    </row>
-    <row r="17" ht="22" customHeight="1" spans="1:11">
-      <c r="A17" s="31"/>
-      <c r="B17" s="23" t="s">
-        <v>784</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>530</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>785</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>786</v>
-      </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="40"/>
-    </row>
-    <row r="18" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A18" s="31"/>
-      <c r="B18" s="23" t="s">
-        <v>787</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>876</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>752</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A19" s="31"/>
-      <c r="B19" s="23" t="s">
-        <v>789</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>790</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>752</v>
-      </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A20" s="31" t="s">
-        <v>791</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>792</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="40"/>
-    </row>
-    <row r="21" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A21" s="31"/>
-      <c r="B21" s="23" t="s">
-        <v>794</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="40"/>
-    </row>
-    <row r="22" customFormat="1" ht="29" customHeight="1" spans="1:15">
-      <c r="A22" s="31"/>
-      <c r="B22" s="23" t="s">
-        <v>797</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>798</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>799</v>
-      </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="40"/>
-    </row>
-    <row r="23" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="31"/>
-      <c r="B23" s="23" t="s">
-        <v>800</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>801</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>802</v>
-      </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="40"/>
-    </row>
-    <row r="24" s="5" customFormat="1" ht="38" customHeight="1" spans="1:15">
-      <c r="A24" s="31"/>
-      <c r="B24" s="23" t="s">
-        <v>803</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>804</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>805</v>
-      </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="53"/>
-    </row>
-    <row r="25" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A25" s="31"/>
-      <c r="B25" s="23" t="s">
-        <v>806</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>807</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>808</v>
-      </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="53"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:16">
-      <c r="A26" s="31"/>
-      <c r="B26" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>810</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>811</v>
-      </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:16">
-      <c r="A27" s="31"/>
-      <c r="B27" s="23" t="s">
-        <v>812</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>813</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>814</v>
-      </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:16">
-      <c r="A28" s="31"/>
-      <c r="B28" s="23" t="s">
-        <v>815</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>816</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>817</v>
-      </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-    </row>
-    <row r="29" customFormat="1" ht="23" customHeight="1" spans="1:16">
-      <c r="A29" s="31"/>
-      <c r="B29" s="23" t="s">
-        <v>818</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>819</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-    </row>
-    <row r="30" ht="23" customHeight="1" spans="1:16">
-      <c r="A30" s="31"/>
-      <c r="B30" s="23" t="s">
-        <v>820</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>714</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>783</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-    </row>
-    <row r="31" ht="23" customHeight="1" spans="1:16">
-      <c r="A31" s="31"/>
-      <c r="B31" s="23" t="s">
-        <v>821</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>530</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>822</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>823</v>
-      </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-    </row>
-    <row r="32" ht="23" customHeight="1" spans="1:16">
-      <c r="A32" s="31"/>
-      <c r="B32" s="23" t="s">
-        <v>824</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>825</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>752</v>
-      </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-    </row>
-    <row r="33" ht="23" customHeight="1" spans="1:16">
-      <c r="A33" s="31"/>
-      <c r="B33" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>493</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>827</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-    </row>
-    <row r="34" ht="32" customHeight="1" spans="1:16">
-      <c r="A34" s="31"/>
-      <c r="B34" s="23" t="s">
-        <v>818</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>819</v>
-      </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-    </row>
-    <row r="35" ht="34" customHeight="1" spans="1:16">
-      <c r="A35" s="1"/>
-      <c r="B35" s="23" t="s">
-        <v>820</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>714</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>783</v>
-      </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-    </row>
-    <row r="36" ht="34" customHeight="1" spans="1:16">
-      <c r="A36" s="1"/>
-      <c r="B36" s="23" t="s">
-        <v>829</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>830</v>
-      </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-    </row>
-    <row r="37" ht="34" customHeight="1" spans="1:16">
-      <c r="A37" s="1"/>
-      <c r="B37" s="23" t="s">
-        <v>831</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>530</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>833</v>
-      </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-    </row>
-    <row r="38" ht="34" customHeight="1" spans="1:16">
-      <c r="A38" s="22" t="s">
-        <v>877</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>835</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>836</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>752</v>
-      </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-    </row>
-    <row r="39" ht="34" customHeight="1" spans="1:16">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23" t="s">
-        <v>837</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>830</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>752</v>
-      </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-    </row>
-    <row r="40" ht="34" customHeight="1" spans="1:16">
-      <c r="A40" s="31"/>
-      <c r="B40" s="23" t="s">
-        <v>838</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>530</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>839</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>840</v>
-      </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-    </row>
-    <row r="41" ht="34" customHeight="1" spans="1:16">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23" t="s">
-        <v>841</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>530</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>843</v>
-      </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-    </row>
-    <row r="42" ht="34" customHeight="1" spans="1:16">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23" t="s">
-        <v>844</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>493</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>845</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>846</v>
-      </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-    </row>
-    <row r="43" ht="34" customHeight="1" spans="1:16">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23" t="s">
-        <v>847</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>530</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>846</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>848</v>
-      </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-    </row>
-    <row r="44" ht="34" customHeight="1" spans="1:16">
-      <c r="A44" s="31"/>
-      <c r="B44" s="23" t="s">
-        <v>849</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>850</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>752</v>
-      </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="54"/>
-    </row>
-    <row r="45" ht="34" customHeight="1" spans="1:16">
-      <c r="A45" s="31"/>
-      <c r="B45" s="23" t="s">
-        <v>851</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>852</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>752</v>
-      </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="55"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="54"/>
-    </row>
-    <row r="46" ht="34" customHeight="1" spans="1:16">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23" t="s">
-        <v>853</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>483</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>854</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>855</v>
-      </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="5"/>
-    </row>
-    <row r="47" ht="34" customHeight="1" spans="1:16">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23" t="s">
-        <v>856</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>493</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>857</v>
-      </c>
-      <c r="F47" s="30" t="s">
-        <v>855</v>
-      </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="5"/>
-    </row>
-    <row r="48" ht="34" customHeight="1" spans="1:16">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23" t="s">
-        <v>858</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>859</v>
-      </c>
-      <c r="F48" s="30" t="s">
-        <v>860</v>
-      </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="5"/>
-    </row>
-    <row r="49" ht="34" customHeight="1" spans="1:16">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23" t="s">
-        <v>861</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="E49" s="30" t="s">
-        <v>862</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>863</v>
-      </c>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="5"/>
-    </row>
-    <row r="50" ht="34" customHeight="1" spans="1:16">
-      <c r="A50" s="22"/>
-      <c r="B50" s="37" t="s">
-        <v>864</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>865</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>866</v>
-      </c>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="5"/>
-    </row>
-    <row r="51" ht="34" customHeight="1" spans="1:16">
-      <c r="A51" s="31"/>
-      <c r="B51" s="37" t="s">
-        <v>867</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>859</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>868</v>
-      </c>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="55"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="57"/>
-    </row>
-    <row r="52" ht="34" customHeight="1" spans="1:16">
-      <c r="A52" s="31"/>
-      <c r="B52" s="37" t="s">
-        <v>869</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>493</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>870</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>871</v>
-      </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="55"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="57"/>
-    </row>
-    <row r="53" ht="34" customHeight="1" spans="1:16">
-      <c r="A53" s="31"/>
-      <c r="B53" s="37" t="s">
-        <v>872</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>873</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>848</v>
-      </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="48" t="s">
-        <v>874</v>
-      </c>
-      <c r="K53" s="40"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="55"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="57"/>
-    </row>
-    <row r="54" ht="34" customHeight="1" spans="1:16">
-      <c r="A54" s="31"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="57"/>
-    </row>
-    <row r="55" ht="34" customHeight="1" spans="1:16">
-      <c r="A55" s="31"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="57"/>
-    </row>
-    <row r="56" ht="34" customHeight="1" spans="1:16">
-      <c r="A56" s="31"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="55"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="57"/>
-    </row>
-    <row r="57" ht="34" customHeight="1" spans="1:16">
-      <c r="A57" s="31"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="55"/>
-      <c r="O57" s="56"/>
-      <c r="P57" s="57"/>
-    </row>
-    <row r="58" ht="34" customHeight="1" spans="1:16">
-      <c r="A58" s="31"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="50"/>
-      <c r="N58" s="55"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="57"/>
-    </row>
-    <row r="59" ht="34" customHeight="1" spans="1:16">
-      <c r="A59" s="31"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="55"/>
-      <c r="O59" s="56"/>
-      <c r="P59" s="57"/>
-    </row>
-    <row r="60" ht="34" customHeight="1" spans="1:16">
-      <c r="A60" s="31"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="56"/>
-      <c r="P60" s="57"/>
-    </row>
-    <row r="61" ht="34" customHeight="1" spans="1:16">
-      <c r="A61" s="31"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="55"/>
-      <c r="O61" s="56"/>
-      <c r="P61" s="57"/>
-    </row>
-    <row r="62" ht="34" customHeight="1" spans="1:16">
-      <c r="A62" s="31"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="56"/>
-      <c r="P62" s="57"/>
-    </row>
-    <row r="63" ht="34" customHeight="1" spans="1:16">
-      <c r="A63" s="31"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="50"/>
-      <c r="N63" s="55"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="57"/>
-    </row>
-    <row r="64" ht="34" customHeight="1" spans="1:16">
-      <c r="A64" s="31"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="55"/>
-      <c r="O64" s="56"/>
-      <c r="P64" s="57"/>
-    </row>
-    <row r="65" ht="34" customHeight="1" spans="1:16">
-      <c r="A65" s="31"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="50"/>
-      <c r="N65" s="55"/>
-      <c r="O65" s="56"/>
-      <c r="P65" s="57"/>
-    </row>
-    <row r="66" ht="34" customHeight="1" spans="1:16">
-      <c r="A66" s="31"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="50"/>
-      <c r="N66" s="55"/>
-      <c r="O66" s="56"/>
-      <c r="P66" s="57"/>
-    </row>
-    <row r="67" ht="34" customHeight="1" spans="1:16">
-      <c r="A67" s="31"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="55"/>
-      <c r="O67" s="56"/>
-      <c r="P67" s="57"/>
-    </row>
-    <row r="68" ht="34" customHeight="1" spans="1:16">
-      <c r="A68" s="31"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="55"/>
-      <c r="O68" s="56"/>
-      <c r="P68" s="57"/>
-    </row>
-    <row r="69" ht="34" customHeight="1" spans="1:16">
-      <c r="A69" s="31"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="55"/>
-      <c r="O69" s="56"/>
-      <c r="P69" s="57"/>
-    </row>
-    <row r="70" ht="34" customHeight="1" spans="1:16">
-      <c r="A70" s="31"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="55"/>
-      <c r="O70" s="56"/>
-      <c r="P70" s="57"/>
-    </row>
-    <row r="71" ht="34" customHeight="1" spans="1:16">
-      <c r="A71" s="31"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="50"/>
-      <c r="N71" s="55"/>
-      <c r="O71" s="56"/>
-      <c r="P71" s="57"/>
-    </row>
-    <row r="72" ht="34" customHeight="1" spans="1:16">
-      <c r="A72" s="31"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="55"/>
-      <c r="O72" s="56"/>
-      <c r="P72" s="57"/>
-    </row>
-    <row r="73" ht="34" customHeight="1" spans="1:16">
-      <c r="A73" s="31"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="48"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="55"/>
-      <c r="O73" s="56"/>
-      <c r="P73" s="57"/>
-    </row>
-    <row r="74" ht="34" customHeight="1" spans="1:16">
-      <c r="A74" s="31"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="48"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="55"/>
-      <c r="O74" s="56"/>
-      <c r="P74" s="57"/>
-    </row>
-    <row r="75" ht="34" customHeight="1" spans="1:16">
-      <c r="A75" s="31"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="50"/>
-      <c r="N75" s="55"/>
-      <c r="O75" s="56"/>
-      <c r="P75" s="57"/>
-    </row>
-    <row r="76" ht="34" customHeight="1" spans="1:16">
-      <c r="A76" s="31"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="48"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="50"/>
-      <c r="N76" s="55"/>
-      <c r="O76" s="56"/>
-      <c r="P76" s="57"/>
-    </row>
-    <row r="77" ht="34" customHeight="1" spans="1:16">
-      <c r="A77" s="31"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="48"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="49"/>
-      <c r="M77" s="50"/>
-      <c r="N77" s="55"/>
-      <c r="O77" s="56"/>
-      <c r="P77" s="57"/>
-    </row>
-    <row r="78" ht="34" customHeight="1" spans="1:16">
-      <c r="A78" s="31"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="48"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="55"/>
-      <c r="O78" s="56"/>
-      <c r="P78" s="57"/>
-    </row>
-    <row r="79" ht="34" customHeight="1" spans="1:16">
-      <c r="A79" s="31"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="48"/>
-      <c r="K79" s="40"/>
-      <c r="L79" s="49"/>
-      <c r="M79" s="50"/>
-      <c r="N79" s="55"/>
-      <c r="O79" s="56"/>
-      <c r="P79" s="57"/>
-    </row>
-    <row r="80" ht="34" customHeight="1" spans="1:16">
-      <c r="A80" s="31"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="48"/>
-      <c r="K80" s="40"/>
-      <c r="L80" s="49"/>
-      <c r="M80" s="50"/>
-      <c r="N80" s="55"/>
-      <c r="O80" s="56"/>
-      <c r="P80" s="57"/>
-    </row>
-    <row r="81" ht="34" customHeight="1" spans="1:16">
-      <c r="A81" s="31"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="40"/>
-      <c r="L81" s="49"/>
-      <c r="M81" s="50"/>
-      <c r="N81" s="55"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="57"/>
-    </row>
-    <row r="82" ht="34" customHeight="1" spans="1:16">
-      <c r="A82" s="31"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="50"/>
-      <c r="N82" s="55"/>
-      <c r="O82" s="56"/>
-      <c r="P82" s="57"/>
-    </row>
-    <row r="83" ht="34" customHeight="1" spans="1:16">
-      <c r="A83" s="31"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="48"/>
-      <c r="K83" s="40"/>
-      <c r="L83" s="49"/>
-      <c r="M83" s="50"/>
-      <c r="N83" s="55"/>
-      <c r="O83" s="56"/>
-      <c r="P83" s="57"/>
-    </row>
-    <row r="84" ht="34" customHeight="1" spans="1:16">
-      <c r="A84" s="31"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="48"/>
-      <c r="K84" s="40"/>
-      <c r="L84" s="49"/>
-      <c r="M84" s="50"/>
-      <c r="N84" s="55"/>
-      <c r="O84" s="56"/>
-      <c r="P84" s="57"/>
-    </row>
-    <row r="85" ht="34" customHeight="1" spans="1:16">
-      <c r="A85" s="31"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="48"/>
-      <c r="K85" s="40"/>
-      <c r="L85" s="49"/>
-      <c r="M85" s="50"/>
-      <c r="N85" s="55"/>
-      <c r="O85" s="56"/>
-      <c r="P85" s="57"/>
-    </row>
-    <row r="86" ht="34" customHeight="1" spans="1:16">
-      <c r="A86" s="31"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="40"/>
-      <c r="L86" s="49"/>
-      <c r="M86" s="50"/>
-      <c r="N86" s="55"/>
-      <c r="O86" s="56"/>
-      <c r="P86" s="57"/>
-    </row>
-    <row r="87" ht="34" customHeight="1" spans="1:16">
-      <c r="A87" s="31"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="49"/>
-      <c r="M87" s="50"/>
-      <c r="N87" s="55"/>
-      <c r="O87" s="56"/>
-      <c r="P87" s="57"/>
-    </row>
-    <row r="88" ht="34" customHeight="1" spans="1:16">
-      <c r="A88" s="31"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="48"/>
-      <c r="K88" s="40"/>
-      <c r="L88" s="49"/>
-      <c r="M88" s="50"/>
-      <c r="N88" s="55"/>
-      <c r="O88" s="56"/>
-      <c r="P88" s="57"/>
-    </row>
-    <row r="89" ht="34" customHeight="1" spans="1:16">
-      <c r="A89" s="31"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="48"/>
-      <c r="K89" s="40"/>
-      <c r="L89" s="49"/>
-      <c r="M89" s="50"/>
-      <c r="N89" s="55"/>
-      <c r="O89" s="56"/>
-      <c r="P89" s="57"/>
-    </row>
-    <row r="90" ht="34" customHeight="1" spans="1:16">
-      <c r="A90" s="31"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="48"/>
-      <c r="K90" s="40"/>
-      <c r="L90" s="49"/>
-      <c r="M90" s="50"/>
-      <c r="N90" s="55"/>
-      <c r="O90" s="56"/>
-      <c r="P90" s="57"/>
-    </row>
-    <row r="91" ht="34" customHeight="1" spans="1:16">
-      <c r="A91" s="31"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="40"/>
-      <c r="L91" s="49"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="55"/>
-      <c r="O91" s="56"/>
-      <c r="P91" s="57"/>
-    </row>
-    <row r="92" ht="34" customHeight="1" spans="1:16">
-      <c r="A92" s="31"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="40"/>
-      <c r="L92" s="49"/>
-      <c r="M92" s="50"/>
-      <c r="N92" s="55"/>
-      <c r="O92" s="56"/>
-      <c r="P92" s="57"/>
-    </row>
-    <row r="93" ht="34" customHeight="1" spans="1:16">
-      <c r="A93" s="31"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="48"/>
-      <c r="K93" s="40"/>
-      <c r="L93" s="49"/>
-      <c r="M93" s="50"/>
-      <c r="N93" s="55"/>
-      <c r="O93" s="56"/>
-      <c r="P93" s="57"/>
-    </row>
-    <row r="94" ht="34" customHeight="1" spans="1:16">
-      <c r="A94" s="31"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="48"/>
-      <c r="K94" s="40"/>
-      <c r="L94" s="49"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="55"/>
-      <c r="O94" s="56"/>
-      <c r="P94" s="57"/>
-    </row>
-    <row r="95" ht="34" customHeight="1" spans="1:16">
-      <c r="A95" s="31"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="48"/>
-      <c r="K95" s="40"/>
-      <c r="L95" s="49"/>
-      <c r="M95" s="50"/>
-      <c r="N95" s="55"/>
-      <c r="O95" s="56"/>
-      <c r="P95" s="57"/>
-    </row>
-    <row r="96" ht="34" customHeight="1" spans="1:16">
-      <c r="A96" s="31"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="48"/>
-      <c r="K96" s="40"/>
-      <c r="L96" s="49"/>
-      <c r="M96" s="50"/>
-      <c r="N96" s="55"/>
-      <c r="O96" s="56"/>
-      <c r="P96" s="57"/>
-    </row>
-    <row r="97" ht="34" customHeight="1" spans="1:16">
-      <c r="A97" s="31"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="48"/>
-      <c r="K97" s="40"/>
-      <c r="L97" s="49"/>
-      <c r="M97" s="50"/>
-      <c r="N97" s="55"/>
-      <c r="O97" s="56"/>
-      <c r="P97" s="57"/>
-    </row>
-    <row r="98" ht="34" customHeight="1" spans="1:16">
-      <c r="A98" s="31"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="48"/>
-      <c r="K98" s="40"/>
-      <c r="L98" s="49"/>
-      <c r="M98" s="50"/>
-      <c r="N98" s="55"/>
-      <c r="O98" s="56"/>
-      <c r="P98" s="57"/>
-    </row>
-    <row r="99" ht="34" customHeight="1" spans="1:16">
-      <c r="A99" s="31"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="33"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="48"/>
-      <c r="K99" s="40"/>
-      <c r="L99" s="49"/>
-      <c r="M99" s="50"/>
-      <c r="N99" s="55"/>
-      <c r="O99" s="56"/>
-      <c r="P99" s="57"/>
-    </row>
-    <row r="100" ht="34" customHeight="1" spans="1:16">
-      <c r="A100" s="31"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="48"/>
-      <c r="K100" s="40"/>
-      <c r="L100" s="49"/>
-      <c r="M100" s="50"/>
-      <c r="N100" s="55"/>
-      <c r="O100" s="56"/>
-      <c r="P100" s="57"/>
-    </row>
-    <row r="101" ht="34" customHeight="1" spans="1:16">
-      <c r="A101" s="31"/>
-      <c r="B101" s="37"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="48"/>
-      <c r="K101" s="40"/>
-      <c r="L101" s="49"/>
-      <c r="M101" s="50"/>
-      <c r="N101" s="55"/>
-      <c r="O101" s="56"/>
-      <c r="P101" s="57"/>
-    </row>
-    <row r="102" ht="34" customHeight="1" spans="1:15">
-      <c r="A102" s="31"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="48"/>
-      <c r="K102" s="40"/>
-      <c r="L102" s="49"/>
-      <c r="M102" s="50"/>
-      <c r="N102" s="49"/>
-      <c r="O102" s="40"/>
-    </row>
-    <row r="103" ht="34" customHeight="1" spans="1:15">
-      <c r="A103" s="31"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="48"/>
-      <c r="K103" s="40"/>
-      <c r="L103" s="49"/>
-      <c r="M103" s="50"/>
-      <c r="N103" s="49"/>
-      <c r="O103" s="40"/>
-    </row>
-    <row r="104" ht="34" customHeight="1" spans="1:15">
-      <c r="A104" s="31"/>
-      <c r="B104" s="37"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="48"/>
-      <c r="K104" s="40"/>
-      <c r="L104" s="49"/>
-      <c r="M104" s="50"/>
-      <c r="N104" s="49"/>
-      <c r="O104" s="40"/>
-    </row>
-    <row r="105" ht="34" customHeight="1" spans="1:15">
-      <c r="A105" s="31"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
-      <c r="I105" s="29"/>
-      <c r="J105" s="48"/>
-      <c r="K105" s="40"/>
-      <c r="L105" s="49"/>
-      <c r="M105" s="50"/>
-      <c r="N105" s="49"/>
-      <c r="O105" s="40"/>
-    </row>
-    <row r="106" ht="34" customHeight="1" spans="1:15">
-      <c r="A106" s="31"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="29"/>
-      <c r="J106" s="48"/>
-      <c r="K106" s="40"/>
-      <c r="L106" s="49"/>
-      <c r="M106" s="50"/>
-      <c r="N106" s="49"/>
-      <c r="O106" s="40"/>
-    </row>
-    <row r="107" ht="34" customHeight="1" spans="1:15">
-      <c r="A107" s="31"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="48"/>
-      <c r="K107" s="40"/>
-      <c r="L107" s="49"/>
-      <c r="M107" s="50"/>
-      <c r="N107" s="49"/>
-      <c r="O107" s="40"/>
-    </row>
-    <row r="108" ht="34" customHeight="1" spans="1:15">
-      <c r="A108" s="31"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="48"/>
-      <c r="K108" s="40"/>
-      <c r="L108" s="49"/>
-      <c r="M108" s="50"/>
-      <c r="N108" s="49"/>
-      <c r="O108" s="40"/>
-    </row>
-    <row r="109" ht="34" customHeight="1" spans="1:15">
-      <c r="A109" s="31"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="48"/>
-      <c r="K109" s="40"/>
-      <c r="L109" s="49"/>
-      <c r="M109" s="50"/>
-      <c r="N109" s="49"/>
-      <c r="O109" s="40"/>
-    </row>
-    <row r="110" ht="34" customHeight="1" spans="1:15">
-      <c r="A110" s="31"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
-      <c r="H110" s="29"/>
-      <c r="I110" s="29"/>
-      <c r="J110" s="48"/>
-      <c r="K110" s="40"/>
-      <c r="L110" s="49"/>
-      <c r="M110" s="50"/>
-      <c r="N110" s="49"/>
-      <c r="O110" s="40"/>
-    </row>
-    <row r="111" ht="34" customHeight="1" spans="1:15">
-      <c r="A111" s="31"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="29"/>
-      <c r="J111" s="48"/>
-      <c r="K111" s="40"/>
-      <c r="L111" s="49"/>
-      <c r="M111" s="50"/>
-      <c r="N111" s="49"/>
-      <c r="O111" s="40"/>
-    </row>
-    <row r="112" ht="23" customHeight="1" spans="1:16">
-      <c r="A112" s="22"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="58"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="29"/>
-      <c r="J112" s="48"/>
-      <c r="K112" s="31"/>
-      <c r="L112" s="23"/>
-      <c r="M112" s="28"/>
-      <c r="N112" s="29"/>
-      <c r="O112" s="29"/>
-      <c r="P112" s="29"/>
-    </row>
-    <row r="113" s="1" customFormat="1" ht="23" customHeight="1" spans="1:16">
-      <c r="A113" s="31"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="58"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="29"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="29"/>
-      <c r="J113" s="48"/>
-      <c r="K113" s="31"/>
-      <c r="L113" s="23"/>
-      <c r="M113" s="28"/>
-      <c r="N113" s="29"/>
-      <c r="O113" s="29"/>
-      <c r="P113" s="29"/>
-    </row>
-    <row r="114" s="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
-      <c r="A114" s="31"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="32"/>
-      <c r="G114" s="29"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="29"/>
-      <c r="J114" s="48"/>
-      <c r="K114" s="31"/>
-      <c r="L114" s="23"/>
-      <c r="M114" s="28"/>
-      <c r="N114" s="29"/>
-      <c r="O114" s="29"/>
-      <c r="P114" s="29"/>
-    </row>
-    <row r="115" s="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
-      <c r="A115" s="31"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="32"/>
-      <c r="G115" s="29"/>
-      <c r="H115" s="29"/>
-      <c r="I115" s="29"/>
-      <c r="J115" s="48"/>
-      <c r="K115" s="31"/>
-      <c r="L115" s="23"/>
-      <c r="M115" s="28"/>
-      <c r="N115" s="29"/>
-      <c r="O115" s="29"/>
-      <c r="P115" s="29"/>
-    </row>
-    <row r="116" ht="23" customHeight="1" spans="1:16">
-      <c r="A116" s="31"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="32"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="29"/>
-      <c r="I116" s="29"/>
-      <c r="J116" s="48"/>
-      <c r="K116" s="31"/>
-      <c r="L116" s="23"/>
-      <c r="M116" s="28"/>
-      <c r="N116" s="29"/>
-      <c r="O116" s="29"/>
-      <c r="P116" s="29"/>
-    </row>
-    <row r="117" ht="23" customHeight="1" spans="1:16">
-      <c r="A117" s="31"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
-      <c r="H117" s="29"/>
-      <c r="I117" s="29"/>
-      <c r="J117" s="48"/>
-      <c r="K117" s="31"/>
-      <c r="L117" s="23"/>
-      <c r="M117" s="28"/>
-      <c r="N117" s="29"/>
-      <c r="O117" s="29"/>
-      <c r="P117" s="29"/>
-    </row>
-    <row r="118" ht="23" customHeight="1" spans="1:16">
-      <c r="A118" s="31"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
-      <c r="H118" s="29"/>
-      <c r="I118" s="29"/>
-      <c r="J118" s="48"/>
-      <c r="K118" s="31"/>
-      <c r="L118" s="23"/>
-      <c r="M118" s="28"/>
-      <c r="N118" s="29"/>
-      <c r="O118" s="29"/>
-      <c r="P118" s="29"/>
-    </row>
-    <row r="119" ht="23" customHeight="1" spans="1:16">
-      <c r="A119" s="31"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="29"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="29"/>
-      <c r="H119" s="29"/>
-      <c r="I119" s="29"/>
-      <c r="J119" s="48"/>
-      <c r="K119" s="31"/>
-      <c r="L119" s="23"/>
-      <c r="M119" s="28"/>
-      <c r="N119" s="29"/>
-      <c r="O119" s="29"/>
-      <c r="P119" s="29"/>
-    </row>
-    <row r="120" ht="23" customHeight="1" spans="1:16">
-      <c r="A120" s="31"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
-      <c r="H120" s="29"/>
-      <c r="I120" s="29"/>
-      <c r="J120" s="48"/>
-      <c r="K120" s="31"/>
-      <c r="L120" s="23"/>
-      <c r="M120" s="28"/>
-      <c r="N120" s="29"/>
-      <c r="O120" s="29"/>
-      <c r="P120" s="29"/>
-    </row>
-    <row r="121" ht="23" customHeight="1" spans="1:16">
-      <c r="A121" s="31"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="29"/>
-      <c r="I121" s="29"/>
-      <c r="J121" s="48"/>
-      <c r="K121" s="31"/>
-      <c r="L121" s="23"/>
-      <c r="M121" s="28"/>
-      <c r="N121" s="29"/>
-      <c r="O121" s="29"/>
-      <c r="P121" s="29"/>
-    </row>
-    <row r="122" ht="23" customHeight="1" spans="1:16">
-      <c r="A122" s="31"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="29"/>
-      <c r="H122" s="29"/>
-      <c r="I122" s="29"/>
-      <c r="J122" s="48"/>
-      <c r="K122" s="31"/>
-      <c r="L122" s="23"/>
-      <c r="M122" s="28"/>
-      <c r="N122" s="29"/>
-      <c r="O122" s="29"/>
-      <c r="P122" s="29"/>
-    </row>
-    <row r="123" ht="23" customHeight="1" spans="1:16">
-      <c r="A123" s="31"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="29"/>
-      <c r="H123" s="29"/>
-      <c r="I123" s="29"/>
-      <c r="J123" s="48"/>
-      <c r="K123" s="31"/>
-      <c r="L123" s="23"/>
-      <c r="M123" s="28"/>
-      <c r="N123" s="29"/>
-      <c r="O123" s="29"/>
-      <c r="P123" s="29"/>
-    </row>
-    <row r="124" ht="23" customHeight="1" spans="1:16">
-      <c r="A124" s="31"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="29"/>
-      <c r="H124" s="29"/>
-      <c r="I124" s="29"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="31"/>
-      <c r="L124" s="23"/>
-      <c r="M124" s="28"/>
-      <c r="N124" s="29"/>
-      <c r="O124" s="29"/>
-      <c r="P124" s="29"/>
-    </row>
-    <row r="125" ht="23" customHeight="1" spans="1:16">
-      <c r="A125" s="31"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="29"/>
-      <c r="I125" s="29"/>
-      <c r="J125" s="48"/>
-      <c r="K125" s="31"/>
-      <c r="L125" s="23"/>
-      <c r="M125" s="28"/>
-      <c r="N125" s="29"/>
-      <c r="O125" s="29"/>
-      <c r="P125" s="29"/>
-    </row>
-    <row r="126" ht="23" customHeight="1" spans="1:16">
-      <c r="A126" s="31"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
-      <c r="H126" s="29"/>
-      <c r="I126" s="29"/>
-      <c r="J126" s="48"/>
-      <c r="K126" s="31"/>
-      <c r="L126" s="23"/>
-      <c r="M126" s="28"/>
-      <c r="N126" s="29"/>
-      <c r="O126" s="29"/>
-      <c r="P126" s="29"/>
-    </row>
-    <row r="127" ht="23" customHeight="1" spans="1:16">
-      <c r="A127" s="31"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="29"/>
-      <c r="I127" s="29"/>
-      <c r="J127" s="48"/>
-      <c r="K127" s="31"/>
-      <c r="L127" s="23"/>
-      <c r="M127" s="28"/>
-      <c r="N127" s="29"/>
-      <c r="O127" s="29"/>
-      <c r="P127" s="29"/>
-    </row>
-    <row r="128" ht="23" customHeight="1" spans="1:16">
-      <c r="A128" s="31"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
-      <c r="H128" s="29"/>
-      <c r="I128" s="29"/>
-      <c r="J128" s="48"/>
-      <c r="K128" s="31"/>
-      <c r="L128" s="23"/>
-      <c r="M128" s="28"/>
-      <c r="N128" s="29"/>
-      <c r="O128" s="29"/>
-      <c r="P128" s="29"/>
-    </row>
-    <row r="129" ht="23" customHeight="1" spans="1:16">
-      <c r="A129" s="31"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="29"/>
-      <c r="H129" s="29"/>
-      <c r="I129" s="29"/>
-      <c r="J129" s="48"/>
-      <c r="K129" s="31"/>
-      <c r="L129" s="23"/>
-      <c r="M129" s="28"/>
-      <c r="N129" s="29"/>
-      <c r="O129" s="29"/>
-      <c r="P129" s="29"/>
-    </row>
-    <row r="130" ht="23" customHeight="1" spans="1:16">
-      <c r="A130" s="31"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="29"/>
-      <c r="G130" s="29"/>
-      <c r="H130" s="29"/>
-      <c r="I130" s="29"/>
-      <c r="J130" s="48"/>
-      <c r="K130" s="31"/>
-      <c r="L130" s="23"/>
-      <c r="M130" s="28"/>
-      <c r="N130" s="29"/>
-      <c r="O130" s="29"/>
-      <c r="P130" s="29"/>
-    </row>
-    <row r="131" ht="23" customHeight="1" spans="1:16">
-      <c r="A131" s="31"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="29"/>
-      <c r="I131" s="29"/>
-      <c r="J131" s="48"/>
-      <c r="K131" s="31"/>
-      <c r="L131" s="23"/>
-      <c r="M131" s="28"/>
-      <c r="N131" s="29"/>
-      <c r="O131" s="29"/>
-      <c r="P131" s="29"/>
-    </row>
-    <row r="132" ht="23" customHeight="1" spans="1:16">
-      <c r="A132" s="31"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="29"/>
-      <c r="H132" s="29"/>
-      <c r="I132" s="29"/>
-      <c r="J132" s="48"/>
-      <c r="K132" s="31"/>
-      <c r="L132" s="23"/>
-      <c r="M132" s="28"/>
-      <c r="N132" s="29"/>
-      <c r="O132" s="29"/>
-      <c r="P132" s="29"/>
-    </row>
-    <row r="133" ht="23" customHeight="1" spans="1:16">
-      <c r="A133" s="31"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="29"/>
-      <c r="H133" s="29"/>
-      <c r="I133" s="29"/>
-      <c r="J133" s="48"/>
-      <c r="K133" s="31"/>
-      <c r="L133" s="23"/>
-      <c r="M133" s="28"/>
-      <c r="N133" s="29"/>
-      <c r="O133" s="29"/>
-      <c r="P133" s="29"/>
-    </row>
-    <row r="134" ht="23" customHeight="1" spans="1:16">
-      <c r="A134" s="31"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="29"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="29"/>
-      <c r="I134" s="29"/>
-      <c r="J134" s="48"/>
-      <c r="K134" s="31"/>
-      <c r="L134" s="23"/>
-      <c r="M134" s="28"/>
-      <c r="N134" s="29"/>
-      <c r="O134" s="29"/>
-      <c r="P134" s="29"/>
-    </row>
-    <row r="135" ht="23" customHeight="1" spans="1:16">
-      <c r="A135" s="31"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="29"/>
-      <c r="I135" s="29"/>
-      <c r="J135" s="48"/>
-      <c r="K135" s="31"/>
-      <c r="L135" s="23"/>
-      <c r="M135" s="28"/>
-      <c r="N135" s="29"/>
-      <c r="O135" s="29"/>
-      <c r="P135" s="29"/>
-    </row>
-    <row r="136" ht="23" customHeight="1" spans="1:16">
-      <c r="A136" s="31"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="29"/>
-      <c r="H136" s="29"/>
-      <c r="I136" s="29"/>
-      <c r="J136" s="48"/>
-      <c r="K136" s="31"/>
-      <c r="L136" s="23"/>
-      <c r="M136" s="28"/>
-      <c r="N136" s="29"/>
-      <c r="O136" s="29"/>
-      <c r="P136" s="29"/>
-    </row>
-    <row r="137" ht="23" customHeight="1" spans="1:16">
-      <c r="A137" s="31"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="29"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="29"/>
-      <c r="H137" s="29"/>
-      <c r="I137" s="29"/>
-      <c r="J137" s="48"/>
-      <c r="K137" s="31"/>
-      <c r="L137" s="23"/>
-      <c r="M137" s="28"/>
-      <c r="N137" s="29"/>
-      <c r="O137" s="29"/>
-      <c r="P137" s="29"/>
-    </row>
-    <row r="138" ht="23" customHeight="1" spans="1:16">
-      <c r="A138" s="31"/>
-      <c r="B138" s="23"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="29"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="29"/>
-      <c r="I138" s="29"/>
-      <c r="J138" s="48"/>
-      <c r="K138" s="31"/>
-      <c r="L138" s="23"/>
-      <c r="M138" s="28"/>
-      <c r="N138" s="29"/>
-      <c r="O138" s="29"/>
-      <c r="P138" s="29"/>
-    </row>
-    <row r="139" ht="23" customHeight="1" spans="1:16">
-      <c r="A139" s="31"/>
-      <c r="B139" s="23"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
-      <c r="H139" s="29"/>
-      <c r="I139" s="29"/>
-      <c r="J139" s="48"/>
-      <c r="K139" s="31"/>
-      <c r="L139" s="23"/>
-      <c r="M139" s="28"/>
-      <c r="N139" s="29"/>
-      <c r="O139" s="29"/>
-      <c r="P139" s="29"/>
-    </row>
-    <row r="140" ht="23" customHeight="1" spans="1:16">
-      <c r="A140" s="31"/>
-      <c r="B140" s="23"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
-      <c r="H140" s="29"/>
-      <c r="I140" s="29"/>
-      <c r="J140" s="48"/>
-      <c r="K140" s="31"/>
-      <c r="L140" s="23"/>
-      <c r="M140" s="28"/>
-      <c r="N140" s="29"/>
-      <c r="O140" s="29"/>
-      <c r="P140" s="29"/>
-    </row>
-    <row r="141" ht="23" customHeight="1" spans="1:16">
-      <c r="A141" s="31"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="29"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="29"/>
-      <c r="H141" s="29"/>
-      <c r="I141" s="29"/>
-      <c r="J141" s="48"/>
-      <c r="K141" s="31"/>
-      <c r="L141" s="23"/>
-      <c r="M141" s="28"/>
-      <c r="N141" s="29"/>
-      <c r="O141" s="29"/>
-      <c r="P141" s="29"/>
-    </row>
-    <row r="142" ht="23" customHeight="1" spans="1:16">
-      <c r="A142" s="31"/>
-      <c r="B142" s="23"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="29"/>
-      <c r="E142" s="29"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="29"/>
-      <c r="H142" s="29"/>
-      <c r="I142" s="29"/>
-      <c r="J142" s="48"/>
-      <c r="K142" s="31"/>
-      <c r="L142" s="23"/>
-      <c r="M142" s="28"/>
-      <c r="N142" s="29"/>
-      <c r="O142" s="29"/>
-      <c r="P142" s="29"/>
-    </row>
-    <row r="143" ht="23" customHeight="1" spans="1:16">
-      <c r="A143" s="31"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="29"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="29"/>
-      <c r="H143" s="29"/>
-      <c r="I143" s="29"/>
-      <c r="J143" s="48"/>
-      <c r="K143" s="31"/>
-      <c r="L143" s="23"/>
-      <c r="M143" s="28"/>
-      <c r="N143" s="29"/>
-      <c r="O143" s="29"/>
-      <c r="P143" s="29"/>
-    </row>
-    <row r="144" ht="23" customHeight="1" spans="1:16">
-      <c r="A144" s="31"/>
-      <c r="B144" s="23"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="29"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="29"/>
-      <c r="G144" s="29"/>
-      <c r="H144" s="29"/>
-      <c r="I144" s="29"/>
-      <c r="J144" s="48"/>
-      <c r="K144" s="31"/>
-      <c r="L144" s="23"/>
-      <c r="M144" s="28"/>
-      <c r="N144" s="29"/>
-      <c r="O144" s="29"/>
-      <c r="P144" s="29"/>
-    </row>
-    <row r="145" ht="23" customHeight="1" spans="1:16">
-      <c r="A145" s="31"/>
-      <c r="B145" s="23"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="29"/>
-      <c r="H145" s="29"/>
-      <c r="I145" s="29"/>
-      <c r="J145" s="48"/>
-      <c r="K145" s="31"/>
-      <c r="L145" s="23"/>
-      <c r="M145" s="28"/>
-      <c r="N145" s="29"/>
-      <c r="O145" s="29"/>
-      <c r="P145" s="29"/>
-    </row>
-    <row r="146" ht="23" customHeight="1" spans="1:16">
-      <c r="A146" s="31"/>
-      <c r="B146" s="23"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="29"/>
-      <c r="E146" s="29"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="29"/>
-      <c r="H146" s="29"/>
-      <c r="I146" s="29"/>
-      <c r="J146" s="48"/>
-      <c r="K146" s="31"/>
-      <c r="L146" s="23"/>
-      <c r="M146" s="28"/>
-      <c r="N146" s="29"/>
-      <c r="O146" s="29"/>
-      <c r="P146" s="29"/>
-    </row>
-    <row r="147" ht="23" customHeight="1" spans="1:16">
-      <c r="A147" s="31"/>
-      <c r="B147" s="23"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="29"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29"/>
-      <c r="H147" s="29"/>
-      <c r="I147" s="29"/>
-      <c r="J147" s="48"/>
-      <c r="K147" s="31"/>
-      <c r="L147" s="23"/>
-      <c r="M147" s="28"/>
-      <c r="N147" s="29"/>
-      <c r="O147" s="29"/>
-      <c r="P147" s="29"/>
-    </row>
-    <row r="148" ht="23" customHeight="1" spans="1:16">
-      <c r="A148" s="31"/>
-      <c r="B148" s="23"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
-      <c r="H148" s="29"/>
-      <c r="I148" s="29"/>
-      <c r="J148" s="48"/>
-      <c r="K148" s="31"/>
-      <c r="L148" s="23"/>
-      <c r="M148" s="28"/>
-      <c r="N148" s="29"/>
-      <c r="O148" s="29"/>
-      <c r="P148" s="29"/>
-    </row>
-    <row r="149" ht="23" customHeight="1" spans="1:16">
-      <c r="A149" s="31"/>
-      <c r="B149" s="23"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="29"/>
-      <c r="E149" s="29"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="29"/>
-      <c r="H149" s="29"/>
-      <c r="I149" s="29"/>
-      <c r="J149" s="48"/>
-      <c r="K149" s="31"/>
-      <c r="L149" s="23"/>
-      <c r="M149" s="28"/>
-      <c r="N149" s="29"/>
-      <c r="O149" s="29"/>
-      <c r="P149" s="29"/>
-    </row>
-    <row r="150" ht="23" customHeight="1" spans="1:16">
-      <c r="A150" s="31"/>
-      <c r="B150" s="23"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="29"/>
-      <c r="E150" s="29"/>
-      <c r="F150" s="29"/>
-      <c r="G150" s="29"/>
-      <c r="H150" s="29"/>
-      <c r="I150" s="29"/>
-      <c r="J150" s="48"/>
-      <c r="K150" s="31"/>
-      <c r="L150" s="23"/>
-      <c r="M150" s="28"/>
-      <c r="N150" s="29"/>
-      <c r="O150" s="29"/>
-      <c r="P150" s="29"/>
-    </row>
-    <row r="151" ht="23" customHeight="1" spans="1:16">
-      <c r="A151" s="31"/>
-      <c r="B151" s="23"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="29"/>
-      <c r="E151" s="29"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="29"/>
-      <c r="H151" s="29"/>
-      <c r="I151" s="29"/>
-      <c r="J151" s="48"/>
-      <c r="K151" s="31"/>
-      <c r="L151" s="23"/>
-      <c r="M151" s="28"/>
-      <c r="N151" s="29"/>
-      <c r="O151" s="29"/>
-      <c r="P151" s="29"/>
-    </row>
-    <row r="152" ht="23" customHeight="1" spans="1:16">
-      <c r="A152" s="31"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="29"/>
-      <c r="H152" s="29"/>
-      <c r="I152" s="29"/>
-      <c r="J152" s="48"/>
-      <c r="K152" s="31"/>
-      <c r="L152" s="23"/>
-      <c r="M152" s="28"/>
-      <c r="N152" s="29"/>
-      <c r="O152" s="29"/>
-      <c r="P152" s="29"/>
-    </row>
-    <row r="153" ht="23" customHeight="1" spans="1:16">
-      <c r="A153" s="31"/>
-      <c r="B153" s="23"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="29"/>
-      <c r="G153" s="29"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="29"/>
-      <c r="J153" s="48"/>
-      <c r="K153" s="31"/>
-      <c r="L153" s="23"/>
-      <c r="M153" s="28"/>
-      <c r="N153" s="29"/>
-      <c r="O153" s="29"/>
-      <c r="P153" s="29"/>
-    </row>
-    <row r="154" ht="23" customHeight="1" spans="1:16">
-      <c r="A154" s="31"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="29"/>
-      <c r="H154" s="29"/>
-      <c r="I154" s="29"/>
-      <c r="J154" s="48"/>
-      <c r="K154" s="31"/>
-      <c r="L154" s="23"/>
-      <c r="M154" s="28"/>
-      <c r="N154" s="29"/>
-      <c r="O154" s="29"/>
-      <c r="P154" s="29"/>
-    </row>
-    <row r="155" ht="23" customHeight="1" spans="1:16">
-      <c r="A155" s="31"/>
-      <c r="B155" s="23"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="29"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="29"/>
-      <c r="H155" s="29"/>
-      <c r="I155" s="29"/>
-      <c r="J155" s="48"/>
-      <c r="K155" s="31"/>
-      <c r="L155" s="23"/>
-      <c r="M155" s="28"/>
-      <c r="N155" s="29"/>
-      <c r="O155" s="29"/>
-      <c r="P155" s="29"/>
-    </row>
-    <row r="156" ht="23" customHeight="1" spans="1:16">
-      <c r="A156" s="31"/>
-      <c r="B156" s="23"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="29"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="29"/>
-      <c r="G156" s="29"/>
-      <c r="H156" s="29"/>
-      <c r="I156" s="29"/>
-      <c r="J156" s="48"/>
-      <c r="K156" s="31"/>
-      <c r="L156" s="23"/>
-      <c r="M156" s="28"/>
-      <c r="N156" s="29"/>
-      <c r="O156" s="29"/>
-      <c r="P156" s="29"/>
-    </row>
-    <row r="157" ht="23" customHeight="1" spans="1:16">
-      <c r="A157" s="31"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="29"/>
-      <c r="E157" s="29"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="29"/>
-      <c r="H157" s="29"/>
-      <c r="I157" s="29"/>
-      <c r="J157" s="48"/>
-      <c r="K157" s="31"/>
-      <c r="L157" s="23"/>
-      <c r="M157" s="28"/>
-      <c r="N157" s="29"/>
-      <c r="O157" s="29"/>
-      <c r="P157" s="29"/>
-    </row>
-    <row r="158" ht="23" customHeight="1" spans="1:16">
-      <c r="A158" s="31"/>
-      <c r="B158" s="23"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="29"/>
-      <c r="E158" s="29"/>
-      <c r="F158" s="29"/>
-      <c r="G158" s="29"/>
-      <c r="H158" s="29"/>
-      <c r="I158" s="29"/>
-      <c r="J158" s="48"/>
-      <c r="K158" s="31"/>
-      <c r="L158" s="23"/>
-      <c r="M158" s="28"/>
-      <c r="N158" s="29"/>
-      <c r="O158" s="29"/>
-      <c r="P158" s="29"/>
-    </row>
-    <row r="159" ht="23" customHeight="1" spans="1:16">
-      <c r="A159" s="31"/>
-      <c r="B159" s="23"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="29"/>
-      <c r="G159" s="29"/>
-      <c r="H159" s="29"/>
-      <c r="I159" s="29"/>
-      <c r="J159" s="48"/>
-      <c r="K159" s="31"/>
-      <c r="L159" s="23"/>
-      <c r="M159" s="28"/>
-      <c r="N159" s="29"/>
-      <c r="O159" s="29"/>
-      <c r="P159" s="29"/>
-    </row>
-    <row r="160" ht="23" customHeight="1" spans="1:16">
-      <c r="A160" s="31"/>
-      <c r="B160" s="23"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="29"/>
-      <c r="H160" s="29"/>
-      <c r="I160" s="29"/>
-      <c r="J160" s="48"/>
-      <c r="K160" s="31"/>
-      <c r="L160" s="23"/>
-      <c r="M160" s="28"/>
-      <c r="N160" s="29"/>
-      <c r="O160" s="29"/>
-      <c r="P160" s="29"/>
-    </row>
-    <row r="161" ht="23" customHeight="1" spans="1:16">
-      <c r="A161" s="31"/>
-      <c r="B161" s="23"/>
-      <c r="C161" s="28"/>
-      <c r="D161" s="29"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="29"/>
-      <c r="H161" s="29"/>
-      <c r="I161" s="29"/>
-      <c r="J161" s="48"/>
-      <c r="K161" s="31"/>
-      <c r="L161" s="23"/>
-      <c r="M161" s="28"/>
-      <c r="N161" s="29"/>
-      <c r="O161" s="29"/>
-      <c r="P161" s="29"/>
-    </row>
-    <row r="162" ht="23" customHeight="1" spans="1:16">
-      <c r="A162" s="31"/>
-      <c r="B162" s="23"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="29"/>
-      <c r="E162" s="29"/>
-      <c r="F162" s="29"/>
-      <c r="G162" s="29"/>
-      <c r="H162" s="29"/>
-      <c r="I162" s="29"/>
-      <c r="J162" s="48"/>
-      <c r="K162" s="31"/>
-      <c r="L162" s="23"/>
-      <c r="M162" s="28"/>
-      <c r="N162" s="29"/>
-      <c r="O162" s="29"/>
-      <c r="P162" s="29"/>
-    </row>
-    <row r="163" ht="23" customHeight="1" spans="1:16">
-      <c r="A163" s="31"/>
-      <c r="B163" s="23"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="29"/>
-      <c r="G163" s="29"/>
-      <c r="H163" s="29"/>
-      <c r="I163" s="29"/>
-      <c r="J163" s="48"/>
-      <c r="K163" s="31"/>
-      <c r="L163" s="23"/>
-      <c r="M163" s="28"/>
-      <c r="N163" s="29"/>
-      <c r="O163" s="29"/>
-      <c r="P163" s="29"/>
-    </row>
-    <row r="164" ht="23" customHeight="1" spans="1:16">
-      <c r="A164" s="31"/>
-      <c r="B164" s="23"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="29"/>
-      <c r="E164" s="29"/>
-      <c r="F164" s="29"/>
-      <c r="G164" s="29"/>
-      <c r="H164" s="29"/>
-      <c r="I164" s="29"/>
-      <c r="J164" s="48"/>
-      <c r="K164" s="31"/>
-      <c r="L164" s="23"/>
-      <c r="M164" s="28"/>
-      <c r="N164" s="29"/>
-      <c r="O164" s="29"/>
-      <c r="P164" s="29"/>
-    </row>
-    <row r="165" ht="23" customHeight="1" spans="1:16">
-      <c r="A165" s="31"/>
-      <c r="B165" s="23"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="29"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="29"/>
-      <c r="G165" s="29"/>
-      <c r="H165" s="29"/>
-      <c r="I165" s="29"/>
-      <c r="J165" s="48"/>
-      <c r="K165" s="31"/>
-      <c r="L165" s="23"/>
-      <c r="M165" s="28"/>
-      <c r="N165" s="29"/>
-      <c r="O165" s="29"/>
-      <c r="P165" s="29"/>
-    </row>
-    <row r="166" ht="23" customHeight="1" spans="1:16">
-      <c r="A166" s="31"/>
-      <c r="B166" s="23"/>
-      <c r="C166" s="28"/>
-      <c r="D166" s="29"/>
-      <c r="E166" s="29"/>
-      <c r="F166" s="29"/>
-      <c r="G166" s="29"/>
-      <c r="H166" s="29"/>
-      <c r="I166" s="29"/>
-      <c r="J166" s="48"/>
-      <c r="K166" s="31"/>
-      <c r="L166" s="23"/>
-      <c r="M166" s="28"/>
-      <c r="N166" s="29"/>
-      <c r="O166" s="29"/>
-      <c r="P166" s="29"/>
-    </row>
-    <row r="167" ht="23" customHeight="1" spans="1:16">
-      <c r="A167" s="31"/>
-      <c r="B167" s="23"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="29"/>
-      <c r="E167" s="29"/>
-      <c r="F167" s="29"/>
-      <c r="G167" s="29"/>
-      <c r="H167" s="29"/>
-      <c r="I167" s="29"/>
-      <c r="J167" s="48"/>
-      <c r="K167" s="31"/>
-      <c r="L167" s="23"/>
-      <c r="M167" s="28"/>
-      <c r="N167" s="29"/>
-      <c r="O167" s="29"/>
-      <c r="P167" s="29"/>
-    </row>
-    <row r="168" ht="23" customHeight="1" spans="1:16">
-      <c r="A168" s="31"/>
-      <c r="B168" s="23"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="29"/>
-      <c r="E168" s="29"/>
-      <c r="F168" s="29"/>
-      <c r="G168" s="29"/>
-      <c r="H168" s="29"/>
-      <c r="I168" s="29"/>
-      <c r="J168" s="48"/>
-      <c r="K168" s="31"/>
-      <c r="L168" s="23"/>
-      <c r="M168" s="28"/>
-      <c r="N168" s="29"/>
-      <c r="O168" s="29"/>
-      <c r="P168" s="29"/>
-    </row>
-    <row r="169" ht="23" customHeight="1" spans="1:16">
-      <c r="A169" s="31"/>
-      <c r="B169" s="23"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="29"/>
-      <c r="E169" s="29"/>
-      <c r="F169" s="29"/>
-      <c r="G169" s="29"/>
-      <c r="H169" s="29"/>
-      <c r="I169" s="29"/>
-      <c r="J169" s="48"/>
-      <c r="K169" s="31"/>
-      <c r="L169" s="23"/>
-      <c r="M169" s="28"/>
-      <c r="N169" s="29"/>
-      <c r="O169" s="29"/>
-      <c r="P169" s="29"/>
-    </row>
-    <row r="170" ht="23" customHeight="1" spans="1:16">
-      <c r="A170" s="31"/>
-      <c r="B170" s="23"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="29"/>
-      <c r="E170" s="29"/>
-      <c r="F170" s="29"/>
-      <c r="G170" s="29"/>
-      <c r="H170" s="29"/>
-      <c r="I170" s="29"/>
-      <c r="J170" s="48"/>
-      <c r="K170" s="31"/>
-      <c r="L170" s="23"/>
-      <c r="M170" s="28"/>
-      <c r="N170" s="29"/>
-      <c r="O170" s="29"/>
-      <c r="P170" s="29"/>
-    </row>
-    <row r="171" ht="23" customHeight="1" spans="1:16">
-      <c r="A171" s="31"/>
-      <c r="B171" s="23"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="29"/>
-      <c r="E171" s="29"/>
-      <c r="F171" s="29"/>
-      <c r="G171" s="29"/>
-      <c r="H171" s="29"/>
-      <c r="I171" s="29"/>
-      <c r="J171" s="48"/>
-      <c r="K171" s="31"/>
-      <c r="L171" s="23"/>
-      <c r="M171" s="28"/>
-      <c r="N171" s="29"/>
-      <c r="O171" s="29"/>
-      <c r="P171" s="29"/>
-    </row>
-    <row r="172" ht="23" customHeight="1" spans="1:16">
-      <c r="A172" s="31"/>
-      <c r="B172" s="23"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="29"/>
-      <c r="E172" s="29"/>
-      <c r="F172" s="29"/>
-      <c r="G172" s="29"/>
-      <c r="H172" s="29"/>
-      <c r="I172" s="29"/>
-      <c r="J172" s="48"/>
-      <c r="K172" s="31"/>
-      <c r="L172" s="23"/>
-      <c r="M172" s="28"/>
-      <c r="N172" s="29"/>
-      <c r="O172" s="29"/>
-      <c r="P172" s="29"/>
-    </row>
-    <row r="173" ht="23" customHeight="1" spans="1:16">
-      <c r="A173" s="31"/>
-      <c r="B173" s="23"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="29"/>
-      <c r="E173" s="29"/>
-      <c r="F173" s="29"/>
-      <c r="G173" s="29"/>
-      <c r="H173" s="29"/>
-      <c r="I173" s="29"/>
-      <c r="J173" s="48"/>
-      <c r="K173" s="31"/>
-      <c r="L173" s="23"/>
-      <c r="M173" s="28"/>
-      <c r="N173" s="29"/>
-      <c r="O173" s="29"/>
-      <c r="P173" s="29"/>
-    </row>
-    <row r="174" ht="23" customHeight="1" spans="1:16">
-      <c r="A174" s="31"/>
-      <c r="B174" s="23"/>
-      <c r="C174" s="28"/>
-      <c r="D174" s="29"/>
-      <c r="E174" s="29"/>
-      <c r="F174" s="29"/>
-      <c r="G174" s="29"/>
-      <c r="H174" s="29"/>
-      <c r="I174" s="29"/>
-      <c r="J174" s="48"/>
-      <c r="K174" s="31"/>
-      <c r="L174" s="23"/>
-      <c r="M174" s="28"/>
-      <c r="N174" s="29"/>
-      <c r="O174" s="29"/>
-      <c r="P174" s="29"/>
-    </row>
-    <row r="175" ht="23" customHeight="1" spans="1:16">
-      <c r="A175" s="31"/>
-      <c r="B175" s="23"/>
-      <c r="C175" s="28"/>
-      <c r="D175" s="29"/>
-      <c r="E175" s="29"/>
-      <c r="F175" s="29"/>
-      <c r="G175" s="29"/>
-      <c r="H175" s="29"/>
-      <c r="I175" s="29"/>
-      <c r="J175" s="48"/>
-      <c r="K175" s="31"/>
-      <c r="L175" s="23"/>
-      <c r="M175" s="28"/>
-      <c r="N175" s="29"/>
-      <c r="O175" s="29"/>
-      <c r="P175" s="29"/>
-    </row>
-    <row r="176" ht="23" customHeight="1" spans="1:16">
-      <c r="A176" s="31"/>
-      <c r="B176" s="23"/>
-      <c r="C176" s="28"/>
-      <c r="D176" s="29"/>
-      <c r="E176" s="29"/>
-      <c r="F176" s="29"/>
-      <c r="G176" s="29"/>
-      <c r="H176" s="29"/>
-      <c r="I176" s="29"/>
-      <c r="J176" s="48"/>
-      <c r="K176" s="31"/>
-      <c r="L176" s="23"/>
-      <c r="M176" s="28"/>
-      <c r="N176" s="29"/>
-      <c r="O176" s="29"/>
-      <c r="P176" s="29"/>
-    </row>
-    <row r="177" ht="23" customHeight="1" spans="1:16">
-      <c r="A177" s="31"/>
-      <c r="B177" s="23"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="29"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="29"/>
-      <c r="G177" s="29"/>
-      <c r="H177" s="29"/>
-      <c r="I177" s="29"/>
-      <c r="J177" s="48"/>
-      <c r="K177" s="31"/>
-      <c r="L177" s="23"/>
-      <c r="M177" s="28"/>
-      <c r="N177" s="29"/>
-      <c r="O177" s="29"/>
-      <c r="P177" s="29"/>
-    </row>
-    <row r="178" ht="23" customHeight="1" spans="1:16">
-      <c r="A178" s="31"/>
-      <c r="B178" s="23"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="29"/>
-      <c r="E178" s="29"/>
-      <c r="F178" s="29"/>
-      <c r="G178" s="29"/>
-      <c r="H178" s="29"/>
-      <c r="I178" s="29"/>
-      <c r="J178" s="48"/>
-      <c r="K178" s="31"/>
-      <c r="L178" s="23"/>
-      <c r="M178" s="28"/>
-      <c r="N178" s="29"/>
-      <c r="O178" s="29"/>
-      <c r="P178" s="29"/>
-    </row>
-    <row r="179" ht="23" customHeight="1" spans="1:16">
-      <c r="A179" s="31"/>
-      <c r="B179" s="23"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="29"/>
-      <c r="E179" s="29"/>
-      <c r="F179" s="29"/>
-      <c r="G179" s="29"/>
-      <c r="H179" s="29"/>
-      <c r="I179" s="29"/>
-      <c r="J179" s="48"/>
-      <c r="K179" s="31"/>
-      <c r="L179" s="23"/>
-      <c r="M179" s="28"/>
-      <c r="N179" s="29"/>
-      <c r="O179" s="29"/>
-      <c r="P179" s="29"/>
-    </row>
-    <row r="180" ht="23" customHeight="1" spans="1:16">
-      <c r="A180" s="31"/>
-      <c r="B180" s="23"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="29"/>
-      <c r="E180" s="29"/>
-      <c r="F180" s="29"/>
-      <c r="G180" s="29"/>
-      <c r="H180" s="29"/>
-      <c r="I180" s="29"/>
-      <c r="J180" s="48"/>
-      <c r="K180" s="31"/>
-      <c r="L180" s="23"/>
-      <c r="M180" s="28"/>
-      <c r="N180" s="29"/>
-      <c r="O180" s="29"/>
-      <c r="P180" s="29"/>
-    </row>
-    <row r="181" ht="23" customHeight="1" spans="1:16">
-      <c r="A181" s="31"/>
-      <c r="B181" s="23"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="29"/>
-      <c r="E181" s="29"/>
-      <c r="F181" s="29"/>
-      <c r="G181" s="29"/>
-      <c r="H181" s="29"/>
-      <c r="I181" s="29"/>
-      <c r="J181" s="48"/>
-      <c r="K181" s="31"/>
-      <c r="L181" s="23"/>
-      <c r="M181" s="28"/>
-      <c r="N181" s="29"/>
-      <c r="O181" s="29"/>
-      <c r="P181" s="29"/>
-    </row>
-    <row r="182" ht="23" customHeight="1" spans="1:16">
-      <c r="A182" s="31"/>
-      <c r="B182" s="23"/>
-      <c r="C182" s="28"/>
-      <c r="D182" s="29"/>
-      <c r="E182" s="29"/>
-      <c r="F182" s="29"/>
-      <c r="G182" s="29"/>
-      <c r="H182" s="29"/>
-      <c r="I182" s="29"/>
-      <c r="J182" s="48"/>
-      <c r="K182" s="31"/>
-      <c r="L182" s="23"/>
-      <c r="M182" s="28"/>
-      <c r="N182" s="29"/>
-      <c r="O182" s="29"/>
-      <c r="P182" s="29"/>
-    </row>
-    <row r="183" ht="23" customHeight="1" spans="1:16">
-      <c r="A183" s="31"/>
-      <c r="B183" s="23"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="29"/>
-      <c r="E183" s="29"/>
-      <c r="F183" s="29"/>
-      <c r="G183" s="29"/>
-      <c r="H183" s="29"/>
-      <c r="I183" s="29"/>
-      <c r="J183" s="48"/>
-      <c r="K183" s="31"/>
-      <c r="L183" s="23"/>
-      <c r="M183" s="28"/>
-      <c r="N183" s="29"/>
-      <c r="O183" s="29"/>
-      <c r="P183" s="29"/>
-    </row>
-    <row r="184" ht="23" customHeight="1" spans="1:16">
-      <c r="A184" s="31"/>
-      <c r="B184" s="23"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="29"/>
-      <c r="E184" s="29"/>
-      <c r="F184" s="29"/>
-      <c r="G184" s="29"/>
-      <c r="H184" s="29"/>
-      <c r="I184" s="29"/>
-      <c r="J184" s="48"/>
-      <c r="K184" s="31"/>
-      <c r="L184" s="23"/>
-      <c r="M184" s="28"/>
-      <c r="N184" s="29"/>
-      <c r="O184" s="29"/>
-      <c r="P184" s="29"/>
-    </row>
-    <row r="185" ht="23" customHeight="1" spans="1:16">
-      <c r="A185" s="31"/>
-      <c r="B185" s="23"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="29"/>
-      <c r="E185" s="29"/>
-      <c r="F185" s="29"/>
-      <c r="G185" s="29"/>
-      <c r="H185" s="29"/>
-      <c r="I185" s="29"/>
-      <c r="J185" s="48"/>
-      <c r="K185" s="31"/>
-      <c r="L185" s="23"/>
-      <c r="M185" s="28"/>
-      <c r="N185" s="29"/>
-      <c r="O185" s="29"/>
-      <c r="P185" s="29"/>
-    </row>
-    <row r="186" ht="23" customHeight="1" spans="1:16">
-      <c r="A186" s="31"/>
-      <c r="B186" s="23"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="29"/>
-      <c r="E186" s="29"/>
-      <c r="F186" s="29"/>
-      <c r="G186" s="29"/>
-      <c r="H186" s="29"/>
-      <c r="I186" s="29"/>
-      <c r="J186" s="48"/>
-      <c r="K186" s="31"/>
-      <c r="L186" s="23"/>
-      <c r="M186" s="28"/>
-      <c r="N186" s="29"/>
-      <c r="O186" s="29"/>
-      <c r="P186" s="29"/>
-    </row>
-    <row r="187" ht="23" customHeight="1" spans="1:16">
-      <c r="A187" s="31"/>
-      <c r="B187" s="23"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="29"/>
-      <c r="E187" s="29"/>
-      <c r="F187" s="29"/>
-      <c r="G187" s="29"/>
-      <c r="H187" s="29"/>
-      <c r="I187" s="29"/>
-      <c r="J187" s="48"/>
-      <c r="K187" s="31"/>
-      <c r="L187" s="23"/>
-      <c r="M187" s="28"/>
-      <c r="N187" s="29"/>
-      <c r="O187" s="29"/>
-      <c r="P187" s="29"/>
-    </row>
-    <row r="188" ht="23" customHeight="1" spans="1:16">
-      <c r="A188" s="31"/>
-      <c r="B188" s="23"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="29"/>
-      <c r="E188" s="29"/>
-      <c r="F188" s="29"/>
-      <c r="G188" s="29"/>
-      <c r="H188" s="29"/>
-      <c r="I188" s="29"/>
-      <c r="J188" s="48"/>
-      <c r="K188" s="31"/>
-      <c r="L188" s="23"/>
-      <c r="M188" s="28"/>
-      <c r="N188" s="29"/>
-      <c r="O188" s="29"/>
-      <c r="P188" s="29"/>
-    </row>
-    <row r="189" ht="23" customHeight="1" spans="1:16">
-      <c r="A189" s="31"/>
-      <c r="B189" s="23"/>
-      <c r="C189" s="28"/>
-      <c r="D189" s="29"/>
-      <c r="E189" s="29"/>
-      <c r="F189" s="29"/>
-      <c r="G189" s="29"/>
-      <c r="H189" s="29"/>
-      <c r="I189" s="29"/>
-      <c r="J189" s="48"/>
-      <c r="K189" s="31"/>
-      <c r="L189" s="23"/>
-      <c r="M189" s="28"/>
-      <c r="N189" s="29"/>
-      <c r="O189" s="29"/>
-      <c r="P189" s="29"/>
-    </row>
-    <row r="190" ht="23" customHeight="1" spans="1:16">
-      <c r="A190" s="31"/>
-      <c r="B190" s="23"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="29"/>
-      <c r="E190" s="29"/>
-      <c r="F190" s="29"/>
-      <c r="G190" s="29"/>
-      <c r="H190" s="29"/>
-      <c r="I190" s="29"/>
-      <c r="J190" s="48"/>
-      <c r="K190" s="31"/>
-      <c r="L190" s="23"/>
-      <c r="M190" s="28"/>
-      <c r="N190" s="29"/>
-      <c r="O190" s="29"/>
-      <c r="P190" s="29"/>
-    </row>
-    <row r="191" ht="23" customHeight="1" spans="1:16">
-      <c r="A191" s="31"/>
-      <c r="B191" s="23"/>
-      <c r="C191" s="28"/>
-      <c r="D191" s="29"/>
-      <c r="E191" s="29"/>
-      <c r="F191" s="29"/>
-      <c r="G191" s="29"/>
-      <c r="H191" s="29"/>
-      <c r="I191" s="29"/>
-      <c r="J191" s="48"/>
-      <c r="K191" s="31"/>
-      <c r="L191" s="23"/>
-      <c r="M191" s="28"/>
-      <c r="N191" s="29"/>
-      <c r="O191" s="29"/>
-      <c r="P191" s="29"/>
-    </row>
-    <row r="192" ht="23" customHeight="1" spans="1:16">
-      <c r="A192" s="31"/>
-      <c r="B192" s="23"/>
-      <c r="C192" s="28"/>
-      <c r="D192" s="29"/>
-      <c r="E192" s="29"/>
-      <c r="F192" s="29"/>
-      <c r="G192" s="29"/>
-      <c r="H192" s="29"/>
-      <c r="I192" s="29"/>
-      <c r="J192" s="48"/>
-      <c r="K192" s="31"/>
-      <c r="L192" s="23"/>
-      <c r="M192" s="28"/>
-      <c r="N192" s="29"/>
-      <c r="O192" s="29"/>
-      <c r="P192" s="29"/>
-    </row>
-    <row r="193" ht="23" customHeight="1" spans="1:16">
-      <c r="A193" s="31"/>
-      <c r="B193" s="23"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="29"/>
-      <c r="E193" s="29"/>
-      <c r="F193" s="29"/>
-      <c r="G193" s="29"/>
-      <c r="H193" s="29"/>
-      <c r="I193" s="29"/>
-      <c r="J193" s="48"/>
-      <c r="K193" s="31"/>
-      <c r="L193" s="23"/>
-      <c r="M193" s="28"/>
-      <c r="N193" s="29"/>
-      <c r="O193" s="29"/>
-      <c r="P193" s="29"/>
-    </row>
-    <row r="194" ht="23" customHeight="1" spans="1:16">
-      <c r="A194" s="31"/>
-      <c r="B194" s="23"/>
-      <c r="C194" s="28"/>
-      <c r="D194" s="29"/>
-      <c r="E194" s="29"/>
-      <c r="F194" s="29"/>
-      <c r="G194" s="29"/>
-      <c r="H194" s="29"/>
-      <c r="I194" s="29"/>
-      <c r="J194" s="48"/>
-      <c r="K194" s="31"/>
-      <c r="L194" s="23"/>
-      <c r="M194" s="28"/>
-      <c r="N194" s="29"/>
-      <c r="O194" s="29"/>
-      <c r="P194" s="29"/>
-    </row>
-    <row r="195" ht="23" customHeight="1" spans="1:16">
-      <c r="A195" s="31"/>
-      <c r="B195" s="23"/>
-      <c r="C195" s="28"/>
-      <c r="D195" s="29"/>
-      <c r="E195" s="29"/>
-      <c r="F195" s="29"/>
-      <c r="G195" s="29"/>
-      <c r="H195" s="29"/>
-      <c r="I195" s="29"/>
-      <c r="J195" s="48"/>
-      <c r="K195" s="31"/>
-      <c r="L195" s="23"/>
-      <c r="M195" s="28"/>
-      <c r="N195" s="29"/>
-      <c r="O195" s="29"/>
-      <c r="P195" s="29"/>
-    </row>
-    <row r="196" ht="23" customHeight="1" spans="1:16">
-      <c r="A196" s="31"/>
-      <c r="B196" s="23"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="29"/>
-      <c r="E196" s="29"/>
-      <c r="F196" s="29"/>
-      <c r="G196" s="29"/>
-      <c r="H196" s="29"/>
-      <c r="I196" s="29"/>
-      <c r="J196" s="48"/>
-      <c r="K196" s="31"/>
-      <c r="L196" s="23"/>
-      <c r="M196" s="28"/>
-      <c r="N196" s="29"/>
-      <c r="O196" s="29"/>
-      <c r="P196" s="29"/>
-    </row>
-    <row r="197" ht="23" customHeight="1" spans="1:16">
-      <c r="A197" s="31"/>
-      <c r="B197" s="23"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="29"/>
-      <c r="E197" s="29"/>
-      <c r="F197" s="29"/>
-      <c r="G197" s="29"/>
-      <c r="H197" s="29"/>
-      <c r="I197" s="29"/>
-      <c r="J197" s="48"/>
-      <c r="K197" s="31"/>
-      <c r="L197" s="23"/>
-      <c r="M197" s="28"/>
-      <c r="N197" s="29"/>
-      <c r="O197" s="29"/>
-      <c r="P197" s="29"/>
-    </row>
-    <row r="198" ht="23" customHeight="1" spans="1:16">
-      <c r="A198" s="31"/>
-      <c r="B198" s="23"/>
-      <c r="C198" s="28"/>
-      <c r="D198" s="29"/>
-      <c r="E198" s="29"/>
-      <c r="F198" s="29"/>
-      <c r="G198" s="29"/>
-      <c r="H198" s="29"/>
-      <c r="I198" s="29"/>
-      <c r="J198" s="48"/>
-      <c r="K198" s="31"/>
-      <c r="L198" s="23"/>
-      <c r="M198" s="28"/>
-      <c r="N198" s="29"/>
-      <c r="O198" s="29"/>
-      <c r="P198" s="29"/>
-    </row>
-    <row r="199" ht="23" customHeight="1" spans="1:16">
-      <c r="A199" s="31"/>
-      <c r="B199" s="23"/>
-      <c r="C199" s="28"/>
-      <c r="D199" s="29"/>
-      <c r="E199" s="29"/>
-      <c r="F199" s="29"/>
-      <c r="G199" s="29"/>
-      <c r="H199" s="29"/>
-      <c r="I199" s="29"/>
-      <c r="J199" s="48"/>
-      <c r="K199" s="31"/>
-      <c r="L199" s="23"/>
-      <c r="M199" s="28"/>
-      <c r="N199" s="29"/>
-      <c r="O199" s="29"/>
-      <c r="P199" s="29"/>
-    </row>
-    <row r="200" ht="23" customHeight="1" spans="1:16">
-      <c r="A200" s="31"/>
-      <c r="B200" s="23"/>
-      <c r="C200" s="28"/>
-      <c r="D200" s="29"/>
-      <c r="E200" s="29"/>
-      <c r="F200" s="29"/>
-      <c r="G200" s="29"/>
-      <c r="H200" s="29"/>
-      <c r="I200" s="29"/>
-      <c r="J200" s="48"/>
-      <c r="K200" s="31"/>
-      <c r="L200" s="23"/>
-      <c r="M200" s="28"/>
-      <c r="N200" s="29"/>
-      <c r="O200" s="29"/>
-      <c r="P200" s="29"/>
-    </row>
-    <row r="201" ht="23" customHeight="1" spans="1:16">
-      <c r="A201" s="31"/>
-      <c r="B201" s="23"/>
-      <c r="C201" s="28"/>
-      <c r="D201" s="29"/>
-      <c r="E201" s="29"/>
-      <c r="F201" s="29"/>
-      <c r="G201" s="29"/>
-      <c r="H201" s="29"/>
-      <c r="I201" s="29"/>
-      <c r="J201" s="48"/>
-      <c r="K201" s="31"/>
-      <c r="L201" s="23"/>
-      <c r="M201" s="28"/>
-      <c r="N201" s="29"/>
-      <c r="O201" s="29"/>
-      <c r="P201" s="29"/>
-    </row>
-    <row r="202" ht="23" customHeight="1" spans="1:16">
-      <c r="A202" s="31"/>
-      <c r="B202" s="23"/>
-      <c r="C202" s="28"/>
-      <c r="D202" s="29"/>
-      <c r="E202" s="29"/>
-      <c r="F202" s="29"/>
-      <c r="G202" s="29"/>
-      <c r="H202" s="29"/>
-      <c r="I202" s="29"/>
-      <c r="J202" s="48"/>
-      <c r="K202" s="31"/>
-      <c r="L202" s="23"/>
-      <c r="M202" s="28"/>
-      <c r="N202" s="29"/>
-      <c r="O202" s="29"/>
-      <c r="P202" s="29"/>
-    </row>
-    <row r="203" ht="23" customHeight="1" spans="1:16">
-      <c r="A203" s="31"/>
-      <c r="B203" s="23"/>
-      <c r="C203" s="28"/>
-      <c r="D203" s="29"/>
-      <c r="E203" s="29"/>
-      <c r="F203" s="29"/>
-      <c r="G203" s="29"/>
-      <c r="H203" s="29"/>
-      <c r="I203" s="29"/>
-      <c r="J203" s="48"/>
-      <c r="K203" s="31"/>
-      <c r="L203" s="23"/>
-      <c r="M203" s="28"/>
-      <c r="N203" s="29"/>
-      <c r="O203" s="29"/>
-      <c r="P203" s="29"/>
-    </row>
-    <row r="204" ht="23" customHeight="1" spans="1:16">
-      <c r="A204" s="31"/>
-      <c r="B204" s="23"/>
-      <c r="C204" s="28"/>
-      <c r="D204" s="29"/>
-      <c r="E204" s="29"/>
-      <c r="F204" s="29"/>
-      <c r="G204" s="29"/>
-      <c r="H204" s="29"/>
-      <c r="I204" s="29"/>
-      <c r="J204" s="48"/>
-      <c r="K204" s="31"/>
-      <c r="L204" s="23"/>
-      <c r="M204" s="28"/>
-      <c r="N204" s="29"/>
-      <c r="O204" s="29"/>
-      <c r="P204" s="29"/>
-    </row>
-    <row r="205" ht="23" customHeight="1" spans="1:16">
-      <c r="A205" s="31"/>
-      <c r="B205" s="23"/>
-      <c r="C205" s="28"/>
-      <c r="D205" s="29"/>
-      <c r="E205" s="29"/>
-      <c r="F205" s="29"/>
-      <c r="G205" s="29"/>
-      <c r="H205" s="29"/>
-      <c r="I205" s="29"/>
-      <c r="J205" s="48"/>
-      <c r="K205" s="31"/>
-      <c r="L205" s="23"/>
-      <c r="M205" s="28"/>
-      <c r="N205" s="29"/>
-      <c r="O205" s="29"/>
-      <c r="P205" s="29"/>
-    </row>
-    <row r="206" ht="23" customHeight="1" spans="1:16">
-      <c r="A206" s="31"/>
-      <c r="B206" s="23"/>
-      <c r="C206" s="28"/>
-      <c r="D206" s="29"/>
-      <c r="E206" s="29"/>
-      <c r="F206" s="29"/>
-      <c r="G206" s="29"/>
-      <c r="H206" s="29"/>
-      <c r="I206" s="29"/>
-      <c r="J206" s="48"/>
-      <c r="K206" s="31"/>
-      <c r="L206" s="23"/>
-      <c r="M206" s="28"/>
-      <c r="N206" s="29"/>
-      <c r="O206" s="29"/>
-      <c r="P206" s="29"/>
-    </row>
-    <row r="207" ht="23" customHeight="1" spans="1:16">
-      <c r="A207" s="31"/>
-      <c r="B207" s="23"/>
-      <c r="C207" s="28"/>
-      <c r="D207" s="29"/>
-      <c r="E207" s="29"/>
-      <c r="F207" s="29"/>
-      <c r="G207" s="29"/>
-      <c r="H207" s="29"/>
-      <c r="I207" s="29"/>
-      <c r="J207" s="48"/>
-      <c r="K207" s="31"/>
-      <c r="L207" s="23"/>
-      <c r="M207" s="28"/>
-      <c r="N207" s="29"/>
-      <c r="O207" s="29"/>
-      <c r="P207" s="29"/>
-    </row>
-    <row r="208" ht="23" customHeight="1" spans="1:16">
-      <c r="A208" s="31"/>
-      <c r="B208" s="23"/>
-      <c r="C208" s="28"/>
-      <c r="D208" s="29"/>
-      <c r="E208" s="29"/>
-      <c r="F208" s="29"/>
-      <c r="G208" s="29"/>
-      <c r="H208" s="29"/>
-      <c r="I208" s="29"/>
-      <c r="J208" s="48"/>
-      <c r="K208" s="31"/>
-      <c r="L208" s="23"/>
-      <c r="M208" s="28"/>
-      <c r="N208" s="29"/>
-      <c r="O208" s="29"/>
-      <c r="P208" s="29"/>
-    </row>
-    <row r="209" ht="23" customHeight="1" spans="1:16">
-      <c r="A209" s="31"/>
-      <c r="B209" s="23"/>
-      <c r="C209" s="28"/>
-      <c r="D209" s="29"/>
-      <c r="E209" s="29"/>
-      <c r="F209" s="29"/>
-      <c r="G209" s="29"/>
-      <c r="H209" s="29"/>
-      <c r="I209" s="29"/>
-      <c r="J209" s="48"/>
-      <c r="K209" s="31"/>
-      <c r="L209" s="23"/>
-      <c r="M209" s="28"/>
-      <c r="N209" s="29"/>
-      <c r="O209" s="29"/>
-      <c r="P209" s="29"/>
-    </row>
-    <row r="210" ht="23" customHeight="1" spans="1:16">
-      <c r="A210" s="31"/>
-      <c r="B210" s="23"/>
-      <c r="C210" s="28"/>
-      <c r="D210" s="29"/>
-      <c r="E210" s="29"/>
-      <c r="F210" s="29"/>
-      <c r="G210" s="29"/>
-      <c r="H210" s="29"/>
-      <c r="I210" s="29"/>
-      <c r="J210" s="48"/>
-      <c r="K210" s="31"/>
-      <c r="L210" s="23"/>
-      <c r="M210" s="28"/>
-      <c r="N210" s="29"/>
-      <c r="O210" s="29"/>
-      <c r="P210" s="29"/>
-    </row>
-    <row r="211" ht="23" customHeight="1" spans="1:16">
-      <c r="A211" s="31"/>
-      <c r="B211" s="23"/>
-      <c r="C211" s="28"/>
-      <c r="D211" s="29"/>
-      <c r="E211" s="29"/>
-      <c r="F211" s="29"/>
-      <c r="G211" s="29"/>
-      <c r="H211" s="29"/>
-      <c r="I211" s="29"/>
-      <c r="J211" s="48"/>
-      <c r="K211" s="31"/>
-      <c r="L211" s="23"/>
-      <c r="M211" s="28"/>
-      <c r="N211" s="29"/>
-      <c r="O211" s="29"/>
-      <c r="P211" s="29"/>
-    </row>
-    <row r="212" ht="23" customHeight="1" spans="1:16">
-      <c r="A212" s="31"/>
-      <c r="B212" s="23"/>
-      <c r="C212" s="28"/>
-      <c r="D212" s="29"/>
-      <c r="E212" s="29"/>
-      <c r="F212" s="29"/>
-      <c r="G212" s="29"/>
-      <c r="H212" s="29"/>
-      <c r="I212" s="29"/>
-      <c r="J212" s="48"/>
-      <c r="K212" s="31"/>
-      <c r="L212" s="23"/>
-      <c r="M212" s="28"/>
-      <c r="N212" s="29"/>
-      <c r="O212" s="29"/>
-      <c r="P212" s="29"/>
-    </row>
-    <row r="213" ht="23" customHeight="1" spans="1:16">
-      <c r="A213" s="31"/>
-      <c r="B213" s="23"/>
-      <c r="C213" s="28"/>
-      <c r="D213" s="29"/>
-      <c r="E213" s="29"/>
-      <c r="F213" s="29"/>
-      <c r="G213" s="29"/>
-      <c r="H213" s="29"/>
-      <c r="I213" s="29"/>
-      <c r="J213" s="48"/>
-      <c r="K213" s="31"/>
-      <c r="L213" s="23"/>
-      <c r="M213" s="28"/>
-      <c r="N213" s="29"/>
-      <c r="O213" s="29"/>
-      <c r="P213" s="29"/>
-    </row>
-    <row r="214" ht="23" customHeight="1" spans="1:16">
-      <c r="A214" s="31"/>
-      <c r="B214" s="23"/>
-      <c r="C214" s="28"/>
-      <c r="D214" s="29"/>
-      <c r="E214" s="29"/>
-      <c r="F214" s="29"/>
-      <c r="G214" s="29"/>
-      <c r="H214" s="29"/>
-      <c r="I214" s="29"/>
-      <c r="J214" s="48"/>
-      <c r="K214" s="31"/>
-      <c r="L214" s="23"/>
-      <c r="M214" s="28"/>
-      <c r="N214" s="29"/>
-      <c r="O214" s="29"/>
-      <c r="P214" s="29"/>
-    </row>
-    <row r="215" ht="23" customHeight="1" spans="1:16">
-      <c r="A215" s="31"/>
-      <c r="B215" s="23"/>
-      <c r="C215" s="28"/>
-      <c r="D215" s="29"/>
-      <c r="E215" s="29"/>
-      <c r="F215" s="29"/>
-      <c r="G215" s="29"/>
-      <c r="H215" s="29"/>
-      <c r="I215" s="29"/>
-      <c r="J215" s="48"/>
-      <c r="K215" s="31"/>
-      <c r="L215" s="23"/>
-      <c r="M215" s="28"/>
-      <c r="N215" s="29"/>
-      <c r="O215" s="29"/>
-      <c r="P215" s="29"/>
-    </row>
-    <row r="216" ht="23" customHeight="1" spans="1:16">
-      <c r="A216" s="31"/>
-      <c r="B216" s="23"/>
-      <c r="C216" s="28"/>
-      <c r="D216" s="29"/>
-      <c r="E216" s="29"/>
-      <c r="F216" s="29"/>
-      <c r="G216" s="29"/>
-      <c r="H216" s="29"/>
-      <c r="I216" s="29"/>
-      <c r="J216" s="48"/>
-      <c r="K216" s="31"/>
-      <c r="L216" s="23"/>
-      <c r="M216" s="28"/>
-      <c r="N216" s="29"/>
-      <c r="O216" s="29"/>
-      <c r="P216" s="29"/>
-    </row>
-    <row r="217" ht="23" customHeight="1" spans="1:16">
-      <c r="A217" s="31"/>
-      <c r="B217" s="23"/>
-      <c r="C217" s="28"/>
-      <c r="D217" s="29"/>
-      <c r="E217" s="29"/>
-      <c r="F217" s="29"/>
-      <c r="G217" s="29"/>
-      <c r="H217" s="29"/>
-      <c r="I217" s="29"/>
-      <c r="J217" s="48"/>
-      <c r="K217" s="31"/>
-      <c r="L217" s="23"/>
-      <c r="M217" s="28"/>
-      <c r="N217" s="29"/>
-      <c r="O217" s="29"/>
-      <c r="P217" s="29"/>
-    </row>
-    <row r="218" ht="23" customHeight="1" spans="1:16">
-      <c r="A218" s="31"/>
-      <c r="B218" s="23"/>
-      <c r="C218" s="28"/>
-      <c r="D218" s="29"/>
-      <c r="E218" s="29"/>
-      <c r="F218" s="29"/>
-      <c r="G218" s="29"/>
-      <c r="H218" s="29"/>
-      <c r="I218" s="29"/>
-      <c r="J218" s="48"/>
-      <c r="K218" s="31"/>
-      <c r="L218" s="23"/>
-      <c r="M218" s="28"/>
-      <c r="N218" s="29"/>
-      <c r="O218" s="29"/>
-      <c r="P218" s="29"/>
-    </row>
-    <row r="219" ht="23" customHeight="1" spans="1:16">
-      <c r="A219" s="31"/>
-      <c r="B219" s="23"/>
-      <c r="C219" s="28"/>
-      <c r="D219" s="29"/>
-      <c r="E219" s="29"/>
-      <c r="F219" s="29"/>
-      <c r="G219" s="29"/>
-      <c r="H219" s="29"/>
-      <c r="I219" s="29"/>
-      <c r="J219" s="48"/>
-      <c r="K219" s="31"/>
-      <c r="L219" s="23"/>
-      <c r="M219" s="28"/>
-      <c r="N219" s="29"/>
-      <c r="O219" s="29"/>
-      <c r="P219" s="29"/>
-    </row>
-    <row r="220" ht="23" customHeight="1" spans="1:16">
-      <c r="A220" s="31"/>
-      <c r="B220" s="23"/>
-      <c r="C220" s="28"/>
-      <c r="D220" s="29"/>
-      <c r="E220" s="29"/>
-      <c r="F220" s="29"/>
-      <c r="G220" s="29"/>
-      <c r="H220" s="29"/>
-      <c r="I220" s="29"/>
-      <c r="J220" s="48"/>
-      <c r="K220" s="31"/>
-      <c r="L220" s="23"/>
-      <c r="M220" s="28"/>
-      <c r="N220" s="29"/>
-      <c r="O220" s="29"/>
-      <c r="P220" s="29"/>
-    </row>
-    <row r="221" ht="23" customHeight="1" spans="1:16">
-      <c r="A221" s="31"/>
-      <c r="B221" s="23"/>
-      <c r="C221" s="28"/>
-      <c r="D221" s="29"/>
-      <c r="E221" s="29"/>
-      <c r="F221" s="29"/>
-      <c r="G221" s="29"/>
-      <c r="H221" s="29"/>
-      <c r="I221" s="29"/>
-      <c r="J221" s="48"/>
-      <c r="K221" s="31"/>
-      <c r="L221" s="23"/>
-      <c r="M221" s="28"/>
-      <c r="N221" s="29"/>
-      <c r="O221" s="29"/>
-      <c r="P221" s="29"/>
-    </row>
-    <row r="222" ht="23" customHeight="1" spans="1:16">
-      <c r="A222" s="31"/>
-      <c r="B222" s="23"/>
-      <c r="C222" s="28"/>
-      <c r="D222" s="29"/>
-      <c r="E222" s="29"/>
-      <c r="F222" s="29"/>
-      <c r="G222" s="29"/>
-      <c r="H222" s="29"/>
-      <c r="I222" s="29"/>
-      <c r="J222" s="48"/>
-      <c r="K222" s="31"/>
-      <c r="L222" s="23"/>
-      <c r="M222" s="28"/>
-      <c r="N222" s="29"/>
-      <c r="O222" s="29"/>
-      <c r="P222" s="29"/>
-    </row>
-    <row r="223" ht="23" customHeight="1" spans="1:16">
-      <c r="A223" s="31"/>
-      <c r="B223" s="23"/>
-      <c r="C223" s="28"/>
-      <c r="D223" s="29"/>
-      <c r="E223" s="29"/>
-      <c r="F223" s="29"/>
-      <c r="G223" s="29"/>
-      <c r="H223" s="29"/>
-      <c r="I223" s="29"/>
-      <c r="J223" s="48"/>
-      <c r="K223" s="31"/>
-      <c r="L223" s="23"/>
-      <c r="M223" s="28"/>
-      <c r="N223" s="29"/>
-      <c r="O223" s="29"/>
-      <c r="P223" s="29"/>
-    </row>
-    <row r="224" ht="23" customHeight="1" spans="1:16">
-      <c r="A224" s="31"/>
-      <c r="B224" s="23"/>
-      <c r="C224" s="28"/>
-      <c r="D224" s="29"/>
-      <c r="E224" s="29"/>
-      <c r="F224" s="29"/>
-      <c r="G224" s="29"/>
-      <c r="H224" s="29"/>
-      <c r="I224" s="29"/>
-      <c r="J224" s="48"/>
-      <c r="K224" s="31"/>
-      <c r="L224" s="23"/>
-      <c r="M224" s="28"/>
-      <c r="N224" s="29"/>
-      <c r="O224" s="29"/>
-      <c r="P224" s="29"/>
-    </row>
-    <row r="225" ht="23" customHeight="1" spans="1:16">
-      <c r="A225" s="31"/>
-      <c r="B225" s="23"/>
-      <c r="C225" s="28"/>
-      <c r="D225" s="29"/>
-      <c r="E225" s="29"/>
-      <c r="F225" s="29"/>
-      <c r="G225" s="29"/>
-      <c r="H225" s="29"/>
-      <c r="I225" s="29"/>
-      <c r="J225" s="48"/>
-      <c r="K225" s="31"/>
-      <c r="L225" s="23"/>
-      <c r="M225" s="28"/>
-      <c r="N225" s="29"/>
-      <c r="O225" s="29"/>
-      <c r="P225" s="29"/>
-    </row>
-    <row r="226" ht="23" customHeight="1" spans="1:16">
-      <c r="A226" s="31"/>
-      <c r="B226" s="23"/>
-      <c r="C226" s="28"/>
-      <c r="D226" s="29"/>
-      <c r="E226" s="29"/>
-      <c r="F226" s="29"/>
-      <c r="G226" s="29"/>
-      <c r="H226" s="29"/>
-      <c r="I226" s="29"/>
-      <c r="J226" s="48"/>
-      <c r="K226" s="31"/>
-      <c r="L226" s="23"/>
-      <c r="M226" s="28"/>
-      <c r="N226" s="29"/>
-      <c r="O226" s="29"/>
-      <c r="P226" s="29"/>
-    </row>
-    <row r="227" ht="23" customHeight="1" spans="1:16">
-      <c r="A227" s="31"/>
-      <c r="B227" s="23"/>
-      <c r="C227" s="28"/>
-      <c r="D227" s="29"/>
-      <c r="E227" s="29"/>
-      <c r="F227" s="29"/>
-      <c r="G227" s="29"/>
-      <c r="H227" s="29"/>
-      <c r="I227" s="29"/>
-      <c r="J227" s="48"/>
-      <c r="K227" s="31"/>
-      <c r="L227" s="23"/>
-      <c r="M227" s="28"/>
-      <c r="N227" s="29"/>
-      <c r="O227" s="29"/>
-      <c r="P227" s="29"/>
-    </row>
-    <row r="228" ht="23" customHeight="1" spans="1:16">
-      <c r="A228" s="31"/>
-      <c r="B228" s="23"/>
-      <c r="C228" s="28"/>
-      <c r="D228" s="29"/>
-      <c r="E228" s="29"/>
-      <c r="F228" s="29"/>
-      <c r="G228" s="29"/>
-      <c r="H228" s="29"/>
-      <c r="I228" s="29"/>
-      <c r="J228" s="48"/>
-      <c r="K228" s="31"/>
-      <c r="L228" s="23"/>
-      <c r="M228" s="28"/>
-      <c r="N228" s="29"/>
-      <c r="O228" s="29"/>
-      <c r="P228" s="29"/>
-    </row>
-    <row r="229" ht="23" customHeight="1" spans="1:16">
-      <c r="A229" s="31"/>
-      <c r="B229" s="23"/>
-      <c r="C229" s="28"/>
-      <c r="D229" s="29"/>
-      <c r="E229" s="29"/>
-      <c r="F229" s="29"/>
-      <c r="G229" s="29"/>
-      <c r="H229" s="29"/>
-      <c r="I229" s="29"/>
-      <c r="J229" s="48"/>
-      <c r="K229" s="31"/>
-      <c r="L229" s="23"/>
-      <c r="M229" s="28"/>
-      <c r="N229" s="29"/>
-      <c r="O229" s="29"/>
-      <c r="P229" s="29"/>
-    </row>
-    <row r="230" ht="23" customHeight="1" spans="1:16">
-      <c r="A230" s="31"/>
-      <c r="B230" s="23"/>
-      <c r="C230" s="28"/>
-      <c r="D230" s="29"/>
-      <c r="E230" s="29"/>
-      <c r="F230" s="29"/>
-      <c r="G230" s="29"/>
-      <c r="H230" s="29"/>
-      <c r="I230" s="29"/>
-      <c r="J230" s="48"/>
-      <c r="K230" s="31"/>
-      <c r="L230" s="23"/>
-      <c r="M230" s="28"/>
-      <c r="N230" s="29"/>
-      <c r="O230" s="29"/>
-      <c r="P230" s="29"/>
-    </row>
-    <row r="231" ht="23" customHeight="1" spans="1:16">
-      <c r="A231" s="31"/>
-      <c r="B231" s="23"/>
-      <c r="C231" s="28"/>
-      <c r="D231" s="29"/>
-      <c r="E231" s="29"/>
-      <c r="F231" s="29"/>
-      <c r="G231" s="29"/>
-      <c r="H231" s="29"/>
-      <c r="I231" s="29"/>
-      <c r="J231" s="48"/>
-      <c r="K231" s="31"/>
-      <c r="L231" s="23"/>
-      <c r="M231" s="28"/>
-      <c r="N231" s="29"/>
-      <c r="O231" s="29"/>
-      <c r="P231" s="29"/>
-    </row>
-    <row r="232" ht="23" customHeight="1" spans="1:16">
-      <c r="A232" s="31"/>
-      <c r="B232" s="23"/>
-      <c r="C232" s="28"/>
-      <c r="D232" s="29"/>
-      <c r="E232" s="29"/>
-      <c r="F232" s="29"/>
-      <c r="G232" s="29"/>
-      <c r="H232" s="29"/>
-      <c r="I232" s="29"/>
-      <c r="J232" s="48"/>
-      <c r="K232" s="31"/>
-      <c r="L232" s="23"/>
-      <c r="M232" s="28"/>
-      <c r="N232" s="29"/>
-      <c r="O232" s="29"/>
-      <c r="P232" s="29"/>
-    </row>
-    <row r="233" ht="23" customHeight="1" spans="1:16">
-      <c r="A233" s="31"/>
-      <c r="B233" s="23"/>
-      <c r="C233" s="28"/>
-      <c r="D233" s="29"/>
-      <c r="E233" s="29"/>
-      <c r="F233" s="29"/>
-      <c r="G233" s="29"/>
-      <c r="H233" s="29"/>
-      <c r="I233" s="29"/>
-      <c r="J233" s="48"/>
-      <c r="K233" s="31"/>
-      <c r="L233" s="23"/>
-      <c r="M233" s="28"/>
-      <c r="N233" s="29"/>
-      <c r="O233" s="29"/>
-      <c r="P233" s="29"/>
-    </row>
-    <row r="234" ht="23" customHeight="1" spans="1:16">
-      <c r="A234" s="31"/>
-      <c r="B234" s="23"/>
-      <c r="C234" s="28"/>
-      <c r="D234" s="29"/>
-      <c r="E234" s="29"/>
-      <c r="F234" s="29"/>
-      <c r="G234" s="29"/>
-      <c r="H234" s="29"/>
-      <c r="I234" s="29"/>
-      <c r="J234" s="48"/>
-      <c r="K234" s="31"/>
-      <c r="L234" s="23"/>
-      <c r="M234" s="28"/>
-      <c r="N234" s="29"/>
-      <c r="O234" s="29"/>
-      <c r="P234" s="29"/>
-    </row>
-    <row r="235" ht="23" customHeight="1" spans="1:16">
-      <c r="A235" s="31"/>
-      <c r="B235" s="23"/>
-      <c r="C235" s="28"/>
-      <c r="D235" s="29"/>
-      <c r="E235" s="29"/>
-      <c r="F235" s="29"/>
-      <c r="G235" s="29"/>
-      <c r="H235" s="29"/>
-      <c r="I235" s="29"/>
-      <c r="J235" s="48"/>
-      <c r="K235" s="31"/>
-      <c r="L235" s="23"/>
-      <c r="M235" s="28"/>
-      <c r="N235" s="29"/>
-      <c r="O235" s="29"/>
-      <c r="P235" s="29"/>
-    </row>
-    <row r="236" ht="23" customHeight="1" spans="1:16">
-      <c r="A236" s="31"/>
-      <c r="B236" s="23"/>
-      <c r="C236" s="28"/>
-      <c r="D236" s="29"/>
-      <c r="E236" s="29"/>
-      <c r="F236" s="29"/>
-      <c r="G236" s="29"/>
-      <c r="H236" s="29"/>
-      <c r="I236" s="29"/>
-      <c r="J236" s="48"/>
-      <c r="K236" s="31"/>
-      <c r="L236" s="23"/>
-      <c r="M236" s="28"/>
-      <c r="N236" s="29"/>
-      <c r="O236" s="29"/>
-      <c r="P236" s="29"/>
-    </row>
-    <row r="237" ht="23" customHeight="1" spans="1:16">
-      <c r="A237" s="31"/>
-      <c r="B237" s="23"/>
-      <c r="C237" s="28"/>
-      <c r="D237" s="29"/>
-      <c r="E237" s="29"/>
-      <c r="F237" s="29"/>
-      <c r="G237" s="29"/>
-      <c r="H237" s="29"/>
-      <c r="I237" s="29"/>
-      <c r="J237" s="48"/>
-      <c r="K237" s="31"/>
-      <c r="L237" s="23"/>
-      <c r="M237" s="28"/>
-      <c r="N237" s="29"/>
-      <c r="O237" s="29"/>
-      <c r="P237" s="29"/>
-    </row>
-    <row r="238" ht="23" customHeight="1" spans="1:16">
-      <c r="A238" s="31"/>
-      <c r="B238" s="23"/>
-      <c r="C238" s="28"/>
-      <c r="D238" s="29"/>
-      <c r="E238" s="29"/>
-      <c r="F238" s="29"/>
-      <c r="G238" s="29"/>
-      <c r="H238" s="29"/>
-      <c r="I238" s="29"/>
-      <c r="J238" s="48"/>
-      <c r="K238" s="31"/>
-      <c r="L238" s="23"/>
-      <c r="M238" s="28"/>
-      <c r="N238" s="29"/>
-      <c r="O238" s="29"/>
-      <c r="P238" s="29"/>
-    </row>
-    <row r="239" ht="23" customHeight="1" spans="1:16">
-      <c r="A239" s="31"/>
-      <c r="B239" s="23"/>
-      <c r="C239" s="28"/>
-      <c r="D239" s="29"/>
-      <c r="E239" s="29"/>
-      <c r="F239" s="29"/>
-      <c r="G239" s="29"/>
-      <c r="H239" s="29"/>
-      <c r="I239" s="29"/>
-      <c r="J239" s="48"/>
-      <c r="K239" s="31"/>
-      <c r="L239" s="23"/>
-      <c r="M239" s="28"/>
-      <c r="N239" s="29"/>
-      <c r="O239" s="29"/>
-      <c r="P239" s="29"/>
-    </row>
-    <row r="240" ht="23" customHeight="1" spans="1:16">
-      <c r="A240" s="31"/>
-      <c r="B240" s="23"/>
-      <c r="C240" s="28"/>
-      <c r="D240" s="29"/>
-      <c r="E240" s="29"/>
-      <c r="F240" s="29"/>
-      <c r="G240" s="29"/>
-      <c r="H240" s="29"/>
-      <c r="I240" s="29"/>
-      <c r="J240" s="48"/>
-      <c r="K240" s="31"/>
-      <c r="L240" s="23"/>
-      <c r="M240" s="28"/>
-      <c r="N240" s="29"/>
-      <c r="O240" s="29"/>
-      <c r="P240" s="29"/>
-    </row>
-    <row r="241" ht="23" customHeight="1" spans="1:16">
-      <c r="A241" s="31"/>
-      <c r="B241" s="23"/>
-      <c r="C241" s="28"/>
-      <c r="D241" s="29"/>
-      <c r="E241" s="29"/>
-      <c r="F241" s="29"/>
-      <c r="G241" s="29"/>
-      <c r="H241" s="29"/>
-      <c r="I241" s="29"/>
-      <c r="J241" s="48"/>
-      <c r="K241" s="31"/>
-      <c r="L241" s="23"/>
-      <c r="M241" s="28"/>
-      <c r="N241" s="29"/>
-      <c r="O241" s="29"/>
-      <c r="P241" s="29"/>
-    </row>
-    <row r="242" ht="23" customHeight="1" spans="1:16">
-      <c r="A242" s="31"/>
-      <c r="B242" s="23"/>
-      <c r="C242" s="28"/>
-      <c r="D242" s="29"/>
-      <c r="E242" s="29"/>
-      <c r="F242" s="29"/>
-      <c r="G242" s="29"/>
-      <c r="H242" s="29"/>
-      <c r="I242" s="29"/>
-      <c r="J242" s="48"/>
-      <c r="K242" s="31"/>
-      <c r="L242" s="23"/>
-      <c r="M242" s="28"/>
-      <c r="N242" s="29"/>
-      <c r="O242" s="29"/>
-      <c r="P242" s="29"/>
-    </row>
-    <row r="243" ht="23" customHeight="1" spans="1:16">
-      <c r="A243" s="31"/>
-      <c r="B243" s="23"/>
-      <c r="C243" s="28"/>
-      <c r="D243" s="29"/>
-      <c r="E243" s="29"/>
-      <c r="F243" s="29"/>
-      <c r="G243" s="29"/>
-      <c r="H243" s="29"/>
-      <c r="I243" s="29"/>
-      <c r="J243" s="48"/>
-      <c r="K243" s="31"/>
-      <c r="L243" s="23"/>
-      <c r="M243" s="28"/>
-      <c r="N243" s="29"/>
-      <c r="O243" s="29"/>
-      <c r="P243" s="29"/>
-    </row>
-    <row r="244" ht="23" customHeight="1" spans="1:16">
-      <c r="A244" s="31"/>
-      <c r="B244" s="23"/>
-      <c r="C244" s="28"/>
-      <c r="D244" s="29"/>
-      <c r="E244" s="29"/>
-      <c r="F244" s="29"/>
-      <c r="G244" s="29"/>
-      <c r="H244" s="29"/>
-      <c r="I244" s="29"/>
-      <c r="J244" s="48"/>
-      <c r="K244" s="31"/>
-      <c r="L244" s="23"/>
-      <c r="M244" s="28"/>
-      <c r="N244" s="29"/>
-      <c r="O244" s="29"/>
-      <c r="P244" s="29"/>
-    </row>
-    <row r="245" ht="23" customHeight="1" spans="1:16">
-      <c r="A245" s="31"/>
-      <c r="B245" s="23"/>
-      <c r="C245" s="28"/>
-      <c r="D245" s="29"/>
-      <c r="E245" s="29"/>
-      <c r="F245" s="29"/>
-      <c r="G245" s="29"/>
-      <c r="H245" s="29"/>
-      <c r="I245" s="29"/>
-      <c r="J245" s="48"/>
-      <c r="K245" s="31"/>
-      <c r="L245" s="23"/>
-      <c r="M245" s="28"/>
-      <c r="N245" s="29"/>
-      <c r="O245" s="29"/>
-      <c r="P245" s="29"/>
-    </row>
-    <row r="246" ht="23" customHeight="1" spans="1:16">
-      <c r="A246" s="31"/>
-      <c r="B246" s="23"/>
-      <c r="C246" s="28"/>
-      <c r="D246" s="29"/>
-      <c r="E246" s="29"/>
-      <c r="F246" s="29"/>
-      <c r="G246" s="29"/>
-      <c r="H246" s="29"/>
-      <c r="I246" s="29"/>
-      <c r="J246" s="48"/>
-      <c r="K246" s="31"/>
-      <c r="L246" s="23"/>
-      <c r="M246" s="28"/>
-      <c r="N246" s="29"/>
-      <c r="O246" s="29"/>
-      <c r="P246" s="29"/>
-    </row>
-    <row r="247" ht="23" customHeight="1" spans="1:16">
-      <c r="A247" s="31"/>
-      <c r="B247" s="23"/>
-      <c r="C247" s="28"/>
-      <c r="D247" s="29"/>
-      <c r="E247" s="29"/>
-      <c r="F247" s="29"/>
-      <c r="G247" s="29"/>
-      <c r="H247" s="29"/>
-      <c r="I247" s="29"/>
-      <c r="J247" s="48"/>
-      <c r="K247" s="31"/>
-      <c r="L247" s="23"/>
-      <c r="M247" s="28"/>
-      <c r="N247" s="29"/>
-      <c r="O247" s="29"/>
-      <c r="P247" s="29"/>
-    </row>
-    <row r="248" ht="23" customHeight="1" spans="1:16">
-      <c r="A248" s="31"/>
-      <c r="B248" s="23"/>
-      <c r="C248" s="28"/>
-      <c r="D248" s="29"/>
-      <c r="E248" s="29"/>
-      <c r="F248" s="29"/>
-      <c r="G248" s="29"/>
-      <c r="H248" s="29"/>
-      <c r="I248" s="29"/>
-      <c r="J248" s="48"/>
-      <c r="K248" s="31"/>
-      <c r="L248" s="23"/>
-      <c r="M248" s="28"/>
-      <c r="N248" s="29"/>
-      <c r="O248" s="29"/>
-      <c r="P248" s="29"/>
-    </row>
-    <row r="249" ht="23" customHeight="1" spans="1:16">
-      <c r="A249" s="31"/>
-      <c r="B249" s="23"/>
-      <c r="C249" s="28"/>
-      <c r="D249" s="29"/>
-      <c r="E249" s="29"/>
-      <c r="F249" s="29"/>
-      <c r="G249" s="29"/>
-      <c r="H249" s="29"/>
-      <c r="I249" s="29"/>
-      <c r="J249" s="48"/>
-      <c r="K249" s="31"/>
-      <c r="L249" s="23"/>
-      <c r="M249" s="28"/>
-      <c r="N249" s="29"/>
-      <c r="O249" s="29"/>
-      <c r="P249" s="29"/>
-    </row>
-    <row r="250" ht="23" customHeight="1" spans="1:16">
-      <c r="A250" s="31"/>
-      <c r="B250" s="23"/>
-      <c r="C250" s="28"/>
-      <c r="D250" s="29"/>
-      <c r="E250" s="29"/>
-      <c r="F250" s="29"/>
-      <c r="G250" s="29"/>
-      <c r="H250" s="29"/>
-      <c r="I250" s="29"/>
-      <c r="J250" s="48"/>
-      <c r="K250" s="31"/>
-      <c r="L250" s="23"/>
-      <c r="M250" s="28"/>
-      <c r="N250" s="29"/>
-      <c r="O250" s="29"/>
-      <c r="P250" s="29"/>
-    </row>
-    <row r="251" ht="23" customHeight="1" spans="1:16">
-      <c r="A251" s="31"/>
-      <c r="B251" s="23"/>
-      <c r="C251" s="28"/>
-      <c r="D251" s="29"/>
-      <c r="E251" s="29"/>
-      <c r="F251" s="29"/>
-      <c r="G251" s="29"/>
-      <c r="H251" s="29"/>
-      <c r="I251" s="29"/>
-      <c r="J251" s="48"/>
-      <c r="K251" s="31"/>
-      <c r="L251" s="23"/>
-      <c r="M251" s="28"/>
-      <c r="N251" s="29"/>
-      <c r="O251" s="29"/>
-      <c r="P251" s="29"/>
-    </row>
-    <row r="252" ht="23" customHeight="1" spans="1:16">
-      <c r="A252" s="31"/>
-      <c r="B252" s="23"/>
-      <c r="C252" s="28"/>
-      <c r="D252" s="29"/>
-      <c r="E252" s="29"/>
-      <c r="F252" s="29"/>
-      <c r="G252" s="29"/>
-      <c r="H252" s="29"/>
-      <c r="I252" s="29"/>
-      <c r="J252" s="48"/>
-      <c r="K252" s="31"/>
-      <c r="L252" s="23"/>
-      <c r="M252" s="28"/>
-      <c r="N252" s="29"/>
-      <c r="O252" s="29"/>
-      <c r="P252" s="29"/>
-    </row>
-    <row r="253" ht="23" customHeight="1" spans="1:16">
-      <c r="A253" s="31"/>
-      <c r="B253" s="23"/>
-      <c r="C253" s="28"/>
-      <c r="D253" s="29"/>
-      <c r="E253" s="29"/>
-      <c r="F253" s="29"/>
-      <c r="G253" s="29"/>
-      <c r="H253" s="29"/>
-      <c r="I253" s="29"/>
-      <c r="J253" s="48"/>
-      <c r="K253" s="31"/>
-      <c r="L253" s="23"/>
-      <c r="M253" s="28"/>
-      <c r="N253" s="29"/>
-      <c r="O253" s="29"/>
-      <c r="P253" s="29"/>
-    </row>
-    <row r="254" ht="23" customHeight="1" spans="1:16">
-      <c r="A254" s="31"/>
-      <c r="B254" s="23"/>
-      <c r="C254" s="28"/>
-      <c r="D254" s="29"/>
-      <c r="E254" s="29"/>
-      <c r="F254" s="29"/>
-      <c r="G254" s="29"/>
-      <c r="H254" s="29"/>
-      <c r="I254" s="29"/>
-      <c r="J254" s="48"/>
-      <c r="K254" s="31"/>
-      <c r="L254" s="23"/>
-      <c r="M254" s="28"/>
-      <c r="N254" s="29"/>
-      <c r="O254" s="29"/>
-      <c r="P254" s="29"/>
-    </row>
-    <row r="255" ht="23" customHeight="1" spans="1:16">
-      <c r="A255" s="31"/>
-      <c r="B255" s="23"/>
-      <c r="C255" s="28"/>
-      <c r="D255" s="29"/>
-      <c r="E255" s="29"/>
-      <c r="F255" s="29"/>
-      <c r="G255" s="29"/>
-      <c r="H255" s="29"/>
-      <c r="I255" s="29"/>
-      <c r="J255" s="48"/>
-      <c r="K255" s="31"/>
-      <c r="L255" s="23"/>
-      <c r="M255" s="28"/>
-      <c r="N255" s="29"/>
-      <c r="O255" s="29"/>
-      <c r="P255" s="29"/>
-    </row>
-    <row r="256" ht="23" customHeight="1" spans="1:16">
-      <c r="A256" s="31"/>
-      <c r="B256" s="23"/>
-      <c r="C256" s="28"/>
-      <c r="D256" s="29"/>
-      <c r="E256" s="29"/>
-      <c r="F256" s="29"/>
-      <c r="G256" s="29"/>
-      <c r="H256" s="29"/>
-      <c r="I256" s="29"/>
-      <c r="J256" s="48"/>
-      <c r="K256" s="31"/>
-      <c r="L256" s="23"/>
-      <c r="M256" s="28"/>
-      <c r="N256" s="29"/>
-      <c r="O256" s="29"/>
-      <c r="P256" s="29"/>
-    </row>
-    <row r="257" ht="23" customHeight="1" spans="1:15">
-      <c r="A257" s="31"/>
-      <c r="B257" s="37"/>
-      <c r="C257" s="28"/>
-      <c r="D257" s="29"/>
-      <c r="E257" s="29"/>
-      <c r="F257" s="29"/>
-      <c r="G257" s="29"/>
-      <c r="H257" s="29"/>
-      <c r="I257" s="29"/>
-      <c r="J257" s="48"/>
-      <c r="K257" s="40"/>
-      <c r="L257" s="49"/>
-      <c r="M257" s="50"/>
-      <c r="N257" s="49"/>
-      <c r="O257" s="40"/>
-    </row>
-    <row r="258" ht="23" customHeight="1" spans="1:15">
-      <c r="A258" s="31"/>
-      <c r="B258" s="37"/>
-      <c r="C258" s="28"/>
-      <c r="D258" s="29"/>
-      <c r="E258" s="29"/>
-      <c r="F258" s="29"/>
-      <c r="G258" s="29"/>
-      <c r="H258" s="29"/>
-      <c r="I258" s="29"/>
-      <c r="J258" s="48"/>
-      <c r="K258" s="40"/>
-      <c r="L258" s="49"/>
-      <c r="M258" s="50"/>
-      <c r="N258" s="49"/>
-      <c r="O258" s="40"/>
-    </row>
-    <row r="259" ht="23" customHeight="1" spans="1:15">
-      <c r="A259" s="31"/>
-      <c r="B259" s="37"/>
-      <c r="C259" s="28"/>
-      <c r="D259" s="29"/>
-      <c r="E259" s="29"/>
-      <c r="F259" s="29"/>
-      <c r="G259" s="29"/>
-      <c r="H259" s="29"/>
-      <c r="I259" s="29"/>
-      <c r="J259" s="48"/>
-      <c r="K259" s="40"/>
-      <c r="L259" s="49"/>
-      <c r="M259" s="50"/>
-      <c r="N259" s="49"/>
-      <c r="O259" s="40"/>
-    </row>
-    <row r="260" ht="23" customHeight="1" spans="1:15">
-      <c r="A260" s="31"/>
-      <c r="B260" s="37"/>
-      <c r="C260" s="28"/>
-      <c r="D260" s="29"/>
-      <c r="E260" s="29"/>
-      <c r="F260" s="29"/>
-      <c r="G260" s="29"/>
-      <c r="H260" s="29"/>
-      <c r="I260" s="29"/>
-      <c r="J260" s="48"/>
-      <c r="K260" s="40"/>
-      <c r="L260" s="49"/>
-      <c r="M260" s="50"/>
-      <c r="N260" s="49"/>
-      <c r="O260" s="40"/>
-    </row>
-    <row r="261" ht="23" customHeight="1" spans="1:15">
-      <c r="A261" s="31"/>
-      <c r="B261" s="37"/>
-      <c r="C261" s="28"/>
-      <c r="D261" s="29"/>
-      <c r="E261" s="29"/>
-      <c r="F261" s="29"/>
-      <c r="G261" s="29"/>
-      <c r="H261" s="29"/>
-      <c r="I261" s="29"/>
-      <c r="J261" s="48"/>
-      <c r="K261" s="40"/>
-      <c r="L261" s="49"/>
-      <c r="M261" s="50"/>
-      <c r="N261" s="49"/>
-      <c r="O261" s="40"/>
-    </row>
-    <row r="262" ht="23" customHeight="1" spans="1:15">
-      <c r="A262" s="31"/>
-      <c r="B262" s="37"/>
-      <c r="C262" s="28"/>
-      <c r="D262" s="29"/>
-      <c r="E262" s="29"/>
-      <c r="F262" s="29"/>
-      <c r="G262" s="29"/>
-      <c r="H262" s="29"/>
-      <c r="I262" s="29"/>
-      <c r="J262" s="48"/>
-      <c r="K262" s="40"/>
-      <c r="L262" s="49"/>
-      <c r="M262" s="50"/>
-      <c r="N262" s="49"/>
-      <c r="O262" s="40"/>
-    </row>
-    <row r="263" ht="23" customHeight="1" spans="1:15">
-      <c r="A263" s="31"/>
-      <c r="B263" s="37"/>
-      <c r="C263" s="28"/>
-      <c r="D263" s="29"/>
-      <c r="E263" s="29"/>
-      <c r="F263" s="29"/>
-      <c r="G263" s="29"/>
-      <c r="H263" s="29"/>
-      <c r="I263" s="29"/>
-      <c r="J263" s="48"/>
-      <c r="K263" s="40"/>
-      <c r="L263" s="49"/>
-      <c r="M263" s="50"/>
-      <c r="N263" s="49"/>
-      <c r="O263" s="40"/>
-    </row>
-    <row r="264" ht="23" customHeight="1" spans="1:15">
-      <c r="A264" s="31"/>
-      <c r="B264" s="37"/>
-      <c r="C264" s="28"/>
-      <c r="D264" s="29"/>
-      <c r="E264" s="29"/>
-      <c r="F264" s="29"/>
-      <c r="G264" s="29"/>
-      <c r="H264" s="29"/>
-      <c r="I264" s="29"/>
-      <c r="J264" s="48"/>
-      <c r="K264" s="40"/>
-      <c r="L264" s="49"/>
-      <c r="M264" s="50"/>
-      <c r="N264" s="49"/>
-      <c r="O264" s="40"/>
-    </row>
-    <row r="265" ht="23" customHeight="1" spans="1:15">
-      <c r="A265" s="31"/>
-      <c r="B265" s="37"/>
-      <c r="C265" s="28"/>
-      <c r="D265" s="29"/>
-      <c r="E265" s="29"/>
-      <c r="F265" s="29"/>
-      <c r="G265" s="29"/>
-      <c r="H265" s="29"/>
-      <c r="I265" s="29"/>
-      <c r="J265" s="48"/>
-      <c r="K265" s="40"/>
-      <c r="L265" s="49"/>
-      <c r="M265" s="50"/>
-      <c r="N265" s="49"/>
-      <c r="O265" s="40"/>
-    </row>
-    <row r="266" ht="23" customHeight="1" spans="1:15">
-      <c r="A266" s="31"/>
-      <c r="B266" s="37"/>
-      <c r="C266" s="28"/>
-      <c r="D266" s="29"/>
-      <c r="E266" s="29"/>
-      <c r="F266" s="29"/>
-      <c r="G266" s="29"/>
-      <c r="H266" s="29"/>
-      <c r="I266" s="29"/>
-      <c r="J266" s="48"/>
-      <c r="K266" s="40"/>
-      <c r="L266" s="49"/>
-      <c r="M266" s="50"/>
-      <c r="N266" s="49"/>
-      <c r="O266" s="40"/>
-    </row>
-    <row r="267" ht="23" customHeight="1" spans="1:15">
-      <c r="A267" s="31"/>
-      <c r="B267" s="37"/>
-      <c r="C267" s="28"/>
-      <c r="D267" s="29"/>
-      <c r="E267" s="29"/>
-      <c r="F267" s="29"/>
-      <c r="G267" s="29"/>
-      <c r="H267" s="29"/>
-      <c r="I267" s="29"/>
-      <c r="J267" s="48"/>
-      <c r="K267" s="40"/>
-      <c r="L267" s="49"/>
-      <c r="M267" s="50"/>
-      <c r="N267" s="49"/>
-      <c r="O267" s="40"/>
-    </row>
-    <row r="268" ht="23" customHeight="1" spans="1:15">
-      <c r="A268" s="31"/>
-      <c r="B268" s="37"/>
-      <c r="C268" s="28"/>
-      <c r="D268" s="29"/>
-      <c r="E268" s="29"/>
-      <c r="F268" s="29"/>
-      <c r="G268" s="29"/>
-      <c r="H268" s="29"/>
-      <c r="I268" s="29"/>
-      <c r="J268" s="48"/>
-      <c r="K268" s="40"/>
-      <c r="L268" s="49"/>
-      <c r="M268" s="50"/>
-      <c r="N268" s="49"/>
-      <c r="O268" s="40"/>
-    </row>
-    <row r="269" ht="23" customHeight="1" spans="1:15">
-      <c r="A269" s="31"/>
-      <c r="B269" s="37"/>
-      <c r="C269" s="28"/>
-      <c r="D269" s="29"/>
-      <c r="E269" s="29"/>
-      <c r="F269" s="29"/>
-      <c r="G269" s="29"/>
-      <c r="H269" s="29"/>
-      <c r="I269" s="29"/>
-      <c r="J269" s="48"/>
-      <c r="K269" s="40"/>
-      <c r="L269" s="49"/>
-      <c r="M269" s="50"/>
-      <c r="N269" s="49"/>
-      <c r="O269" s="40"/>
-    </row>
-    <row r="270" ht="23" customHeight="1" spans="1:15">
-      <c r="A270" s="31"/>
-      <c r="B270" s="37"/>
-      <c r="C270" s="28"/>
-      <c r="D270" s="29"/>
-      <c r="E270" s="29"/>
-      <c r="F270" s="29"/>
-      <c r="G270" s="29"/>
-      <c r="H270" s="29"/>
-      <c r="I270" s="29"/>
-      <c r="J270" s="48"/>
-      <c r="K270" s="40"/>
-      <c r="L270" s="49"/>
-      <c r="M270" s="50"/>
-      <c r="N270" s="49"/>
-      <c r="O270" s="40"/>
-    </row>
-    <row r="271" ht="23" customHeight="1" spans="1:15">
-      <c r="A271" s="31"/>
-      <c r="B271" s="37"/>
-      <c r="C271" s="28"/>
-      <c r="D271" s="29"/>
-      <c r="E271" s="29"/>
-      <c r="F271" s="29"/>
-      <c r="G271" s="29"/>
-      <c r="H271" s="29"/>
-      <c r="I271" s="29"/>
-      <c r="J271" s="48"/>
-      <c r="K271" s="40"/>
-      <c r="L271" s="49"/>
-      <c r="M271" s="50"/>
-      <c r="N271" s="49"/>
-      <c r="O271" s="40"/>
-    </row>
-    <row r="272" ht="23" customHeight="1" spans="1:15">
-      <c r="A272" s="31"/>
-      <c r="B272" s="37"/>
-      <c r="C272" s="28"/>
-      <c r="D272" s="29"/>
-      <c r="E272" s="29"/>
-      <c r="F272" s="29"/>
-      <c r="G272" s="29"/>
-      <c r="H272" s="29"/>
-      <c r="I272" s="29"/>
-      <c r="J272" s="48"/>
-      <c r="K272" s="40"/>
-      <c r="L272" s="49"/>
-      <c r="M272" s="50"/>
-      <c r="N272" s="49"/>
-      <c r="O272" s="40"/>
-    </row>
-    <row r="273" ht="23" customHeight="1" spans="1:15">
-      <c r="A273" s="31"/>
-      <c r="B273" s="37"/>
-      <c r="C273" s="28"/>
-      <c r="D273" s="29"/>
-      <c r="E273" s="29"/>
-      <c r="F273" s="29"/>
-      <c r="G273" s="29"/>
-      <c r="H273" s="29"/>
-      <c r="I273" s="29"/>
-      <c r="J273" s="48"/>
-      <c r="K273" s="40"/>
-      <c r="L273" s="49"/>
-      <c r="M273" s="50"/>
-      <c r="N273" s="49"/>
-      <c r="O273" s="40"/>
-    </row>
-    <row r="274" ht="23" customHeight="1" spans="1:15">
-      <c r="A274" s="31"/>
-      <c r="B274" s="37"/>
-      <c r="C274" s="28"/>
-      <c r="D274" s="29"/>
-      <c r="E274" s="29"/>
-      <c r="F274" s="29"/>
-      <c r="G274" s="29"/>
-      <c r="H274" s="29"/>
-      <c r="I274" s="29"/>
-      <c r="J274" s="48"/>
-      <c r="K274" s="40"/>
-      <c r="L274" s="49"/>
-      <c r="M274" s="50"/>
-      <c r="N274" s="49"/>
-      <c r="O274" s="40"/>
-    </row>
-    <row r="275" ht="23" customHeight="1" spans="1:15">
-      <c r="A275" s="31"/>
-      <c r="B275" s="37"/>
-      <c r="C275" s="28"/>
-      <c r="D275" s="29"/>
-      <c r="E275" s="29"/>
-      <c r="F275" s="29"/>
-      <c r="G275" s="29"/>
-      <c r="H275" s="29"/>
-      <c r="I275" s="29"/>
-      <c r="J275" s="48"/>
-      <c r="K275" s="40"/>
-      <c r="L275" s="49"/>
-      <c r="M275" s="50"/>
-      <c r="N275" s="49"/>
-      <c r="O275" s="40"/>
-    </row>
-  </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
-  <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="L2:O2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="N1">
-    <cfRule type="beginsWith" dxfId="0" priority="45" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="43" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="beginsWith" dxfId="2" priority="22" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="24" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N4">
-    <cfRule type="beginsWith" dxfId="0" priority="39" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="37" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N13">
-    <cfRule type="beginsWith" dxfId="2" priority="34" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N6,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N6,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="36" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N6,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N21:N23">
-    <cfRule type="beginsWith" dxfId="2" priority="28" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="30" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N24:N25">
-    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N24,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N24,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N24,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N44:N45">
-    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N44,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N44,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N44,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N46:N50">
-    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N46,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N46,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N46,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N51:N52">
-    <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N51,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N51,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N51,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N59:N60">
-    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N59,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N59,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N59,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N61:N62">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N61,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N61,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N61,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N257:N275">
-    <cfRule type="beginsWith" dxfId="2" priority="40" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N257,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N257,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="42" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N257,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N53:N58 N63:N111">
-    <cfRule type="beginsWith" dxfId="2" priority="16" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N53,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N53,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="18" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N53,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C26 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C90 C93 C94 C95 C98 C99 C100 C101 C104 C105 C106 C107 C110 C111 C112 C113 C22:C25 C27:C28 C49:C50 C73:C74 C88:C89 C91:C92 C96:C97 C102:C103 C108:C109 C114:C116 C117:C170 C171:C212 C213:C275">
-      <formula1>target</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D26 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D90 D91 D92 D93 D94 D95 D98 D99 D100 D101 D104 D105 D106 D107 D110 D111 D112 D113 D6:D7 D22:D25 D27:D28 D49:D50 D73:D74 D88:D89 D96:D97 D102:D103 D108:D109 D114:D116 D117:D159 D160:D275">
-      <formula1>INDIRECT(C5)</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/tests/artifact/script/Mobile-CashMemo.xlsx
+++ b/tests/artifact/script/Mobile-CashMemo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9287" tabRatio="550" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="550" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="881">
   <si>
     <t>target</t>
   </si>
@@ -2315,6 +2315,9 @@
 password=${password}</t>
   </si>
   <si>
+    <t>Change from Org Index to Name</t>
+  </si>
+  <si>
     <t>click on open organization button</t>
   </si>
   <si>
@@ -2688,6 +2691,21 @@
   </si>
   <si>
     <t>ProceedIf(${cashmemono.list}=${created.cashmemono})</t>
+  </si>
+  <si>
+    <t>Please add scenarios for View Voucher Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifying Cash Memo details on list page as well as on Details page </t>
+  </si>
+  <si>
+    <t>Add Item from the list</t>
+  </si>
+  <si>
+    <t>Changing the Godown and selecting the prodcut from that godown</t>
+  </si>
+  <si>
+    <t>Mode of Receipt - Cash and Bank both</t>
   </si>
 </sst>
 </file>
@@ -2695,12 +2713,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2754,6 +2772,13 @@
       <sz val="12"/>
       <color rgb="FF202124"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3270,26 +3295,23 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3298,119 +3320,122 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3536,6 +3561,10 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3566,7 +3595,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3589,28 +3618,32 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3990,7 +4023,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
   </cols>
@@ -6661,13 +6694,13 @@
   <sheetPr/>
   <dimension ref="A1:P225"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="44.5333333333333" style="6" customWidth="1"/>
     <col min="2" max="2" width="42.75" style="7" customWidth="1"/>
@@ -6686,7 +6719,7 @@
     <col min="16" max="16384" width="10.8333333333333" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:15">
+    <row r="1" ht="15.25" spans="1:15">
       <c r="A1" s="15" t="s">
         <v>725</v>
       </c>
@@ -6708,16 +6741,16 @@
       <c r="I1" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="17" t="s">
         <v>731</v>
       </c>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
-      <c r="O1" s="41"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.15" spans="1:15">
+      <c r="O1" s="42"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="18" t="s">
         <v>732</v>
       </c>
@@ -6729,12 +6762,12 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="42"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="25"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="22"/>
@@ -6746,7 +6779,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
-      <c r="J3" s="45"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="25"/>
       <c r="L3" s="26"/>
       <c r="M3" s="24"/>
@@ -6781,10 +6814,10 @@
       <c r="I4" s="27" t="s">
         <v>740</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="47" t="s">
         <v>741</v>
       </c>
-      <c r="K4" s="47"/>
+      <c r="K4" s="48"/>
       <c r="L4" s="27" t="s">
         <v>742</v>
       </c>
@@ -6798,7 +6831,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="31.2" spans="1:15">
+    <row r="5" s="1" customFormat="1" ht="31" spans="1:15">
       <c r="A5" s="22" t="s">
         <v>746</v>
       </c>
@@ -6814,7 +6847,7 @@
       <c r="E5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="59" t="s">
         <v>749</v>
       </c>
       <c r="G5" s="30"/>
@@ -6827,10 +6860,12 @@
       <c r="N5" s="26"/>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="15.6" spans="1:15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="59" t="s">
+    <row r="6" s="3" customFormat="1" ht="15.5" spans="1:15">
+      <c r="A6" s="60" t="s">
         <v>750</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>751</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>30</v>
@@ -6839,10 +6874,10 @@
         <v>576</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>751</v>
-      </c>
-      <c r="F6" s="60" t="s">
         <v>752</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>753</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
@@ -6856,7 +6891,7 @@
     </row>
     <row r="7" s="4" customFormat="1" ht="42" customHeight="1" spans="1:15">
       <c r="A7" s="22"/>
-      <c r="B7" s="61"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="28"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -6864,12 +6899,12 @@
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="40"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A8" s="31"/>
@@ -6881,12 +6916,12 @@
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="40"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="41"/>
     </row>
     <row r="9" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A9" s="31"/>
@@ -6898,12 +6933,12 @@
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="40"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="41"/>
     </row>
     <row r="10" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A10" s="31"/>
@@ -6915,12 +6950,12 @@
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="40"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="41"/>
     </row>
     <row r="11" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A11" s="31"/>
@@ -6932,12 +6967,12 @@
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="40"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="41"/>
     </row>
     <row r="12" s="4" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A12" s="31"/>
@@ -6949,12 +6984,12 @@
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="40"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="41"/>
     </row>
     <row r="13" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A13" s="31"/>
@@ -6966,12 +7001,12 @@
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="40"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="41"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A14" s="31"/>
@@ -6983,12 +7018,12 @@
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="40"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="41"/>
     </row>
     <row r="15" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A15" s="31"/>
@@ -7000,12 +7035,12 @@
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="40"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="41"/>
     </row>
     <row r="16" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A16" s="31"/>
@@ -7017,12 +7052,12 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="40"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="41"/>
     </row>
     <row r="17" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A17" s="31"/>
@@ -7034,12 +7069,12 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="40"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="41"/>
     </row>
     <row r="18" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A18" s="31"/>
@@ -7051,12 +7086,12 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="40"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="41"/>
     </row>
     <row r="19" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A19" s="31"/>
@@ -7068,12 +7103,12 @@
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="40"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="41"/>
     </row>
     <row r="20" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A20" s="31"/>
@@ -7085,12 +7120,12 @@
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="40"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="41"/>
     </row>
     <row r="21" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A21" s="31"/>
@@ -7102,12 +7137,12 @@
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="40"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="41"/>
     </row>
     <row r="22" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A22" s="31"/>
@@ -7119,12 +7154,12 @@
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="40"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="41"/>
     </row>
     <row r="23" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="31"/>
@@ -7136,12 +7171,12 @@
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="40"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="41"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="24" customHeight="1" spans="2:15">
       <c r="B24" s="23"/>
@@ -7196,7 +7231,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="33"/>
       <c r="D27" s="30"/>
-      <c r="E27" s="51"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="32"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
@@ -7213,7 +7248,7 @@
       <c r="B28" s="23"/>
       <c r="C28" s="33"/>
       <c r="D28" s="30"/>
-      <c r="E28" s="51"/>
+      <c r="E28" s="52"/>
       <c r="F28" s="35"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
@@ -7230,7 +7265,7 @@
       <c r="B29" s="23"/>
       <c r="C29" s="33"/>
       <c r="D29" s="30"/>
-      <c r="E29" s="51"/>
+      <c r="E29" s="52"/>
       <c r="F29" s="32"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
@@ -7247,7 +7282,7 @@
       <c r="B30" s="23"/>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="51"/>
+      <c r="E30" s="52"/>
       <c r="F30" s="32"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -7262,12 +7297,12 @@
     <row r="31" ht="19" customHeight="1" spans="3:6">
       <c r="C31" s="28"/>
       <c r="D31" s="29"/>
-      <c r="F31" s="62"/>
+      <c r="F31" s="64"/>
     </row>
     <row r="32" ht="19" customHeight="1" spans="3:6">
       <c r="C32" s="28"/>
       <c r="D32" s="29"/>
-      <c r="F32" s="62"/>
+      <c r="F32" s="64"/>
     </row>
     <row r="33" ht="19" customHeight="1" spans="3:6">
       <c r="C33" s="28"/>
@@ -7282,7 +7317,7 @@
     <row r="35" ht="19" customHeight="1" spans="3:6">
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
-      <c r="F35" s="62"/>
+      <c r="F35" s="64"/>
     </row>
     <row r="36" ht="21" customHeight="1" spans="3:4">
       <c r="C36" s="28"/>
@@ -7327,12 +7362,12 @@
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
       <c r="I41" s="29"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="40"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="41"/>
     </row>
     <row r="42" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A42" s="31"/>
@@ -7344,12 +7379,12 @@
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="40"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="41"/>
     </row>
     <row r="43" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A43" s="31"/>
@@ -7361,12 +7396,12 @@
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="40"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="41"/>
     </row>
     <row r="44" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="31"/>
@@ -7378,12 +7413,12 @@
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="40"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="41"/>
     </row>
     <row r="45" s="5" customFormat="1" ht="38" customHeight="1" spans="1:15">
       <c r="A45" s="22"/>
@@ -7392,15 +7427,15 @@
       <c r="D45" s="29"/>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="57"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="55"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="56"/>
     </row>
     <row r="46" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
       <c r="A46" s="22"/>
@@ -7409,15 +7444,15 @@
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="55"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="56"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A47" s="31"/>
@@ -7429,7 +7464,7 @@
       <c r="G47" s="29"/>
       <c r="H47" s="29"/>
       <c r="I47" s="29"/>
-      <c r="J47" s="48"/>
+      <c r="J47" s="49"/>
       <c r="K47" s="31"/>
       <c r="L47" s="23"/>
       <c r="M47" s="28"/>
@@ -7447,7 +7482,7 @@
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
-      <c r="J48" s="48"/>
+      <c r="J48" s="49"/>
       <c r="K48" s="31"/>
       <c r="L48" s="23"/>
       <c r="M48" s="28"/>
@@ -7465,7 +7500,7 @@
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
-      <c r="J49" s="48"/>
+      <c r="J49" s="49"/>
       <c r="K49" s="31"/>
       <c r="L49" s="23"/>
       <c r="M49" s="28"/>
@@ -7483,7 +7518,7 @@
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
-      <c r="J50" s="48"/>
+      <c r="J50" s="49"/>
       <c r="K50" s="31"/>
       <c r="L50" s="23"/>
       <c r="M50" s="28"/>
@@ -7501,7 +7536,7 @@
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
-      <c r="J51" s="48"/>
+      <c r="J51" s="49"/>
       <c r="K51" s="31"/>
       <c r="L51" s="23"/>
       <c r="M51" s="28"/>
@@ -7519,7 +7554,7 @@
       <c r="G52" s="29"/>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
-      <c r="J52" s="48"/>
+      <c r="J52" s="49"/>
       <c r="K52" s="31"/>
       <c r="L52" s="23"/>
       <c r="M52" s="28"/>
@@ -7537,7 +7572,7 @@
       <c r="G53" s="29"/>
       <c r="H53" s="29"/>
       <c r="I53" s="29"/>
-      <c r="J53" s="48"/>
+      <c r="J53" s="49"/>
       <c r="K53" s="31"/>
       <c r="L53" s="23"/>
       <c r="M53" s="28"/>
@@ -7555,7 +7590,7 @@
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
-      <c r="J54" s="48"/>
+      <c r="J54" s="49"/>
       <c r="K54" s="31"/>
       <c r="L54" s="23"/>
       <c r="M54" s="28"/>
@@ -7573,7 +7608,7 @@
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
-      <c r="J55" s="48"/>
+      <c r="J55" s="49"/>
       <c r="K55" s="31"/>
       <c r="L55" s="23"/>
       <c r="M55" s="28"/>
@@ -7591,7 +7626,7 @@
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
       <c r="I56" s="29"/>
-      <c r="J56" s="48"/>
+      <c r="J56" s="49"/>
       <c r="K56" s="31"/>
       <c r="L56" s="23"/>
       <c r="M56" s="28"/>
@@ -7608,7 +7643,7 @@
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
       <c r="I57" s="29"/>
-      <c r="J57" s="48"/>
+      <c r="J57" s="49"/>
       <c r="K57" s="31"/>
       <c r="L57" s="23"/>
       <c r="M57" s="28"/>
@@ -7625,7 +7660,7 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
       <c r="I58" s="29"/>
-      <c r="J58" s="48"/>
+      <c r="J58" s="49"/>
       <c r="K58" s="31"/>
       <c r="L58" s="23"/>
       <c r="M58" s="28"/>
@@ -7643,7 +7678,7 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
       <c r="I59" s="29"/>
-      <c r="J59" s="48"/>
+      <c r="J59" s="49"/>
       <c r="K59" s="31"/>
       <c r="L59" s="23"/>
       <c r="M59" s="28"/>
@@ -7661,7 +7696,7 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
       <c r="I60" s="29"/>
-      <c r="J60" s="48"/>
+      <c r="J60" s="49"/>
       <c r="K60" s="31"/>
       <c r="L60" s="23"/>
       <c r="M60" s="28"/>
@@ -7679,7 +7714,7 @@
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
       <c r="I61" s="29"/>
-      <c r="J61" s="48"/>
+      <c r="J61" s="49"/>
       <c r="K61" s="31"/>
       <c r="L61" s="23"/>
       <c r="M61" s="28"/>
@@ -7697,7 +7732,7 @@
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
-      <c r="J62" s="48"/>
+      <c r="J62" s="49"/>
       <c r="K62" s="31"/>
       <c r="L62" s="23"/>
       <c r="M62" s="28"/>
@@ -7715,7 +7750,7 @@
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
       <c r="I63" s="29"/>
-      <c r="J63" s="48"/>
+      <c r="J63" s="49"/>
       <c r="K63" s="31"/>
       <c r="L63" s="23"/>
       <c r="M63" s="28"/>
@@ -7733,7 +7768,7 @@
       <c r="G64" s="29"/>
       <c r="H64" s="29"/>
       <c r="I64" s="29"/>
-      <c r="J64" s="48"/>
+      <c r="J64" s="49"/>
       <c r="K64" s="31"/>
       <c r="L64" s="23"/>
       <c r="M64" s="28"/>
@@ -7751,7 +7786,7 @@
       <c r="G65" s="29"/>
       <c r="H65" s="29"/>
       <c r="I65" s="29"/>
-      <c r="J65" s="48"/>
+      <c r="J65" s="49"/>
       <c r="K65" s="31"/>
       <c r="L65" s="23"/>
       <c r="M65" s="28"/>
@@ -7769,7 +7804,7 @@
       <c r="G66" s="29"/>
       <c r="H66" s="29"/>
       <c r="I66" s="29"/>
-      <c r="J66" s="48"/>
+      <c r="J66" s="49"/>
       <c r="K66" s="31"/>
       <c r="L66" s="23"/>
       <c r="M66" s="28"/>
@@ -7787,7 +7822,7 @@
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
       <c r="I67" s="29"/>
-      <c r="J67" s="48"/>
+      <c r="J67" s="49"/>
       <c r="K67" s="31"/>
       <c r="L67" s="23"/>
       <c r="M67" s="28"/>
@@ -7805,7 +7840,7 @@
       <c r="G68" s="29"/>
       <c r="H68" s="29"/>
       <c r="I68" s="29"/>
-      <c r="J68" s="48"/>
+      <c r="J68" s="49"/>
       <c r="K68" s="31"/>
       <c r="L68" s="23"/>
       <c r="M68" s="28"/>
@@ -7823,7 +7858,7 @@
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
       <c r="I69" s="29"/>
-      <c r="J69" s="48"/>
+      <c r="J69" s="49"/>
       <c r="K69" s="31"/>
       <c r="L69" s="23"/>
       <c r="M69" s="28"/>
@@ -7841,7 +7876,7 @@
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
       <c r="I70" s="29"/>
-      <c r="J70" s="48"/>
+      <c r="J70" s="49"/>
       <c r="K70" s="31"/>
       <c r="L70" s="23"/>
       <c r="M70" s="28"/>
@@ -7859,7 +7894,7 @@
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
       <c r="I71" s="29"/>
-      <c r="J71" s="48"/>
+      <c r="J71" s="49"/>
       <c r="K71" s="31"/>
       <c r="L71" s="23"/>
       <c r="M71" s="28"/>
@@ -7877,7 +7912,7 @@
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
       <c r="I72" s="29"/>
-      <c r="J72" s="48"/>
+      <c r="J72" s="49"/>
       <c r="K72" s="31"/>
       <c r="L72" s="23"/>
       <c r="M72" s="28"/>
@@ -7895,7 +7930,7 @@
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
       <c r="I73" s="29"/>
-      <c r="J73" s="48"/>
+      <c r="J73" s="49"/>
       <c r="K73" s="31"/>
       <c r="L73" s="23"/>
       <c r="M73" s="28"/>
@@ -7913,7 +7948,7 @@
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
       <c r="I74" s="29"/>
-      <c r="J74" s="48"/>
+      <c r="J74" s="49"/>
       <c r="K74" s="31"/>
       <c r="L74" s="23"/>
       <c r="M74" s="28"/>
@@ -7931,7 +7966,7 @@
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
       <c r="I75" s="29"/>
-      <c r="J75" s="48"/>
+      <c r="J75" s="49"/>
       <c r="K75" s="31"/>
       <c r="L75" s="23"/>
       <c r="M75" s="28"/>
@@ -7949,7 +7984,7 @@
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
       <c r="I76" s="29"/>
-      <c r="J76" s="48"/>
+      <c r="J76" s="49"/>
       <c r="K76" s="31"/>
       <c r="L76" s="23"/>
       <c r="M76" s="28"/>
@@ -7967,7 +8002,7 @@
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
       <c r="I77" s="29"/>
-      <c r="J77" s="48"/>
+      <c r="J77" s="49"/>
       <c r="K77" s="31"/>
       <c r="L77" s="23"/>
       <c r="M77" s="28"/>
@@ -7985,7 +8020,7 @@
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
       <c r="I78" s="29"/>
-      <c r="J78" s="48"/>
+      <c r="J78" s="49"/>
       <c r="K78" s="31"/>
       <c r="L78" s="23"/>
       <c r="M78" s="28"/>
@@ -8003,7 +8038,7 @@
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
       <c r="I79" s="29"/>
-      <c r="J79" s="48"/>
+      <c r="J79" s="49"/>
       <c r="K79" s="31"/>
       <c r="L79" s="23"/>
       <c r="M79" s="28"/>
@@ -8021,7 +8056,7 @@
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
       <c r="I80" s="29"/>
-      <c r="J80" s="48"/>
+      <c r="J80" s="49"/>
       <c r="K80" s="31"/>
       <c r="L80" s="23"/>
       <c r="M80" s="28"/>
@@ -8039,7 +8074,7 @@
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
-      <c r="J81" s="48"/>
+      <c r="J81" s="49"/>
       <c r="K81" s="31"/>
       <c r="L81" s="23"/>
       <c r="M81" s="28"/>
@@ -8057,7 +8092,7 @@
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
       <c r="I82" s="29"/>
-      <c r="J82" s="48"/>
+      <c r="J82" s="49"/>
       <c r="K82" s="31"/>
       <c r="L82" s="23"/>
       <c r="M82" s="28"/>
@@ -8075,7 +8110,7 @@
       <c r="G83" s="29"/>
       <c r="H83" s="29"/>
       <c r="I83" s="29"/>
-      <c r="J83" s="48"/>
+      <c r="J83" s="49"/>
       <c r="K83" s="31"/>
       <c r="L83" s="23"/>
       <c r="M83" s="28"/>
@@ -8093,7 +8128,7 @@
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
       <c r="I84" s="29"/>
-      <c r="J84" s="48"/>
+      <c r="J84" s="49"/>
       <c r="K84" s="31"/>
       <c r="L84" s="23"/>
       <c r="M84" s="28"/>
@@ -8111,7 +8146,7 @@
       <c r="G85" s="29"/>
       <c r="H85" s="29"/>
       <c r="I85" s="29"/>
-      <c r="J85" s="48"/>
+      <c r="J85" s="49"/>
       <c r="K85" s="31"/>
       <c r="L85" s="23"/>
       <c r="M85" s="28"/>
@@ -8129,7 +8164,7 @@
       <c r="G86" s="29"/>
       <c r="H86" s="29"/>
       <c r="I86" s="29"/>
-      <c r="J86" s="48"/>
+      <c r="J86" s="49"/>
       <c r="K86" s="31"/>
       <c r="L86" s="23"/>
       <c r="M86" s="28"/>
@@ -8147,7 +8182,7 @@
       <c r="G87" s="29"/>
       <c r="H87" s="29"/>
       <c r="I87" s="29"/>
-      <c r="J87" s="48"/>
+      <c r="J87" s="49"/>
       <c r="K87" s="31"/>
       <c r="L87" s="23"/>
       <c r="M87" s="28"/>
@@ -8165,7 +8200,7 @@
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
       <c r="I88" s="29"/>
-      <c r="J88" s="48"/>
+      <c r="J88" s="49"/>
       <c r="K88" s="31"/>
       <c r="L88" s="23"/>
       <c r="M88" s="28"/>
@@ -8183,7 +8218,7 @@
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
       <c r="I89" s="29"/>
-      <c r="J89" s="48"/>
+      <c r="J89" s="49"/>
       <c r="K89" s="31"/>
       <c r="L89" s="23"/>
       <c r="M89" s="28"/>
@@ -8201,7 +8236,7 @@
       <c r="G90" s="29"/>
       <c r="H90" s="29"/>
       <c r="I90" s="29"/>
-      <c r="J90" s="48"/>
+      <c r="J90" s="49"/>
       <c r="K90" s="31"/>
       <c r="L90" s="23"/>
       <c r="M90" s="28"/>
@@ -8219,7 +8254,7 @@
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
       <c r="I91" s="29"/>
-      <c r="J91" s="48"/>
+      <c r="J91" s="49"/>
       <c r="K91" s="31"/>
       <c r="L91" s="23"/>
       <c r="M91" s="28"/>
@@ -8237,7 +8272,7 @@
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
       <c r="I92" s="29"/>
-      <c r="J92" s="48"/>
+      <c r="J92" s="49"/>
       <c r="K92" s="31"/>
       <c r="L92" s="23"/>
       <c r="M92" s="28"/>
@@ -8255,7 +8290,7 @@
       <c r="G93" s="29"/>
       <c r="H93" s="29"/>
       <c r="I93" s="29"/>
-      <c r="J93" s="48"/>
+      <c r="J93" s="49"/>
       <c r="K93" s="31"/>
       <c r="L93" s="23"/>
       <c r="M93" s="28"/>
@@ -8273,7 +8308,7 @@
       <c r="G94" s="29"/>
       <c r="H94" s="29"/>
       <c r="I94" s="29"/>
-      <c r="J94" s="48"/>
+      <c r="J94" s="49"/>
       <c r="K94" s="31"/>
       <c r="L94" s="23"/>
       <c r="M94" s="28"/>
@@ -8291,7 +8326,7 @@
       <c r="G95" s="29"/>
       <c r="H95" s="29"/>
       <c r="I95" s="29"/>
-      <c r="J95" s="48"/>
+      <c r="J95" s="49"/>
       <c r="K95" s="31"/>
       <c r="L95" s="23"/>
       <c r="M95" s="28"/>
@@ -8309,7 +8344,7 @@
       <c r="G96" s="29"/>
       <c r="H96" s="29"/>
       <c r="I96" s="29"/>
-      <c r="J96" s="48"/>
+      <c r="J96" s="49"/>
       <c r="K96" s="31"/>
       <c r="L96" s="23"/>
       <c r="M96" s="28"/>
@@ -8327,7 +8362,7 @@
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>
       <c r="I97" s="29"/>
-      <c r="J97" s="48"/>
+      <c r="J97" s="49"/>
       <c r="K97" s="31"/>
       <c r="L97" s="23"/>
       <c r="M97" s="28"/>
@@ -8345,7 +8380,7 @@
       <c r="G98" s="29"/>
       <c r="H98" s="29"/>
       <c r="I98" s="29"/>
-      <c r="J98" s="48"/>
+      <c r="J98" s="49"/>
       <c r="K98" s="31"/>
       <c r="L98" s="23"/>
       <c r="M98" s="28"/>
@@ -8363,7 +8398,7 @@
       <c r="G99" s="29"/>
       <c r="H99" s="29"/>
       <c r="I99" s="29"/>
-      <c r="J99" s="48"/>
+      <c r="J99" s="49"/>
       <c r="K99" s="31"/>
       <c r="L99" s="23"/>
       <c r="M99" s="28"/>
@@ -8381,7 +8416,7 @@
       <c r="G100" s="29"/>
       <c r="H100" s="29"/>
       <c r="I100" s="29"/>
-      <c r="J100" s="48"/>
+      <c r="J100" s="49"/>
       <c r="K100" s="31"/>
       <c r="L100" s="23"/>
       <c r="M100" s="28"/>
@@ -8399,7 +8434,7 @@
       <c r="G101" s="29"/>
       <c r="H101" s="29"/>
       <c r="I101" s="29"/>
-      <c r="J101" s="48"/>
+      <c r="J101" s="49"/>
       <c r="K101" s="31"/>
       <c r="L101" s="23"/>
       <c r="M101" s="28"/>
@@ -8417,7 +8452,7 @@
       <c r="G102" s="29"/>
       <c r="H102" s="29"/>
       <c r="I102" s="29"/>
-      <c r="J102" s="48"/>
+      <c r="J102" s="49"/>
       <c r="K102" s="31"/>
       <c r="L102" s="23"/>
       <c r="M102" s="28"/>
@@ -8435,7 +8470,7 @@
       <c r="G103" s="29"/>
       <c r="H103" s="29"/>
       <c r="I103" s="29"/>
-      <c r="J103" s="48"/>
+      <c r="J103" s="49"/>
       <c r="K103" s="31"/>
       <c r="L103" s="23"/>
       <c r="M103" s="28"/>
@@ -8453,7 +8488,7 @@
       <c r="G104" s="29"/>
       <c r="H104" s="29"/>
       <c r="I104" s="29"/>
-      <c r="J104" s="48"/>
+      <c r="J104" s="49"/>
       <c r="K104" s="31"/>
       <c r="L104" s="23"/>
       <c r="M104" s="28"/>
@@ -8471,7 +8506,7 @@
       <c r="G105" s="29"/>
       <c r="H105" s="29"/>
       <c r="I105" s="29"/>
-      <c r="J105" s="48"/>
+      <c r="J105" s="49"/>
       <c r="K105" s="31"/>
       <c r="L105" s="23"/>
       <c r="M105" s="28"/>
@@ -8489,7 +8524,7 @@
       <c r="G106" s="29"/>
       <c r="H106" s="29"/>
       <c r="I106" s="29"/>
-      <c r="J106" s="48"/>
+      <c r="J106" s="49"/>
       <c r="K106" s="31"/>
       <c r="L106" s="23"/>
       <c r="M106" s="28"/>
@@ -8507,7 +8542,7 @@
       <c r="G107" s="29"/>
       <c r="H107" s="29"/>
       <c r="I107" s="29"/>
-      <c r="J107" s="48"/>
+      <c r="J107" s="49"/>
       <c r="K107" s="31"/>
       <c r="L107" s="23"/>
       <c r="M107" s="28"/>
@@ -8525,7 +8560,7 @@
       <c r="G108" s="29"/>
       <c r="H108" s="29"/>
       <c r="I108" s="29"/>
-      <c r="J108" s="48"/>
+      <c r="J108" s="49"/>
       <c r="K108" s="31"/>
       <c r="L108" s="23"/>
       <c r="M108" s="28"/>
@@ -8543,7 +8578,7 @@
       <c r="G109" s="29"/>
       <c r="H109" s="29"/>
       <c r="I109" s="29"/>
-      <c r="J109" s="48"/>
+      <c r="J109" s="49"/>
       <c r="K109" s="31"/>
       <c r="L109" s="23"/>
       <c r="M109" s="28"/>
@@ -8561,7 +8596,7 @@
       <c r="G110" s="29"/>
       <c r="H110" s="29"/>
       <c r="I110" s="29"/>
-      <c r="J110" s="48"/>
+      <c r="J110" s="49"/>
       <c r="K110" s="31"/>
       <c r="L110" s="23"/>
       <c r="M110" s="28"/>
@@ -8579,7 +8614,7 @@
       <c r="G111" s="29"/>
       <c r="H111" s="29"/>
       <c r="I111" s="29"/>
-      <c r="J111" s="48"/>
+      <c r="J111" s="49"/>
       <c r="K111" s="31"/>
       <c r="L111" s="23"/>
       <c r="M111" s="28"/>
@@ -8597,7 +8632,7 @@
       <c r="G112" s="29"/>
       <c r="H112" s="29"/>
       <c r="I112" s="29"/>
-      <c r="J112" s="48"/>
+      <c r="J112" s="49"/>
       <c r="K112" s="31"/>
       <c r="L112" s="23"/>
       <c r="M112" s="28"/>
@@ -8615,7 +8650,7 @@
       <c r="G113" s="29"/>
       <c r="H113" s="29"/>
       <c r="I113" s="29"/>
-      <c r="J113" s="48"/>
+      <c r="J113" s="49"/>
       <c r="K113" s="31"/>
       <c r="L113" s="23"/>
       <c r="M113" s="28"/>
@@ -8633,7 +8668,7 @@
       <c r="G114" s="29"/>
       <c r="H114" s="29"/>
       <c r="I114" s="29"/>
-      <c r="J114" s="48"/>
+      <c r="J114" s="49"/>
       <c r="K114" s="31"/>
       <c r="L114" s="23"/>
       <c r="M114" s="28"/>
@@ -8651,7 +8686,7 @@
       <c r="G115" s="29"/>
       <c r="H115" s="29"/>
       <c r="I115" s="29"/>
-      <c r="J115" s="48"/>
+      <c r="J115" s="49"/>
       <c r="K115" s="31"/>
       <c r="L115" s="23"/>
       <c r="M115" s="28"/>
@@ -8669,7 +8704,7 @@
       <c r="G116" s="29"/>
       <c r="H116" s="29"/>
       <c r="I116" s="29"/>
-      <c r="J116" s="48"/>
+      <c r="J116" s="49"/>
       <c r="K116" s="31"/>
       <c r="L116" s="23"/>
       <c r="M116" s="28"/>
@@ -8687,7 +8722,7 @@
       <c r="G117" s="29"/>
       <c r="H117" s="29"/>
       <c r="I117" s="29"/>
-      <c r="J117" s="48"/>
+      <c r="J117" s="49"/>
       <c r="K117" s="31"/>
       <c r="L117" s="23"/>
       <c r="M117" s="28"/>
@@ -8705,7 +8740,7 @@
       <c r="G118" s="29"/>
       <c r="H118" s="29"/>
       <c r="I118" s="29"/>
-      <c r="J118" s="48"/>
+      <c r="J118" s="49"/>
       <c r="K118" s="31"/>
       <c r="L118" s="23"/>
       <c r="M118" s="28"/>
@@ -8723,7 +8758,7 @@
       <c r="G119" s="29"/>
       <c r="H119" s="29"/>
       <c r="I119" s="29"/>
-      <c r="J119" s="48"/>
+      <c r="J119" s="49"/>
       <c r="K119" s="31"/>
       <c r="L119" s="23"/>
       <c r="M119" s="28"/>
@@ -8741,7 +8776,7 @@
       <c r="G120" s="29"/>
       <c r="H120" s="29"/>
       <c r="I120" s="29"/>
-      <c r="J120" s="48"/>
+      <c r="J120" s="49"/>
       <c r="K120" s="31"/>
       <c r="L120" s="23"/>
       <c r="M120" s="28"/>
@@ -8759,7 +8794,7 @@
       <c r="G121" s="29"/>
       <c r="H121" s="29"/>
       <c r="I121" s="29"/>
-      <c r="J121" s="48"/>
+      <c r="J121" s="49"/>
       <c r="K121" s="31"/>
       <c r="L121" s="23"/>
       <c r="M121" s="28"/>
@@ -8777,7 +8812,7 @@
       <c r="G122" s="29"/>
       <c r="H122" s="29"/>
       <c r="I122" s="29"/>
-      <c r="J122" s="48"/>
+      <c r="J122" s="49"/>
       <c r="K122" s="31"/>
       <c r="L122" s="23"/>
       <c r="M122" s="28"/>
@@ -8795,7 +8830,7 @@
       <c r="G123" s="29"/>
       <c r="H123" s="29"/>
       <c r="I123" s="29"/>
-      <c r="J123" s="48"/>
+      <c r="J123" s="49"/>
       <c r="K123" s="31"/>
       <c r="L123" s="23"/>
       <c r="M123" s="28"/>
@@ -8813,7 +8848,7 @@
       <c r="G124" s="29"/>
       <c r="H124" s="29"/>
       <c r="I124" s="29"/>
-      <c r="J124" s="48"/>
+      <c r="J124" s="49"/>
       <c r="K124" s="31"/>
       <c r="L124" s="23"/>
       <c r="M124" s="28"/>
@@ -8831,7 +8866,7 @@
       <c r="G125" s="29"/>
       <c r="H125" s="29"/>
       <c r="I125" s="29"/>
-      <c r="J125" s="48"/>
+      <c r="J125" s="49"/>
       <c r="K125" s="31"/>
       <c r="L125" s="23"/>
       <c r="M125" s="28"/>
@@ -8849,7 +8884,7 @@
       <c r="G126" s="29"/>
       <c r="H126" s="29"/>
       <c r="I126" s="29"/>
-      <c r="J126" s="48"/>
+      <c r="J126" s="49"/>
       <c r="K126" s="31"/>
       <c r="L126" s="23"/>
       <c r="M126" s="28"/>
@@ -8867,7 +8902,7 @@
       <c r="G127" s="29"/>
       <c r="H127" s="29"/>
       <c r="I127" s="29"/>
-      <c r="J127" s="48"/>
+      <c r="J127" s="49"/>
       <c r="K127" s="31"/>
       <c r="L127" s="23"/>
       <c r="M127" s="28"/>
@@ -8885,7 +8920,7 @@
       <c r="G128" s="29"/>
       <c r="H128" s="29"/>
       <c r="I128" s="29"/>
-      <c r="J128" s="48"/>
+      <c r="J128" s="49"/>
       <c r="K128" s="31"/>
       <c r="L128" s="23"/>
       <c r="M128" s="28"/>
@@ -8903,7 +8938,7 @@
       <c r="G129" s="29"/>
       <c r="H129" s="29"/>
       <c r="I129" s="29"/>
-      <c r="J129" s="48"/>
+      <c r="J129" s="49"/>
       <c r="K129" s="31"/>
       <c r="L129" s="23"/>
       <c r="M129" s="28"/>
@@ -8921,7 +8956,7 @@
       <c r="G130" s="29"/>
       <c r="H130" s="29"/>
       <c r="I130" s="29"/>
-      <c r="J130" s="48"/>
+      <c r="J130" s="49"/>
       <c r="K130" s="31"/>
       <c r="L130" s="23"/>
       <c r="M130" s="28"/>
@@ -8939,7 +8974,7 @@
       <c r="G131" s="29"/>
       <c r="H131" s="29"/>
       <c r="I131" s="29"/>
-      <c r="J131" s="48"/>
+      <c r="J131" s="49"/>
       <c r="K131" s="31"/>
       <c r="L131" s="23"/>
       <c r="M131" s="28"/>
@@ -8957,7 +8992,7 @@
       <c r="G132" s="29"/>
       <c r="H132" s="29"/>
       <c r="I132" s="29"/>
-      <c r="J132" s="48"/>
+      <c r="J132" s="49"/>
       <c r="K132" s="31"/>
       <c r="L132" s="23"/>
       <c r="M132" s="28"/>
@@ -8975,7 +9010,7 @@
       <c r="G133" s="29"/>
       <c r="H133" s="29"/>
       <c r="I133" s="29"/>
-      <c r="J133" s="48"/>
+      <c r="J133" s="49"/>
       <c r="K133" s="31"/>
       <c r="L133" s="23"/>
       <c r="M133" s="28"/>
@@ -8993,7 +9028,7 @@
       <c r="G134" s="29"/>
       <c r="H134" s="29"/>
       <c r="I134" s="29"/>
-      <c r="J134" s="48"/>
+      <c r="J134" s="49"/>
       <c r="K134" s="31"/>
       <c r="L134" s="23"/>
       <c r="M134" s="28"/>
@@ -9011,7 +9046,7 @@
       <c r="G135" s="29"/>
       <c r="H135" s="29"/>
       <c r="I135" s="29"/>
-      <c r="J135" s="48"/>
+      <c r="J135" s="49"/>
       <c r="K135" s="31"/>
       <c r="L135" s="23"/>
       <c r="M135" s="28"/>
@@ -9029,7 +9064,7 @@
       <c r="G136" s="29"/>
       <c r="H136" s="29"/>
       <c r="I136" s="29"/>
-      <c r="J136" s="48"/>
+      <c r="J136" s="49"/>
       <c r="K136" s="31"/>
       <c r="L136" s="23"/>
       <c r="M136" s="28"/>
@@ -9047,7 +9082,7 @@
       <c r="G137" s="29"/>
       <c r="H137" s="29"/>
       <c r="I137" s="29"/>
-      <c r="J137" s="48"/>
+      <c r="J137" s="49"/>
       <c r="K137" s="31"/>
       <c r="L137" s="23"/>
       <c r="M137" s="28"/>
@@ -9065,7 +9100,7 @@
       <c r="G138" s="29"/>
       <c r="H138" s="29"/>
       <c r="I138" s="29"/>
-      <c r="J138" s="48"/>
+      <c r="J138" s="49"/>
       <c r="K138" s="31"/>
       <c r="L138" s="23"/>
       <c r="M138" s="28"/>
@@ -9083,7 +9118,7 @@
       <c r="G139" s="29"/>
       <c r="H139" s="29"/>
       <c r="I139" s="29"/>
-      <c r="J139" s="48"/>
+      <c r="J139" s="49"/>
       <c r="K139" s="31"/>
       <c r="L139" s="23"/>
       <c r="M139" s="28"/>
@@ -9101,7 +9136,7 @@
       <c r="G140" s="29"/>
       <c r="H140" s="29"/>
       <c r="I140" s="29"/>
-      <c r="J140" s="48"/>
+      <c r="J140" s="49"/>
       <c r="K140" s="31"/>
       <c r="L140" s="23"/>
       <c r="M140" s="28"/>
@@ -9119,7 +9154,7 @@
       <c r="G141" s="29"/>
       <c r="H141" s="29"/>
       <c r="I141" s="29"/>
-      <c r="J141" s="48"/>
+      <c r="J141" s="49"/>
       <c r="K141" s="31"/>
       <c r="L141" s="23"/>
       <c r="M141" s="28"/>
@@ -9137,7 +9172,7 @@
       <c r="G142" s="29"/>
       <c r="H142" s="29"/>
       <c r="I142" s="29"/>
-      <c r="J142" s="48"/>
+      <c r="J142" s="49"/>
       <c r="K142" s="31"/>
       <c r="L142" s="23"/>
       <c r="M142" s="28"/>
@@ -9155,7 +9190,7 @@
       <c r="G143" s="29"/>
       <c r="H143" s="29"/>
       <c r="I143" s="29"/>
-      <c r="J143" s="48"/>
+      <c r="J143" s="49"/>
       <c r="K143" s="31"/>
       <c r="L143" s="23"/>
       <c r="M143" s="28"/>
@@ -9173,7 +9208,7 @@
       <c r="G144" s="29"/>
       <c r="H144" s="29"/>
       <c r="I144" s="29"/>
-      <c r="J144" s="48"/>
+      <c r="J144" s="49"/>
       <c r="K144" s="31"/>
       <c r="L144" s="23"/>
       <c r="M144" s="28"/>
@@ -9191,7 +9226,7 @@
       <c r="G145" s="29"/>
       <c r="H145" s="29"/>
       <c r="I145" s="29"/>
-      <c r="J145" s="48"/>
+      <c r="J145" s="49"/>
       <c r="K145" s="31"/>
       <c r="L145" s="23"/>
       <c r="M145" s="28"/>
@@ -9209,7 +9244,7 @@
       <c r="G146" s="29"/>
       <c r="H146" s="29"/>
       <c r="I146" s="29"/>
-      <c r="J146" s="48"/>
+      <c r="J146" s="49"/>
       <c r="K146" s="31"/>
       <c r="L146" s="23"/>
       <c r="M146" s="28"/>
@@ -9227,7 +9262,7 @@
       <c r="G147" s="29"/>
       <c r="H147" s="29"/>
       <c r="I147" s="29"/>
-      <c r="J147" s="48"/>
+      <c r="J147" s="49"/>
       <c r="K147" s="31"/>
       <c r="L147" s="23"/>
       <c r="M147" s="28"/>
@@ -9245,7 +9280,7 @@
       <c r="G148" s="29"/>
       <c r="H148" s="29"/>
       <c r="I148" s="29"/>
-      <c r="J148" s="48"/>
+      <c r="J148" s="49"/>
       <c r="K148" s="31"/>
       <c r="L148" s="23"/>
       <c r="M148" s="28"/>
@@ -9263,7 +9298,7 @@
       <c r="G149" s="29"/>
       <c r="H149" s="29"/>
       <c r="I149" s="29"/>
-      <c r="J149" s="48"/>
+      <c r="J149" s="49"/>
       <c r="K149" s="31"/>
       <c r="L149" s="23"/>
       <c r="M149" s="28"/>
@@ -9281,7 +9316,7 @@
       <c r="G150" s="29"/>
       <c r="H150" s="29"/>
       <c r="I150" s="29"/>
-      <c r="J150" s="48"/>
+      <c r="J150" s="49"/>
       <c r="K150" s="31"/>
       <c r="L150" s="23"/>
       <c r="M150" s="28"/>
@@ -9299,7 +9334,7 @@
       <c r="G151" s="29"/>
       <c r="H151" s="29"/>
       <c r="I151" s="29"/>
-      <c r="J151" s="48"/>
+      <c r="J151" s="49"/>
       <c r="K151" s="31"/>
       <c r="L151" s="23"/>
       <c r="M151" s="28"/>
@@ -9317,7 +9352,7 @@
       <c r="G152" s="29"/>
       <c r="H152" s="29"/>
       <c r="I152" s="29"/>
-      <c r="J152" s="48"/>
+      <c r="J152" s="49"/>
       <c r="K152" s="31"/>
       <c r="L152" s="23"/>
       <c r="M152" s="28"/>
@@ -9335,7 +9370,7 @@
       <c r="G153" s="29"/>
       <c r="H153" s="29"/>
       <c r="I153" s="29"/>
-      <c r="J153" s="48"/>
+      <c r="J153" s="49"/>
       <c r="K153" s="31"/>
       <c r="L153" s="23"/>
       <c r="M153" s="28"/>
@@ -9353,7 +9388,7 @@
       <c r="G154" s="29"/>
       <c r="H154" s="29"/>
       <c r="I154" s="29"/>
-      <c r="J154" s="48"/>
+      <c r="J154" s="49"/>
       <c r="K154" s="31"/>
       <c r="L154" s="23"/>
       <c r="M154" s="28"/>
@@ -9371,7 +9406,7 @@
       <c r="G155" s="29"/>
       <c r="H155" s="29"/>
       <c r="I155" s="29"/>
-      <c r="J155" s="48"/>
+      <c r="J155" s="49"/>
       <c r="K155" s="31"/>
       <c r="L155" s="23"/>
       <c r="M155" s="28"/>
@@ -9389,7 +9424,7 @@
       <c r="G156" s="29"/>
       <c r="H156" s="29"/>
       <c r="I156" s="29"/>
-      <c r="J156" s="48"/>
+      <c r="J156" s="49"/>
       <c r="K156" s="31"/>
       <c r="L156" s="23"/>
       <c r="M156" s="28"/>
@@ -9407,7 +9442,7 @@
       <c r="G157" s="29"/>
       <c r="H157" s="29"/>
       <c r="I157" s="29"/>
-      <c r="J157" s="48"/>
+      <c r="J157" s="49"/>
       <c r="K157" s="31"/>
       <c r="L157" s="23"/>
       <c r="M157" s="28"/>
@@ -9425,7 +9460,7 @@
       <c r="G158" s="29"/>
       <c r="H158" s="29"/>
       <c r="I158" s="29"/>
-      <c r="J158" s="48"/>
+      <c r="J158" s="49"/>
       <c r="K158" s="31"/>
       <c r="L158" s="23"/>
       <c r="M158" s="28"/>
@@ -9443,7 +9478,7 @@
       <c r="G159" s="29"/>
       <c r="H159" s="29"/>
       <c r="I159" s="29"/>
-      <c r="J159" s="48"/>
+      <c r="J159" s="49"/>
       <c r="K159" s="31"/>
       <c r="L159" s="23"/>
       <c r="M159" s="28"/>
@@ -9461,7 +9496,7 @@
       <c r="G160" s="29"/>
       <c r="H160" s="29"/>
       <c r="I160" s="29"/>
-      <c r="J160" s="48"/>
+      <c r="J160" s="49"/>
       <c r="K160" s="31"/>
       <c r="L160" s="23"/>
       <c r="M160" s="28"/>
@@ -9479,7 +9514,7 @@
       <c r="G161" s="29"/>
       <c r="H161" s="29"/>
       <c r="I161" s="29"/>
-      <c r="J161" s="48"/>
+      <c r="J161" s="49"/>
       <c r="K161" s="31"/>
       <c r="L161" s="23"/>
       <c r="M161" s="28"/>
@@ -9497,7 +9532,7 @@
       <c r="G162" s="29"/>
       <c r="H162" s="29"/>
       <c r="I162" s="29"/>
-      <c r="J162" s="48"/>
+      <c r="J162" s="49"/>
       <c r="K162" s="31"/>
       <c r="L162" s="23"/>
       <c r="M162" s="28"/>
@@ -9515,7 +9550,7 @@
       <c r="G163" s="29"/>
       <c r="H163" s="29"/>
       <c r="I163" s="29"/>
-      <c r="J163" s="48"/>
+      <c r="J163" s="49"/>
       <c r="K163" s="31"/>
       <c r="L163" s="23"/>
       <c r="M163" s="28"/>
@@ -9533,7 +9568,7 @@
       <c r="G164" s="29"/>
       <c r="H164" s="29"/>
       <c r="I164" s="29"/>
-      <c r="J164" s="48"/>
+      <c r="J164" s="49"/>
       <c r="K164" s="31"/>
       <c r="L164" s="23"/>
       <c r="M164" s="28"/>
@@ -9551,7 +9586,7 @@
       <c r="G165" s="29"/>
       <c r="H165" s="29"/>
       <c r="I165" s="29"/>
-      <c r="J165" s="48"/>
+      <c r="J165" s="49"/>
       <c r="K165" s="31"/>
       <c r="L165" s="23"/>
       <c r="M165" s="28"/>
@@ -9569,7 +9604,7 @@
       <c r="G166" s="29"/>
       <c r="H166" s="29"/>
       <c r="I166" s="29"/>
-      <c r="J166" s="48"/>
+      <c r="J166" s="49"/>
       <c r="K166" s="31"/>
       <c r="L166" s="23"/>
       <c r="M166" s="28"/>
@@ -9587,7 +9622,7 @@
       <c r="G167" s="29"/>
       <c r="H167" s="29"/>
       <c r="I167" s="29"/>
-      <c r="J167" s="48"/>
+      <c r="J167" s="49"/>
       <c r="K167" s="31"/>
       <c r="L167" s="23"/>
       <c r="M167" s="28"/>
@@ -9605,7 +9640,7 @@
       <c r="G168" s="29"/>
       <c r="H168" s="29"/>
       <c r="I168" s="29"/>
-      <c r="J168" s="48"/>
+      <c r="J168" s="49"/>
       <c r="K168" s="31"/>
       <c r="L168" s="23"/>
       <c r="M168" s="28"/>
@@ -9623,7 +9658,7 @@
       <c r="G169" s="29"/>
       <c r="H169" s="29"/>
       <c r="I169" s="29"/>
-      <c r="J169" s="48"/>
+      <c r="J169" s="49"/>
       <c r="K169" s="31"/>
       <c r="L169" s="23"/>
       <c r="M169" s="28"/>
@@ -9641,7 +9676,7 @@
       <c r="G170" s="29"/>
       <c r="H170" s="29"/>
       <c r="I170" s="29"/>
-      <c r="J170" s="48"/>
+      <c r="J170" s="49"/>
       <c r="K170" s="31"/>
       <c r="L170" s="23"/>
       <c r="M170" s="28"/>
@@ -9659,7 +9694,7 @@
       <c r="G171" s="29"/>
       <c r="H171" s="29"/>
       <c r="I171" s="29"/>
-      <c r="J171" s="48"/>
+      <c r="J171" s="49"/>
       <c r="K171" s="31"/>
       <c r="L171" s="23"/>
       <c r="M171" s="28"/>
@@ -9677,7 +9712,7 @@
       <c r="G172" s="29"/>
       <c r="H172" s="29"/>
       <c r="I172" s="29"/>
-      <c r="J172" s="48"/>
+      <c r="J172" s="49"/>
       <c r="K172" s="31"/>
       <c r="L172" s="23"/>
       <c r="M172" s="28"/>
@@ -9695,7 +9730,7 @@
       <c r="G173" s="29"/>
       <c r="H173" s="29"/>
       <c r="I173" s="29"/>
-      <c r="J173" s="48"/>
+      <c r="J173" s="49"/>
       <c r="K173" s="31"/>
       <c r="L173" s="23"/>
       <c r="M173" s="28"/>
@@ -9713,7 +9748,7 @@
       <c r="G174" s="29"/>
       <c r="H174" s="29"/>
       <c r="I174" s="29"/>
-      <c r="J174" s="48"/>
+      <c r="J174" s="49"/>
       <c r="K174" s="31"/>
       <c r="L174" s="23"/>
       <c r="M174" s="28"/>
@@ -9731,7 +9766,7 @@
       <c r="G175" s="29"/>
       <c r="H175" s="29"/>
       <c r="I175" s="29"/>
-      <c r="J175" s="48"/>
+      <c r="J175" s="49"/>
       <c r="K175" s="31"/>
       <c r="L175" s="23"/>
       <c r="M175" s="28"/>
@@ -9749,7 +9784,7 @@
       <c r="G176" s="29"/>
       <c r="H176" s="29"/>
       <c r="I176" s="29"/>
-      <c r="J176" s="48"/>
+      <c r="J176" s="49"/>
       <c r="K176" s="31"/>
       <c r="L176" s="23"/>
       <c r="M176" s="28"/>
@@ -9767,7 +9802,7 @@
       <c r="G177" s="29"/>
       <c r="H177" s="29"/>
       <c r="I177" s="29"/>
-      <c r="J177" s="48"/>
+      <c r="J177" s="49"/>
       <c r="K177" s="31"/>
       <c r="L177" s="23"/>
       <c r="M177" s="28"/>
@@ -9785,7 +9820,7 @@
       <c r="G178" s="29"/>
       <c r="H178" s="29"/>
       <c r="I178" s="29"/>
-      <c r="J178" s="48"/>
+      <c r="J178" s="49"/>
       <c r="K178" s="31"/>
       <c r="L178" s="23"/>
       <c r="M178" s="28"/>
@@ -9803,7 +9838,7 @@
       <c r="G179" s="29"/>
       <c r="H179" s="29"/>
       <c r="I179" s="29"/>
-      <c r="J179" s="48"/>
+      <c r="J179" s="49"/>
       <c r="K179" s="31"/>
       <c r="L179" s="23"/>
       <c r="M179" s="28"/>
@@ -9821,7 +9856,7 @@
       <c r="G180" s="29"/>
       <c r="H180" s="29"/>
       <c r="I180" s="29"/>
-      <c r="J180" s="48"/>
+      <c r="J180" s="49"/>
       <c r="K180" s="31"/>
       <c r="L180" s="23"/>
       <c r="M180" s="28"/>
@@ -9839,7 +9874,7 @@
       <c r="G181" s="29"/>
       <c r="H181" s="29"/>
       <c r="I181" s="29"/>
-      <c r="J181" s="48"/>
+      <c r="J181" s="49"/>
       <c r="K181" s="31"/>
       <c r="L181" s="23"/>
       <c r="M181" s="28"/>
@@ -9857,7 +9892,7 @@
       <c r="G182" s="29"/>
       <c r="H182" s="29"/>
       <c r="I182" s="29"/>
-      <c r="J182" s="48"/>
+      <c r="J182" s="49"/>
       <c r="K182" s="31"/>
       <c r="L182" s="23"/>
       <c r="M182" s="28"/>
@@ -9875,7 +9910,7 @@
       <c r="G183" s="29"/>
       <c r="H183" s="29"/>
       <c r="I183" s="29"/>
-      <c r="J183" s="48"/>
+      <c r="J183" s="49"/>
       <c r="K183" s="31"/>
       <c r="L183" s="23"/>
       <c r="M183" s="28"/>
@@ -9893,7 +9928,7 @@
       <c r="G184" s="29"/>
       <c r="H184" s="29"/>
       <c r="I184" s="29"/>
-      <c r="J184" s="48"/>
+      <c r="J184" s="49"/>
       <c r="K184" s="31"/>
       <c r="L184" s="23"/>
       <c r="M184" s="28"/>
@@ -9911,7 +9946,7 @@
       <c r="G185" s="29"/>
       <c r="H185" s="29"/>
       <c r="I185" s="29"/>
-      <c r="J185" s="48"/>
+      <c r="J185" s="49"/>
       <c r="K185" s="31"/>
       <c r="L185" s="23"/>
       <c r="M185" s="28"/>
@@ -9929,7 +9964,7 @@
       <c r="G186" s="29"/>
       <c r="H186" s="29"/>
       <c r="I186" s="29"/>
-      <c r="J186" s="48"/>
+      <c r="J186" s="49"/>
       <c r="K186" s="31"/>
       <c r="L186" s="23"/>
       <c r="M186" s="28"/>
@@ -9947,7 +9982,7 @@
       <c r="G187" s="29"/>
       <c r="H187" s="29"/>
       <c r="I187" s="29"/>
-      <c r="J187" s="48"/>
+      <c r="J187" s="49"/>
       <c r="K187" s="31"/>
       <c r="L187" s="23"/>
       <c r="M187" s="28"/>
@@ -9965,7 +10000,7 @@
       <c r="G188" s="29"/>
       <c r="H188" s="29"/>
       <c r="I188" s="29"/>
-      <c r="J188" s="48"/>
+      <c r="J188" s="49"/>
       <c r="K188" s="31"/>
       <c r="L188" s="23"/>
       <c r="M188" s="28"/>
@@ -9983,7 +10018,7 @@
       <c r="G189" s="29"/>
       <c r="H189" s="29"/>
       <c r="I189" s="29"/>
-      <c r="J189" s="48"/>
+      <c r="J189" s="49"/>
       <c r="K189" s="31"/>
       <c r="L189" s="23"/>
       <c r="M189" s="28"/>
@@ -10001,7 +10036,7 @@
       <c r="G190" s="29"/>
       <c r="H190" s="29"/>
       <c r="I190" s="29"/>
-      <c r="J190" s="48"/>
+      <c r="J190" s="49"/>
       <c r="K190" s="31"/>
       <c r="L190" s="23"/>
       <c r="M190" s="28"/>
@@ -10019,7 +10054,7 @@
       <c r="G191" s="29"/>
       <c r="H191" s="29"/>
       <c r="I191" s="29"/>
-      <c r="J191" s="48"/>
+      <c r="J191" s="49"/>
       <c r="K191" s="31"/>
       <c r="L191" s="23"/>
       <c r="M191" s="28"/>
@@ -10037,7 +10072,7 @@
       <c r="G192" s="29"/>
       <c r="H192" s="29"/>
       <c r="I192" s="29"/>
-      <c r="J192" s="48"/>
+      <c r="J192" s="49"/>
       <c r="K192" s="31"/>
       <c r="L192" s="23"/>
       <c r="M192" s="28"/>
@@ -10055,7 +10090,7 @@
       <c r="G193" s="29"/>
       <c r="H193" s="29"/>
       <c r="I193" s="29"/>
-      <c r="J193" s="48"/>
+      <c r="J193" s="49"/>
       <c r="K193" s="31"/>
       <c r="L193" s="23"/>
       <c r="M193" s="28"/>
@@ -10073,7 +10108,7 @@
       <c r="G194" s="29"/>
       <c r="H194" s="29"/>
       <c r="I194" s="29"/>
-      <c r="J194" s="48"/>
+      <c r="J194" s="49"/>
       <c r="K194" s="31"/>
       <c r="L194" s="23"/>
       <c r="M194" s="28"/>
@@ -10091,7 +10126,7 @@
       <c r="G195" s="29"/>
       <c r="H195" s="29"/>
       <c r="I195" s="29"/>
-      <c r="J195" s="48"/>
+      <c r="J195" s="49"/>
       <c r="K195" s="31"/>
       <c r="L195" s="23"/>
       <c r="M195" s="28"/>
@@ -10109,7 +10144,7 @@
       <c r="G196" s="29"/>
       <c r="H196" s="29"/>
       <c r="I196" s="29"/>
-      <c r="J196" s="48"/>
+      <c r="J196" s="49"/>
       <c r="K196" s="31"/>
       <c r="L196" s="23"/>
       <c r="M196" s="28"/>
@@ -10127,7 +10162,7 @@
       <c r="G197" s="29"/>
       <c r="H197" s="29"/>
       <c r="I197" s="29"/>
-      <c r="J197" s="48"/>
+      <c r="J197" s="49"/>
       <c r="K197" s="31"/>
       <c r="L197" s="23"/>
       <c r="M197" s="28"/>
@@ -10145,7 +10180,7 @@
       <c r="G198" s="29"/>
       <c r="H198" s="29"/>
       <c r="I198" s="29"/>
-      <c r="J198" s="48"/>
+      <c r="J198" s="49"/>
       <c r="K198" s="31"/>
       <c r="L198" s="23"/>
       <c r="M198" s="28"/>
@@ -10163,7 +10198,7 @@
       <c r="G199" s="29"/>
       <c r="H199" s="29"/>
       <c r="I199" s="29"/>
-      <c r="J199" s="48"/>
+      <c r="J199" s="49"/>
       <c r="K199" s="31"/>
       <c r="L199" s="23"/>
       <c r="M199" s="28"/>
@@ -10181,7 +10216,7 @@
       <c r="G200" s="29"/>
       <c r="H200" s="29"/>
       <c r="I200" s="29"/>
-      <c r="J200" s="48"/>
+      <c r="J200" s="49"/>
       <c r="K200" s="31"/>
       <c r="L200" s="23"/>
       <c r="M200" s="28"/>
@@ -10199,7 +10234,7 @@
       <c r="G201" s="29"/>
       <c r="H201" s="29"/>
       <c r="I201" s="29"/>
-      <c r="J201" s="48"/>
+      <c r="J201" s="49"/>
       <c r="K201" s="31"/>
       <c r="L201" s="23"/>
       <c r="M201" s="28"/>
@@ -10217,7 +10252,7 @@
       <c r="G202" s="29"/>
       <c r="H202" s="29"/>
       <c r="I202" s="29"/>
-      <c r="J202" s="48"/>
+      <c r="J202" s="49"/>
       <c r="K202" s="31"/>
       <c r="L202" s="23"/>
       <c r="M202" s="28"/>
@@ -10235,7 +10270,7 @@
       <c r="G203" s="29"/>
       <c r="H203" s="29"/>
       <c r="I203" s="29"/>
-      <c r="J203" s="48"/>
+      <c r="J203" s="49"/>
       <c r="K203" s="31"/>
       <c r="L203" s="23"/>
       <c r="M203" s="28"/>
@@ -10253,7 +10288,7 @@
       <c r="G204" s="29"/>
       <c r="H204" s="29"/>
       <c r="I204" s="29"/>
-      <c r="J204" s="48"/>
+      <c r="J204" s="49"/>
       <c r="K204" s="31"/>
       <c r="L204" s="23"/>
       <c r="M204" s="28"/>
@@ -10271,7 +10306,7 @@
       <c r="G205" s="29"/>
       <c r="H205" s="29"/>
       <c r="I205" s="29"/>
-      <c r="J205" s="48"/>
+      <c r="J205" s="49"/>
       <c r="K205" s="31"/>
       <c r="L205" s="23"/>
       <c r="M205" s="28"/>
@@ -10289,7 +10324,7 @@
       <c r="G206" s="29"/>
       <c r="H206" s="29"/>
       <c r="I206" s="29"/>
-      <c r="J206" s="48"/>
+      <c r="J206" s="49"/>
       <c r="K206" s="31"/>
       <c r="L206" s="23"/>
       <c r="M206" s="28"/>
@@ -10307,12 +10342,12 @@
       <c r="G207" s="29"/>
       <c r="H207" s="29"/>
       <c r="I207" s="29"/>
-      <c r="J207" s="48"/>
-      <c r="K207" s="40"/>
-      <c r="L207" s="49"/>
-      <c r="M207" s="50"/>
-      <c r="N207" s="49"/>
-      <c r="O207" s="40"/>
+      <c r="J207" s="49"/>
+      <c r="K207" s="41"/>
+      <c r="L207" s="50"/>
+      <c r="M207" s="51"/>
+      <c r="N207" s="50"/>
+      <c r="O207" s="41"/>
     </row>
     <row r="208" ht="23" customHeight="1" spans="1:15">
       <c r="A208" s="31"/>
@@ -10324,12 +10359,12 @@
       <c r="G208" s="29"/>
       <c r="H208" s="29"/>
       <c r="I208" s="29"/>
-      <c r="J208" s="48"/>
-      <c r="K208" s="40"/>
-      <c r="L208" s="49"/>
-      <c r="M208" s="50"/>
-      <c r="N208" s="49"/>
-      <c r="O208" s="40"/>
+      <c r="J208" s="49"/>
+      <c r="K208" s="41"/>
+      <c r="L208" s="50"/>
+      <c r="M208" s="51"/>
+      <c r="N208" s="50"/>
+      <c r="O208" s="41"/>
     </row>
     <row r="209" ht="23" customHeight="1" spans="1:15">
       <c r="A209" s="31"/>
@@ -10341,12 +10376,12 @@
       <c r="G209" s="29"/>
       <c r="H209" s="29"/>
       <c r="I209" s="29"/>
-      <c r="J209" s="48"/>
-      <c r="K209" s="40"/>
-      <c r="L209" s="49"/>
-      <c r="M209" s="50"/>
-      <c r="N209" s="49"/>
-      <c r="O209" s="40"/>
+      <c r="J209" s="49"/>
+      <c r="K209" s="41"/>
+      <c r="L209" s="50"/>
+      <c r="M209" s="51"/>
+      <c r="N209" s="50"/>
+      <c r="O209" s="41"/>
     </row>
     <row r="210" ht="23" customHeight="1" spans="1:15">
       <c r="A210" s="31"/>
@@ -10358,12 +10393,12 @@
       <c r="G210" s="29"/>
       <c r="H210" s="29"/>
       <c r="I210" s="29"/>
-      <c r="J210" s="48"/>
-      <c r="K210" s="40"/>
-      <c r="L210" s="49"/>
-      <c r="M210" s="50"/>
-      <c r="N210" s="49"/>
-      <c r="O210" s="40"/>
+      <c r="J210" s="49"/>
+      <c r="K210" s="41"/>
+      <c r="L210" s="50"/>
+      <c r="M210" s="51"/>
+      <c r="N210" s="50"/>
+      <c r="O210" s="41"/>
     </row>
     <row r="211" ht="23" customHeight="1" spans="1:15">
       <c r="A211" s="31"/>
@@ -10375,12 +10410,12 @@
       <c r="G211" s="29"/>
       <c r="H211" s="29"/>
       <c r="I211" s="29"/>
-      <c r="J211" s="48"/>
-      <c r="K211" s="40"/>
-      <c r="L211" s="49"/>
-      <c r="M211" s="50"/>
-      <c r="N211" s="49"/>
-      <c r="O211" s="40"/>
+      <c r="J211" s="49"/>
+      <c r="K211" s="41"/>
+      <c r="L211" s="50"/>
+      <c r="M211" s="51"/>
+      <c r="N211" s="50"/>
+      <c r="O211" s="41"/>
     </row>
     <row r="212" ht="23" customHeight="1" spans="1:15">
       <c r="A212" s="31"/>
@@ -10392,12 +10427,12 @@
       <c r="G212" s="29"/>
       <c r="H212" s="29"/>
       <c r="I212" s="29"/>
-      <c r="J212" s="48"/>
-      <c r="K212" s="40"/>
-      <c r="L212" s="49"/>
-      <c r="M212" s="50"/>
-      <c r="N212" s="49"/>
-      <c r="O212" s="40"/>
+      <c r="J212" s="49"/>
+      <c r="K212" s="41"/>
+      <c r="L212" s="50"/>
+      <c r="M212" s="51"/>
+      <c r="N212" s="50"/>
+      <c r="O212" s="41"/>
     </row>
     <row r="213" ht="23" customHeight="1" spans="1:15">
       <c r="A213" s="31"/>
@@ -10409,12 +10444,12 @@
       <c r="G213" s="29"/>
       <c r="H213" s="29"/>
       <c r="I213" s="29"/>
-      <c r="J213" s="48"/>
-      <c r="K213" s="40"/>
-      <c r="L213" s="49"/>
-      <c r="M213" s="50"/>
-      <c r="N213" s="49"/>
-      <c r="O213" s="40"/>
+      <c r="J213" s="49"/>
+      <c r="K213" s="41"/>
+      <c r="L213" s="50"/>
+      <c r="M213" s="51"/>
+      <c r="N213" s="50"/>
+      <c r="O213" s="41"/>
     </row>
     <row r="214" ht="23" customHeight="1" spans="1:15">
       <c r="A214" s="31"/>
@@ -10426,12 +10461,12 @@
       <c r="G214" s="29"/>
       <c r="H214" s="29"/>
       <c r="I214" s="29"/>
-      <c r="J214" s="48"/>
-      <c r="K214" s="40"/>
-      <c r="L214" s="49"/>
-      <c r="M214" s="50"/>
-      <c r="N214" s="49"/>
-      <c r="O214" s="40"/>
+      <c r="J214" s="49"/>
+      <c r="K214" s="41"/>
+      <c r="L214" s="50"/>
+      <c r="M214" s="51"/>
+      <c r="N214" s="50"/>
+      <c r="O214" s="41"/>
     </row>
     <row r="215" ht="23" customHeight="1" spans="1:15">
       <c r="A215" s="31"/>
@@ -10443,12 +10478,12 @@
       <c r="G215" s="29"/>
       <c r="H215" s="29"/>
       <c r="I215" s="29"/>
-      <c r="J215" s="48"/>
-      <c r="K215" s="40"/>
-      <c r="L215" s="49"/>
-      <c r="M215" s="50"/>
-      <c r="N215" s="49"/>
-      <c r="O215" s="40"/>
+      <c r="J215" s="49"/>
+      <c r="K215" s="41"/>
+      <c r="L215" s="50"/>
+      <c r="M215" s="51"/>
+      <c r="N215" s="50"/>
+      <c r="O215" s="41"/>
     </row>
     <row r="216" ht="23" customHeight="1" spans="1:15">
       <c r="A216" s="31"/>
@@ -10460,12 +10495,12 @@
       <c r="G216" s="29"/>
       <c r="H216" s="29"/>
       <c r="I216" s="29"/>
-      <c r="J216" s="48"/>
-      <c r="K216" s="40"/>
-      <c r="L216" s="49"/>
-      <c r="M216" s="50"/>
-      <c r="N216" s="49"/>
-      <c r="O216" s="40"/>
+      <c r="J216" s="49"/>
+      <c r="K216" s="41"/>
+      <c r="L216" s="50"/>
+      <c r="M216" s="51"/>
+      <c r="N216" s="50"/>
+      <c r="O216" s="41"/>
     </row>
     <row r="217" ht="23" customHeight="1" spans="1:15">
       <c r="A217" s="31"/>
@@ -10477,12 +10512,12 @@
       <c r="G217" s="29"/>
       <c r="H217" s="29"/>
       <c r="I217" s="29"/>
-      <c r="J217" s="48"/>
-      <c r="K217" s="40"/>
-      <c r="L217" s="49"/>
-      <c r="M217" s="50"/>
-      <c r="N217" s="49"/>
-      <c r="O217" s="40"/>
+      <c r="J217" s="49"/>
+      <c r="K217" s="41"/>
+      <c r="L217" s="50"/>
+      <c r="M217" s="51"/>
+      <c r="N217" s="50"/>
+      <c r="O217" s="41"/>
     </row>
     <row r="218" ht="23" customHeight="1" spans="1:15">
       <c r="A218" s="31"/>
@@ -10494,12 +10529,12 @@
       <c r="G218" s="29"/>
       <c r="H218" s="29"/>
       <c r="I218" s="29"/>
-      <c r="J218" s="48"/>
-      <c r="K218" s="40"/>
-      <c r="L218" s="49"/>
-      <c r="M218" s="50"/>
-      <c r="N218" s="49"/>
-      <c r="O218" s="40"/>
+      <c r="J218" s="49"/>
+      <c r="K218" s="41"/>
+      <c r="L218" s="50"/>
+      <c r="M218" s="51"/>
+      <c r="N218" s="50"/>
+      <c r="O218" s="41"/>
     </row>
     <row r="219" ht="23" customHeight="1" spans="1:15">
       <c r="A219" s="31"/>
@@ -10511,12 +10546,12 @@
       <c r="G219" s="29"/>
       <c r="H219" s="29"/>
       <c r="I219" s="29"/>
-      <c r="J219" s="48"/>
-      <c r="K219" s="40"/>
-      <c r="L219" s="49"/>
-      <c r="M219" s="50"/>
-      <c r="N219" s="49"/>
-      <c r="O219" s="40"/>
+      <c r="J219" s="49"/>
+      <c r="K219" s="41"/>
+      <c r="L219" s="50"/>
+      <c r="M219" s="51"/>
+      <c r="N219" s="50"/>
+      <c r="O219" s="41"/>
     </row>
     <row r="220" ht="23" customHeight="1" spans="1:15">
       <c r="A220" s="31"/>
@@ -10528,12 +10563,12 @@
       <c r="G220" s="29"/>
       <c r="H220" s="29"/>
       <c r="I220" s="29"/>
-      <c r="J220" s="48"/>
-      <c r="K220" s="40"/>
-      <c r="L220" s="49"/>
-      <c r="M220" s="50"/>
-      <c r="N220" s="49"/>
-      <c r="O220" s="40"/>
+      <c r="J220" s="49"/>
+      <c r="K220" s="41"/>
+      <c r="L220" s="50"/>
+      <c r="M220" s="51"/>
+      <c r="N220" s="50"/>
+      <c r="O220" s="41"/>
     </row>
     <row r="221" ht="23" customHeight="1" spans="1:15">
       <c r="A221" s="31"/>
@@ -10545,12 +10580,12 @@
       <c r="G221" s="29"/>
       <c r="H221" s="29"/>
       <c r="I221" s="29"/>
-      <c r="J221" s="48"/>
-      <c r="K221" s="40"/>
-      <c r="L221" s="49"/>
-      <c r="M221" s="50"/>
-      <c r="N221" s="49"/>
-      <c r="O221" s="40"/>
+      <c r="J221" s="49"/>
+      <c r="K221" s="41"/>
+      <c r="L221" s="50"/>
+      <c r="M221" s="51"/>
+      <c r="N221" s="50"/>
+      <c r="O221" s="41"/>
     </row>
     <row r="222" ht="23" customHeight="1" spans="1:15">
       <c r="A222" s="31"/>
@@ -10562,12 +10597,12 @@
       <c r="G222" s="29"/>
       <c r="H222" s="29"/>
       <c r="I222" s="29"/>
-      <c r="J222" s="48"/>
-      <c r="K222" s="40"/>
-      <c r="L222" s="49"/>
-      <c r="M222" s="50"/>
-      <c r="N222" s="49"/>
-      <c r="O222" s="40"/>
+      <c r="J222" s="49"/>
+      <c r="K222" s="41"/>
+      <c r="L222" s="50"/>
+      <c r="M222" s="51"/>
+      <c r="N222" s="50"/>
+      <c r="O222" s="41"/>
     </row>
     <row r="223" ht="23" customHeight="1" spans="1:15">
       <c r="A223" s="31"/>
@@ -10579,12 +10614,12 @@
       <c r="G223" s="29"/>
       <c r="H223" s="29"/>
       <c r="I223" s="29"/>
-      <c r="J223" s="48"/>
-      <c r="K223" s="40"/>
-      <c r="L223" s="49"/>
-      <c r="M223" s="50"/>
-      <c r="N223" s="49"/>
-      <c r="O223" s="40"/>
+      <c r="J223" s="49"/>
+      <c r="K223" s="41"/>
+      <c r="L223" s="50"/>
+      <c r="M223" s="51"/>
+      <c r="N223" s="50"/>
+      <c r="O223" s="41"/>
     </row>
     <row r="224" ht="23" customHeight="1" spans="1:15">
       <c r="A224" s="31"/>
@@ -10596,12 +10631,12 @@
       <c r="G224" s="29"/>
       <c r="H224" s="29"/>
       <c r="I224" s="29"/>
-      <c r="J224" s="48"/>
-      <c r="K224" s="40"/>
-      <c r="L224" s="49"/>
-      <c r="M224" s="50"/>
-      <c r="N224" s="49"/>
-      <c r="O224" s="40"/>
+      <c r="J224" s="49"/>
+      <c r="K224" s="41"/>
+      <c r="L224" s="50"/>
+      <c r="M224" s="51"/>
+      <c r="N224" s="50"/>
+      <c r="O224" s="41"/>
     </row>
     <row r="225" ht="23" customHeight="1" spans="1:15">
       <c r="A225" s="31"/>
@@ -10613,12 +10648,12 @@
       <c r="G225" s="29"/>
       <c r="H225" s="29"/>
       <c r="I225" s="29"/>
-      <c r="J225" s="48"/>
-      <c r="K225" s="40"/>
-      <c r="L225" s="49"/>
-      <c r="M225" s="50"/>
-      <c r="N225" s="49"/>
-      <c r="O225" s="40"/>
+      <c r="J225" s="49"/>
+      <c r="K225" s="41"/>
+      <c r="L225" s="50"/>
+      <c r="M225" s="51"/>
+      <c r="N225" s="50"/>
+      <c r="O225" s="41"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -10734,13 +10769,13 @@
   <sheetPr/>
   <dimension ref="A1:P306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54:A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="44.5333333333333" style="6" customWidth="1"/>
     <col min="2" max="2" width="42.75" style="7" customWidth="1"/>
@@ -10759,7 +10794,7 @@
     <col min="16" max="16384" width="10.8333333333333" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:15">
+    <row r="1" ht="15.25" spans="1:15">
       <c r="A1" s="15" t="s">
         <v>725</v>
       </c>
@@ -10781,18 +10816,18 @@
       <c r="I1" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="17" t="s">
         <v>731</v>
       </c>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
-      <c r="O1" s="41"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.15" spans="1:15">
+      <c r="O1" s="42"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="18" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -10802,12 +10837,12 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="42"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="25"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="22"/>
@@ -10819,7 +10854,7 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
-      <c r="J3" s="45"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="25"/>
       <c r="L3" s="26"/>
       <c r="M3" s="24"/>
@@ -10854,10 +10889,10 @@
       <c r="I4" s="27" t="s">
         <v>740</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="47" t="s">
         <v>741</v>
       </c>
-      <c r="K4" s="47"/>
+      <c r="K4" s="48"/>
       <c r="L4" s="27" t="s">
         <v>742</v>
       </c>
@@ -10873,10 +10908,10 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="46" customHeight="1" spans="1:15">
       <c r="A5" s="22" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>30</v>
@@ -10885,7 +10920,7 @@
         <v>363</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="30"/>
@@ -10901,7 +10936,7 @@
     <row r="6" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A6" s="31"/>
       <c r="B6" s="23" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>30</v>
@@ -10910,25 +10945,25 @@
         <v>363</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="40"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="41"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="34" customHeight="1" spans="1:15">
       <c r="A7" s="31" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>30</v>
@@ -10937,25 +10972,25 @@
         <v>576</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="40"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A8" s="31"/>
       <c r="B8" s="23" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>30</v>
@@ -10964,23 +10999,23 @@
         <v>714</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F8" s="32"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="40"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="41"/>
     </row>
     <row r="9" s="4" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A9" s="31"/>
       <c r="B9" s="23" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>30</v>
@@ -10989,27 +11024,27 @@
         <v>576</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
-      <c r="J9" s="48" t="s">
-        <v>766</v>
-      </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="40"/>
+      <c r="J9" s="49" t="s">
+        <v>767</v>
+      </c>
+      <c r="K9" s="41"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="41"/>
     </row>
     <row r="10" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A10" s="31"/>
       <c r="B10" s="23" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>30</v>
@@ -11018,27 +11053,27 @@
         <v>576</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
-      <c r="J10" s="48" t="s">
-        <v>769</v>
-      </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="40"/>
+      <c r="J10" s="49" t="s">
+        <v>770</v>
+      </c>
+      <c r="K10" s="41"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="41"/>
     </row>
     <row r="11" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A11" s="31"/>
       <c r="B11" s="23" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>30</v>
@@ -11047,27 +11082,27 @@
         <v>576</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="48" t="s">
-        <v>772</v>
-      </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="40"/>
+      <c r="J11" s="49" t="s">
+        <v>773</v>
+      </c>
+      <c r="K11" s="41"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="41"/>
     </row>
     <row r="12" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A12" s="31"/>
       <c r="B12" s="23" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>30</v>
@@ -11076,27 +11111,27 @@
         <v>576</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
-      <c r="J12" s="48" t="s">
-        <v>774</v>
-      </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="40"/>
+      <c r="J12" s="49" t="s">
+        <v>775</v>
+      </c>
+      <c r="K12" s="41"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="41"/>
     </row>
     <row r="13" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A13" s="31"/>
       <c r="B13" s="23" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>30</v>
@@ -11105,25 +11140,25 @@
         <v>576</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="40"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="41"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A14" s="31"/>
       <c r="B14" s="23" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>30</v>
@@ -11132,25 +11167,25 @@
         <v>530</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="40"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="41"/>
     </row>
     <row r="15" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A15" s="31"/>
       <c r="B15" s="23" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>30</v>
@@ -11159,25 +11194,25 @@
         <v>576</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="40"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="41"/>
     </row>
     <row r="16" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A16" s="31"/>
       <c r="B16" s="23" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>30</v>
@@ -11186,23 +11221,23 @@
         <v>714</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="40"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="41"/>
     </row>
     <row r="17" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A17" s="31"/>
       <c r="B17" s="23" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>30</v>
@@ -11211,25 +11246,25 @@
         <v>530</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="40"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="41"/>
     </row>
     <row r="18" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A18" s="31"/>
       <c r="B18" s="23" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>30</v>
@@ -11238,25 +11273,25 @@
         <v>576</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="40"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="41"/>
     </row>
     <row r="19" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A19" s="31"/>
       <c r="B19" s="23" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>30</v>
@@ -11265,27 +11300,27 @@
         <v>576</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="40"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="41"/>
     </row>
     <row r="20" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A20" s="31" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>30</v>
@@ -11294,23 +11329,23 @@
         <v>363</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="40"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="41"/>
     </row>
     <row r="21" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A21" s="31"/>
       <c r="B21" s="23" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>5</v>
@@ -11319,25 +11354,25 @@
         <v>471</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="40"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="41"/>
     </row>
     <row r="22" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A22" s="31"/>
       <c r="B22" s="23" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>30</v>
@@ -11346,25 +11381,25 @@
         <v>706</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="40"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="41"/>
     </row>
     <row r="23" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A23" s="31"/>
       <c r="B23" s="23" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>30</v>
@@ -11373,25 +11408,25 @@
         <v>706</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="40"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="41"/>
     </row>
     <row r="24" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A24" s="31"/>
       <c r="B24" s="23" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>30</v>
@@ -11400,25 +11435,25 @@
         <v>706</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="40"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="41"/>
     </row>
     <row r="25" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A25" s="31"/>
       <c r="B25" s="23" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>30</v>
@@ -11427,25 +11462,25 @@
         <v>706</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="40"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="41"/>
     </row>
     <row r="26" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A26" s="31"/>
       <c r="B26" s="23" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>30</v>
@@ -11454,25 +11489,25 @@
         <v>706</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="40"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="41"/>
     </row>
     <row r="27" s="4" customFormat="1" ht="28" customHeight="1" spans="1:15">
       <c r="A27" s="31"/>
       <c r="B27" s="23" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>30</v>
@@ -11481,25 +11516,25 @@
         <v>706</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="40"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="41"/>
     </row>
     <row r="28" s="4" customFormat="1" ht="28" customHeight="1" spans="1:15">
       <c r="A28" s="31"/>
       <c r="B28" s="23" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>30</v>
@@ -11508,25 +11543,25 @@
         <v>706</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="40"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="41"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="28" customHeight="1" spans="1:15">
       <c r="A29" s="31"/>
       <c r="B29" s="23" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C29" s="28" t="s">
         <v>30</v>
@@ -11535,23 +11570,23 @@
         <v>363</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="40"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="41"/>
     </row>
     <row r="30" s="4" customFormat="1" ht="28" customHeight="1" spans="1:15">
       <c r="A30" s="31"/>
       <c r="B30" s="23" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>30</v>
@@ -11560,23 +11595,23 @@
         <v>714</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="40"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="41"/>
     </row>
     <row r="31" s="4" customFormat="1" ht="28" customHeight="1" spans="1:15">
       <c r="A31" s="31"/>
       <c r="B31" s="23" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>30</v>
@@ -11585,25 +11620,25 @@
         <v>530</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="40"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="41"/>
     </row>
     <row r="32" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A32" s="31"/>
       <c r="B32" s="23" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>30</v>
@@ -11612,25 +11647,25 @@
         <v>576</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="40"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="41"/>
     </row>
     <row r="33" s="4" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A33" s="31"/>
       <c r="B33" s="23" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>30</v>
@@ -11639,25 +11674,25 @@
         <v>493</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="40"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="41"/>
     </row>
     <row r="34" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="31"/>
       <c r="B34" s="23" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>30</v>
@@ -11666,22 +11701,22 @@
         <v>363</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="40"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="41"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="24" customHeight="1" spans="2:15">
       <c r="B35" s="23" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C35" s="28" t="s">
         <v>30</v>
@@ -11690,7 +11725,7 @@
         <v>714</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="30"/>
@@ -11705,7 +11740,7 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="28" customHeight="1" spans="2:15">
       <c r="B36" s="23" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>30</v>
@@ -11714,7 +11749,7 @@
         <v>363</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="30"/>
@@ -11729,7 +11764,7 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="26" customHeight="1" spans="2:15">
       <c r="B37" s="23" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C37" s="28" t="s">
         <v>30</v>
@@ -11738,10 +11773,10 @@
         <v>530</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -11755,10 +11790,10 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="22" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>30</v>
@@ -11767,10 +11802,10 @@
         <v>576</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G38" s="30"/>
       <c r="H38" s="30"/>
@@ -11785,7 +11820,7 @@
     <row r="39" s="1" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A39" s="22"/>
       <c r="B39" s="23" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>30</v>
@@ -11794,10 +11829,10 @@
         <v>576</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
@@ -11812,7 +11847,7 @@
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="22"/>
       <c r="B40" s="23" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>30</v>
@@ -11821,10 +11856,10 @@
         <v>530</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
@@ -11839,7 +11874,7 @@
     <row r="41" s="3" customFormat="1" ht="35" customHeight="1" spans="1:15">
       <c r="A41" s="22"/>
       <c r="B41" s="23" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>30</v>
@@ -11848,10 +11883,10 @@
         <v>530</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G41" s="29"/>
       <c r="H41" s="4"/>
@@ -11866,7 +11901,7 @@
     <row r="42" s="3" customFormat="1" ht="35" customHeight="1" spans="1:15">
       <c r="A42" s="22"/>
       <c r="B42" s="23" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>30</v>
@@ -11875,10 +11910,10 @@
         <v>493</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="4"/>
@@ -11893,7 +11928,7 @@
     <row r="43" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="22"/>
       <c r="B43" s="23" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>30</v>
@@ -11902,10 +11937,10 @@
         <v>530</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G43" s="29"/>
       <c r="H43" s="30"/>
@@ -11920,7 +11955,7 @@
     <row r="44" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="31"/>
       <c r="B44" s="23" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>30</v>
@@ -11929,25 +11964,25 @@
         <v>576</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="50"/>
       <c r="O44" s="25"/>
     </row>
     <row r="45" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="31"/>
       <c r="B45" s="23" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>30</v>
@@ -11956,25 +11991,25 @@
         <v>576</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="50"/>
       <c r="O45" s="25"/>
     </row>
     <row r="46" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="22"/>
       <c r="B46" s="23" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>30</v>
@@ -11983,10 +12018,10 @@
         <v>483</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G46" s="29"/>
       <c r="H46" s="30"/>
@@ -12001,7 +12036,7 @@
     <row r="47" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="22"/>
       <c r="B47" s="23" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>30</v>
@@ -12010,10 +12045,10 @@
         <v>493</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G47" s="29"/>
       <c r="H47" s="30"/>
@@ -12028,7 +12063,7 @@
     <row r="48" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="22"/>
       <c r="B48" s="23" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>5</v>
@@ -12037,10 +12072,10 @@
         <v>471</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G48" s="29"/>
       <c r="H48" s="30"/>
@@ -12055,7 +12090,7 @@
     <row r="49" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="31"/>
       <c r="B49" s="23" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>5</v>
@@ -12064,25 +12099,25 @@
         <v>465</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="50"/>
       <c r="O49" s="25"/>
     </row>
     <row r="50" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="31"/>
       <c r="B50" s="37" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>5</v>
@@ -12091,25 +12126,25 @@
         <v>49</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="50"/>
       <c r="O50" s="25"/>
     </row>
     <row r="51" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="31"/>
       <c r="B51" s="37" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>20</v>
@@ -12118,25 +12153,25 @@
         <v>302</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="50"/>
       <c r="O51" s="25"/>
     </row>
     <row r="52" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="31"/>
       <c r="B52" s="37" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>30</v>
@@ -12145,25 +12180,25 @@
         <v>493</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G52" s="29"/>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="50"/>
       <c r="O52" s="25"/>
     </row>
     <row r="53" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="31"/>
       <c r="B53" s="37" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>5</v>
@@ -12172,25 +12207,27 @@
         <v>49</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G53" s="29"/>
       <c r="H53" s="29"/>
       <c r="I53" s="29"/>
-      <c r="J53" s="48" t="s">
-        <v>874</v>
-      </c>
-      <c r="K53" s="40"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="49"/>
+      <c r="J53" s="49" t="s">
+        <v>875</v>
+      </c>
+      <c r="K53" s="41"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="50"/>
       <c r="O53" s="25"/>
     </row>
     <row r="54" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A54" s="31"/>
+      <c r="A54" s="39" t="s">
+        <v>876</v>
+      </c>
       <c r="B54" s="37"/>
       <c r="C54" s="33"/>
       <c r="D54" s="30"/>
@@ -12199,15 +12236,17 @@
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="50"/>
       <c r="O54" s="25"/>
     </row>
     <row r="55" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A55" s="31"/>
+      <c r="A55" s="39" t="s">
+        <v>877</v>
+      </c>
       <c r="B55" s="37"/>
       <c r="C55" s="28"/>
       <c r="D55" s="29"/>
@@ -12216,15 +12255,17 @@
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="50"/>
       <c r="O55" s="25"/>
     </row>
     <row r="56" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A56" s="31"/>
+      <c r="A56" s="39" t="s">
+        <v>878</v>
+      </c>
       <c r="B56" s="37"/>
       <c r="C56" s="33"/>
       <c r="D56" s="30"/>
@@ -12233,15 +12274,17 @@
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
       <c r="I56" s="29"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="50"/>
       <c r="O56" s="25"/>
     </row>
     <row r="57" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A57" s="31"/>
+      <c r="A57" s="39" t="s">
+        <v>879</v>
+      </c>
       <c r="B57" s="37"/>
       <c r="C57" s="28"/>
       <c r="D57" s="29"/>
@@ -12250,15 +12293,17 @@
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
       <c r="I57" s="29"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="50"/>
       <c r="O57" s="25"/>
     </row>
     <row r="58" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A58" s="31"/>
+      <c r="A58" s="39" t="s">
+        <v>880</v>
+      </c>
       <c r="B58" s="37"/>
       <c r="C58" s="33"/>
       <c r="D58" s="30"/>
@@ -12267,11 +12312,11 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
       <c r="I58" s="29"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="50"/>
-      <c r="N58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="50"/>
       <c r="O58" s="25"/>
     </row>
     <row r="59" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12284,11 +12329,11 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
       <c r="I59" s="29"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="50"/>
       <c r="O59" s="25"/>
     </row>
     <row r="60" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12301,11 +12346,11 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
       <c r="I60" s="29"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="50"/>
       <c r="O60" s="25"/>
     </row>
     <row r="61" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12318,11 +12363,11 @@
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
       <c r="I61" s="29"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="50"/>
       <c r="O61" s="25"/>
     </row>
     <row r="62" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12335,11 +12380,11 @@
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="50"/>
       <c r="O62" s="25"/>
     </row>
     <row r="63" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12352,11 +12397,11 @@
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
       <c r="I63" s="29"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="50"/>
-      <c r="N63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="50"/>
       <c r="O63" s="25"/>
     </row>
     <row r="64" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12369,11 +12414,11 @@
       <c r="G64" s="29"/>
       <c r="H64" s="29"/>
       <c r="I64" s="29"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="50"/>
       <c r="O64" s="25"/>
     </row>
     <row r="65" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12386,11 +12431,11 @@
       <c r="G65" s="29"/>
       <c r="H65" s="29"/>
       <c r="I65" s="29"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="50"/>
-      <c r="N65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="50"/>
       <c r="O65" s="25"/>
     </row>
     <row r="66" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12403,11 +12448,11 @@
       <c r="G66" s="29"/>
       <c r="H66" s="29"/>
       <c r="I66" s="29"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="50"/>
-      <c r="N66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="50"/>
       <c r="O66" s="25"/>
     </row>
     <row r="67" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12420,11 +12465,11 @@
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
       <c r="I67" s="29"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="50"/>
       <c r="O67" s="25"/>
     </row>
     <row r="68" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12437,11 +12482,11 @@
       <c r="G68" s="29"/>
       <c r="H68" s="29"/>
       <c r="I68" s="29"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="50"/>
       <c r="O68" s="25"/>
     </row>
     <row r="69" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12454,11 +12499,11 @@
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
       <c r="I69" s="29"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="49"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="51"/>
+      <c r="N69" s="50"/>
       <c r="O69" s="25"/>
     </row>
     <row r="70" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12471,11 +12516,11 @@
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
       <c r="I70" s="29"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="49"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="51"/>
+      <c r="N70" s="50"/>
       <c r="O70" s="25"/>
     </row>
     <row r="71" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12488,11 +12533,11 @@
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
       <c r="I71" s="29"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="50"/>
-      <c r="N71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="51"/>
+      <c r="N71" s="50"/>
       <c r="O71" s="25"/>
     </row>
     <row r="72" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12505,11 +12550,11 @@
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
       <c r="I72" s="29"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="49"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="50"/>
       <c r="O72" s="25"/>
     </row>
     <row r="73" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12522,11 +12567,11 @@
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
       <c r="I73" s="29"/>
-      <c r="J73" s="48"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="49"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="50"/>
       <c r="O73" s="25"/>
     </row>
     <row r="74" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12539,11 +12584,11 @@
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
       <c r="I74" s="29"/>
-      <c r="J74" s="48"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="49"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="51"/>
+      <c r="N74" s="50"/>
       <c r="O74" s="25"/>
     </row>
     <row r="75" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12556,11 +12601,11 @@
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
       <c r="I75" s="29"/>
-      <c r="J75" s="48"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="50"/>
-      <c r="N75" s="49"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="41"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="50"/>
       <c r="O75" s="25"/>
     </row>
     <row r="76" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12573,11 +12618,11 @@
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
       <c r="I76" s="29"/>
-      <c r="J76" s="48"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="50"/>
-      <c r="N76" s="49"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="50"/>
       <c r="O76" s="25"/>
     </row>
     <row r="77" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12590,11 +12635,11 @@
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
       <c r="I77" s="29"/>
-      <c r="J77" s="48"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="49"/>
-      <c r="M77" s="50"/>
-      <c r="N77" s="49"/>
+      <c r="J77" s="49"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="51"/>
+      <c r="N77" s="50"/>
       <c r="O77" s="25"/>
     </row>
     <row r="78" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12607,11 +12652,11 @@
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
       <c r="I78" s="29"/>
-      <c r="J78" s="48"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="49"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="50"/>
       <c r="O78" s="25"/>
     </row>
     <row r="79" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12624,11 +12669,11 @@
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
       <c r="I79" s="29"/>
-      <c r="J79" s="48"/>
-      <c r="K79" s="40"/>
-      <c r="L79" s="49"/>
-      <c r="M79" s="50"/>
-      <c r="N79" s="49"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="50"/>
       <c r="O79" s="25"/>
     </row>
     <row r="80" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12641,11 +12686,11 @@
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
       <c r="I80" s="29"/>
-      <c r="J80" s="48"/>
-      <c r="K80" s="40"/>
-      <c r="L80" s="49"/>
-      <c r="M80" s="50"/>
-      <c r="N80" s="49"/>
+      <c r="J80" s="49"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="50"/>
       <c r="O80" s="25"/>
     </row>
     <row r="81" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12658,11 +12703,11 @@
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="40"/>
-      <c r="L81" s="49"/>
-      <c r="M81" s="50"/>
-      <c r="N81" s="49"/>
+      <c r="J81" s="49"/>
+      <c r="K81" s="41"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="50"/>
       <c r="O81" s="25"/>
     </row>
     <row r="82" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12675,11 +12720,11 @@
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
       <c r="I82" s="29"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="50"/>
-      <c r="N82" s="49"/>
+      <c r="J82" s="49"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="50"/>
+      <c r="M82" s="51"/>
+      <c r="N82" s="50"/>
       <c r="O82" s="25"/>
     </row>
     <row r="83" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12692,11 +12737,11 @@
       <c r="G83" s="29"/>
       <c r="H83" s="29"/>
       <c r="I83" s="29"/>
-      <c r="J83" s="48"/>
-      <c r="K83" s="40"/>
-      <c r="L83" s="49"/>
-      <c r="M83" s="50"/>
-      <c r="N83" s="49"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="41"/>
+      <c r="L83" s="50"/>
+      <c r="M83" s="51"/>
+      <c r="N83" s="50"/>
       <c r="O83" s="25"/>
     </row>
     <row r="84" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12709,11 +12754,11 @@
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
       <c r="I84" s="29"/>
-      <c r="J84" s="48"/>
-      <c r="K84" s="40"/>
-      <c r="L84" s="49"/>
-      <c r="M84" s="50"/>
-      <c r="N84" s="49"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="50"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="50"/>
       <c r="O84" s="25"/>
     </row>
     <row r="85" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12726,11 +12771,11 @@
       <c r="G85" s="29"/>
       <c r="H85" s="29"/>
       <c r="I85" s="29"/>
-      <c r="J85" s="48"/>
-      <c r="K85" s="40"/>
-      <c r="L85" s="49"/>
-      <c r="M85" s="50"/>
-      <c r="N85" s="49"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="41"/>
+      <c r="L85" s="50"/>
+      <c r="M85" s="51"/>
+      <c r="N85" s="50"/>
       <c r="O85" s="25"/>
     </row>
     <row r="86" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12743,11 +12788,11 @@
       <c r="G86" s="29"/>
       <c r="H86" s="29"/>
       <c r="I86" s="29"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="40"/>
-      <c r="L86" s="49"/>
-      <c r="M86" s="50"/>
-      <c r="N86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="50"/>
+      <c r="M86" s="51"/>
+      <c r="N86" s="50"/>
       <c r="O86" s="25"/>
     </row>
     <row r="87" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12760,11 +12805,11 @@
       <c r="G87" s="29"/>
       <c r="H87" s="29"/>
       <c r="I87" s="29"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="49"/>
-      <c r="M87" s="50"/>
-      <c r="N87" s="49"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="41"/>
+      <c r="L87" s="50"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="50"/>
       <c r="O87" s="25"/>
     </row>
     <row r="88" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12777,11 +12822,11 @@
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
       <c r="I88" s="29"/>
-      <c r="J88" s="48"/>
-      <c r="K88" s="40"/>
-      <c r="L88" s="49"/>
-      <c r="M88" s="50"/>
-      <c r="N88" s="49"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="41"/>
+      <c r="L88" s="50"/>
+      <c r="M88" s="51"/>
+      <c r="N88" s="50"/>
       <c r="O88" s="25"/>
     </row>
     <row r="89" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12794,11 +12839,11 @@
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
       <c r="I89" s="29"/>
-      <c r="J89" s="48"/>
-      <c r="K89" s="40"/>
-      <c r="L89" s="49"/>
-      <c r="M89" s="50"/>
-      <c r="N89" s="49"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="41"/>
+      <c r="L89" s="50"/>
+      <c r="M89" s="51"/>
+      <c r="N89" s="50"/>
       <c r="O89" s="25"/>
     </row>
     <row r="90" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12810,11 +12855,11 @@
       <c r="F90" s="29"/>
       <c r="H90" s="29"/>
       <c r="I90" s="29"/>
-      <c r="J90" s="48"/>
-      <c r="K90" s="40"/>
-      <c r="L90" s="49"/>
-      <c r="M90" s="50"/>
-      <c r="N90" s="49"/>
+      <c r="J90" s="49"/>
+      <c r="K90" s="41"/>
+      <c r="L90" s="50"/>
+      <c r="M90" s="51"/>
+      <c r="N90" s="50"/>
       <c r="O90" s="25"/>
     </row>
     <row r="91" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12826,11 +12871,11 @@
       <c r="F91" s="29"/>
       <c r="H91" s="29"/>
       <c r="I91" s="29"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="40"/>
-      <c r="L91" s="49"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="49"/>
+      <c r="J91" s="49"/>
+      <c r="K91" s="41"/>
+      <c r="L91" s="50"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="50"/>
       <c r="O91" s="25"/>
     </row>
     <row r="92" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12843,11 +12888,11 @@
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
       <c r="I92" s="29"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="40"/>
-      <c r="L92" s="49"/>
-      <c r="M92" s="50"/>
-      <c r="N92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="41"/>
+      <c r="L92" s="50"/>
+      <c r="M92" s="51"/>
+      <c r="N92" s="50"/>
       <c r="O92" s="25"/>
     </row>
     <row r="93" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12860,11 +12905,11 @@
       <c r="G93" s="29"/>
       <c r="H93" s="29"/>
       <c r="I93" s="29"/>
-      <c r="J93" s="48"/>
-      <c r="K93" s="40"/>
-      <c r="L93" s="49"/>
-      <c r="M93" s="50"/>
-      <c r="N93" s="49"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="41"/>
+      <c r="L93" s="50"/>
+      <c r="M93" s="51"/>
+      <c r="N93" s="50"/>
       <c r="O93" s="25"/>
     </row>
     <row r="94" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12877,11 +12922,11 @@
       <c r="G94" s="29"/>
       <c r="H94" s="29"/>
       <c r="I94" s="29"/>
-      <c r="J94" s="48"/>
-      <c r="K94" s="40"/>
-      <c r="L94" s="49"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="49"/>
+      <c r="J94" s="49"/>
+      <c r="K94" s="41"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="51"/>
+      <c r="N94" s="50"/>
       <c r="O94" s="25"/>
     </row>
     <row r="95" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12894,11 +12939,11 @@
       <c r="G95" s="29"/>
       <c r="H95" s="29"/>
       <c r="I95" s="29"/>
-      <c r="J95" s="48"/>
-      <c r="K95" s="40"/>
-      <c r="L95" s="49"/>
-      <c r="M95" s="50"/>
-      <c r="N95" s="49"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="41"/>
+      <c r="L95" s="50"/>
+      <c r="M95" s="51"/>
+      <c r="N95" s="50"/>
       <c r="O95" s="25"/>
     </row>
     <row r="96" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12911,11 +12956,11 @@
       <c r="G96" s="29"/>
       <c r="H96" s="29"/>
       <c r="I96" s="29"/>
-      <c r="J96" s="48"/>
-      <c r="K96" s="40"/>
-      <c r="L96" s="49"/>
-      <c r="M96" s="50"/>
-      <c r="N96" s="49"/>
+      <c r="J96" s="49"/>
+      <c r="K96" s="41"/>
+      <c r="L96" s="50"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="50"/>
       <c r="O96" s="25"/>
     </row>
     <row r="97" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12928,11 +12973,11 @@
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>
       <c r="I97" s="29"/>
-      <c r="J97" s="48"/>
-      <c r="K97" s="40"/>
-      <c r="L97" s="49"/>
-      <c r="M97" s="50"/>
-      <c r="N97" s="49"/>
+      <c r="J97" s="49"/>
+      <c r="K97" s="41"/>
+      <c r="L97" s="50"/>
+      <c r="M97" s="51"/>
+      <c r="N97" s="50"/>
       <c r="O97" s="25"/>
     </row>
     <row r="98" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12945,11 +12990,11 @@
       <c r="G98" s="29"/>
       <c r="H98" s="29"/>
       <c r="I98" s="29"/>
-      <c r="J98" s="48"/>
-      <c r="K98" s="40"/>
-      <c r="L98" s="49"/>
-      <c r="M98" s="50"/>
-      <c r="N98" s="49"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="41"/>
+      <c r="L98" s="50"/>
+      <c r="M98" s="51"/>
+      <c r="N98" s="50"/>
       <c r="O98" s="25"/>
     </row>
     <row r="99" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12962,11 +13007,11 @@
       <c r="G99" s="29"/>
       <c r="H99" s="29"/>
       <c r="I99" s="29"/>
-      <c r="J99" s="48"/>
-      <c r="K99" s="40"/>
-      <c r="L99" s="49"/>
-      <c r="M99" s="50"/>
-      <c r="N99" s="49"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="41"/>
+      <c r="L99" s="50"/>
+      <c r="M99" s="51"/>
+      <c r="N99" s="50"/>
       <c r="O99" s="25"/>
     </row>
     <row r="100" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12979,11 +13024,11 @@
       <c r="G100" s="29"/>
       <c r="H100" s="29"/>
       <c r="I100" s="29"/>
-      <c r="J100" s="48"/>
-      <c r="K100" s="40"/>
-      <c r="L100" s="49"/>
-      <c r="M100" s="50"/>
-      <c r="N100" s="49"/>
+      <c r="J100" s="49"/>
+      <c r="K100" s="41"/>
+      <c r="L100" s="50"/>
+      <c r="M100" s="51"/>
+      <c r="N100" s="50"/>
       <c r="O100" s="25"/>
     </row>
     <row r="101" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -12996,11 +13041,11 @@
       <c r="G101" s="29"/>
       <c r="H101" s="29"/>
       <c r="I101" s="29"/>
-      <c r="J101" s="48"/>
-      <c r="K101" s="40"/>
-      <c r="L101" s="49"/>
-      <c r="M101" s="50"/>
-      <c r="N101" s="49"/>
+      <c r="J101" s="49"/>
+      <c r="K101" s="41"/>
+      <c r="L101" s="50"/>
+      <c r="M101" s="51"/>
+      <c r="N101" s="50"/>
       <c r="O101" s="25"/>
     </row>
     <row r="102" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -13013,11 +13058,11 @@
       <c r="G102" s="29"/>
       <c r="H102" s="29"/>
       <c r="I102" s="29"/>
-      <c r="J102" s="48"/>
-      <c r="K102" s="40"/>
-      <c r="L102" s="49"/>
-      <c r="M102" s="50"/>
-      <c r="N102" s="49"/>
+      <c r="J102" s="49"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="50"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="50"/>
       <c r="O102" s="25"/>
     </row>
     <row r="103" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -13030,11 +13075,11 @@
       <c r="G103" s="29"/>
       <c r="H103" s="29"/>
       <c r="I103" s="29"/>
-      <c r="J103" s="48"/>
-      <c r="K103" s="40"/>
-      <c r="L103" s="49"/>
-      <c r="M103" s="50"/>
-      <c r="N103" s="49"/>
+      <c r="J103" s="49"/>
+      <c r="K103" s="41"/>
+      <c r="L103" s="50"/>
+      <c r="M103" s="51"/>
+      <c r="N103" s="50"/>
       <c r="O103" s="25"/>
     </row>
     <row r="104" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -13047,11 +13092,11 @@
       <c r="G104" s="29"/>
       <c r="H104" s="29"/>
       <c r="I104" s="29"/>
-      <c r="J104" s="48"/>
-      <c r="K104" s="40"/>
-      <c r="L104" s="49"/>
-      <c r="M104" s="50"/>
-      <c r="N104" s="49"/>
+      <c r="J104" s="49"/>
+      <c r="K104" s="41"/>
+      <c r="L104" s="50"/>
+      <c r="M104" s="51"/>
+      <c r="N104" s="50"/>
       <c r="O104" s="25"/>
     </row>
     <row r="105" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -13064,11 +13109,11 @@
       <c r="G105" s="29"/>
       <c r="H105" s="29"/>
       <c r="I105" s="29"/>
-      <c r="J105" s="48"/>
-      <c r="K105" s="40"/>
-      <c r="L105" s="49"/>
-      <c r="M105" s="50"/>
-      <c r="N105" s="49"/>
+      <c r="J105" s="49"/>
+      <c r="K105" s="41"/>
+      <c r="L105" s="50"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="50"/>
       <c r="O105" s="25"/>
     </row>
     <row r="106" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -13081,11 +13126,11 @@
       <c r="G106" s="29"/>
       <c r="H106" s="29"/>
       <c r="I106" s="29"/>
-      <c r="J106" s="48"/>
-      <c r="K106" s="40"/>
-      <c r="L106" s="49"/>
-      <c r="M106" s="50"/>
-      <c r="N106" s="49"/>
+      <c r="J106" s="49"/>
+      <c r="K106" s="41"/>
+      <c r="L106" s="50"/>
+      <c r="M106" s="51"/>
+      <c r="N106" s="50"/>
       <c r="O106" s="25"/>
     </row>
     <row r="107" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -13098,11 +13143,11 @@
       <c r="G107" s="29"/>
       <c r="H107" s="29"/>
       <c r="I107" s="29"/>
-      <c r="J107" s="48"/>
-      <c r="K107" s="40"/>
-      <c r="L107" s="49"/>
-      <c r="M107" s="50"/>
-      <c r="N107" s="49"/>
+      <c r="J107" s="49"/>
+      <c r="K107" s="41"/>
+      <c r="L107" s="50"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="50"/>
       <c r="O107" s="25"/>
     </row>
     <row r="108" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -13115,11 +13160,11 @@
       <c r="G108" s="29"/>
       <c r="H108" s="29"/>
       <c r="I108" s="29"/>
-      <c r="J108" s="48"/>
-      <c r="K108" s="40"/>
-      <c r="L108" s="49"/>
-      <c r="M108" s="50"/>
-      <c r="N108" s="49"/>
+      <c r="J108" s="49"/>
+      <c r="K108" s="41"/>
+      <c r="L108" s="50"/>
+      <c r="M108" s="51"/>
+      <c r="N108" s="50"/>
       <c r="O108" s="25"/>
     </row>
     <row r="109" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -13132,11 +13177,11 @@
       <c r="G109" s="29"/>
       <c r="H109" s="29"/>
       <c r="I109" s="29"/>
-      <c r="J109" s="48"/>
-      <c r="K109" s="40"/>
-      <c r="L109" s="49"/>
-      <c r="M109" s="50"/>
-      <c r="N109" s="49"/>
+      <c r="J109" s="49"/>
+      <c r="K109" s="41"/>
+      <c r="L109" s="50"/>
+      <c r="M109" s="51"/>
+      <c r="N109" s="50"/>
       <c r="O109" s="25"/>
     </row>
     <row r="110" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
@@ -13144,7 +13189,7 @@
       <c r="B110" s="23"/>
       <c r="C110" s="28"/>
       <c r="D110" s="29"/>
-      <c r="E110" s="51"/>
+      <c r="E110" s="52"/>
       <c r="F110" s="29"/>
       <c r="G110" s="30"/>
       <c r="H110" s="30"/>
@@ -13161,7 +13206,7 @@
       <c r="B111" s="23"/>
       <c r="C111" s="28"/>
       <c r="D111" s="29"/>
-      <c r="E111" s="51"/>
+      <c r="E111" s="52"/>
       <c r="F111" s="32"/>
       <c r="G111" s="30"/>
       <c r="H111" s="30"/>
@@ -13210,7 +13255,7 @@
       <c r="F116" s="32"/>
     </row>
     <row r="117" ht="21" customHeight="1" spans="2:6">
-      <c r="B117" s="52"/>
+      <c r="B117" s="53"/>
       <c r="C117" s="33"/>
       <c r="D117" s="30"/>
       <c r="E117" s="30"/>
@@ -13264,12 +13309,12 @@
       <c r="G122" s="29"/>
       <c r="H122" s="29"/>
       <c r="I122" s="29"/>
-      <c r="J122" s="48"/>
-      <c r="K122" s="40"/>
-      <c r="L122" s="49"/>
-      <c r="M122" s="50"/>
-      <c r="N122" s="49"/>
-      <c r="O122" s="40"/>
+      <c r="J122" s="49"/>
+      <c r="K122" s="41"/>
+      <c r="L122" s="50"/>
+      <c r="M122" s="51"/>
+      <c r="N122" s="50"/>
+      <c r="O122" s="41"/>
     </row>
     <row r="123" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A123" s="31"/>
@@ -13281,12 +13326,12 @@
       <c r="G123" s="29"/>
       <c r="H123" s="29"/>
       <c r="I123" s="29"/>
-      <c r="J123" s="48"/>
-      <c r="K123" s="40"/>
-      <c r="L123" s="49"/>
-      <c r="M123" s="50"/>
-      <c r="N123" s="49"/>
-      <c r="O123" s="40"/>
+      <c r="J123" s="49"/>
+      <c r="K123" s="41"/>
+      <c r="L123" s="50"/>
+      <c r="M123" s="51"/>
+      <c r="N123" s="50"/>
+      <c r="O123" s="41"/>
     </row>
     <row r="124" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A124" s="31"/>
@@ -13298,12 +13343,12 @@
       <c r="G124" s="29"/>
       <c r="H124" s="29"/>
       <c r="I124" s="29"/>
-      <c r="J124" s="48"/>
-      <c r="K124" s="40"/>
-      <c r="L124" s="49"/>
-      <c r="M124" s="50"/>
-      <c r="N124" s="49"/>
-      <c r="O124" s="40"/>
+      <c r="J124" s="49"/>
+      <c r="K124" s="41"/>
+      <c r="L124" s="50"/>
+      <c r="M124" s="51"/>
+      <c r="N124" s="50"/>
+      <c r="O124" s="41"/>
     </row>
     <row r="125" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A125" s="31"/>
@@ -13315,12 +13360,12 @@
       <c r="G125" s="29"/>
       <c r="H125" s="29"/>
       <c r="I125" s="29"/>
-      <c r="J125" s="48"/>
-      <c r="K125" s="40"/>
-      <c r="L125" s="49"/>
-      <c r="M125" s="50"/>
-      <c r="N125" s="49"/>
-      <c r="O125" s="40"/>
+      <c r="J125" s="49"/>
+      <c r="K125" s="41"/>
+      <c r="L125" s="50"/>
+      <c r="M125" s="51"/>
+      <c r="N125" s="50"/>
+      <c r="O125" s="41"/>
     </row>
     <row r="126" s="5" customFormat="1" ht="38" customHeight="1" spans="1:15">
       <c r="A126" s="22"/>
@@ -13329,15 +13374,15 @@
       <c r="D126" s="29"/>
       <c r="E126" s="29"/>
       <c r="F126" s="32"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="53"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="55"/>
-      <c r="L126" s="56"/>
-      <c r="M126" s="57"/>
-      <c r="N126" s="56"/>
-      <c r="O126" s="55"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="55"/>
+      <c r="K126" s="56"/>
+      <c r="L126" s="57"/>
+      <c r="M126" s="58"/>
+      <c r="N126" s="57"/>
+      <c r="O126" s="56"/>
     </row>
     <row r="127" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
       <c r="A127" s="22"/>
@@ -13346,15 +13391,15 @@
       <c r="D127" s="29"/>
       <c r="E127" s="29"/>
       <c r="F127" s="32"/>
-      <c r="G127" s="53"/>
-      <c r="H127" s="53"/>
-      <c r="I127" s="53"/>
-      <c r="J127" s="54"/>
-      <c r="K127" s="55"/>
-      <c r="L127" s="56"/>
-      <c r="M127" s="57"/>
-      <c r="N127" s="56"/>
-      <c r="O127" s="55"/>
+      <c r="G127" s="54"/>
+      <c r="H127" s="54"/>
+      <c r="I127" s="54"/>
+      <c r="J127" s="55"/>
+      <c r="K127" s="56"/>
+      <c r="L127" s="57"/>
+      <c r="M127" s="58"/>
+      <c r="N127" s="57"/>
+      <c r="O127" s="56"/>
     </row>
     <row r="128" s="1" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A128" s="31"/>
@@ -13366,7 +13411,7 @@
       <c r="G128" s="29"/>
       <c r="H128" s="29"/>
       <c r="I128" s="29"/>
-      <c r="J128" s="48"/>
+      <c r="J128" s="49"/>
       <c r="K128" s="31"/>
       <c r="L128" s="23"/>
       <c r="M128" s="28"/>
@@ -13384,7 +13429,7 @@
       <c r="G129" s="29"/>
       <c r="H129" s="29"/>
       <c r="I129" s="29"/>
-      <c r="J129" s="48"/>
+      <c r="J129" s="49"/>
       <c r="K129" s="31"/>
       <c r="L129" s="23"/>
       <c r="M129" s="28"/>
@@ -13402,7 +13447,7 @@
       <c r="G130" s="29"/>
       <c r="H130" s="29"/>
       <c r="I130" s="29"/>
-      <c r="J130" s="48"/>
+      <c r="J130" s="49"/>
       <c r="K130" s="31"/>
       <c r="L130" s="23"/>
       <c r="M130" s="28"/>
@@ -13420,7 +13465,7 @@
       <c r="G131" s="29"/>
       <c r="H131" s="29"/>
       <c r="I131" s="29"/>
-      <c r="J131" s="48"/>
+      <c r="J131" s="49"/>
       <c r="K131" s="31"/>
       <c r="L131" s="23"/>
       <c r="M131" s="28"/>
@@ -13438,7 +13483,7 @@
       <c r="G132" s="29"/>
       <c r="H132" s="29"/>
       <c r="I132" s="29"/>
-      <c r="J132" s="48"/>
+      <c r="J132" s="49"/>
       <c r="K132" s="31"/>
       <c r="L132" s="23"/>
       <c r="M132" s="28"/>
@@ -13456,7 +13501,7 @@
       <c r="G133" s="29"/>
       <c r="H133" s="29"/>
       <c r="I133" s="29"/>
-      <c r="J133" s="48"/>
+      <c r="J133" s="49"/>
       <c r="K133" s="31"/>
       <c r="L133" s="23"/>
       <c r="M133" s="28"/>
@@ -13474,7 +13519,7 @@
       <c r="G134" s="29"/>
       <c r="H134" s="29"/>
       <c r="I134" s="29"/>
-      <c r="J134" s="48"/>
+      <c r="J134" s="49"/>
       <c r="K134" s="31"/>
       <c r="L134" s="23"/>
       <c r="M134" s="28"/>
@@ -13492,7 +13537,7 @@
       <c r="G135" s="29"/>
       <c r="H135" s="29"/>
       <c r="I135" s="29"/>
-      <c r="J135" s="48"/>
+      <c r="J135" s="49"/>
       <c r="K135" s="31"/>
       <c r="L135" s="23"/>
       <c r="M135" s="28"/>
@@ -13510,7 +13555,7 @@
       <c r="G136" s="29"/>
       <c r="H136" s="29"/>
       <c r="I136" s="29"/>
-      <c r="J136" s="48"/>
+      <c r="J136" s="49"/>
       <c r="K136" s="31"/>
       <c r="L136" s="23"/>
       <c r="M136" s="28"/>
@@ -13528,7 +13573,7 @@
       <c r="G137" s="29"/>
       <c r="H137" s="29"/>
       <c r="I137" s="29"/>
-      <c r="J137" s="48"/>
+      <c r="J137" s="49"/>
       <c r="K137" s="31"/>
       <c r="L137" s="23"/>
       <c r="M137" s="28"/>
@@ -13546,7 +13591,7 @@
       <c r="G138" s="29"/>
       <c r="H138" s="29"/>
       <c r="I138" s="29"/>
-      <c r="J138" s="48"/>
+      <c r="J138" s="49"/>
       <c r="K138" s="31"/>
       <c r="L138" s="23"/>
       <c r="M138" s="28"/>
@@ -13559,12 +13604,12 @@
       <c r="B139" s="23"/>
       <c r="C139" s="33"/>
       <c r="D139" s="30"/>
-      <c r="E139" s="51"/>
+      <c r="E139" s="52"/>
       <c r="F139" s="32"/>
       <c r="G139" s="29"/>
       <c r="H139" s="29"/>
       <c r="I139" s="29"/>
-      <c r="J139" s="48"/>
+      <c r="J139" s="49"/>
       <c r="K139" s="31"/>
       <c r="L139" s="23"/>
       <c r="M139" s="28"/>
@@ -13577,12 +13622,12 @@
       <c r="B140" s="23"/>
       <c r="C140" s="33"/>
       <c r="D140" s="30"/>
-      <c r="E140" s="51"/>
+      <c r="E140" s="52"/>
       <c r="F140" s="35"/>
       <c r="G140" s="29"/>
       <c r="H140" s="29"/>
       <c r="I140" s="29"/>
-      <c r="J140" s="48"/>
+      <c r="J140" s="49"/>
       <c r="K140" s="31"/>
       <c r="L140" s="23"/>
       <c r="M140" s="28"/>
@@ -13595,12 +13640,12 @@
       <c r="B141" s="23"/>
       <c r="C141" s="33"/>
       <c r="D141" s="30"/>
-      <c r="E141" s="51"/>
+      <c r="E141" s="52"/>
       <c r="F141" s="32"/>
       <c r="G141" s="29"/>
       <c r="H141" s="29"/>
       <c r="I141" s="29"/>
-      <c r="J141" s="48"/>
+      <c r="J141" s="49"/>
       <c r="K141" s="31"/>
       <c r="L141" s="23"/>
       <c r="M141" s="28"/>
@@ -13613,12 +13658,12 @@
       <c r="B142" s="23"/>
       <c r="C142" s="28"/>
       <c r="D142" s="29"/>
-      <c r="E142" s="51"/>
+      <c r="E142" s="52"/>
       <c r="F142" s="32"/>
       <c r="G142" s="29"/>
       <c r="H142" s="29"/>
       <c r="I142" s="29"/>
-      <c r="J142" s="48"/>
+      <c r="J142" s="49"/>
       <c r="K142" s="31"/>
       <c r="L142" s="23"/>
       <c r="M142" s="28"/>
@@ -13631,12 +13676,12 @@
       <c r="B143" s="23"/>
       <c r="C143" s="28"/>
       <c r="D143" s="29"/>
-      <c r="E143" s="51"/>
+      <c r="E143" s="52"/>
       <c r="F143" s="29"/>
       <c r="G143" s="29"/>
       <c r="H143" s="29"/>
       <c r="I143" s="29"/>
-      <c r="J143" s="48"/>
+      <c r="J143" s="49"/>
       <c r="K143" s="31"/>
       <c r="L143" s="23"/>
       <c r="M143" s="28"/>
@@ -13649,12 +13694,12 @@
       <c r="B144" s="23"/>
       <c r="C144" s="28"/>
       <c r="D144" s="29"/>
-      <c r="E144" s="51"/>
+      <c r="E144" s="52"/>
       <c r="F144" s="32"/>
       <c r="G144" s="29"/>
       <c r="H144" s="29"/>
       <c r="I144" s="29"/>
-      <c r="J144" s="48"/>
+      <c r="J144" s="49"/>
       <c r="K144" s="31"/>
       <c r="L144" s="23"/>
       <c r="M144" s="28"/>
@@ -13672,7 +13717,7 @@
       <c r="G145" s="29"/>
       <c r="H145" s="29"/>
       <c r="I145" s="29"/>
-      <c r="J145" s="48"/>
+      <c r="J145" s="49"/>
       <c r="K145" s="31"/>
       <c r="L145" s="23"/>
       <c r="M145" s="28"/>
@@ -13690,7 +13735,7 @@
       <c r="G146" s="29"/>
       <c r="H146" s="29"/>
       <c r="I146" s="29"/>
-      <c r="J146" s="48"/>
+      <c r="J146" s="49"/>
       <c r="K146" s="31"/>
       <c r="L146" s="23"/>
       <c r="M146" s="28"/>
@@ -13708,7 +13753,7 @@
       <c r="G147" s="29"/>
       <c r="H147" s="29"/>
       <c r="I147" s="29"/>
-      <c r="J147" s="48"/>
+      <c r="J147" s="49"/>
       <c r="K147" s="31"/>
       <c r="L147" s="23"/>
       <c r="M147" s="28"/>
@@ -13726,7 +13771,7 @@
       <c r="G148" s="29"/>
       <c r="H148" s="29"/>
       <c r="I148" s="29"/>
-      <c r="J148" s="48"/>
+      <c r="J148" s="49"/>
       <c r="K148" s="31"/>
       <c r="L148" s="23"/>
       <c r="M148" s="28"/>
@@ -13744,7 +13789,7 @@
       <c r="G149" s="29"/>
       <c r="H149" s="29"/>
       <c r="I149" s="29"/>
-      <c r="J149" s="48"/>
+      <c r="J149" s="49"/>
       <c r="K149" s="31"/>
       <c r="L149" s="23"/>
       <c r="M149" s="28"/>
@@ -13762,7 +13807,7 @@
       <c r="G150" s="29"/>
       <c r="H150" s="29"/>
       <c r="I150" s="29"/>
-      <c r="J150" s="48"/>
+      <c r="J150" s="49"/>
       <c r="K150" s="31"/>
       <c r="L150" s="23"/>
       <c r="M150" s="28"/>
@@ -13780,7 +13825,7 @@
       <c r="G151" s="29"/>
       <c r="H151" s="29"/>
       <c r="I151" s="29"/>
-      <c r="J151" s="48"/>
+      <c r="J151" s="49"/>
       <c r="K151" s="31"/>
       <c r="L151" s="23"/>
       <c r="M151" s="28"/>
@@ -13798,7 +13843,7 @@
       <c r="G152" s="29"/>
       <c r="H152" s="29"/>
       <c r="I152" s="29"/>
-      <c r="J152" s="48"/>
+      <c r="J152" s="49"/>
       <c r="K152" s="31"/>
       <c r="L152" s="23"/>
       <c r="M152" s="28"/>
@@ -13816,7 +13861,7 @@
       <c r="G153" s="29"/>
       <c r="H153" s="29"/>
       <c r="I153" s="29"/>
-      <c r="J153" s="48"/>
+      <c r="J153" s="49"/>
       <c r="K153" s="31"/>
       <c r="L153" s="23"/>
       <c r="M153" s="28"/>
@@ -13834,7 +13879,7 @@
       <c r="G154" s="29"/>
       <c r="H154" s="29"/>
       <c r="I154" s="29"/>
-      <c r="J154" s="48"/>
+      <c r="J154" s="49"/>
       <c r="K154" s="31"/>
       <c r="L154" s="23"/>
       <c r="M154" s="28"/>
@@ -13852,7 +13897,7 @@
       <c r="G155" s="29"/>
       <c r="H155" s="29"/>
       <c r="I155" s="29"/>
-      <c r="J155" s="48"/>
+      <c r="J155" s="49"/>
       <c r="K155" s="31"/>
       <c r="L155" s="23"/>
       <c r="M155" s="28"/>
@@ -13870,7 +13915,7 @@
       <c r="G156" s="29"/>
       <c r="H156" s="29"/>
       <c r="I156" s="29"/>
-      <c r="J156" s="48"/>
+      <c r="J156" s="49"/>
       <c r="K156" s="31"/>
       <c r="L156" s="23"/>
       <c r="M156" s="28"/>
@@ -13888,7 +13933,7 @@
       <c r="G157" s="29"/>
       <c r="H157" s="29"/>
       <c r="I157" s="29"/>
-      <c r="J157" s="48"/>
+      <c r="J157" s="49"/>
       <c r="K157" s="31"/>
       <c r="L157" s="23"/>
       <c r="M157" s="28"/>
@@ -13906,7 +13951,7 @@
       <c r="G158" s="29"/>
       <c r="H158" s="29"/>
       <c r="I158" s="29"/>
-      <c r="J158" s="48"/>
+      <c r="J158" s="49"/>
       <c r="K158" s="31"/>
       <c r="L158" s="23"/>
       <c r="M158" s="28"/>
@@ -13924,7 +13969,7 @@
       <c r="G159" s="29"/>
       <c r="H159" s="29"/>
       <c r="I159" s="29"/>
-      <c r="J159" s="48"/>
+      <c r="J159" s="49"/>
       <c r="K159" s="31"/>
       <c r="L159" s="23"/>
       <c r="M159" s="28"/>
@@ -13942,7 +13987,7 @@
       <c r="G160" s="29"/>
       <c r="H160" s="29"/>
       <c r="I160" s="29"/>
-      <c r="J160" s="48"/>
+      <c r="J160" s="49"/>
       <c r="K160" s="31"/>
       <c r="L160" s="23"/>
       <c r="M160" s="28"/>
@@ -13960,7 +14005,7 @@
       <c r="G161" s="29"/>
       <c r="H161" s="29"/>
       <c r="I161" s="29"/>
-      <c r="J161" s="48"/>
+      <c r="J161" s="49"/>
       <c r="K161" s="31"/>
       <c r="L161" s="23"/>
       <c r="M161" s="28"/>
@@ -13978,7 +14023,7 @@
       <c r="G162" s="29"/>
       <c r="H162" s="29"/>
       <c r="I162" s="29"/>
-      <c r="J162" s="48"/>
+      <c r="J162" s="49"/>
       <c r="K162" s="31"/>
       <c r="L162" s="23"/>
       <c r="M162" s="28"/>
@@ -13996,7 +14041,7 @@
       <c r="G163" s="29"/>
       <c r="H163" s="29"/>
       <c r="I163" s="29"/>
-      <c r="J163" s="48"/>
+      <c r="J163" s="49"/>
       <c r="K163" s="31"/>
       <c r="L163" s="23"/>
       <c r="M163" s="28"/>
@@ -14014,7 +14059,7 @@
       <c r="G164" s="29"/>
       <c r="H164" s="29"/>
       <c r="I164" s="29"/>
-      <c r="J164" s="48"/>
+      <c r="J164" s="49"/>
       <c r="K164" s="31"/>
       <c r="L164" s="23"/>
       <c r="M164" s="28"/>
@@ -14032,7 +14077,7 @@
       <c r="G165" s="29"/>
       <c r="H165" s="29"/>
       <c r="I165" s="29"/>
-      <c r="J165" s="48"/>
+      <c r="J165" s="49"/>
       <c r="K165" s="31"/>
       <c r="L165" s="23"/>
       <c r="M165" s="28"/>
@@ -14050,7 +14095,7 @@
       <c r="G166" s="29"/>
       <c r="H166" s="29"/>
       <c r="I166" s="29"/>
-      <c r="J166" s="48"/>
+      <c r="J166" s="49"/>
       <c r="K166" s="31"/>
       <c r="L166" s="23"/>
       <c r="M166" s="28"/>
@@ -14068,7 +14113,7 @@
       <c r="G167" s="29"/>
       <c r="H167" s="29"/>
       <c r="I167" s="29"/>
-      <c r="J167" s="48"/>
+      <c r="J167" s="49"/>
       <c r="K167" s="31"/>
       <c r="L167" s="23"/>
       <c r="M167" s="28"/>
@@ -14086,7 +14131,7 @@
       <c r="G168" s="29"/>
       <c r="H168" s="29"/>
       <c r="I168" s="29"/>
-      <c r="J168" s="48"/>
+      <c r="J168" s="49"/>
       <c r="K168" s="31"/>
       <c r="L168" s="23"/>
       <c r="M168" s="28"/>
@@ -14104,7 +14149,7 @@
       <c r="G169" s="29"/>
       <c r="H169" s="29"/>
       <c r="I169" s="29"/>
-      <c r="J169" s="48"/>
+      <c r="J169" s="49"/>
       <c r="K169" s="31"/>
       <c r="L169" s="23"/>
       <c r="M169" s="28"/>
@@ -14122,7 +14167,7 @@
       <c r="G170" s="29"/>
       <c r="H170" s="29"/>
       <c r="I170" s="29"/>
-      <c r="J170" s="48"/>
+      <c r="J170" s="49"/>
       <c r="K170" s="31"/>
       <c r="L170" s="23"/>
       <c r="M170" s="28"/>
@@ -14140,7 +14185,7 @@
       <c r="G171" s="29"/>
       <c r="H171" s="29"/>
       <c r="I171" s="29"/>
-      <c r="J171" s="48"/>
+      <c r="J171" s="49"/>
       <c r="K171" s="31"/>
       <c r="L171" s="23"/>
       <c r="M171" s="28"/>
@@ -14158,7 +14203,7 @@
       <c r="G172" s="29"/>
       <c r="H172" s="29"/>
       <c r="I172" s="29"/>
-      <c r="J172" s="48"/>
+      <c r="J172" s="49"/>
       <c r="K172" s="31"/>
       <c r="L172" s="23"/>
       <c r="M172" s="28"/>
@@ -14176,7 +14221,7 @@
       <c r="G173" s="29"/>
       <c r="H173" s="29"/>
       <c r="I173" s="29"/>
-      <c r="J173" s="48"/>
+      <c r="J173" s="49"/>
       <c r="K173" s="31"/>
       <c r="L173" s="23"/>
       <c r="M173" s="28"/>
@@ -14194,7 +14239,7 @@
       <c r="G174" s="29"/>
       <c r="H174" s="29"/>
       <c r="I174" s="29"/>
-      <c r="J174" s="48"/>
+      <c r="J174" s="49"/>
       <c r="K174" s="31"/>
       <c r="L174" s="23"/>
       <c r="M174" s="28"/>
@@ -14212,7 +14257,7 @@
       <c r="G175" s="29"/>
       <c r="H175" s="29"/>
       <c r="I175" s="29"/>
-      <c r="J175" s="48"/>
+      <c r="J175" s="49"/>
       <c r="K175" s="31"/>
       <c r="L175" s="23"/>
       <c r="M175" s="28"/>
@@ -14230,7 +14275,7 @@
       <c r="G176" s="29"/>
       <c r="H176" s="29"/>
       <c r="I176" s="29"/>
-      <c r="J176" s="48"/>
+      <c r="J176" s="49"/>
       <c r="K176" s="31"/>
       <c r="L176" s="23"/>
       <c r="M176" s="28"/>
@@ -14248,7 +14293,7 @@
       <c r="G177" s="29"/>
       <c r="H177" s="29"/>
       <c r="I177" s="29"/>
-      <c r="J177" s="48"/>
+      <c r="J177" s="49"/>
       <c r="K177" s="31"/>
       <c r="L177" s="23"/>
       <c r="M177" s="28"/>
@@ -14266,7 +14311,7 @@
       <c r="G178" s="29"/>
       <c r="H178" s="29"/>
       <c r="I178" s="29"/>
-      <c r="J178" s="48"/>
+      <c r="J178" s="49"/>
       <c r="K178" s="31"/>
       <c r="L178" s="23"/>
       <c r="M178" s="28"/>
@@ -14284,7 +14329,7 @@
       <c r="G179" s="29"/>
       <c r="H179" s="29"/>
       <c r="I179" s="29"/>
-      <c r="J179" s="48"/>
+      <c r="J179" s="49"/>
       <c r="K179" s="31"/>
       <c r="L179" s="23"/>
       <c r="M179" s="28"/>
@@ -14302,7 +14347,7 @@
       <c r="G180" s="29"/>
       <c r="H180" s="29"/>
       <c r="I180" s="29"/>
-      <c r="J180" s="48"/>
+      <c r="J180" s="49"/>
       <c r="K180" s="31"/>
       <c r="L180" s="23"/>
       <c r="M180" s="28"/>
@@ -14320,7 +14365,7 @@
       <c r="G181" s="29"/>
       <c r="H181" s="29"/>
       <c r="I181" s="29"/>
-      <c r="J181" s="48"/>
+      <c r="J181" s="49"/>
       <c r="K181" s="31"/>
       <c r="L181" s="23"/>
       <c r="M181" s="28"/>
@@ -14338,7 +14383,7 @@
       <c r="G182" s="29"/>
       <c r="H182" s="29"/>
       <c r="I182" s="29"/>
-      <c r="J182" s="48"/>
+      <c r="J182" s="49"/>
       <c r="K182" s="31"/>
       <c r="L182" s="23"/>
       <c r="M182" s="28"/>
@@ -14356,7 +14401,7 @@
       <c r="G183" s="29"/>
       <c r="H183" s="29"/>
       <c r="I183" s="29"/>
-      <c r="J183" s="48"/>
+      <c r="J183" s="49"/>
       <c r="K183" s="31"/>
       <c r="L183" s="23"/>
       <c r="M183" s="28"/>
@@ -14374,7 +14419,7 @@
       <c r="G184" s="29"/>
       <c r="H184" s="29"/>
       <c r="I184" s="29"/>
-      <c r="J184" s="48"/>
+      <c r="J184" s="49"/>
       <c r="K184" s="31"/>
       <c r="L184" s="23"/>
       <c r="M184" s="28"/>
@@ -14392,7 +14437,7 @@
       <c r="G185" s="29"/>
       <c r="H185" s="29"/>
       <c r="I185" s="29"/>
-      <c r="J185" s="48"/>
+      <c r="J185" s="49"/>
       <c r="K185" s="31"/>
       <c r="L185" s="23"/>
       <c r="M185" s="28"/>
@@ -14410,7 +14455,7 @@
       <c r="G186" s="29"/>
       <c r="H186" s="29"/>
       <c r="I186" s="29"/>
-      <c r="J186" s="48"/>
+      <c r="J186" s="49"/>
       <c r="K186" s="31"/>
       <c r="L186" s="23"/>
       <c r="M186" s="28"/>
@@ -14428,7 +14473,7 @@
       <c r="G187" s="29"/>
       <c r="H187" s="29"/>
       <c r="I187" s="29"/>
-      <c r="J187" s="48"/>
+      <c r="J187" s="49"/>
       <c r="K187" s="31"/>
       <c r="L187" s="23"/>
       <c r="M187" s="28"/>
@@ -14446,7 +14491,7 @@
       <c r="G188" s="29"/>
       <c r="H188" s="29"/>
       <c r="I188" s="29"/>
-      <c r="J188" s="48"/>
+      <c r="J188" s="49"/>
       <c r="K188" s="31"/>
       <c r="L188" s="23"/>
       <c r="M188" s="28"/>
@@ -14464,7 +14509,7 @@
       <c r="G189" s="29"/>
       <c r="H189" s="29"/>
       <c r="I189" s="29"/>
-      <c r="J189" s="48"/>
+      <c r="J189" s="49"/>
       <c r="K189" s="31"/>
       <c r="L189" s="23"/>
       <c r="M189" s="28"/>
@@ -14482,7 +14527,7 @@
       <c r="G190" s="29"/>
       <c r="H190" s="29"/>
       <c r="I190" s="29"/>
-      <c r="J190" s="48"/>
+      <c r="J190" s="49"/>
       <c r="K190" s="31"/>
       <c r="L190" s="23"/>
       <c r="M190" s="28"/>
@@ -14500,7 +14545,7 @@
       <c r="G191" s="29"/>
       <c r="H191" s="29"/>
       <c r="I191" s="29"/>
-      <c r="J191" s="48"/>
+      <c r="J191" s="49"/>
       <c r="K191" s="31"/>
       <c r="L191" s="23"/>
       <c r="M191" s="28"/>
@@ -14518,7 +14563,7 @@
       <c r="G192" s="29"/>
       <c r="H192" s="29"/>
       <c r="I192" s="29"/>
-      <c r="J192" s="48"/>
+      <c r="J192" s="49"/>
       <c r="K192" s="31"/>
       <c r="L192" s="23"/>
       <c r="M192" s="28"/>
@@ -14536,7 +14581,7 @@
       <c r="G193" s="29"/>
       <c r="H193" s="29"/>
       <c r="I193" s="29"/>
-      <c r="J193" s="48"/>
+      <c r="J193" s="49"/>
       <c r="K193" s="31"/>
       <c r="L193" s="23"/>
       <c r="M193" s="28"/>
@@ -14554,7 +14599,7 @@
       <c r="G194" s="29"/>
       <c r="H194" s="29"/>
       <c r="I194" s="29"/>
-      <c r="J194" s="48"/>
+      <c r="J194" s="49"/>
       <c r="K194" s="31"/>
       <c r="L194" s="23"/>
       <c r="M194" s="28"/>
@@ -14572,7 +14617,7 @@
       <c r="G195" s="29"/>
       <c r="H195" s="29"/>
       <c r="I195" s="29"/>
-      <c r="J195" s="48"/>
+      <c r="J195" s="49"/>
       <c r="K195" s="31"/>
       <c r="L195" s="23"/>
       <c r="M195" s="28"/>
@@ -14590,7 +14635,7 @@
       <c r="G196" s="29"/>
       <c r="H196" s="29"/>
       <c r="I196" s="29"/>
-      <c r="J196" s="48"/>
+      <c r="J196" s="49"/>
       <c r="K196" s="31"/>
       <c r="L196" s="23"/>
       <c r="M196" s="28"/>
@@ -14608,7 +14653,7 @@
       <c r="G197" s="29"/>
       <c r="H197" s="29"/>
       <c r="I197" s="29"/>
-      <c r="J197" s="48"/>
+      <c r="J197" s="49"/>
       <c r="K197" s="31"/>
       <c r="L197" s="23"/>
       <c r="M197" s="28"/>
@@ -14626,7 +14671,7 @@
       <c r="G198" s="29"/>
       <c r="H198" s="29"/>
       <c r="I198" s="29"/>
-      <c r="J198" s="48"/>
+      <c r="J198" s="49"/>
       <c r="K198" s="31"/>
       <c r="L198" s="23"/>
       <c r="M198" s="28"/>
@@ -14644,7 +14689,7 @@
       <c r="G199" s="29"/>
       <c r="H199" s="29"/>
       <c r="I199" s="29"/>
-      <c r="J199" s="48"/>
+      <c r="J199" s="49"/>
       <c r="K199" s="31"/>
       <c r="L199" s="23"/>
       <c r="M199" s="28"/>
@@ -14662,7 +14707,7 @@
       <c r="G200" s="29"/>
       <c r="H200" s="29"/>
       <c r="I200" s="29"/>
-      <c r="J200" s="48"/>
+      <c r="J200" s="49"/>
       <c r="K200" s="31"/>
       <c r="L200" s="23"/>
       <c r="M200" s="28"/>
@@ -14680,7 +14725,7 @@
       <c r="G201" s="29"/>
       <c r="H201" s="29"/>
       <c r="I201" s="29"/>
-      <c r="J201" s="48"/>
+      <c r="J201" s="49"/>
       <c r="K201" s="31"/>
       <c r="L201" s="23"/>
       <c r="M201" s="28"/>
@@ -14698,7 +14743,7 @@
       <c r="G202" s="29"/>
       <c r="H202" s="29"/>
       <c r="I202" s="29"/>
-      <c r="J202" s="48"/>
+      <c r="J202" s="49"/>
       <c r="K202" s="31"/>
       <c r="L202" s="23"/>
       <c r="M202" s="28"/>
@@ -14716,7 +14761,7 @@
       <c r="G203" s="29"/>
       <c r="H203" s="29"/>
       <c r="I203" s="29"/>
-      <c r="J203" s="48"/>
+      <c r="J203" s="49"/>
       <c r="K203" s="31"/>
       <c r="L203" s="23"/>
       <c r="M203" s="28"/>
@@ -14734,7 +14779,7 @@
       <c r="G204" s="29"/>
       <c r="H204" s="29"/>
       <c r="I204" s="29"/>
-      <c r="J204" s="48"/>
+      <c r="J204" s="49"/>
       <c r="K204" s="31"/>
       <c r="L204" s="23"/>
       <c r="M204" s="28"/>
@@ -14752,7 +14797,7 @@
       <c r="G205" s="29"/>
       <c r="H205" s="29"/>
       <c r="I205" s="29"/>
-      <c r="J205" s="48"/>
+      <c r="J205" s="49"/>
       <c r="K205" s="31"/>
       <c r="L205" s="23"/>
       <c r="M205" s="28"/>
@@ -14770,7 +14815,7 @@
       <c r="G206" s="29"/>
       <c r="H206" s="29"/>
       <c r="I206" s="29"/>
-      <c r="J206" s="48"/>
+      <c r="J206" s="49"/>
       <c r="K206" s="31"/>
       <c r="L206" s="23"/>
       <c r="M206" s="28"/>
@@ -14788,7 +14833,7 @@
       <c r="G207" s="29"/>
       <c r="H207" s="29"/>
       <c r="I207" s="29"/>
-      <c r="J207" s="48"/>
+      <c r="J207" s="49"/>
       <c r="K207" s="31"/>
       <c r="L207" s="23"/>
       <c r="M207" s="28"/>
@@ -14806,7 +14851,7 @@
       <c r="G208" s="29"/>
       <c r="H208" s="29"/>
       <c r="I208" s="29"/>
-      <c r="J208" s="48"/>
+      <c r="J208" s="49"/>
       <c r="K208" s="31"/>
       <c r="L208" s="23"/>
       <c r="M208" s="28"/>
@@ -14824,7 +14869,7 @@
       <c r="G209" s="29"/>
       <c r="H209" s="29"/>
       <c r="I209" s="29"/>
-      <c r="J209" s="48"/>
+      <c r="J209" s="49"/>
       <c r="K209" s="31"/>
       <c r="L209" s="23"/>
       <c r="M209" s="28"/>
@@ -14842,7 +14887,7 @@
       <c r="G210" s="29"/>
       <c r="H210" s="29"/>
       <c r="I210" s="29"/>
-      <c r="J210" s="48"/>
+      <c r="J210" s="49"/>
       <c r="K210" s="31"/>
       <c r="L210" s="23"/>
       <c r="M210" s="28"/>
@@ -14860,7 +14905,7 @@
       <c r="G211" s="29"/>
       <c r="H211" s="29"/>
       <c r="I211" s="29"/>
-      <c r="J211" s="48"/>
+      <c r="J211" s="49"/>
       <c r="K211" s="31"/>
       <c r="L211" s="23"/>
       <c r="M211" s="28"/>
@@ -14878,7 +14923,7 @@
       <c r="G212" s="29"/>
       <c r="H212" s="29"/>
       <c r="I212" s="29"/>
-      <c r="J212" s="48"/>
+      <c r="J212" s="49"/>
       <c r="K212" s="31"/>
       <c r="L212" s="23"/>
       <c r="M212" s="28"/>
@@ -14896,7 +14941,7 @@
       <c r="G213" s="29"/>
       <c r="H213" s="29"/>
       <c r="I213" s="29"/>
-      <c r="J213" s="48"/>
+      <c r="J213" s="49"/>
       <c r="K213" s="31"/>
       <c r="L213" s="23"/>
       <c r="M213" s="28"/>
@@ -14914,7 +14959,7 @@
       <c r="G214" s="29"/>
       <c r="H214" s="29"/>
       <c r="I214" s="29"/>
-      <c r="J214" s="48"/>
+      <c r="J214" s="49"/>
       <c r="K214" s="31"/>
       <c r="L214" s="23"/>
       <c r="M214" s="28"/>
@@ -14932,7 +14977,7 @@
       <c r="G215" s="29"/>
       <c r="H215" s="29"/>
       <c r="I215" s="29"/>
-      <c r="J215" s="48"/>
+      <c r="J215" s="49"/>
       <c r="K215" s="31"/>
       <c r="L215" s="23"/>
       <c r="M215" s="28"/>
@@ -14950,7 +14995,7 @@
       <c r="G216" s="29"/>
       <c r="H216" s="29"/>
       <c r="I216" s="29"/>
-      <c r="J216" s="48"/>
+      <c r="J216" s="49"/>
       <c r="K216" s="31"/>
       <c r="L216" s="23"/>
       <c r="M216" s="28"/>
@@ -14968,7 +15013,7 @@
       <c r="G217" s="29"/>
       <c r="H217" s="29"/>
       <c r="I217" s="29"/>
-      <c r="J217" s="48"/>
+      <c r="J217" s="49"/>
       <c r="K217" s="31"/>
       <c r="L217" s="23"/>
       <c r="M217" s="28"/>
@@ -14986,7 +15031,7 @@
       <c r="G218" s="29"/>
       <c r="H218" s="29"/>
       <c r="I218" s="29"/>
-      <c r="J218" s="48"/>
+      <c r="J218" s="49"/>
       <c r="K218" s="31"/>
       <c r="L218" s="23"/>
       <c r="M218" s="28"/>
@@ -15004,7 +15049,7 @@
       <c r="G219" s="29"/>
       <c r="H219" s="29"/>
       <c r="I219" s="29"/>
-      <c r="J219" s="48"/>
+      <c r="J219" s="49"/>
       <c r="K219" s="31"/>
       <c r="L219" s="23"/>
       <c r="M219" s="28"/>
@@ -15022,7 +15067,7 @@
       <c r="G220" s="29"/>
       <c r="H220" s="29"/>
       <c r="I220" s="29"/>
-      <c r="J220" s="48"/>
+      <c r="J220" s="49"/>
       <c r="K220" s="31"/>
       <c r="L220" s="23"/>
       <c r="M220" s="28"/>
@@ -15040,7 +15085,7 @@
       <c r="G221" s="29"/>
       <c r="H221" s="29"/>
       <c r="I221" s="29"/>
-      <c r="J221" s="48"/>
+      <c r="J221" s="49"/>
       <c r="K221" s="31"/>
       <c r="L221" s="23"/>
       <c r="M221" s="28"/>
@@ -15058,7 +15103,7 @@
       <c r="G222" s="29"/>
       <c r="H222" s="29"/>
       <c r="I222" s="29"/>
-      <c r="J222" s="48"/>
+      <c r="J222" s="49"/>
       <c r="K222" s="31"/>
       <c r="L222" s="23"/>
       <c r="M222" s="28"/>
@@ -15076,7 +15121,7 @@
       <c r="G223" s="29"/>
       <c r="H223" s="29"/>
       <c r="I223" s="29"/>
-      <c r="J223" s="48"/>
+      <c r="J223" s="49"/>
       <c r="K223" s="31"/>
       <c r="L223" s="23"/>
       <c r="M223" s="28"/>
@@ -15094,7 +15139,7 @@
       <c r="G224" s="29"/>
       <c r="H224" s="29"/>
       <c r="I224" s="29"/>
-      <c r="J224" s="48"/>
+      <c r="J224" s="49"/>
       <c r="K224" s="31"/>
       <c r="L224" s="23"/>
       <c r="M224" s="28"/>
@@ -15112,7 +15157,7 @@
       <c r="G225" s="29"/>
       <c r="H225" s="29"/>
       <c r="I225" s="29"/>
-      <c r="J225" s="48"/>
+      <c r="J225" s="49"/>
       <c r="K225" s="31"/>
       <c r="L225" s="23"/>
       <c r="M225" s="28"/>
@@ -15130,7 +15175,7 @@
       <c r="G226" s="29"/>
       <c r="H226" s="29"/>
       <c r="I226" s="29"/>
-      <c r="J226" s="48"/>
+      <c r="J226" s="49"/>
       <c r="K226" s="31"/>
       <c r="L226" s="23"/>
       <c r="M226" s="28"/>
@@ -15148,7 +15193,7 @@
       <c r="G227" s="29"/>
       <c r="H227" s="29"/>
       <c r="I227" s="29"/>
-      <c r="J227" s="48"/>
+      <c r="J227" s="49"/>
       <c r="K227" s="31"/>
       <c r="L227" s="23"/>
       <c r="M227" s="28"/>
@@ -15166,7 +15211,7 @@
       <c r="G228" s="29"/>
       <c r="H228" s="29"/>
       <c r="I228" s="29"/>
-      <c r="J228" s="48"/>
+      <c r="J228" s="49"/>
       <c r="K228" s="31"/>
       <c r="L228" s="23"/>
       <c r="M228" s="28"/>
@@ -15184,7 +15229,7 @@
       <c r="G229" s="29"/>
       <c r="H229" s="29"/>
       <c r="I229" s="29"/>
-      <c r="J229" s="48"/>
+      <c r="J229" s="49"/>
       <c r="K229" s="31"/>
       <c r="L229" s="23"/>
       <c r="M229" s="28"/>
@@ -15202,7 +15247,7 @@
       <c r="G230" s="29"/>
       <c r="H230" s="29"/>
       <c r="I230" s="29"/>
-      <c r="J230" s="48"/>
+      <c r="J230" s="49"/>
       <c r="K230" s="31"/>
       <c r="L230" s="23"/>
       <c r="M230" s="28"/>
@@ -15220,7 +15265,7 @@
       <c r="G231" s="29"/>
       <c r="H231" s="29"/>
       <c r="I231" s="29"/>
-      <c r="J231" s="48"/>
+      <c r="J231" s="49"/>
       <c r="K231" s="31"/>
       <c r="L231" s="23"/>
       <c r="M231" s="28"/>
@@ -15238,7 +15283,7 @@
       <c r="G232" s="29"/>
       <c r="H232" s="29"/>
       <c r="I232" s="29"/>
-      <c r="J232" s="48"/>
+      <c r="J232" s="49"/>
       <c r="K232" s="31"/>
       <c r="L232" s="23"/>
       <c r="M232" s="28"/>
@@ -15256,7 +15301,7 @@
       <c r="G233" s="29"/>
       <c r="H233" s="29"/>
       <c r="I233" s="29"/>
-      <c r="J233" s="48"/>
+      <c r="J233" s="49"/>
       <c r="K233" s="31"/>
       <c r="L233" s="23"/>
       <c r="M233" s="28"/>
@@ -15274,7 +15319,7 @@
       <c r="G234" s="29"/>
       <c r="H234" s="29"/>
       <c r="I234" s="29"/>
-      <c r="J234" s="48"/>
+      <c r="J234" s="49"/>
       <c r="K234" s="31"/>
       <c r="L234" s="23"/>
       <c r="M234" s="28"/>
@@ -15292,7 +15337,7 @@
       <c r="G235" s="29"/>
       <c r="H235" s="29"/>
       <c r="I235" s="29"/>
-      <c r="J235" s="48"/>
+      <c r="J235" s="49"/>
       <c r="K235" s="31"/>
       <c r="L235" s="23"/>
       <c r="M235" s="28"/>
@@ -15310,7 +15355,7 @@
       <c r="G236" s="29"/>
       <c r="H236" s="29"/>
       <c r="I236" s="29"/>
-      <c r="J236" s="48"/>
+      <c r="J236" s="49"/>
       <c r="K236" s="31"/>
       <c r="L236" s="23"/>
       <c r="M236" s="28"/>
@@ -15328,7 +15373,7 @@
       <c r="G237" s="29"/>
       <c r="H237" s="29"/>
       <c r="I237" s="29"/>
-      <c r="J237" s="48"/>
+      <c r="J237" s="49"/>
       <c r="K237" s="31"/>
       <c r="L237" s="23"/>
       <c r="M237" s="28"/>
@@ -15346,7 +15391,7 @@
       <c r="G238" s="29"/>
       <c r="H238" s="29"/>
       <c r="I238" s="29"/>
-      <c r="J238" s="48"/>
+      <c r="J238" s="49"/>
       <c r="K238" s="31"/>
       <c r="L238" s="23"/>
       <c r="M238" s="28"/>
@@ -15364,7 +15409,7 @@
       <c r="G239" s="29"/>
       <c r="H239" s="29"/>
       <c r="I239" s="29"/>
-      <c r="J239" s="48"/>
+      <c r="J239" s="49"/>
       <c r="K239" s="31"/>
       <c r="L239" s="23"/>
       <c r="M239" s="28"/>
@@ -15382,7 +15427,7 @@
       <c r="G240" s="29"/>
       <c r="H240" s="29"/>
       <c r="I240" s="29"/>
-      <c r="J240" s="48"/>
+      <c r="J240" s="49"/>
       <c r="K240" s="31"/>
       <c r="L240" s="23"/>
       <c r="M240" s="28"/>
@@ -15400,7 +15445,7 @@
       <c r="G241" s="29"/>
       <c r="H241" s="29"/>
       <c r="I241" s="29"/>
-      <c r="J241" s="48"/>
+      <c r="J241" s="49"/>
       <c r="K241" s="31"/>
       <c r="L241" s="23"/>
       <c r="M241" s="28"/>
@@ -15418,7 +15463,7 @@
       <c r="G242" s="29"/>
       <c r="H242" s="29"/>
       <c r="I242" s="29"/>
-      <c r="J242" s="48"/>
+      <c r="J242" s="49"/>
       <c r="K242" s="31"/>
       <c r="L242" s="23"/>
       <c r="M242" s="28"/>
@@ -15436,7 +15481,7 @@
       <c r="G243" s="29"/>
       <c r="H243" s="29"/>
       <c r="I243" s="29"/>
-      <c r="J243" s="48"/>
+      <c r="J243" s="49"/>
       <c r="K243" s="31"/>
       <c r="L243" s="23"/>
       <c r="M243" s="28"/>
@@ -15454,7 +15499,7 @@
       <c r="G244" s="29"/>
       <c r="H244" s="29"/>
       <c r="I244" s="29"/>
-      <c r="J244" s="48"/>
+      <c r="J244" s="49"/>
       <c r="K244" s="31"/>
       <c r="L244" s="23"/>
       <c r="M244" s="28"/>
@@ -15472,7 +15517,7 @@
       <c r="G245" s="29"/>
       <c r="H245" s="29"/>
       <c r="I245" s="29"/>
-      <c r="J245" s="48"/>
+      <c r="J245" s="49"/>
       <c r="K245" s="31"/>
       <c r="L245" s="23"/>
       <c r="M245" s="28"/>
@@ -15490,7 +15535,7 @@
       <c r="G246" s="29"/>
       <c r="H246" s="29"/>
       <c r="I246" s="29"/>
-      <c r="J246" s="48"/>
+      <c r="J246" s="49"/>
       <c r="K246" s="31"/>
       <c r="L246" s="23"/>
       <c r="M246" s="28"/>
@@ -15508,7 +15553,7 @@
       <c r="G247" s="29"/>
       <c r="H247" s="29"/>
       <c r="I247" s="29"/>
-      <c r="J247" s="48"/>
+      <c r="J247" s="49"/>
       <c r="K247" s="31"/>
       <c r="L247" s="23"/>
       <c r="M247" s="28"/>
@@ -15526,7 +15571,7 @@
       <c r="G248" s="29"/>
       <c r="H248" s="29"/>
       <c r="I248" s="29"/>
-      <c r="J248" s="48"/>
+      <c r="J248" s="49"/>
       <c r="K248" s="31"/>
       <c r="L248" s="23"/>
       <c r="M248" s="28"/>
@@ -15544,7 +15589,7 @@
       <c r="G249" s="29"/>
       <c r="H249" s="29"/>
       <c r="I249" s="29"/>
-      <c r="J249" s="48"/>
+      <c r="J249" s="49"/>
       <c r="K249" s="31"/>
       <c r="L249" s="23"/>
       <c r="M249" s="28"/>
@@ -15562,7 +15607,7 @@
       <c r="G250" s="29"/>
       <c r="H250" s="29"/>
       <c r="I250" s="29"/>
-      <c r="J250" s="48"/>
+      <c r="J250" s="49"/>
       <c r="K250" s="31"/>
       <c r="L250" s="23"/>
       <c r="M250" s="28"/>
@@ -15580,7 +15625,7 @@
       <c r="G251" s="29"/>
       <c r="H251" s="29"/>
       <c r="I251" s="29"/>
-      <c r="J251" s="48"/>
+      <c r="J251" s="49"/>
       <c r="K251" s="31"/>
       <c r="L251" s="23"/>
       <c r="M251" s="28"/>
@@ -15598,7 +15643,7 @@
       <c r="G252" s="29"/>
       <c r="H252" s="29"/>
       <c r="I252" s="29"/>
-      <c r="J252" s="48"/>
+      <c r="J252" s="49"/>
       <c r="K252" s="31"/>
       <c r="L252" s="23"/>
       <c r="M252" s="28"/>
@@ -15616,7 +15661,7 @@
       <c r="G253" s="29"/>
       <c r="H253" s="29"/>
       <c r="I253" s="29"/>
-      <c r="J253" s="48"/>
+      <c r="J253" s="49"/>
       <c r="K253" s="31"/>
       <c r="L253" s="23"/>
       <c r="M253" s="28"/>
@@ -15634,7 +15679,7 @@
       <c r="G254" s="29"/>
       <c r="H254" s="29"/>
       <c r="I254" s="29"/>
-      <c r="J254" s="48"/>
+      <c r="J254" s="49"/>
       <c r="K254" s="31"/>
       <c r="L254" s="23"/>
       <c r="M254" s="28"/>
@@ -15652,7 +15697,7 @@
       <c r="G255" s="29"/>
       <c r="H255" s="29"/>
       <c r="I255" s="29"/>
-      <c r="J255" s="48"/>
+      <c r="J255" s="49"/>
       <c r="K255" s="31"/>
       <c r="L255" s="23"/>
       <c r="M255" s="28"/>
@@ -15670,7 +15715,7 @@
       <c r="G256" s="29"/>
       <c r="H256" s="29"/>
       <c r="I256" s="29"/>
-      <c r="J256" s="48"/>
+      <c r="J256" s="49"/>
       <c r="K256" s="31"/>
       <c r="L256" s="23"/>
       <c r="M256" s="28"/>
@@ -15688,7 +15733,7 @@
       <c r="G257" s="29"/>
       <c r="H257" s="29"/>
       <c r="I257" s="29"/>
-      <c r="J257" s="48"/>
+      <c r="J257" s="49"/>
       <c r="K257" s="31"/>
       <c r="L257" s="23"/>
       <c r="M257" s="28"/>
@@ -15706,7 +15751,7 @@
       <c r="G258" s="29"/>
       <c r="H258" s="29"/>
       <c r="I258" s="29"/>
-      <c r="J258" s="48"/>
+      <c r="J258" s="49"/>
       <c r="K258" s="31"/>
       <c r="L258" s="23"/>
       <c r="M258" s="28"/>
@@ -15724,7 +15769,7 @@
       <c r="G259" s="29"/>
       <c r="H259" s="29"/>
       <c r="I259" s="29"/>
-      <c r="J259" s="48"/>
+      <c r="J259" s="49"/>
       <c r="K259" s="31"/>
       <c r="L259" s="23"/>
       <c r="M259" s="28"/>
@@ -15742,7 +15787,7 @@
       <c r="G260" s="29"/>
       <c r="H260" s="29"/>
       <c r="I260" s="29"/>
-      <c r="J260" s="48"/>
+      <c r="J260" s="49"/>
       <c r="K260" s="31"/>
       <c r="L260" s="23"/>
       <c r="M260" s="28"/>
@@ -15760,7 +15805,7 @@
       <c r="G261" s="29"/>
       <c r="H261" s="29"/>
       <c r="I261" s="29"/>
-      <c r="J261" s="48"/>
+      <c r="J261" s="49"/>
       <c r="K261" s="31"/>
       <c r="L261" s="23"/>
       <c r="M261" s="28"/>
@@ -15778,7 +15823,7 @@
       <c r="G262" s="29"/>
       <c r="H262" s="29"/>
       <c r="I262" s="29"/>
-      <c r="J262" s="48"/>
+      <c r="J262" s="49"/>
       <c r="K262" s="31"/>
       <c r="L262" s="23"/>
       <c r="M262" s="28"/>
@@ -15796,7 +15841,7 @@
       <c r="G263" s="29"/>
       <c r="H263" s="29"/>
       <c r="I263" s="29"/>
-      <c r="J263" s="48"/>
+      <c r="J263" s="49"/>
       <c r="K263" s="31"/>
       <c r="L263" s="23"/>
       <c r="M263" s="28"/>
@@ -15814,7 +15859,7 @@
       <c r="G264" s="29"/>
       <c r="H264" s="29"/>
       <c r="I264" s="29"/>
-      <c r="J264" s="48"/>
+      <c r="J264" s="49"/>
       <c r="K264" s="31"/>
       <c r="L264" s="23"/>
       <c r="M264" s="28"/>
@@ -15832,7 +15877,7 @@
       <c r="G265" s="29"/>
       <c r="H265" s="29"/>
       <c r="I265" s="29"/>
-      <c r="J265" s="48"/>
+      <c r="J265" s="49"/>
       <c r="K265" s="31"/>
       <c r="L265" s="23"/>
       <c r="M265" s="28"/>
@@ -15850,7 +15895,7 @@
       <c r="G266" s="29"/>
       <c r="H266" s="29"/>
       <c r="I266" s="29"/>
-      <c r="J266" s="48"/>
+      <c r="J266" s="49"/>
       <c r="K266" s="31"/>
       <c r="L266" s="23"/>
       <c r="M266" s="28"/>
@@ -15868,7 +15913,7 @@
       <c r="G267" s="29"/>
       <c r="H267" s="29"/>
       <c r="I267" s="29"/>
-      <c r="J267" s="48"/>
+      <c r="J267" s="49"/>
       <c r="K267" s="31"/>
       <c r="L267" s="23"/>
       <c r="M267" s="28"/>
@@ -15886,7 +15931,7 @@
       <c r="G268" s="29"/>
       <c r="H268" s="29"/>
       <c r="I268" s="29"/>
-      <c r="J268" s="48"/>
+      <c r="J268" s="49"/>
       <c r="K268" s="31"/>
       <c r="L268" s="23"/>
       <c r="M268" s="28"/>
@@ -15904,7 +15949,7 @@
       <c r="G269" s="29"/>
       <c r="H269" s="29"/>
       <c r="I269" s="29"/>
-      <c r="J269" s="48"/>
+      <c r="J269" s="49"/>
       <c r="K269" s="31"/>
       <c r="L269" s="23"/>
       <c r="M269" s="28"/>
@@ -15922,7 +15967,7 @@
       <c r="G270" s="29"/>
       <c r="H270" s="29"/>
       <c r="I270" s="29"/>
-      <c r="J270" s="48"/>
+      <c r="J270" s="49"/>
       <c r="K270" s="31"/>
       <c r="L270" s="23"/>
       <c r="M270" s="28"/>
@@ -15940,7 +15985,7 @@
       <c r="G271" s="29"/>
       <c r="H271" s="29"/>
       <c r="I271" s="29"/>
-      <c r="J271" s="48"/>
+      <c r="J271" s="49"/>
       <c r="K271" s="31"/>
       <c r="L271" s="23"/>
       <c r="M271" s="28"/>
@@ -15958,7 +16003,7 @@
       <c r="G272" s="29"/>
       <c r="H272" s="29"/>
       <c r="I272" s="29"/>
-      <c r="J272" s="48"/>
+      <c r="J272" s="49"/>
       <c r="K272" s="31"/>
       <c r="L272" s="23"/>
       <c r="M272" s="28"/>
@@ -15976,7 +16021,7 @@
       <c r="G273" s="29"/>
       <c r="H273" s="29"/>
       <c r="I273" s="29"/>
-      <c r="J273" s="48"/>
+      <c r="J273" s="49"/>
       <c r="K273" s="31"/>
       <c r="L273" s="23"/>
       <c r="M273" s="28"/>
@@ -15994,7 +16039,7 @@
       <c r="G274" s="29"/>
       <c r="H274" s="29"/>
       <c r="I274" s="29"/>
-      <c r="J274" s="48"/>
+      <c r="J274" s="49"/>
       <c r="K274" s="31"/>
       <c r="L274" s="23"/>
       <c r="M274" s="28"/>
@@ -16012,7 +16057,7 @@
       <c r="G275" s="29"/>
       <c r="H275" s="29"/>
       <c r="I275" s="29"/>
-      <c r="J275" s="48"/>
+      <c r="J275" s="49"/>
       <c r="K275" s="31"/>
       <c r="L275" s="23"/>
       <c r="M275" s="28"/>
@@ -16030,7 +16075,7 @@
       <c r="G276" s="29"/>
       <c r="H276" s="29"/>
       <c r="I276" s="29"/>
-      <c r="J276" s="48"/>
+      <c r="J276" s="49"/>
       <c r="K276" s="31"/>
       <c r="L276" s="23"/>
       <c r="M276" s="28"/>
@@ -16048,7 +16093,7 @@
       <c r="G277" s="29"/>
       <c r="H277" s="29"/>
       <c r="I277" s="29"/>
-      <c r="J277" s="48"/>
+      <c r="J277" s="49"/>
       <c r="K277" s="31"/>
       <c r="L277" s="23"/>
       <c r="M277" s="28"/>
@@ -16066,7 +16111,7 @@
       <c r="G278" s="29"/>
       <c r="H278" s="29"/>
       <c r="I278" s="29"/>
-      <c r="J278" s="48"/>
+      <c r="J278" s="49"/>
       <c r="K278" s="31"/>
       <c r="L278" s="23"/>
       <c r="M278" s="28"/>
@@ -16084,7 +16129,7 @@
       <c r="G279" s="29"/>
       <c r="H279" s="29"/>
       <c r="I279" s="29"/>
-      <c r="J279" s="48"/>
+      <c r="J279" s="49"/>
       <c r="K279" s="31"/>
       <c r="L279" s="23"/>
       <c r="M279" s="28"/>
@@ -16102,7 +16147,7 @@
       <c r="G280" s="29"/>
       <c r="H280" s="29"/>
       <c r="I280" s="29"/>
-      <c r="J280" s="48"/>
+      <c r="J280" s="49"/>
       <c r="K280" s="31"/>
       <c r="L280" s="23"/>
       <c r="M280" s="28"/>
@@ -16120,7 +16165,7 @@
       <c r="G281" s="29"/>
       <c r="H281" s="29"/>
       <c r="I281" s="29"/>
-      <c r="J281" s="48"/>
+      <c r="J281" s="49"/>
       <c r="K281" s="31"/>
       <c r="L281" s="23"/>
       <c r="M281" s="28"/>
@@ -16138,7 +16183,7 @@
       <c r="G282" s="29"/>
       <c r="H282" s="29"/>
       <c r="I282" s="29"/>
-      <c r="J282" s="48"/>
+      <c r="J282" s="49"/>
       <c r="K282" s="31"/>
       <c r="L282" s="23"/>
       <c r="M282" s="28"/>
@@ -16156,7 +16201,7 @@
       <c r="G283" s="29"/>
       <c r="H283" s="29"/>
       <c r="I283" s="29"/>
-      <c r="J283" s="48"/>
+      <c r="J283" s="49"/>
       <c r="K283" s="31"/>
       <c r="L283" s="23"/>
       <c r="M283" s="28"/>
@@ -16174,7 +16219,7 @@
       <c r="G284" s="29"/>
       <c r="H284" s="29"/>
       <c r="I284" s="29"/>
-      <c r="J284" s="48"/>
+      <c r="J284" s="49"/>
       <c r="K284" s="31"/>
       <c r="L284" s="23"/>
       <c r="M284" s="28"/>
@@ -16192,7 +16237,7 @@
       <c r="G285" s="29"/>
       <c r="H285" s="29"/>
       <c r="I285" s="29"/>
-      <c r="J285" s="48"/>
+      <c r="J285" s="49"/>
       <c r="K285" s="31"/>
       <c r="L285" s="23"/>
       <c r="M285" s="28"/>
@@ -16210,7 +16255,7 @@
       <c r="G286" s="29"/>
       <c r="H286" s="29"/>
       <c r="I286" s="29"/>
-      <c r="J286" s="48"/>
+      <c r="J286" s="49"/>
       <c r="K286" s="31"/>
       <c r="L286" s="23"/>
       <c r="M286" s="28"/>
@@ -16228,7 +16273,7 @@
       <c r="G287" s="29"/>
       <c r="H287" s="29"/>
       <c r="I287" s="29"/>
-      <c r="J287" s="48"/>
+      <c r="J287" s="49"/>
       <c r="K287" s="31"/>
       <c r="L287" s="23"/>
       <c r="M287" s="28"/>
@@ -16246,12 +16291,12 @@
       <c r="G288" s="29"/>
       <c r="H288" s="29"/>
       <c r="I288" s="29"/>
-      <c r="J288" s="48"/>
-      <c r="K288" s="40"/>
-      <c r="L288" s="49"/>
-      <c r="M288" s="50"/>
-      <c r="N288" s="49"/>
-      <c r="O288" s="40"/>
+      <c r="J288" s="49"/>
+      <c r="K288" s="41"/>
+      <c r="L288" s="50"/>
+      <c r="M288" s="51"/>
+      <c r="N288" s="50"/>
+      <c r="O288" s="41"/>
     </row>
     <row r="289" ht="23" customHeight="1" spans="1:15">
       <c r="A289" s="31"/>
@@ -16263,12 +16308,12 @@
       <c r="G289" s="29"/>
       <c r="H289" s="29"/>
       <c r="I289" s="29"/>
-      <c r="J289" s="48"/>
-      <c r="K289" s="40"/>
-      <c r="L289" s="49"/>
-      <c r="M289" s="50"/>
-      <c r="N289" s="49"/>
-      <c r="O289" s="40"/>
+      <c r="J289" s="49"/>
+      <c r="K289" s="41"/>
+      <c r="L289" s="50"/>
+      <c r="M289" s="51"/>
+      <c r="N289" s="50"/>
+      <c r="O289" s="41"/>
     </row>
     <row r="290" ht="23" customHeight="1" spans="1:15">
       <c r="A290" s="31"/>
@@ -16280,12 +16325,12 @@
       <c r="G290" s="29"/>
       <c r="H290" s="29"/>
       <c r="I290" s="29"/>
-      <c r="J290" s="48"/>
-      <c r="K290" s="40"/>
-      <c r="L290" s="49"/>
-      <c r="M290" s="50"/>
-      <c r="N290" s="49"/>
-      <c r="O290" s="40"/>
+      <c r="J290" s="49"/>
+      <c r="K290" s="41"/>
+      <c r="L290" s="50"/>
+      <c r="M290" s="51"/>
+      <c r="N290" s="50"/>
+      <c r="O290" s="41"/>
     </row>
     <row r="291" ht="23" customHeight="1" spans="1:15">
       <c r="A291" s="31"/>
@@ -16297,12 +16342,12 @@
       <c r="G291" s="29"/>
       <c r="H291" s="29"/>
       <c r="I291" s="29"/>
-      <c r="J291" s="48"/>
-      <c r="K291" s="40"/>
-      <c r="L291" s="49"/>
-      <c r="M291" s="50"/>
-      <c r="N291" s="49"/>
-      <c r="O291" s="40"/>
+      <c r="J291" s="49"/>
+      <c r="K291" s="41"/>
+      <c r="L291" s="50"/>
+      <c r="M291" s="51"/>
+      <c r="N291" s="50"/>
+      <c r="O291" s="41"/>
     </row>
     <row r="292" ht="23" customHeight="1" spans="1:15">
       <c r="A292" s="31"/>
@@ -16314,12 +16359,12 @@
       <c r="G292" s="29"/>
       <c r="H292" s="29"/>
       <c r="I292" s="29"/>
-      <c r="J292" s="48"/>
-      <c r="K292" s="40"/>
-      <c r="L292" s="49"/>
-      <c r="M292" s="50"/>
-      <c r="N292" s="49"/>
-      <c r="O292" s="40"/>
+      <c r="J292" s="49"/>
+      <c r="K292" s="41"/>
+      <c r="L292" s="50"/>
+      <c r="M292" s="51"/>
+      <c r="N292" s="50"/>
+      <c r="O292" s="41"/>
     </row>
     <row r="293" ht="23" customHeight="1" spans="1:15">
       <c r="A293" s="31"/>
@@ -16331,12 +16376,12 @@
       <c r="G293" s="29"/>
       <c r="H293" s="29"/>
       <c r="I293" s="29"/>
-      <c r="J293" s="48"/>
-      <c r="K293" s="40"/>
-      <c r="L293" s="49"/>
-      <c r="M293" s="50"/>
-      <c r="N293" s="49"/>
-      <c r="O293" s="40"/>
+      <c r="J293" s="49"/>
+      <c r="K293" s="41"/>
+      <c r="L293" s="50"/>
+      <c r="M293" s="51"/>
+      <c r="N293" s="50"/>
+      <c r="O293" s="41"/>
     </row>
     <row r="294" ht="23" customHeight="1" spans="1:15">
       <c r="A294" s="31"/>
@@ -16348,12 +16393,12 @@
       <c r="G294" s="29"/>
       <c r="H294" s="29"/>
       <c r="I294" s="29"/>
-      <c r="J294" s="48"/>
-      <c r="K294" s="40"/>
-      <c r="L294" s="49"/>
-      <c r="M294" s="50"/>
-      <c r="N294" s="49"/>
-      <c r="O294" s="40"/>
+      <c r="J294" s="49"/>
+      <c r="K294" s="41"/>
+      <c r="L294" s="50"/>
+      <c r="M294" s="51"/>
+      <c r="N294" s="50"/>
+      <c r="O294" s="41"/>
     </row>
     <row r="295" ht="23" customHeight="1" spans="1:15">
       <c r="A295" s="31"/>
@@ -16365,12 +16410,12 @@
       <c r="G295" s="29"/>
       <c r="H295" s="29"/>
       <c r="I295" s="29"/>
-      <c r="J295" s="48"/>
-      <c r="K295" s="40"/>
-      <c r="L295" s="49"/>
-      <c r="M295" s="50"/>
-      <c r="N295" s="49"/>
-      <c r="O295" s="40"/>
+      <c r="J295" s="49"/>
+      <c r="K295" s="41"/>
+      <c r="L295" s="50"/>
+      <c r="M295" s="51"/>
+      <c r="N295" s="50"/>
+      <c r="O295" s="41"/>
     </row>
     <row r="296" ht="23" customHeight="1" spans="1:15">
       <c r="A296" s="31"/>
@@ -16382,12 +16427,12 @@
       <c r="G296" s="29"/>
       <c r="H296" s="29"/>
       <c r="I296" s="29"/>
-      <c r="J296" s="48"/>
-      <c r="K296" s="40"/>
-      <c r="L296" s="49"/>
-      <c r="M296" s="50"/>
-      <c r="N296" s="49"/>
-      <c r="O296" s="40"/>
+      <c r="J296" s="49"/>
+      <c r="K296" s="41"/>
+      <c r="L296" s="50"/>
+      <c r="M296" s="51"/>
+      <c r="N296" s="50"/>
+      <c r="O296" s="41"/>
     </row>
     <row r="297" ht="23" customHeight="1" spans="1:15">
       <c r="A297" s="31"/>
@@ -16399,12 +16444,12 @@
       <c r="G297" s="29"/>
       <c r="H297" s="29"/>
       <c r="I297" s="29"/>
-      <c r="J297" s="48"/>
-      <c r="K297" s="40"/>
-      <c r="L297" s="49"/>
-      <c r="M297" s="50"/>
-      <c r="N297" s="49"/>
-      <c r="O297" s="40"/>
+      <c r="J297" s="49"/>
+      <c r="K297" s="41"/>
+      <c r="L297" s="50"/>
+      <c r="M297" s="51"/>
+      <c r="N297" s="50"/>
+      <c r="O297" s="41"/>
     </row>
     <row r="298" ht="23" customHeight="1" spans="1:15">
       <c r="A298" s="31"/>
@@ -16416,12 +16461,12 @@
       <c r="G298" s="29"/>
       <c r="H298" s="29"/>
       <c r="I298" s="29"/>
-      <c r="J298" s="48"/>
-      <c r="K298" s="40"/>
-      <c r="L298" s="49"/>
-      <c r="M298" s="50"/>
-      <c r="N298" s="49"/>
-      <c r="O298" s="40"/>
+      <c r="J298" s="49"/>
+      <c r="K298" s="41"/>
+      <c r="L298" s="50"/>
+      <c r="M298" s="51"/>
+      <c r="N298" s="50"/>
+      <c r="O298" s="41"/>
     </row>
     <row r="299" ht="23" customHeight="1" spans="1:15">
       <c r="A299" s="31"/>
@@ -16433,12 +16478,12 @@
       <c r="G299" s="29"/>
       <c r="H299" s="29"/>
       <c r="I299" s="29"/>
-      <c r="J299" s="48"/>
-      <c r="K299" s="40"/>
-      <c r="L299" s="49"/>
-      <c r="M299" s="50"/>
-      <c r="N299" s="49"/>
-      <c r="O299" s="40"/>
+      <c r="J299" s="49"/>
+      <c r="K299" s="41"/>
+      <c r="L299" s="50"/>
+      <c r="M299" s="51"/>
+      <c r="N299" s="50"/>
+      <c r="O299" s="41"/>
     </row>
     <row r="300" ht="23" customHeight="1" spans="1:15">
       <c r="A300" s="31"/>
@@ -16450,12 +16495,12 @@
       <c r="G300" s="29"/>
       <c r="H300" s="29"/>
       <c r="I300" s="29"/>
-      <c r="J300" s="48"/>
-      <c r="K300" s="40"/>
-      <c r="L300" s="49"/>
-      <c r="M300" s="50"/>
-      <c r="N300" s="49"/>
-      <c r="O300" s="40"/>
+      <c r="J300" s="49"/>
+      <c r="K300" s="41"/>
+      <c r="L300" s="50"/>
+      <c r="M300" s="51"/>
+      <c r="N300" s="50"/>
+      <c r="O300" s="41"/>
     </row>
     <row r="301" ht="23" customHeight="1" spans="1:15">
       <c r="A301" s="31"/>
@@ -16467,12 +16512,12 @@
       <c r="G301" s="29"/>
       <c r="H301" s="29"/>
       <c r="I301" s="29"/>
-      <c r="J301" s="48"/>
-      <c r="K301" s="40"/>
-      <c r="L301" s="49"/>
-      <c r="M301" s="50"/>
-      <c r="N301" s="49"/>
-      <c r="O301" s="40"/>
+      <c r="J301" s="49"/>
+      <c r="K301" s="41"/>
+      <c r="L301" s="50"/>
+      <c r="M301" s="51"/>
+      <c r="N301" s="50"/>
+      <c r="O301" s="41"/>
     </row>
     <row r="302" ht="23" customHeight="1" spans="1:15">
       <c r="A302" s="31"/>
@@ -16484,12 +16529,12 @@
       <c r="G302" s="29"/>
       <c r="H302" s="29"/>
       <c r="I302" s="29"/>
-      <c r="J302" s="48"/>
-      <c r="K302" s="40"/>
-      <c r="L302" s="49"/>
-      <c r="M302" s="50"/>
-      <c r="N302" s="49"/>
-      <c r="O302" s="40"/>
+      <c r="J302" s="49"/>
+      <c r="K302" s="41"/>
+      <c r="L302" s="50"/>
+      <c r="M302" s="51"/>
+      <c r="N302" s="50"/>
+      <c r="O302" s="41"/>
     </row>
     <row r="303" ht="23" customHeight="1" spans="1:15">
       <c r="A303" s="31"/>
@@ -16501,12 +16546,12 @@
       <c r="G303" s="29"/>
       <c r="H303" s="29"/>
       <c r="I303" s="29"/>
-      <c r="J303" s="48"/>
-      <c r="K303" s="40"/>
-      <c r="L303" s="49"/>
-      <c r="M303" s="50"/>
-      <c r="N303" s="49"/>
-      <c r="O303" s="40"/>
+      <c r="J303" s="49"/>
+      <c r="K303" s="41"/>
+      <c r="L303" s="50"/>
+      <c r="M303" s="51"/>
+      <c r="N303" s="50"/>
+      <c r="O303" s="41"/>
     </row>
     <row r="304" ht="23" customHeight="1" spans="1:15">
       <c r="A304" s="31"/>
@@ -16518,12 +16563,12 @@
       <c r="G304" s="29"/>
       <c r="H304" s="29"/>
       <c r="I304" s="29"/>
-      <c r="J304" s="48"/>
-      <c r="K304" s="40"/>
-      <c r="L304" s="49"/>
-      <c r="M304" s="50"/>
-      <c r="N304" s="49"/>
-      <c r="O304" s="40"/>
+      <c r="J304" s="49"/>
+      <c r="K304" s="41"/>
+      <c r="L304" s="50"/>
+      <c r="M304" s="51"/>
+      <c r="N304" s="50"/>
+      <c r="O304" s="41"/>
     </row>
     <row r="305" ht="23" customHeight="1" spans="1:15">
       <c r="A305" s="31"/>
@@ -16535,12 +16580,12 @@
       <c r="G305" s="29"/>
       <c r="H305" s="29"/>
       <c r="I305" s="29"/>
-      <c r="J305" s="48"/>
-      <c r="K305" s="40"/>
-      <c r="L305" s="49"/>
-      <c r="M305" s="50"/>
-      <c r="N305" s="49"/>
-      <c r="O305" s="40"/>
+      <c r="J305" s="49"/>
+      <c r="K305" s="41"/>
+      <c r="L305" s="50"/>
+      <c r="M305" s="51"/>
+      <c r="N305" s="50"/>
+      <c r="O305" s="41"/>
     </row>
     <row r="306" ht="23" customHeight="1" spans="1:15">
       <c r="A306" s="31"/>
@@ -16552,12 +16597,12 @@
       <c r="G306" s="29"/>
       <c r="H306" s="29"/>
       <c r="I306" s="29"/>
-      <c r="J306" s="48"/>
-      <c r="K306" s="40"/>
-      <c r="L306" s="49"/>
-      <c r="M306" s="50"/>
-      <c r="N306" s="49"/>
-      <c r="O306" s="40"/>
+      <c r="J306" s="49"/>
+      <c r="K306" s="41"/>
+      <c r="L306" s="50"/>
+      <c r="M306" s="51"/>
+      <c r="N306" s="50"/>
+      <c r="O306" s="41"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>

--- a/tests/artifact/script/Mobile-CashMemo.xlsx
+++ b/tests/artifact/script/Mobile-CashMemo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="550" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="550" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="883">
   <si>
     <t>target</t>
   </si>
@@ -2706,6 +2706,12 @@
   </si>
   <si>
     <t>Mode of Receipt - Cash and Bank both</t>
+  </si>
+  <si>
+    <t>Verify Product shouldnt be allowed to select if the stock is 0.</t>
+  </si>
+  <si>
+    <t>Validate Purchase Cash Memo section not available.</t>
   </si>
 </sst>
 </file>
@@ -3435,7 +3441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3640,10 +3646,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6694,7 +6696,7 @@
   <sheetPr/>
   <dimension ref="A1:P225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -6861,10 +6863,10 @@
       <c r="O5" s="25"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="15.5" spans="1:15">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="39" t="s">
         <v>750</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>751</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -6876,7 +6878,7 @@
       <c r="E6" s="30" t="s">
         <v>752</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="61" t="s">
         <v>753</v>
       </c>
       <c r="G6" s="30"/>
@@ -6891,7 +6893,7 @@
     </row>
     <row r="7" s="4" customFormat="1" ht="42" customHeight="1" spans="1:15">
       <c r="A7" s="22"/>
-      <c r="B7" s="63"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="28"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -7297,12 +7299,12 @@
     <row r="31" ht="19" customHeight="1" spans="3:6">
       <c r="C31" s="28"/>
       <c r="D31" s="29"/>
-      <c r="F31" s="64"/>
+      <c r="F31" s="63"/>
     </row>
     <row r="32" ht="19" customHeight="1" spans="3:6">
       <c r="C32" s="28"/>
       <c r="D32" s="29"/>
-      <c r="F32" s="64"/>
+      <c r="F32" s="63"/>
     </row>
     <row r="33" ht="19" customHeight="1" spans="3:6">
       <c r="C33" s="28"/>
@@ -7317,7 +7319,7 @@
     <row r="35" ht="19" customHeight="1" spans="3:6">
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
-      <c r="F35" s="64"/>
+      <c r="F35" s="63"/>
     </row>
     <row r="36" ht="21" customHeight="1" spans="3:4">
       <c r="C36" s="28"/>
@@ -10769,10 +10771,10 @@
   <sheetPr/>
   <dimension ref="A1:P306"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54:A58"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -12243,7 +12245,7 @@
       <c r="N54" s="50"/>
       <c r="O54" s="25"/>
     </row>
-    <row r="55" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="55" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A55" s="39" t="s">
         <v>877</v>
       </c>
@@ -12281,7 +12283,7 @@
       <c r="N56" s="50"/>
       <c r="O56" s="25"/>
     </row>
-    <row r="57" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="57" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A57" s="39" t="s">
         <v>879</v>
       </c>
@@ -12320,7 +12322,9 @@
       <c r="O58" s="25"/>
     </row>
     <row r="59" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A59" s="31"/>
+      <c r="A59" s="39" t="s">
+        <v>881</v>
+      </c>
       <c r="B59" s="37"/>
       <c r="C59" s="28"/>
       <c r="D59" s="29"/>
@@ -12337,7 +12341,9 @@
       <c r="O59" s="25"/>
     </row>
     <row r="60" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A60" s="31"/>
+      <c r="A60" s="39" t="s">
+        <v>882</v>
+      </c>
       <c r="B60" s="37"/>
       <c r="C60" s="33"/>
       <c r="D60" s="30"/>
